--- a/metadata/Inventory inscribed pieces.xlsx
+++ b/metadata/Inventory inscribed pieces.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vincenttournier/Dropbox/Recherche/Projets_Recherche/Kanaganahalli/Kanaghanahalli_Inscriptions/Metadata/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vincenttournier/Documents/GitHub/tfb-satavahana-epigraphy/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{447123F9-74D4-D147-A568-F98971EC46C8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEB67406-C479-2E4D-8E82-33329CEEBD1C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="2560" windowWidth="39400" windowHeight="19860" xr2:uid="{D79794C4-FCC0-9B4A-B6F1-FEEF81BE6884}"/>
   </bookViews>
@@ -2766,8 +2766,8 @@
   <dimension ref="A1:M433"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A307" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F309" sqref="F309"/>
+      <pane ySplit="1" topLeftCell="A209" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F217" sqref="F217"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>

--- a/metadata/Inventory inscribed pieces.xlsx
+++ b/metadata/Inventory inscribed pieces.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vincenttournier/Documents/GitHub/tfb-satavahana-epigraphy/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEB67406-C479-2E4D-8E82-33329CEEBD1C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FFC2AB5-AE6F-AF4A-B7D4-408C4DB30FE8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="2560" windowWidth="39400" windowHeight="19860" xr2:uid="{D79794C4-FCC0-9B4A-B6F1-FEEF81BE6884}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1739" uniqueCount="681">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1734" uniqueCount="680">
   <si>
     <t>shed 1</t>
   </si>
@@ -587,9 +587,6 @@
     <t>IF-12</t>
   </si>
   <si>
-    <t>IF-2</t>
-  </si>
-  <si>
     <t xml:space="preserve">  pieces of lower drum slab</t>
   </si>
   <si>
@@ -1147,9 +1144,6 @@
   </si>
   <si>
     <t>n.n.14</t>
-  </si>
-  <si>
-    <t>II.5,3</t>
   </si>
   <si>
     <t>BP-5</t>
@@ -2196,6 +2190,9 @@
   </si>
   <si>
     <t>189-B</t>
+  </si>
+  <si>
+    <t>II.5,3+</t>
   </si>
 </sst>
 </file>
@@ -2329,7 +2326,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2448,6 +2445,15 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2766,8 +2772,8 @@
   <dimension ref="A1:M433"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A209" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F217" sqref="F217"/>
+      <pane ySplit="1" topLeftCell="A285" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C295" sqref="C295"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2787,19 +2793,19 @@
   <sheetData>
     <row r="1" spans="1:11" ht="15" customHeight="1" thickBot="1">
       <c r="A1" s="17" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="E1" s="17" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="F1" s="14" t="s">
         <v>109</v>
@@ -2825,19 +2831,19 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="C2" s="18">
         <v>95</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>2</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -2845,19 +2851,19 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C3" s="18">
         <v>97</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>2</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -2865,7 +2871,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="C4" s="18">
         <v>101</v>
@@ -2875,16 +2881,16 @@
       </c>
       <c r="G4" s="4"/>
       <c r="H4" s="4" t="s">
+        <v>662</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>663</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="K4" s="1" t="s">
         <v>664</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>665</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>235</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>666</v>
       </c>
     </row>
     <row r="5" spans="1:11" s="2" customFormat="1">
@@ -2892,7 +2898,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C5" s="18">
         <v>96</v>
@@ -2910,10 +2916,10 @@
         <v>16</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -2921,7 +2927,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C6" s="18">
         <v>94</v>
@@ -2948,7 +2954,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="C7" s="18">
         <v>240</v>
@@ -2975,7 +2981,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C8" s="18">
         <v>102</v>
@@ -3002,22 +3008,22 @@
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="C9" s="18">
         <v>75</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G9" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J9" s="3" t="s">
         <v>192</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -3025,7 +3031,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C10" s="18">
         <v>99</v>
@@ -3052,22 +3058,22 @@
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="C11" s="18">
         <v>15</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="G11" s="3" t="s">
         <v>131</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="12" spans="1:11" s="2" customFormat="1">
@@ -3075,15 +3081,15 @@
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="D12" s="18"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>143</v>
@@ -3102,19 +3108,19 @@
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="C13" s="18">
         <v>143</v>
       </c>
       <c r="F13" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="H13" s="3" t="s">
         <v>190</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>191</v>
       </c>
       <c r="J13" s="3" t="s">
         <v>133</v>
@@ -3125,7 +3131,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C14" s="18">
         <v>68</v>
@@ -3150,13 +3156,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="C15" s="18">
         <v>150</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>142</v>
@@ -3168,7 +3174,7 @@
         <v>30</v>
       </c>
       <c r="K15" s="23" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -3176,13 +3182,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="C16" s="18">
         <v>73</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="G16" s="3" t="s">
         <v>142</v>
@@ -3191,10 +3197,10 @@
         <v>2</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -3202,13 +3208,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C17" s="18">
         <v>74</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="G17" s="3" t="s">
         <v>142</v>
@@ -3217,7 +3223,7 @@
         <v>2</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="18" spans="1:11" s="2" customFormat="1">
@@ -3225,7 +3231,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C18" s="18">
         <v>71</v>
@@ -3251,7 +3257,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C19" s="18">
         <v>72</v>
@@ -3277,7 +3283,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C20" s="18">
         <v>44</v>
@@ -3296,7 +3302,7 @@
         <v>111</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -3304,13 +3310,13 @@
         <v>20</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C21" s="30">
         <v>204</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>157</v>
@@ -3327,13 +3333,13 @@
         <v>21</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="C22" s="18">
         <v>207</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>131</v>
@@ -3342,7 +3348,7 @@
         <v>2</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -3350,13 +3356,13 @@
         <v>22</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="C23" s="18">
         <v>210</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="G23" s="3" t="s">
         <v>131</v>
@@ -3365,7 +3371,7 @@
         <v>2</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -3373,13 +3379,13 @@
         <v>23</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="C24" s="18">
         <v>212</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="G24" s="3" t="s">
         <v>131</v>
@@ -3396,13 +3402,13 @@
         <v>24</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="C25" s="30" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="G25" s="3" t="s">
         <v>131</v>
@@ -3419,13 +3425,13 @@
         <v>25</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="C26" s="18">
         <v>62</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="G26" s="3" t="s">
         <v>131</v>
@@ -3442,13 +3448,13 @@
         <v>26</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="C27" s="18" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="G27" s="3" t="s">
         <v>142</v>
@@ -3465,16 +3471,16 @@
         <v>27</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="C28" s="18">
         <v>205</v>
       </c>
       <c r="E28" s="12" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="G28" s="3" t="s">
         <v>157</v>
@@ -3491,13 +3497,13 @@
         <v>28</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C29" s="38">
         <v>198</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>153</v>
@@ -3514,16 +3520,16 @@
         <v>29</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="C30" s="30">
         <v>203</v>
       </c>
       <c r="E30" s="12" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="G30" s="3" t="s">
         <v>157</v>
@@ -3540,13 +3546,13 @@
         <v>30</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="C31" s="18">
         <v>217</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="G31" s="3" t="s">
         <v>153</v>
@@ -3563,19 +3569,19 @@
         <v>31</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="C32" s="18" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="G32" s="3" t="s">
         <v>153</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="J32" s="3" t="s">
         <v>132</v>
@@ -3586,7 +3592,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C33" s="18">
         <v>28</v>
@@ -3609,7 +3615,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C34" s="18">
         <v>29</v>
@@ -3636,13 +3642,13 @@
         <v>34</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="C35" s="38">
         <v>222</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="G35" s="3" t="s">
         <v>142</v>
@@ -3659,13 +3665,13 @@
         <v>35</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C36" s="30" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="G36" s="3" t="s">
         <v>153</v>
@@ -3677,7 +3683,7 @@
         <v>132</v>
       </c>
       <c r="K36" s="2" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -3685,13 +3691,13 @@
         <v>36</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="C37" s="18">
         <v>61</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="G37" s="3" t="s">
         <v>131</v>
@@ -3705,13 +3711,13 @@
         <v>37</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="C38" s="18">
         <v>206</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="G38" s="3" t="s">
         <v>157</v>
@@ -3728,13 +3734,13 @@
         <v>38</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C39" s="30" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="G39" s="3" t="s">
         <v>153</v>
@@ -3751,13 +3757,13 @@
         <v>39</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="C40" s="38">
         <v>223</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="G40" s="3" t="s">
         <v>142</v>
@@ -3774,13 +3780,13 @@
         <v>40</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="C41" s="30" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="G41" s="3" t="s">
         <v>153</v>
@@ -3797,13 +3803,13 @@
         <v>41</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="C42" s="30" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="G42" s="3" t="s">
         <v>131</v>
@@ -3817,13 +3823,13 @@
         <v>42</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="C43" s="18">
         <v>60</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="G43" s="3" t="s">
         <v>153</v>
@@ -3840,13 +3846,13 @@
         <v>43</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="C44" s="18">
         <v>59</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="G44" s="3" t="s">
         <v>153</v>
@@ -3863,13 +3869,13 @@
         <v>44</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="C45" s="18" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="G45" s="3" t="s">
         <v>131</v>
@@ -3886,13 +3892,13 @@
         <v>45</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="C46" s="18" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="G46" s="3" t="s">
         <v>142</v>
@@ -3909,13 +3915,13 @@
         <v>46</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="C47" s="18">
         <v>67</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="G47" s="3" t="s">
         <v>131</v>
@@ -3932,13 +3938,13 @@
         <v>47</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="C48" s="38" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="G48" s="3" t="s">
         <v>142</v>
@@ -3955,13 +3961,13 @@
         <v>48</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="C49" s="38">
         <v>214</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H49" s="3" t="s">
         <v>2</v>
@@ -3975,19 +3981,19 @@
         <v>49</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="C50" s="18" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="H50" s="3" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="J50" s="3" t="s">
         <v>132</v>
@@ -3998,13 +4004,13 @@
         <v>50</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="C51" s="30" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="G51" s="3" t="s">
         <v>131</v>
@@ -4013,7 +4019,7 @@
         <v>2</v>
       </c>
       <c r="J51" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -4021,13 +4027,13 @@
         <v>51</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="C52" s="18">
         <v>64</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="G52" s="3" t="s">
         <v>153</v>
@@ -4044,13 +4050,13 @@
         <v>52</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="C53" s="38">
         <v>208</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="G53" s="3" t="s">
         <v>131</v>
@@ -4067,13 +4073,13 @@
         <v>53</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C54" s="30" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="G54" s="3" t="s">
         <v>153</v>
@@ -4090,13 +4096,13 @@
         <v>54</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="C55" s="18" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="G55" s="3" t="s">
         <v>153</v>
@@ -4108,7 +4114,7 @@
         <v>132</v>
       </c>
       <c r="K55" s="2" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
     </row>
     <row r="56" spans="1:11" s="2" customFormat="1">
@@ -4116,17 +4122,17 @@
         <v>55</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="C56" s="30" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="D56" s="18"/>
       <c r="E56" s="12" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G56" s="3"/>
       <c r="H56" s="3" t="s">
@@ -4141,13 +4147,13 @@
         <v>56</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C57" s="30">
         <v>200</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="G57" s="3" t="s">
         <v>153</v>
@@ -4164,16 +4170,16 @@
         <v>57</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="C58" s="30" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="E58" s="12" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>2</v>
@@ -4187,16 +4193,16 @@
         <v>58</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="C59" s="38">
         <v>213</v>
       </c>
       <c r="E59" s="12" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H59" s="3" t="s">
         <v>2</v>
@@ -4210,13 +4216,13 @@
         <v>59</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="C60" s="38">
         <v>216</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="G60" s="3" t="s">
         <v>153</v>
@@ -4225,7 +4231,7 @@
         <v>2</v>
       </c>
       <c r="J60" s="3" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -4233,16 +4239,16 @@
         <v>60</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="C61" s="30" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="E61" s="12" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="G61" s="3" t="s">
         <v>153</v>
@@ -4259,16 +4265,16 @@
         <v>61</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="C62" s="30" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="E62" s="12" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="G62" s="3" t="s">
         <v>142</v>
@@ -4285,15 +4291,15 @@
         <v>62</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="C63" s="30" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="D63" s="18"/>
       <c r="E63" s="3"/>
       <c r="F63" s="3" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="G63" s="3" t="s">
         <v>153</v>
@@ -4310,13 +4316,13 @@
         <v>63</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="C64" s="18">
         <v>32</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="G64" s="3" t="s">
         <v>153</v>
@@ -4325,10 +4331,10 @@
         <v>2</v>
       </c>
       <c r="J64" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="K64" s="3" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
     </row>
     <row r="65" spans="1:11">
@@ -4336,13 +4342,13 @@
         <v>64</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="C65" s="30">
         <v>185</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="G65" s="3" t="s">
         <v>153</v>
@@ -4359,13 +4365,13 @@
         <v>65</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C66" s="18">
         <v>56</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="G66" s="3" t="s">
         <v>157</v>
@@ -4382,19 +4388,19 @@
         <v>66</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="C67" s="18">
         <v>47</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="G67" s="3" t="s">
         <v>153</v>
       </c>
       <c r="H67" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="J67" s="3" t="s">
         <v>30</v>
@@ -4405,7 +4411,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C68" s="18">
         <v>51</v>
@@ -4426,7 +4432,7 @@
         <v>112</v>
       </c>
       <c r="K68" s="7" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="69" spans="1:11">
@@ -4434,13 +4440,13 @@
         <v>68</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="C69" s="18">
         <v>54</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="G69" s="3" t="s">
         <v>153</v>
@@ -4457,13 +4463,13 @@
         <v>69</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="C70" s="30">
         <v>197</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="G70" s="3" t="s">
         <v>153</v>
@@ -4480,13 +4486,13 @@
         <v>70</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="C71" s="38">
         <v>196</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="G71" s="3" t="s">
         <v>153</v>
@@ -4503,13 +4509,13 @@
         <v>71</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="C72" s="18">
         <v>16</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="G72" s="3" t="s">
         <v>131</v>
@@ -4518,7 +4524,7 @@
         <v>2</v>
       </c>
       <c r="J72" s="3" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="73" spans="1:11">
@@ -4526,13 +4532,13 @@
         <v>72</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C73" s="18">
         <v>4</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="G73" s="3" t="s">
         <v>135</v>
@@ -4541,7 +4547,7 @@
         <v>2</v>
       </c>
       <c r="J73" s="3" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="74" spans="1:11" s="2" customFormat="1">
@@ -4549,7 +4555,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="C74" s="18">
         <v>10</v>
@@ -4566,7 +4572,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C75" s="18">
         <v>1</v>
@@ -4583,13 +4589,13 @@
         <v>75</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C76" s="18">
         <v>14</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="G76" s="3" t="s">
         <v>157</v>
@@ -4598,7 +4604,7 @@
         <v>2</v>
       </c>
       <c r="J76" s="3" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="77" spans="1:11">
@@ -4606,13 +4612,13 @@
         <v>76</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C77" s="18">
         <v>8</v>
       </c>
       <c r="F77" s="3" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="G77" s="3" t="s">
         <v>130</v>
@@ -4621,7 +4627,7 @@
         <v>2</v>
       </c>
       <c r="J77" s="3" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="78" spans="1:11">
@@ -4629,7 +4635,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="C78" s="18">
         <v>12</v>
@@ -4640,13 +4646,13 @@
         <v>78</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C79" s="18">
         <v>9</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="G79" s="3" t="s">
         <v>130</v>
@@ -4655,7 +4661,7 @@
         <v>2</v>
       </c>
       <c r="J79" s="3" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="80" spans="1:11">
@@ -4663,13 +4669,13 @@
         <v>79</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="C80" s="18">
         <v>5</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="G80" s="3" t="s">
         <v>131</v>
@@ -4678,7 +4684,7 @@
         <v>2</v>
       </c>
       <c r="J80" s="3" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="81" spans="1:11">
@@ -4686,13 +4692,13 @@
         <v>80</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C81" s="18">
         <v>6</v>
       </c>
       <c r="F81" s="3" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="G81" s="3" t="s">
         <v>130</v>
@@ -4701,7 +4707,7 @@
         <v>2</v>
       </c>
       <c r="J81" s="3" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="82" spans="1:11">
@@ -4709,13 +4715,13 @@
         <v>81</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C82" s="18">
         <v>7</v>
       </c>
       <c r="F82" s="3" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="G82" s="3" t="s">
         <v>130</v>
@@ -4724,7 +4730,7 @@
         <v>2</v>
       </c>
       <c r="J82" s="3" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="83" spans="1:11">
@@ -4732,13 +4738,13 @@
         <v>82</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C83" s="18">
         <v>11</v>
       </c>
       <c r="F83" s="3" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="G83" s="3" t="s">
         <v>153</v>
@@ -4747,7 +4753,7 @@
         <v>2</v>
       </c>
       <c r="J83" s="3" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="84" spans="1:11" s="2" customFormat="1">
@@ -4755,7 +4761,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="C84" s="18">
         <v>3</v>
@@ -4772,13 +4778,13 @@
         <v>84</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C85" s="18">
         <v>13</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="G85" s="3" t="s">
         <v>153</v>
@@ -4787,7 +4793,7 @@
         <v>2</v>
       </c>
       <c r="J85" s="3" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="86" spans="1:11">
@@ -4795,7 +4801,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C86" s="18">
         <v>17</v>
@@ -4820,7 +4826,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C87" s="18">
         <v>22</v>
@@ -4845,7 +4851,7 @@
         <v>87</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C88" s="18">
         <v>21</v>
@@ -4870,7 +4876,7 @@
         <v>88</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C89" s="18">
         <v>23</v>
@@ -4895,7 +4901,7 @@
         <v>89</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C90" s="18">
         <v>19</v>
@@ -4920,7 +4926,7 @@
         <v>90</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C91" s="18">
         <v>20</v>
@@ -4945,7 +4951,7 @@
         <v>91</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="C92" s="18">
         <v>18</v>
@@ -4964,7 +4970,7 @@
         <v>92</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C93" s="18">
         <v>138</v>
@@ -4983,7 +4989,7 @@
         <v>1</v>
       </c>
       <c r="K93" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="94" spans="1:11">
@@ -4991,7 +4997,7 @@
         <v>93</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C94" s="18">
         <v>31</v>
@@ -5010,7 +5016,7 @@
         <v>112</v>
       </c>
       <c r="K94" s="7" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="95" spans="1:11" s="2" customFormat="1">
@@ -5018,7 +5024,7 @@
         <v>94</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="C95" s="18">
         <v>52</v>
@@ -5039,7 +5045,7 @@
         <v>112</v>
       </c>
       <c r="K95" s="7" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="96" spans="1:11" s="11" customFormat="1">
@@ -5047,13 +5053,15 @@
         <v>95</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>358</v>
+        <v>679</v>
       </c>
       <c r="C96" s="30" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="D96" s="19"/>
-      <c r="E96" s="20"/>
+      <c r="E96" s="12" t="s">
+        <v>446</v>
+      </c>
       <c r="F96" s="9" t="s">
         <v>106</v>
       </c>
@@ -5068,7 +5076,7 @@
         <v>112</v>
       </c>
       <c r="K96" s="10" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="97" spans="1:11">
@@ -5076,13 +5084,13 @@
         <v>96</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C97" s="18">
         <v>144</v>
       </c>
       <c r="F97" s="3" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="G97" s="3" t="s">
         <v>143</v>
@@ -5099,13 +5107,13 @@
         <v>97</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="C98" s="18">
         <v>145</v>
       </c>
       <c r="F98" s="3" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="G98" s="3" t="s">
         <v>143</v>
@@ -5122,13 +5130,13 @@
         <v>98</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C99" s="18">
         <v>146</v>
       </c>
       <c r="F99" s="3" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="G99" s="3" t="s">
         <v>143</v>
@@ -5145,22 +5153,22 @@
         <v>99</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="C100" s="18">
         <v>147</v>
       </c>
       <c r="F100" s="3" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="H100" s="3" t="s">
         <v>161</v>
       </c>
       <c r="J100" s="3" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="K100" s="2" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="101" spans="1:11">
@@ -5168,13 +5176,13 @@
         <v>100</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C101" s="18">
         <v>148</v>
       </c>
       <c r="F101" s="3" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="H101" s="3" t="s">
         <v>2</v>
@@ -5188,13 +5196,13 @@
         <v>101</v>
       </c>
       <c r="B102" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="C102" s="30" t="s">
+        <v>393</v>
+      </c>
+      <c r="F102" s="3" t="s">
         <v>375</v>
-      </c>
-      <c r="C102" s="30" t="s">
-        <v>395</v>
-      </c>
-      <c r="F102" s="3" t="s">
-        <v>377</v>
       </c>
       <c r="H102" s="3" t="s">
         <v>2</v>
@@ -5208,13 +5216,13 @@
         <v>102</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C103" s="18">
         <v>250</v>
       </c>
       <c r="F103" s="3" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="G103" s="3" t="s">
         <v>138</v>
@@ -5231,7 +5239,7 @@
         <v>103</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C104" s="18">
         <v>91</v>
@@ -5257,7 +5265,7 @@
         <v>104</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="C105" s="18">
         <v>88</v>
@@ -5274,7 +5282,7 @@
         <v>105</v>
       </c>
       <c r="B106" s="20" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C106" s="19">
         <v>238</v>
@@ -5286,7 +5294,7 @@
       </c>
       <c r="G106" s="9"/>
       <c r="H106" s="9" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="I106" s="9">
         <v>22</v>
@@ -5301,7 +5309,7 @@
         <v>106</v>
       </c>
       <c r="B107" s="20" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C107" s="19">
         <v>89</v>
@@ -5330,17 +5338,17 @@
         <v>107</v>
       </c>
       <c r="B108" s="20" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C108" s="18">
         <v>90</v>
       </c>
       <c r="F108" s="6" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="G108" s="6"/>
       <c r="H108" s="12" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="I108" s="9">
         <v>23</v>
@@ -5349,7 +5357,7 @@
         <v>110</v>
       </c>
       <c r="K108" s="10" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="109" spans="1:11">
@@ -5357,10 +5365,10 @@
         <v>108</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C109" s="18" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="F109" s="4" t="s">
         <v>6</v>
@@ -5380,22 +5388,22 @@
         <v>109</v>
       </c>
       <c r="B110" s="22" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C110" s="18">
         <v>80</v>
       </c>
       <c r="F110" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H110" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I110">
         <v>11</v>
       </c>
       <c r="J110" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="111" spans="1:11" ht="15" customHeight="1">
@@ -5403,22 +5411,22 @@
         <v>110</v>
       </c>
       <c r="B111" s="22" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C111" s="18">
         <v>81</v>
       </c>
       <c r="F111" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H111" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="I111" t="s">
         <v>185</v>
       </c>
-      <c r="I111" t="s">
-        <v>186</v>
-      </c>
       <c r="J111" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="112" spans="1:11">
@@ -5426,22 +5434,22 @@
         <v>111</v>
       </c>
       <c r="B112" s="22" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C112" s="18">
         <v>82</v>
       </c>
       <c r="F112" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H112" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I112">
         <v>5</v>
       </c>
       <c r="J112" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="113" spans="1:11">
@@ -5449,22 +5457,22 @@
         <v>112</v>
       </c>
       <c r="B113" s="22" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C113" s="18">
         <v>78</v>
       </c>
       <c r="F113" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H113" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I113">
         <v>4</v>
       </c>
       <c r="J113" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="114" spans="1:11" ht="15" customHeight="1">
@@ -5472,22 +5480,22 @@
         <v>113</v>
       </c>
       <c r="B114" s="22" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C114" s="18">
         <v>79</v>
       </c>
       <c r="F114" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="H114" s="3" t="s">
         <v>176</v>
-      </c>
-      <c r="H114" s="3" t="s">
-        <v>177</v>
       </c>
       <c r="I114">
         <v>3</v>
       </c>
       <c r="J114" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="115" spans="1:11">
@@ -5495,22 +5503,22 @@
         <v>114</v>
       </c>
       <c r="B115" s="22" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C115" s="18">
         <v>83</v>
       </c>
       <c r="F115" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H115" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I115" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="J115" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="116" spans="1:11">
@@ -5518,22 +5526,22 @@
         <v>115</v>
       </c>
       <c r="B116" s="22" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C116" s="18">
         <v>84</v>
       </c>
       <c r="F116" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H116" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I116">
         <v>9</v>
       </c>
       <c r="J116" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="117" spans="1:11">
@@ -5541,22 +5549,22 @@
         <v>116</v>
       </c>
       <c r="B117" s="22" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C117" s="18">
         <v>85</v>
       </c>
       <c r="F117" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H117" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="I117" t="s">
         <v>182</v>
       </c>
-      <c r="I117" t="s">
-        <v>183</v>
-      </c>
       <c r="J117" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="118" spans="1:11">
@@ -5564,22 +5572,22 @@
         <v>117</v>
       </c>
       <c r="B118" s="22" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C118" s="18">
         <v>86</v>
       </c>
       <c r="F118" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H118" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I118">
         <v>2</v>
       </c>
       <c r="J118" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="119" spans="1:11">
@@ -5587,13 +5595,13 @@
         <v>118</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="C119" s="18">
         <v>87</v>
       </c>
       <c r="F119" s="3" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="G119" s="3" t="s">
         <v>153</v>
@@ -5602,7 +5610,7 @@
         <v>2</v>
       </c>
       <c r="J119" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="120" spans="1:11" s="2" customFormat="1">
@@ -5610,7 +5618,7 @@
         <v>119</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C120" s="18">
         <v>93</v>
@@ -5618,14 +5626,14 @@
       <c r="D120" s="18"/>
       <c r="E120" s="3"/>
       <c r="F120" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G120" s="3"/>
       <c r="H120" s="3" t="s">
         <v>2</v>
       </c>
       <c r="J120" s="3" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="121" spans="1:11">
@@ -5633,7 +5641,7 @@
         <v>120</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C121" s="18">
         <v>245</v>
@@ -5660,7 +5668,7 @@
         <v>121</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C122" s="18">
         <v>133</v>
@@ -5687,7 +5695,7 @@
         <v>122</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="C123" s="18">
         <v>96</v>
@@ -5703,10 +5711,10 @@
         <v>16</v>
       </c>
       <c r="J123" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="K123" s="7" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="124" spans="1:11">
@@ -5714,13 +5722,13 @@
         <v>123</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="C124" s="18">
         <v>43</v>
       </c>
       <c r="F124" s="3" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="G124" s="3" t="s">
         <v>153</v>
@@ -5729,7 +5737,7 @@
         <v>2</v>
       </c>
       <c r="J124" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="125" spans="1:11">
@@ -5737,7 +5745,7 @@
         <v>124</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C125" s="18">
         <v>119</v>
@@ -5756,7 +5764,7 @@
         <v>1</v>
       </c>
       <c r="K125" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="126" spans="1:11">
@@ -5764,13 +5772,13 @@
         <v>125</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="C126" s="18">
         <v>41</v>
       </c>
       <c r="F126" s="3" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="G126" s="3" t="s">
         <v>153</v>
@@ -5779,7 +5787,7 @@
         <v>2</v>
       </c>
       <c r="J126" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="127" spans="1:11">
@@ -5787,13 +5795,13 @@
         <v>126</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="C127" s="18">
         <v>149</v>
       </c>
       <c r="F127" s="3" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="H127" s="3" t="s">
         <v>162</v>
@@ -5807,13 +5815,13 @@
         <v>127</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C128" s="18">
         <v>2</v>
       </c>
       <c r="F128" s="3" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="G128" s="3" t="s">
         <v>153</v>
@@ -5822,7 +5830,7 @@
         <v>2</v>
       </c>
       <c r="J128" s="3" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="129" spans="1:11" s="2" customFormat="1">
@@ -5830,7 +5838,7 @@
         <v>128</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C129" s="18">
         <v>115</v>
@@ -5848,7 +5856,7 @@
         <v>9</v>
       </c>
       <c r="J129" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="K129" s="7" t="s">
         <v>95</v>
@@ -5859,7 +5867,7 @@
         <v>129</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C130" s="18">
         <v>114</v>
@@ -5886,7 +5894,7 @@
         <v>130</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C131" s="18">
         <v>108</v>
@@ -5913,10 +5921,10 @@
         <v>131</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="C132" s="30" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="D132" s="18"/>
       <c r="E132" s="3"/>
@@ -5925,7 +5933,7 @@
       </c>
       <c r="G132" s="3"/>
       <c r="H132" s="12" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="I132" s="6">
         <v>13</v>
@@ -5939,7 +5947,7 @@
         <v>132</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="C133" s="18">
         <v>116</v>
@@ -5951,7 +5959,7 @@
       </c>
       <c r="G133" s="3"/>
       <c r="H133" s="12" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="I133" s="6">
         <v>31</v>
@@ -5965,7 +5973,7 @@
         <v>133</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C134" s="18">
         <v>103</v>
@@ -5992,7 +6000,7 @@
         <v>134</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C135" s="18">
         <v>104</v>
@@ -6019,7 +6027,7 @@
         <v>135</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C136" s="18">
         <v>105</v>
@@ -6046,7 +6054,7 @@
         <v>136</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C137" s="18">
         <v>106</v>
@@ -6073,7 +6081,7 @@
         <v>137</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="C138" s="18">
         <v>110</v>
@@ -6092,7 +6100,7 @@
         <v>1</v>
       </c>
       <c r="K138" s="7" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="139" spans="1:11">
@@ -6100,7 +6108,7 @@
         <v>138</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="C139" s="18">
         <v>243</v>
@@ -6127,7 +6135,7 @@
         <v>139</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C140" s="18">
         <v>109</v>
@@ -6154,7 +6162,7 @@
         <v>140</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C141" s="18">
         <v>107</v>
@@ -6173,7 +6181,7 @@
         <v>1</v>
       </c>
       <c r="K141" s="7" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
     </row>
     <row r="142" spans="1:11">
@@ -6181,7 +6189,7 @@
         <v>141</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C142" s="18">
         <v>111</v>
@@ -6208,7 +6216,7 @@
         <v>142</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="C143" s="18">
         <v>117</v>
@@ -6235,7 +6243,7 @@
         <v>143</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C144" s="18">
         <v>113</v>
@@ -6256,7 +6264,7 @@
         <v>1</v>
       </c>
       <c r="K144" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="145" spans="1:11">
@@ -6264,7 +6272,7 @@
         <v>144</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C145" s="18">
         <v>112</v>
@@ -6283,7 +6291,7 @@
         <v>1</v>
       </c>
       <c r="K145" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="146" spans="1:11">
@@ -6291,13 +6299,13 @@
         <v>145</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="C146" s="39" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="E146" s="33" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="F146" s="6" t="s">
         <v>106</v>
@@ -6310,10 +6318,10 @@
         <v>9</v>
       </c>
       <c r="J146" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="K146" s="7" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
     </row>
     <row r="147" spans="1:11">
@@ -6321,7 +6329,7 @@
         <v>146</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C147" s="18">
         <v>70</v>
@@ -6344,7 +6352,7 @@
         <v>147</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C148" s="18">
         <v>69</v>
@@ -6367,7 +6375,7 @@
         <v>148</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C149" s="18">
         <v>120</v>
@@ -6394,7 +6402,7 @@
         <v>149</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C150" s="18">
         <v>121</v>
@@ -6413,7 +6421,7 @@
         <v>1</v>
       </c>
       <c r="K150" s="7" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
     </row>
     <row r="151" spans="1:11">
@@ -6421,7 +6429,7 @@
         <v>150</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C151" s="18">
         <v>123</v>
@@ -6448,7 +6456,7 @@
         <v>151</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C152" s="18">
         <v>124</v>
@@ -6469,7 +6477,7 @@
         <v>1</v>
       </c>
       <c r="K152" s="7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="153" spans="1:11">
@@ -6477,10 +6485,10 @@
         <v>152</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C153" s="30" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="F153" s="4" t="s">
         <v>0</v>
@@ -6504,13 +6512,13 @@
         <v>153</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C154" s="18">
         <v>27</v>
       </c>
       <c r="F154" s="3" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="G154" s="3" t="s">
         <v>153</v>
@@ -6519,7 +6527,7 @@
         <v>2</v>
       </c>
       <c r="J154" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="155" spans="1:11">
@@ -6527,7 +6535,7 @@
         <v>154</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C155" s="18">
         <v>141</v>
@@ -6554,7 +6562,7 @@
         <v>155</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C156" s="18">
         <v>125</v>
@@ -6581,7 +6589,7 @@
         <v>156</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C157" s="18">
         <v>244</v>
@@ -6593,7 +6601,7 @@
       </c>
       <c r="G157" s="4"/>
       <c r="H157" s="4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="I157" s="4">
         <v>35</v>
@@ -6602,7 +6610,7 @@
         <v>1</v>
       </c>
       <c r="K157" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="158" spans="1:11" s="2" customFormat="1">
@@ -6610,7 +6618,7 @@
         <v>157</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C158" s="18">
         <v>118</v>
@@ -6631,7 +6639,7 @@
         <v>1</v>
       </c>
       <c r="K158" s="7" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
     </row>
     <row r="159" spans="1:11">
@@ -6639,7 +6647,7 @@
         <v>158</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C159" s="18">
         <v>142</v>
@@ -6658,7 +6666,7 @@
         <v>1</v>
       </c>
       <c r="K159" s="7" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="160" spans="1:11">
@@ -6666,7 +6674,7 @@
         <v>159</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C160" s="18">
         <v>126</v>
@@ -6693,10 +6701,10 @@
         <v>160</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="C161" s="30" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="D161" s="18"/>
       <c r="E161" s="3"/>
@@ -6712,10 +6720,10 @@
         <v>161</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="C162" s="30" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="D162" s="18"/>
       <c r="E162" s="3"/>
@@ -6731,17 +6739,17 @@
         <v>162</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C163" s="30" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="F163" s="6" t="s">
         <v>106</v>
       </c>
       <c r="G163" s="6"/>
       <c r="H163" s="6" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="I163" s="6">
         <v>18</v>
@@ -6750,7 +6758,7 @@
         <v>112</v>
       </c>
       <c r="K163" s="7" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="164" spans="1:11" s="2" customFormat="1">
@@ -6758,7 +6766,7 @@
         <v>163</v>
       </c>
       <c r="B164" s="3" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="C164" s="18">
         <v>37</v>
@@ -6769,7 +6777,7 @@
       </c>
       <c r="G164" s="6"/>
       <c r="H164" s="6" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="I164" s="6">
         <v>18</v>
@@ -6778,7 +6786,7 @@
         <v>112</v>
       </c>
       <c r="K164" s="7" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="165" spans="1:11" s="2" customFormat="1">
@@ -6786,7 +6794,7 @@
         <v>164</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C165" s="18">
         <v>35</v>
@@ -6798,7 +6806,7 @@
       </c>
       <c r="G165" s="6"/>
       <c r="H165" s="6" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="I165" s="6">
         <v>18</v>
@@ -6807,7 +6815,7 @@
         <v>112</v>
       </c>
       <c r="K165" s="7" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="166" spans="1:11" s="2" customFormat="1">
@@ -6815,7 +6823,7 @@
         <v>165</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C166" s="18">
         <v>34</v>
@@ -6827,7 +6835,7 @@
       </c>
       <c r="G166" s="6"/>
       <c r="H166" s="6" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="I166" s="6">
         <v>18</v>
@@ -6836,7 +6844,7 @@
         <v>112</v>
       </c>
       <c r="K166" s="7" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="167" spans="1:11" s="2" customFormat="1">
@@ -6844,7 +6852,7 @@
         <v>166</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C167" s="18">
         <v>36</v>
@@ -6856,7 +6864,7 @@
       </c>
       <c r="G167" s="6"/>
       <c r="H167" s="6" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="I167" s="6">
         <v>18</v>
@@ -6865,7 +6873,7 @@
         <v>112</v>
       </c>
       <c r="K167" s="7" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="168" spans="1:11" s="2" customFormat="1">
@@ -6873,7 +6881,7 @@
         <v>167</v>
       </c>
       <c r="B168" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C168" s="18">
         <v>40</v>
@@ -6885,7 +6893,7 @@
       </c>
       <c r="G168" s="6"/>
       <c r="H168" s="6" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="I168" s="6">
         <v>18</v>
@@ -6894,7 +6902,7 @@
         <v>112</v>
       </c>
       <c r="K168" s="7" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="169" spans="1:11" s="2" customFormat="1">
@@ -6902,7 +6910,7 @@
         <v>168</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C169" s="18">
         <v>38</v>
@@ -6914,7 +6922,7 @@
       </c>
       <c r="G169" s="6"/>
       <c r="H169" s="6" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="I169" s="6">
         <v>18</v>
@@ -6923,7 +6931,7 @@
         <v>112</v>
       </c>
       <c r="K169" s="7" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="170" spans="1:11" s="2" customFormat="1">
@@ -6931,7 +6939,7 @@
         <v>169</v>
       </c>
       <c r="B170" s="3" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C170" s="18">
         <v>39</v>
@@ -6943,7 +6951,7 @@
       </c>
       <c r="G170" s="6"/>
       <c r="H170" s="6" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="I170" s="6">
         <v>18</v>
@@ -6952,7 +6960,7 @@
         <v>112</v>
       </c>
       <c r="K170" s="7" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="171" spans="1:11" ht="16" customHeight="1">
@@ -6960,13 +6968,13 @@
         <v>170</v>
       </c>
       <c r="B171" s="3" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="C171" s="18">
         <v>26</v>
       </c>
       <c r="F171" s="3" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="G171" s="3" t="s">
         <v>153</v>
@@ -6976,10 +6984,10 @@
       </c>
       <c r="I171" s="2"/>
       <c r="J171" s="3" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="K171" s="2" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
     </row>
     <row r="172" spans="1:11" s="2" customFormat="1">
@@ -6987,7 +6995,7 @@
         <v>171</v>
       </c>
       <c r="B172" s="3" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="C172" s="18">
         <v>25</v>
@@ -6995,7 +7003,7 @@
       <c r="D172" s="18"/>
       <c r="E172" s="3"/>
       <c r="F172" s="3" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="G172" s="3" t="s">
         <v>153</v>
@@ -7004,10 +7012,10 @@
         <v>2</v>
       </c>
       <c r="J172" s="3" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="K172" s="2" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
     </row>
     <row r="173" spans="1:11" s="2" customFormat="1">
@@ -7015,7 +7023,7 @@
         <v>172</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="C173" s="18">
         <v>24</v>
@@ -7023,7 +7031,7 @@
       <c r="D173" s="18"/>
       <c r="E173" s="3"/>
       <c r="F173" s="3" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="G173" s="3" t="s">
         <v>153</v>
@@ -7032,10 +7040,10 @@
         <v>2</v>
       </c>
       <c r="J173" s="3" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="K173" s="2" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
     </row>
     <row r="174" spans="1:11">
@@ -7043,7 +7051,7 @@
         <v>173</v>
       </c>
       <c r="B174" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C174" s="18">
         <v>134</v>
@@ -7070,7 +7078,7 @@
         <v>174</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C175" s="18">
         <v>122</v>
@@ -7097,7 +7105,7 @@
         <v>175</v>
       </c>
       <c r="B176" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C176" s="18">
         <v>129</v>
@@ -7124,7 +7132,7 @@
         <v>176</v>
       </c>
       <c r="B177" s="3" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C177" s="18">
         <v>132</v>
@@ -7151,7 +7159,7 @@
         <v>177</v>
       </c>
       <c r="B178" s="3" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C178" s="18">
         <v>98</v>
@@ -7178,7 +7186,7 @@
         <v>178</v>
       </c>
       <c r="B179" s="20" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="C179" s="18">
         <v>139</v>
@@ -7205,7 +7213,7 @@
         <v>179</v>
       </c>
       <c r="B180" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C180" s="18">
         <v>128</v>
@@ -7223,10 +7231,10 @@
         <v>28</v>
       </c>
       <c r="J180" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="K180" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="181" spans="1:11">
@@ -7234,7 +7242,7 @@
         <v>180</v>
       </c>
       <c r="B181" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C181" s="18">
         <v>241</v>
@@ -7253,7 +7261,7 @@
         <v>1</v>
       </c>
       <c r="K181" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="182" spans="1:11">
@@ -7261,7 +7269,7 @@
         <v>181</v>
       </c>
       <c r="B182" s="3" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C182" s="18">
         <v>100</v>
@@ -7280,7 +7288,7 @@
         <v>1</v>
       </c>
       <c r="K182" s="7" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="183" spans="1:11">
@@ -7288,7 +7296,7 @@
         <v>182</v>
       </c>
       <c r="B183" s="3" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C183" s="18">
         <v>140</v>
@@ -7315,7 +7323,7 @@
         <v>183</v>
       </c>
       <c r="B184" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C184" s="18">
         <v>137</v>
@@ -7342,7 +7350,7 @@
         <v>184</v>
       </c>
       <c r="B185" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C185" s="18">
         <v>130</v>
@@ -7369,7 +7377,7 @@
         <v>185</v>
       </c>
       <c r="B186" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C186" s="18">
         <v>131</v>
@@ -7388,7 +7396,7 @@
         <v>1</v>
       </c>
       <c r="K186" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="187" spans="1:11" s="2" customFormat="1">
@@ -7396,7 +7404,7 @@
         <v>186</v>
       </c>
       <c r="B187" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C187" s="18">
         <v>127</v>
@@ -7414,10 +7422,10 @@
         <v>2</v>
       </c>
       <c r="J187" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="K187" s="1" t="s">
         <v>236</v>
-      </c>
-      <c r="K187" s="1" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="188" spans="1:11">
@@ -7425,7 +7433,7 @@
         <v>187</v>
       </c>
       <c r="B188" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C188" s="18">
         <v>135</v>
@@ -7441,10 +7449,10 @@
         <v>15</v>
       </c>
       <c r="J188" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="K188" s="7" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="189" spans="1:11" s="2" customFormat="1">
@@ -7452,7 +7460,7 @@
         <v>188</v>
       </c>
       <c r="B189" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C189" s="18">
         <v>136</v>
@@ -7470,10 +7478,10 @@
         <v>15</v>
       </c>
       <c r="J189" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="K189" s="7" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="190" spans="1:11">
@@ -7481,7 +7489,7 @@
         <v>189</v>
       </c>
       <c r="B190" s="3" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C190" s="18">
         <v>53</v>
@@ -7500,7 +7508,7 @@
         <v>112</v>
       </c>
       <c r="K190" s="7" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="191" spans="1:11" s="2" customFormat="1">
@@ -7508,32 +7516,32 @@
         <v>190</v>
       </c>
       <c r="B191" s="3" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="C191" s="18" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="D191" s="18"/>
       <c r="E191" s="3" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="F191" s="6" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="G191" s="37" t="s">
         <v>140</v>
       </c>
       <c r="H191" s="6" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="I191" s="6" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="J191" s="6" t="s">
         <v>111</v>
       </c>
       <c r="K191" s="7" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
     </row>
     <row r="192" spans="1:11">
@@ -7541,7 +7549,7 @@
         <v>191</v>
       </c>
       <c r="B192" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C192" s="18">
         <v>247</v>
@@ -7568,13 +7576,13 @@
         <v>192</v>
       </c>
       <c r="B193" s="3" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="C193" s="18">
         <v>57</v>
       </c>
       <c r="F193" s="3" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="G193" s="3" t="s">
         <v>153</v>
@@ -7591,7 +7599,7 @@
         <v>193</v>
       </c>
       <c r="B194" s="3" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C194" s="18">
         <v>50</v>
@@ -7613,13 +7621,13 @@
         <v>194</v>
       </c>
       <c r="B195" s="3" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="C195" s="18">
         <v>42</v>
       </c>
       <c r="F195" s="3" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="G195" s="3" t="s">
         <v>153</v>
@@ -7636,7 +7644,7 @@
         <v>195</v>
       </c>
       <c r="B196" s="3" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C196" s="18">
         <v>181</v>
@@ -7659,13 +7667,13 @@
         <v>196</v>
       </c>
       <c r="B197" s="3" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C197" s="30" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="F197" s="3" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="G197" s="3" t="s">
         <v>153</v>
@@ -7682,7 +7690,7 @@
         <v>197</v>
       </c>
       <c r="B198" s="3" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C198" s="18">
         <v>48</v>
@@ -7704,10 +7712,10 @@
         <v>198</v>
       </c>
       <c r="B199" s="20" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="C199" s="19" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="D199" s="19"/>
       <c r="E199" s="20"/>
@@ -7725,7 +7733,7 @@
         <v>112</v>
       </c>
       <c r="K199" s="10" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="200" spans="1:11">
@@ -7733,13 +7741,13 @@
         <v>199</v>
       </c>
       <c r="B200" s="3" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="C200" s="18">
         <v>77</v>
       </c>
       <c r="F200" s="3" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="G200" s="3" t="s">
         <v>143</v>
@@ -7748,7 +7756,7 @@
         <v>2</v>
       </c>
       <c r="J200" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="201" spans="1:11">
@@ -7756,22 +7764,22 @@
         <v>200</v>
       </c>
       <c r="B201" s="3" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="C201" s="18">
         <v>229</v>
       </c>
       <c r="F201" s="3" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="G201" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H201" s="3" t="s">
         <v>2</v>
       </c>
       <c r="J201" s="3" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="202" spans="1:11" s="2" customFormat="1">
@@ -7779,7 +7787,7 @@
         <v>201</v>
       </c>
       <c r="B202" s="3" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C202" s="18">
         <v>58</v>
@@ -7800,7 +7808,7 @@
         <v>112</v>
       </c>
       <c r="K202" s="7" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="203" spans="1:11">
@@ -7808,7 +7816,7 @@
         <v>202</v>
       </c>
       <c r="B203" s="3" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C203" s="18">
         <v>33</v>
@@ -7830,13 +7838,13 @@
         <v>203</v>
       </c>
       <c r="B204" s="3" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C204" s="18">
         <v>76</v>
       </c>
       <c r="F204" s="3" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="G204" s="3" t="s">
         <v>140</v>
@@ -7853,10 +7861,10 @@
         <v>204</v>
       </c>
       <c r="B205" s="3" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="C205" s="30" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="D205" s="18"/>
       <c r="E205" s="3"/>
@@ -7872,13 +7880,13 @@
         <v>205</v>
       </c>
       <c r="B206" s="3" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="C206" s="18">
         <v>46</v>
       </c>
       <c r="F206" s="3" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="G206" s="3" t="s">
         <v>153</v>
@@ -7887,7 +7895,7 @@
         <v>2</v>
       </c>
       <c r="J206" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="207" spans="1:11">
@@ -7895,13 +7903,13 @@
         <v>206</v>
       </c>
       <c r="B207" s="3" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="C207" s="18">
         <v>179</v>
       </c>
       <c r="F207" s="3" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="G207" s="3" t="s">
         <v>153</v>
@@ -7918,13 +7926,13 @@
         <v>207</v>
       </c>
       <c r="B208" s="3" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="C208" s="18">
         <v>30</v>
       </c>
       <c r="F208" s="3" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="G208" s="3" t="s">
         <v>131</v>
@@ -7933,7 +7941,7 @@
         <v>2</v>
       </c>
       <c r="J208" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="209" spans="1:11" ht="17" customHeight="1">
@@ -7941,13 +7949,13 @@
         <v>208</v>
       </c>
       <c r="B209" s="3" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C209" s="30" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="F209" s="3" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="G209" s="3" t="s">
         <v>135</v>
@@ -7964,19 +7972,19 @@
         <v>209</v>
       </c>
       <c r="B210" s="3" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="C210" s="18">
         <v>187</v>
       </c>
       <c r="F210" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H210" s="3" t="s">
         <v>2</v>
       </c>
       <c r="J210" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="211" spans="1:11" s="2" customFormat="1">
@@ -7984,7 +7992,7 @@
         <v>210</v>
       </c>
       <c r="B211" s="3" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="C211" s="18">
         <v>174</v>
@@ -7992,11 +8000,11 @@
       <c r="D211" s="18"/>
       <c r="E211" s="3"/>
       <c r="F211" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G211" s="3"/>
       <c r="H211" s="12" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="J211" s="3" t="s">
         <v>30</v>
@@ -8008,7 +8016,7 @@
         <v>211</v>
       </c>
       <c r="B212" s="3" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="C212" s="18">
         <v>49</v>
@@ -8027,22 +8035,22 @@
         <v>212</v>
       </c>
       <c r="B213" s="3" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="C213" s="38">
         <v>235</v>
       </c>
       <c r="F213" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G213" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="H213" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J213" s="3" t="s">
         <v>192</v>
-      </c>
-      <c r="H213" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J213" s="3" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="214" spans="1:11" s="2" customFormat="1">
@@ -8050,7 +8058,7 @@
         <v>213</v>
       </c>
       <c r="B214" s="3" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="C214" s="38">
         <v>257</v>
@@ -8069,10 +8077,10 @@
         <v>214</v>
       </c>
       <c r="B215" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C215" s="30" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="F215" s="4" t="s">
         <v>63</v>
@@ -8091,7 +8099,7 @@
         <v>215</v>
       </c>
       <c r="B216" s="3" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C216" s="18">
         <v>55</v>
@@ -8115,7 +8123,7 @@
         <v>216</v>
       </c>
       <c r="B217" s="3" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="C217" s="18">
         <v>252</v>
@@ -8134,7 +8142,7 @@
         <v>217</v>
       </c>
       <c r="B218" s="42" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C218" s="18">
         <v>151</v>
@@ -8153,13 +8161,13 @@
         <v>218</v>
       </c>
       <c r="B219" s="42" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C219" s="18">
         <v>153</v>
       </c>
       <c r="F219" s="3" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="G219" s="3" t="s">
         <v>131</v>
@@ -8168,7 +8176,7 @@
         <v>2</v>
       </c>
       <c r="J219" s="3" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="220" spans="1:11">
@@ -8176,13 +8184,13 @@
         <v>219</v>
       </c>
       <c r="B220" s="42" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C220" s="18">
         <v>154</v>
       </c>
       <c r="F220" s="3" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="G220" s="3" t="s">
         <v>130</v>
@@ -8191,7 +8199,7 @@
         <v>2</v>
       </c>
       <c r="J220" s="3" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="221" spans="1:11">
@@ -8199,22 +8207,22 @@
         <v>220</v>
       </c>
       <c r="B221" s="42" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C221" s="18">
         <v>155</v>
       </c>
       <c r="F221" s="3" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="G221" s="3" t="s">
         <v>131</v>
       </c>
       <c r="H221" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="J221" s="3" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="222" spans="1:11" s="2" customFormat="1">
@@ -8222,7 +8230,7 @@
         <v>221</v>
       </c>
       <c r="B222" s="42" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C222" s="18">
         <v>156</v>
@@ -8241,7 +8249,7 @@
         <v>222</v>
       </c>
       <c r="B223" s="42" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C223" s="18">
         <v>157</v>
@@ -8260,7 +8268,7 @@
         <v>223</v>
       </c>
       <c r="B224" s="42" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C224" s="18">
         <v>161</v>
@@ -8268,7 +8276,7 @@
       <c r="D224" s="18"/>
       <c r="E224" s="3"/>
       <c r="F224" s="3" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="G224" s="3" t="s">
         <v>131</v>
@@ -8277,7 +8285,7 @@
         <v>2</v>
       </c>
       <c r="J224" s="3" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
     <row r="225" spans="1:11">
@@ -8285,13 +8293,13 @@
         <v>224</v>
       </c>
       <c r="B225" s="42" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C225" s="18">
         <v>162</v>
       </c>
       <c r="F225" s="3" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="G225" s="3" t="s">
         <v>130</v>
@@ -8300,7 +8308,7 @@
         <v>2</v>
       </c>
       <c r="J225" s="3" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="226" spans="1:11" s="2" customFormat="1">
@@ -8308,7 +8316,7 @@
         <v>225</v>
       </c>
       <c r="B226" s="42" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C226" s="18">
         <v>163</v>
@@ -8316,7 +8324,7 @@
       <c r="D226" s="18"/>
       <c r="E226" s="3"/>
       <c r="F226" s="3" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="G226" s="3" t="s">
         <v>131</v>
@@ -8325,7 +8333,7 @@
         <v>2</v>
       </c>
       <c r="J226" s="3" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
     <row r="227" spans="1:11">
@@ -8333,16 +8341,16 @@
         <v>226</v>
       </c>
       <c r="B227" s="42" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C227" s="30">
         <v>164</v>
       </c>
       <c r="E227" s="12" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="F227" s="3" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="G227" s="3" t="s">
         <v>143</v>
@@ -8351,7 +8359,7 @@
         <v>2</v>
       </c>
       <c r="J227" s="3" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="228" spans="1:11">
@@ -8359,7 +8367,7 @@
         <v>227</v>
       </c>
       <c r="B228" s="42" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C228" s="18">
         <v>165</v>
@@ -8384,7 +8392,7 @@
         <v>228</v>
       </c>
       <c r="B229" s="42" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C229" s="18">
         <v>166</v>
@@ -8409,7 +8417,7 @@
         <v>229</v>
       </c>
       <c r="B230" s="42" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C230" s="18">
         <v>167</v>
@@ -8434,13 +8442,13 @@
         <v>230</v>
       </c>
       <c r="B231" s="42" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C231" s="18">
         <v>168</v>
       </c>
       <c r="E231" s="12" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F231" s="4" t="s">
         <v>6</v>
@@ -8462,7 +8470,7 @@
         <v>231</v>
       </c>
       <c r="B232" s="42" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C232" s="18">
         <v>169</v>
@@ -8487,7 +8495,7 @@
         <v>232</v>
       </c>
       <c r="B233" s="42" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C233" s="18">
         <f>171</f>
@@ -8513,7 +8521,7 @@
         <v>233</v>
       </c>
       <c r="B234" s="42" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C234" s="18">
         <v>172</v>
@@ -8538,7 +8546,7 @@
         <v>234</v>
       </c>
       <c r="B235" s="42" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C235" s="18">
         <v>173</v>
@@ -8563,7 +8571,7 @@
         <v>235</v>
       </c>
       <c r="B236" s="42" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C236" s="18">
         <v>175</v>
@@ -8571,7 +8579,7 @@
       <c r="D236" s="18"/>
       <c r="E236" s="3"/>
       <c r="F236" s="3" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="G236" s="3" t="s">
         <v>153</v>
@@ -8588,7 +8596,7 @@
         <v>236</v>
       </c>
       <c r="B237" s="42" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C237" s="18">
         <v>176</v>
@@ -8596,14 +8604,14 @@
       <c r="D237" s="18"/>
       <c r="E237" s="3"/>
       <c r="F237" s="3" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="G237" s="3"/>
       <c r="H237" s="3" t="s">
         <v>170</v>
       </c>
       <c r="J237" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="238" spans="1:11" ht="17" customHeight="1">
@@ -8611,19 +8619,19 @@
         <v>237</v>
       </c>
       <c r="B238" s="42" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C238" s="18">
         <v>177</v>
       </c>
       <c r="F238" s="3" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="H238" s="3" t="s">
         <v>2</v>
       </c>
       <c r="J238" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="239" spans="1:11">
@@ -8631,19 +8639,19 @@
         <v>238</v>
       </c>
       <c r="B239" s="42" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C239" s="18">
         <v>182</v>
       </c>
       <c r="F239" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="H239" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="J239" s="3" t="s">
         <v>196</v>
-      </c>
-      <c r="H239" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="J239" s="3" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="240" spans="1:11" s="11" customFormat="1">
@@ -8651,14 +8659,14 @@
         <v>239</v>
       </c>
       <c r="B240" s="42" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C240" s="19">
         <v>188</v>
       </c>
       <c r="D240" s="19"/>
       <c r="E240" s="24" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F240" s="9" t="s">
         <v>106</v>
@@ -8682,13 +8690,13 @@
         <v>240</v>
       </c>
       <c r="B241" s="42" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C241" s="18">
         <v>189</v>
       </c>
       <c r="F241" s="3" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="G241" s="3" t="s">
         <v>153</v>
@@ -8697,7 +8705,7 @@
         <v>5</v>
       </c>
       <c r="J241" s="3" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="242" spans="1:11">
@@ -8705,7 +8713,7 @@
         <v>241</v>
       </c>
       <c r="B242" s="42" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C242" s="18">
         <v>190</v>
@@ -8728,25 +8736,25 @@
         <v>242</v>
       </c>
       <c r="B243" s="42" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C243" s="18">
         <v>191</v>
       </c>
       <c r="E243" s="12" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="F243" s="3" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="G243" s="3" t="s">
         <v>131</v>
       </c>
       <c r="H243" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="J243" s="3" t="s">
         <v>208</v>
-      </c>
-      <c r="J243" s="3" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="244" spans="1:11" s="2" customFormat="1">
@@ -8754,7 +8762,7 @@
         <v>243</v>
       </c>
       <c r="B244" s="42" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C244" s="18">
         <v>192</v>
@@ -8773,13 +8781,13 @@
         <v>244</v>
       </c>
       <c r="B245" s="42" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C245" s="18">
         <v>193</v>
       </c>
       <c r="F245" s="3" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="G245" s="3" t="s">
         <v>130</v>
@@ -8796,7 +8804,7 @@
         <v>245</v>
       </c>
       <c r="B246" s="42" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C246" s="18">
         <v>195</v>
@@ -8815,13 +8823,13 @@
         <v>246</v>
       </c>
       <c r="B247" s="42" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C247" s="18">
         <v>199</v>
       </c>
       <c r="F247" s="3" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="G247" s="3" t="s">
         <v>153</v>
@@ -8838,16 +8846,16 @@
         <v>247</v>
       </c>
       <c r="B248" s="42" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C248" s="18">
         <v>201</v>
       </c>
       <c r="E248" s="12" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="F248" s="3" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="G248" s="3" t="s">
         <v>157</v>
@@ -8864,16 +8872,16 @@
         <v>248</v>
       </c>
       <c r="B249" s="42" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C249" s="18">
         <v>202</v>
       </c>
       <c r="E249" s="12" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="F249" s="3" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="G249" s="3" t="s">
         <v>157</v>
@@ -8890,16 +8898,16 @@
         <v>249</v>
       </c>
       <c r="B250" s="42" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C250" s="18">
         <v>215</v>
       </c>
       <c r="F250" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G250" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H250" s="3" t="s">
         <v>2</v>
@@ -8913,17 +8921,17 @@
         <v>250</v>
       </c>
       <c r="B251" s="42" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C251" s="18">
         <v>219</v>
       </c>
       <c r="D251" s="18"/>
       <c r="E251" s="12" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="F251" s="3" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="G251" s="3" t="s">
         <v>142</v>
@@ -8940,13 +8948,13 @@
         <v>251</v>
       </c>
       <c r="B252" s="42" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C252" s="18">
         <v>226</v>
       </c>
       <c r="F252" s="3" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="G252" s="3" t="s">
         <v>139</v>
@@ -8963,13 +8971,13 @@
         <v>252</v>
       </c>
       <c r="B253" s="42" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C253" s="18">
         <v>227</v>
       </c>
       <c r="F253" s="3" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="G253" s="3" t="s">
         <v>130</v>
@@ -8986,25 +8994,25 @@
         <v>253</v>
       </c>
       <c r="B254" s="42" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C254" s="18">
         <v>230</v>
       </c>
       <c r="E254" s="12" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="F254" s="3" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="G254" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H254" s="3" t="s">
         <v>2</v>
       </c>
       <c r="J254" s="3" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="255" spans="1:11">
@@ -9012,22 +9020,22 @@
         <v>254</v>
       </c>
       <c r="B255" s="42" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C255" s="18">
         <v>231</v>
       </c>
       <c r="F255" s="3" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="G255" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H255" s="3" t="s">
         <v>2</v>
       </c>
       <c r="J255" s="3" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="256" spans="1:11" s="2" customFormat="1">
@@ -9035,7 +9043,7 @@
         <v>255</v>
       </c>
       <c r="B256" s="42" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C256" s="18">
         <v>232</v>
@@ -9052,22 +9060,22 @@
         <v>256</v>
       </c>
       <c r="B257" s="42" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C257" s="18">
         <v>233</v>
       </c>
       <c r="F257" s="3" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="G257" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H257" s="3" t="s">
         <v>2</v>
       </c>
       <c r="J257" s="3" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="258" spans="1:11" s="2" customFormat="1">
@@ -9075,7 +9083,7 @@
         <v>257</v>
       </c>
       <c r="B258" s="42" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C258" s="18">
         <v>234</v>
@@ -9092,22 +9100,22 @@
         <v>258</v>
       </c>
       <c r="B259" s="42" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C259" s="18">
         <v>236</v>
       </c>
       <c r="F259" s="3" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="G259" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H259" s="3" t="s">
         <v>2</v>
       </c>
       <c r="J259" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="260" spans="1:11">
@@ -9115,13 +9123,13 @@
         <v>259</v>
       </c>
       <c r="B260" s="42" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C260" s="18">
         <v>237</v>
       </c>
       <c r="E260" s="12" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="F260" s="4" t="s">
         <v>6</v>
@@ -9141,13 +9149,13 @@
         <v>260</v>
       </c>
       <c r="B261" s="42" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C261" s="18">
         <v>248</v>
       </c>
       <c r="F261" s="3" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="G261" s="3" t="s">
         <v>135</v>
@@ -9164,13 +9172,13 @@
         <v>261</v>
       </c>
       <c r="B262" s="42" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C262" s="18">
         <v>249</v>
       </c>
       <c r="F262" s="3" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="G262" s="3" t="s">
         <v>135</v>
@@ -9187,16 +9195,16 @@
         <v>262</v>
       </c>
       <c r="B263" s="42" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C263" s="18">
         <v>251</v>
       </c>
       <c r="E263" s="12" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="F263" s="3" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="G263" s="3" t="s">
         <v>143</v>
@@ -9213,22 +9221,22 @@
         <v>263</v>
       </c>
       <c r="B264" s="42" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C264" s="18" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="E264" s="12" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="F264" s="3" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="G264" s="3" t="s">
         <v>143</v>
       </c>
       <c r="H264" s="3" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="J264" s="3" t="s">
         <v>149</v>
@@ -9239,7 +9247,7 @@
         <v>264</v>
       </c>
       <c r="B265" s="42" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C265" s="18">
         <v>260</v>
@@ -9251,7 +9259,7 @@
       </c>
       <c r="G265" s="6"/>
       <c r="H265" s="6" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="I265" s="6">
         <v>18</v>
@@ -9266,13 +9274,13 @@
         <v>265</v>
       </c>
       <c r="B266" s="42" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C266" s="42">
         <v>261</v>
       </c>
       <c r="E266" s="12" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F266" s="4" t="s">
         <v>6</v>
@@ -9294,13 +9302,13 @@
         <v>266</v>
       </c>
       <c r="B267" s="42" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C267" s="18">
         <v>262</v>
       </c>
       <c r="F267" s="3" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="G267" s="3" t="s">
         <v>135</v>
@@ -9309,7 +9317,7 @@
         <v>2</v>
       </c>
       <c r="J267" s="3" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="268" spans="1:11" s="2" customFormat="1">
@@ -9317,17 +9325,17 @@
         <v>267</v>
       </c>
       <c r="B268" s="42" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C268" s="18">
         <v>264</v>
       </c>
       <c r="D268" s="18"/>
       <c r="E268" s="12" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="F268" s="3" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="G268" s="3"/>
       <c r="H268" s="3" t="s">
@@ -9342,7 +9350,7 @@
         <v>268</v>
       </c>
       <c r="B269" s="42" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C269" s="18">
         <v>266</v>
@@ -9356,7 +9364,7 @@
       </c>
       <c r="I269" s="8"/>
       <c r="J269" s="4" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="K269" s="5" t="s">
         <v>23</v>
@@ -9367,7 +9375,7 @@
         <v>269</v>
       </c>
       <c r="B270" s="42" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C270" s="18">
         <v>269</v>
@@ -9384,13 +9392,13 @@
         <v>270</v>
       </c>
       <c r="B271" s="42" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C271" s="42" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="E271" s="12" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F271" s="4" t="s">
         <v>0</v>
@@ -9412,13 +9420,13 @@
         <v>271</v>
       </c>
       <c r="B272" s="42" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C272" s="42" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="E272" s="12" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F272" s="4" t="s">
         <v>0</v>
@@ -9442,24 +9450,24 @@
         <v>272</v>
       </c>
       <c r="B273" s="42" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C273" s="42" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="E273" s="12" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="F273" s="4" t="s">
         <v>6</v>
       </c>
       <c r="G273" s="4"/>
       <c r="H273" s="4" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="I273" s="8"/>
       <c r="J273" s="4" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="K273" s="5"/>
     </row>
@@ -9468,20 +9476,20 @@
         <v>273</v>
       </c>
       <c r="B274" s="42" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C274" s="42" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="E274" s="24" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="F274" s="4" t="s">
         <v>6</v>
       </c>
       <c r="G274" s="4"/>
       <c r="H274" s="16" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="I274" s="8"/>
       <c r="J274" s="4" t="s">
@@ -9494,13 +9502,13 @@
         <v>274</v>
       </c>
       <c r="B275" s="42" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C275" s="42" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="E275" s="12" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F275" s="4" t="s">
         <v>63</v>
@@ -9522,13 +9530,13 @@
         <v>275</v>
       </c>
       <c r="B276" s="42" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C276" s="42" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="E276" s="12" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F276" s="4" t="s">
         <v>6</v>
@@ -9550,13 +9558,13 @@
         <v>276</v>
       </c>
       <c r="B277" s="42" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C277" s="42" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="E277" s="12" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F277" s="4" t="s">
         <v>6</v>
@@ -9578,13 +9586,13 @@
         <v>277</v>
       </c>
       <c r="B278" s="42" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C278" s="42" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="E278" s="12" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="F278" s="4" t="s">
         <v>6</v>
@@ -9606,13 +9614,13 @@
         <v>278</v>
       </c>
       <c r="B279" s="42" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C279" s="42" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="E279" s="12" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F279" s="4" t="s">
         <v>63</v>
@@ -9634,21 +9642,21 @@
         <v>279</v>
       </c>
       <c r="B280" s="42" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C280" s="42" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="D280" s="19"/>
       <c r="E280" s="12" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="F280" s="9" t="s">
         <v>106</v>
       </c>
       <c r="G280" s="9"/>
       <c r="H280" s="9" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="I280" s="9">
         <v>21</v>
@@ -9663,14 +9671,14 @@
         <v>280</v>
       </c>
       <c r="B281" s="42" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C281" s="42" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="D281" s="19"/>
       <c r="E281" s="12" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="F281" s="9" t="s">
         <v>106</v>
@@ -9692,16 +9700,16 @@
         <v>281</v>
       </c>
       <c r="B282" s="42" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C282" s="42" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="E282" s="12" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="F282" s="3" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="G282" s="3" t="s">
         <v>143</v>
@@ -9718,16 +9726,16 @@
         <v>282</v>
       </c>
       <c r="B283" s="42" t="s">
+        <v>393</v>
+      </c>
+      <c r="C283" s="42" t="s">
+        <v>393</v>
+      </c>
+      <c r="E283" s="12" t="s">
         <v>395</v>
       </c>
-      <c r="C283" s="42" t="s">
-        <v>395</v>
-      </c>
-      <c r="E283" s="12" t="s">
-        <v>397</v>
-      </c>
       <c r="F283" s="3" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="G283" s="3" t="s">
         <v>153</v>
@@ -9744,16 +9752,16 @@
         <v>283</v>
       </c>
       <c r="B284" s="42" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C284" s="42" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="E284" s="12" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="F284" s="3" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="G284" s="3" t="s">
         <v>153</v>
@@ -9770,16 +9778,16 @@
         <v>284</v>
       </c>
       <c r="B285" s="42" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C285" s="42" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="E285" s="12" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="F285" s="3" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="G285" s="3" t="s">
         <v>153</v>
@@ -9796,16 +9804,16 @@
         <v>285</v>
       </c>
       <c r="B286" s="42" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C286" s="42" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="E286" s="12" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="F286" s="3" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="G286" s="3" t="s">
         <v>153</v>
@@ -9822,16 +9830,16 @@
         <v>286</v>
       </c>
       <c r="B287" s="42" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C287" s="42" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="E287" s="12" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="F287" s="3" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="G287" s="3" t="s">
         <v>153</v>
@@ -9840,7 +9848,7 @@
         <v>2</v>
       </c>
       <c r="J287" s="3" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
     </row>
     <row r="288" spans="1:11">
@@ -9848,16 +9856,16 @@
         <v>287</v>
       </c>
       <c r="B288" s="42" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C288" s="42" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="E288" s="12" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="F288" s="3" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="G288" s="3" t="s">
         <v>153</v>
@@ -9874,16 +9882,16 @@
         <v>288</v>
       </c>
       <c r="B289" s="42" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C289" s="42" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="E289" s="12" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F289" s="3" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="G289" s="3" t="s">
         <v>157</v>
@@ -9900,19 +9908,19 @@
         <v>289</v>
       </c>
       <c r="B290" s="42" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C290" s="42" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="E290" s="12" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="F290" s="3" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="G290" s="3" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="H290" s="3" t="s">
         <v>2</v>
@@ -9926,17 +9934,17 @@
         <v>290</v>
       </c>
       <c r="B291" s="42" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C291" s="42" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="D291" s="18"/>
       <c r="E291" s="12" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="F291" s="3" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="G291" s="3" t="s">
         <v>157</v>
@@ -9945,7 +9953,7 @@
         <v>2</v>
       </c>
       <c r="J291" s="3" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
     </row>
     <row r="292" spans="1:11">
@@ -9953,16 +9961,16 @@
         <v>291</v>
       </c>
       <c r="B292" s="42" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C292" s="42" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="E292" s="12" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="F292" s="3" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="G292" s="3" t="s">
         <v>131</v>
@@ -9971,7 +9979,7 @@
         <v>2</v>
       </c>
       <c r="J292" s="3" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
     <row r="293" spans="1:11" ht="18" customHeight="1">
@@ -9979,25 +9987,25 @@
         <v>292</v>
       </c>
       <c r="B293" s="42" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C293" s="42" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="E293" s="12" t="s">
+        <v>422</v>
+      </c>
+      <c r="F293" s="3" t="s">
+        <v>535</v>
+      </c>
+      <c r="H293" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J293" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="K293" s="3" t="s">
         <v>424</v>
-      </c>
-      <c r="F293" s="3" t="s">
-        <v>537</v>
-      </c>
-      <c r="H293" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J293" s="3" t="s">
-        <v>422</v>
-      </c>
-      <c r="K293" s="3" t="s">
-        <v>426</v>
       </c>
     </row>
     <row r="294" spans="1:11">
@@ -10005,16 +10013,16 @@
         <v>293</v>
       </c>
       <c r="B294" s="42" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C294" s="42" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="E294" s="12" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="F294" s="3" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="H294" s="3" t="s">
         <v>2</v>
@@ -10028,22 +10036,22 @@
         <v>294</v>
       </c>
       <c r="B295" s="42" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C295" s="42" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="E295" s="12" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="F295" s="3" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="H295" s="3" t="s">
         <v>164</v>
       </c>
       <c r="J295" s="3" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
     <row r="296" spans="1:11">
@@ -10051,16 +10059,16 @@
         <v>295</v>
       </c>
       <c r="B296" s="42" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C296" s="42" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="E296" s="12" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="F296" s="3" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="H296" s="3" t="s">
         <v>171</v>
@@ -10074,16 +10082,16 @@
         <v>296</v>
       </c>
       <c r="B297" s="42" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C297" s="42" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="E297" s="12" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="F297" s="3" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="H297" s="3" t="s">
         <v>172</v>
@@ -10097,16 +10105,16 @@
         <v>297</v>
       </c>
       <c r="B298" s="42" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C298" s="42" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="E298" s="12" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="F298" s="3" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="H298" s="3" t="s">
         <v>173</v>
@@ -10115,53 +10123,43 @@
         <v>154</v>
       </c>
     </row>
-    <row r="299" spans="1:11">
-      <c r="A299" s="18">
+    <row r="299" spans="1:11" s="45" customFormat="1">
+      <c r="A299" s="47">
         <v>298</v>
       </c>
-      <c r="B299" s="42" t="s">
-        <v>395</v>
-      </c>
-      <c r="C299" s="42" t="s">
-        <v>395</v>
-      </c>
-      <c r="E299" s="12" t="s">
-        <v>448</v>
-      </c>
-      <c r="F299" s="3" t="s">
-        <v>537</v>
-      </c>
-      <c r="H299" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="J299" s="3" t="s">
-        <v>123</v>
-      </c>
+      <c r="B299" s="48"/>
+      <c r="C299" s="48"/>
+      <c r="D299" s="47"/>
+      <c r="E299" s="44"/>
+      <c r="F299" s="49"/>
+      <c r="G299" s="49"/>
+      <c r="H299" s="49"/>
+      <c r="J299" s="49"/>
     </row>
     <row r="300" spans="1:11">
       <c r="A300" s="18">
         <v>299</v>
       </c>
       <c r="B300" s="42" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C300" s="42" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="E300" s="12" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="F300" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G300" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H300" s="3" t="s">
         <v>2</v>
       </c>
       <c r="J300" s="3" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="301" spans="1:11">
@@ -10169,22 +10167,22 @@
         <v>300</v>
       </c>
       <c r="B301" s="42" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C301" s="42" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="E301" s="12" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="F301" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="H301" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J301" s="3" t="s">
         <v>196</v>
-      </c>
-      <c r="H301" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J301" s="3" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="302" spans="1:11">
@@ -10192,22 +10190,22 @@
         <v>301</v>
       </c>
       <c r="B302" s="42" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C302" s="42" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="E302" s="12" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="F302" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H302" s="3" t="s">
         <v>2</v>
       </c>
       <c r="J302" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="303" spans="1:11">
@@ -10215,22 +10213,22 @@
         <v>302</v>
       </c>
       <c r="B303" s="42" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C303" s="42" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="E303" s="12" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="F303" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H303" s="3" t="s">
         <v>2</v>
       </c>
       <c r="J303" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="304" spans="1:11">
@@ -10238,25 +10236,25 @@
         <v>303</v>
       </c>
       <c r="B304" s="42" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C304" s="42" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="E304" s="12" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="F304" s="3" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="G304" s="3" t="s">
         <v>153</v>
       </c>
       <c r="H304" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="J304" s="3" t="s">
         <v>215</v>
-      </c>
-      <c r="J304" s="3" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="305" spans="1:13">
@@ -10264,16 +10262,16 @@
         <v>304</v>
       </c>
       <c r="B305" s="42" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C305" s="42" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="E305" s="12" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="F305" s="3" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="G305" s="3" t="s">
         <v>153</v>
@@ -10290,16 +10288,16 @@
         <v>305</v>
       </c>
       <c r="B306" s="42" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C306" s="42" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="E306" s="12" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="F306" s="3" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="G306" s="3" t="s">
         <v>153</v>
@@ -10308,7 +10306,7 @@
         <v>2</v>
       </c>
       <c r="J306" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="307" spans="1:13" s="2" customFormat="1">
@@ -10316,21 +10314,21 @@
         <v>306</v>
       </c>
       <c r="B307" s="42" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C307" s="42" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="D307" s="18"/>
       <c r="E307" s="12" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="F307" s="45"/>
       <c r="H307" s="3" t="s">
         <v>2</v>
       </c>
       <c r="J307" s="3" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
     </row>
     <row r="308" spans="1:13" s="2" customFormat="1">
@@ -10338,17 +10336,17 @@
         <v>307</v>
       </c>
       <c r="B308" s="42" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C308" s="42" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="D308" s="18"/>
       <c r="E308" s="12" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="F308" s="3" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="G308" s="3" t="s">
         <v>143</v>
@@ -10365,27 +10363,27 @@
         <v>308</v>
       </c>
       <c r="B309" s="42" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C309" s="42" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="D309" s="12"/>
       <c r="E309" s="12" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="F309" s="4" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="G309" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H309" s="4" t="s">
         <v>2</v>
       </c>
       <c r="I309" s="5"/>
       <c r="J309" s="4" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="K309" s="35"/>
       <c r="L309" s="3"/>
@@ -10395,29 +10393,29 @@
         <v>309</v>
       </c>
       <c r="B310" s="42" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C310" s="42" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="D310" s="4"/>
       <c r="E310" s="12" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="F310" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G310" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H310" s="4" t="s">
         <v>2</v>
       </c>
       <c r="J310" s="4" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="K310" s="1" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="L310" s="4"/>
     </row>
@@ -10426,17 +10424,17 @@
         <v>310</v>
       </c>
       <c r="B311" s="42" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C311" s="42" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="D311" s="12"/>
       <c r="E311" s="12" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="F311" s="4" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="G311" s="4"/>
       <c r="H311" s="4" t="s">
@@ -10447,7 +10445,7 @@
         <v>112</v>
       </c>
       <c r="K311" s="1" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="L311" s="3"/>
     </row>
@@ -10456,17 +10454,17 @@
         <v>311</v>
       </c>
       <c r="B312" s="42" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C312" s="42" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="D312" s="12"/>
       <c r="E312" s="12" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="F312" s="4" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="G312" s="4" t="s">
         <v>130</v>
@@ -10479,7 +10477,7 @@
         <v>112</v>
       </c>
       <c r="K312" s="1" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="L312" s="3"/>
     </row>
@@ -10488,14 +10486,14 @@
         <v>312</v>
       </c>
       <c r="B313" s="42" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C313" s="42" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="D313" s="12"/>
       <c r="E313" s="12" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="F313" s="44"/>
       <c r="G313" s="12"/>
@@ -10504,10 +10502,10 @@
       </c>
       <c r="I313" s="36"/>
       <c r="J313" s="12" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="K313" s="35" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="L313" s="3"/>
       <c r="M313" s="23"/>
@@ -10517,13 +10515,13 @@
         <v>313</v>
       </c>
       <c r="B314" s="42" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C314" s="42" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="E314" s="12" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="F314" s="44"/>
       <c r="G314" s="12"/>
@@ -10539,26 +10537,26 @@
         <v>314</v>
       </c>
       <c r="B315" s="42" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C315" s="42" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="D315" s="4" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="E315" s="22" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="F315" s="3" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="G315" s="3"/>
       <c r="H315" s="3">
         <v>189</v>
       </c>
       <c r="J315" s="3" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
     </row>
     <row r="316" spans="1:13" s="2" customFormat="1">
@@ -10566,19 +10564,19 @@
         <v>315</v>
       </c>
       <c r="B316" s="42" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C316" s="42" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="D316" s="18" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="E316" s="22" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="F316" s="3" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="G316" s="3"/>
       <c r="H316" s="3"/>
@@ -10589,19 +10587,19 @@
         <v>316</v>
       </c>
       <c r="B317" s="43" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C317" s="43" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="D317" s="18" t="s">
         <v>144</v>
       </c>
       <c r="E317" s="22" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="F317" s="3" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="G317" s="3"/>
       <c r="H317" s="3"/>
@@ -10612,17 +10610,17 @@
         <v>317</v>
       </c>
       <c r="B318" s="43" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C318" s="43" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="D318" s="18" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="E318" s="22"/>
       <c r="F318" s="3" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="G318" s="3"/>
       <c r="H318" s="3"/>
@@ -10652,7 +10650,7 @@
     </row>
     <row r="321" spans="2:11">
       <c r="E321" s="3" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F321" s="4" t="s">
         <v>6</v>
@@ -10671,7 +10669,7 @@
     </row>
     <row r="322" spans="2:11">
       <c r="E322" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F322" s="4" t="s">
         <v>6</v>
@@ -10690,7 +10688,7 @@
     </row>
     <row r="323" spans="2:11">
       <c r="E323" s="3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F323" s="4" t="s">
         <v>6</v>
@@ -10704,18 +10702,18 @@
         <v>47</v>
       </c>
       <c r="K323" s="5" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="324" spans="2:11">
       <c r="D324" s="18" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="E324" s="3" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="F324" s="3" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="H324" s="3" t="s">
         <v>2</v>
@@ -10726,44 +10724,44 @@
     </row>
     <row r="325" spans="2:11">
       <c r="B325" s="3" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="C325" s="30" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="E325" s="3" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="F325" s="3" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="H325" s="3" t="s">
         <v>165</v>
       </c>
       <c r="J325" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="326" spans="2:11">
       <c r="E326" s="3" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="F326" s="3" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="H326" s="3" t="s">
         <v>166</v>
       </c>
       <c r="J326" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="327" spans="2:11">
       <c r="E327" s="3" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="F327" s="3" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="H327" s="3" t="s">
         <v>2</v>
@@ -10772,35 +10770,35 @@
         <v>47</v>
       </c>
       <c r="K327" s="3" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="328" spans="2:11">
       <c r="E328" s="3" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="F328" s="3" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="H328" s="3" t="s">
         <v>2</v>
       </c>
       <c r="J328" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="329" spans="2:11">
       <c r="B329" s="3" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="C329" s="30" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="E329" s="3" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="F329" s="3" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="H329" s="3" t="s">
         <v>2</v>
@@ -10811,13 +10809,13 @@
     </row>
     <row r="330" spans="2:11">
       <c r="D330" s="18" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="E330" s="3" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="F330" s="3" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="H330" s="3" t="s">
         <v>2</v>
@@ -10826,15 +10824,15 @@
         <v>168</v>
       </c>
       <c r="K330" s="2" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="331" spans="2:11">
       <c r="E331" s="3" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="F331" s="3" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="H331" s="3" t="s">
         <v>2</v>
@@ -10845,10 +10843,10 @@
     </row>
     <row r="332" spans="2:11">
       <c r="E332" s="3" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="F332" s="3" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="H332" s="3" t="s">
         <v>2</v>
@@ -10859,10 +10857,10 @@
     </row>
     <row r="333" spans="2:11">
       <c r="E333" s="3" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="F333" s="3" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="H333" s="3" t="s">
         <v>2</v>
@@ -10873,19 +10871,19 @@
     </row>
     <row r="334" spans="2:11" s="2" customFormat="1">
       <c r="B334" s="3" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="C334" s="30" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="D334" s="18" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="E334" s="12" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="F334" s="3" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="G334" s="3"/>
       <c r="H334" s="3" t="s">
@@ -10897,19 +10895,19 @@
     </row>
     <row r="335" spans="2:11">
       <c r="E335" s="3" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="F335" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G335" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H335" s="3" t="s">
         <v>2</v>
       </c>
       <c r="J335" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="336" spans="2:11" s="2" customFormat="1">
@@ -10917,30 +10915,30 @@
       <c r="C336" s="18"/>
       <c r="D336" s="18"/>
       <c r="E336" s="3" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="F336" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G336" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H336" s="3" t="s">
         <v>2</v>
       </c>
       <c r="J336" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="337" spans="1:11">
       <c r="E337" s="3" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="F337" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G337" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H337" s="3" t="s">
         <v>2</v>
@@ -10954,13 +10952,13 @@
       <c r="C338" s="18"/>
       <c r="D338" s="18"/>
       <c r="E338" s="3" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="F338" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G338" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H338" s="3" t="s">
         <v>2</v>
@@ -10971,19 +10969,19 @@
     </row>
     <row r="339" spans="1:11">
       <c r="B339" s="3" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="E339" s="3" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="F339" s="3" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="H339" s="3" t="s">
         <v>2</v>
       </c>
       <c r="J339" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="340" spans="1:11" s="2" customFormat="1">
@@ -10991,10 +10989,10 @@
       <c r="C340" s="18"/>
       <c r="D340" s="18"/>
       <c r="E340" s="3" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="F340" s="3" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="G340" s="3"/>
       <c r="H340" s="3"/>
@@ -11005,10 +11003,10 @@
       <c r="C341" s="18"/>
       <c r="D341" s="18"/>
       <c r="E341" s="3" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="F341" s="3" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="G341" s="3"/>
       <c r="H341" s="3"/>
@@ -11019,13 +11017,13 @@
       <c r="C342" s="18"/>
       <c r="D342" s="18"/>
       <c r="E342" s="3" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="F342" s="4" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="G342" s="4" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="H342" s="4" t="s">
         <v>2</v>
@@ -11037,7 +11035,7 @@
       <c r="C343" s="18"/>
       <c r="D343" s="18"/>
       <c r="E343" s="3" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="F343" s="3"/>
       <c r="G343" s="3"/>
@@ -11050,7 +11048,7 @@
       <c r="C344" s="18"/>
       <c r="D344" s="18"/>
       <c r="E344" s="3" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="F344" s="3"/>
       <c r="G344" s="3"/>
@@ -11062,10 +11060,10 @@
         <v>263</v>
       </c>
       <c r="E345" s="4" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="F345" s="3" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="G345" s="3" t="s">
         <v>142</v>
@@ -11074,30 +11072,30 @@
         <v>2</v>
       </c>
       <c r="J345" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="346" spans="1:11">
       <c r="D346" s="18" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="E346" s="3" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F346" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G346" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H346" s="3" t="s">
         <v>2</v>
       </c>
       <c r="J346" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="K346" s="2" t="s">
         <v>232</v>
-      </c>
-      <c r="K346" s="2" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="347" spans="1:11" s="2" customFormat="1">
@@ -11146,10 +11144,10 @@
     </row>
     <row r="351" spans="1:11">
       <c r="E351" s="3" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="F351" s="3" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="H351" s="3" t="s">
         <v>2</v>
@@ -11160,19 +11158,19 @@
     </row>
     <row r="352" spans="1:11">
       <c r="E352" s="3" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="F352" s="3" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="H352" s="3" t="s">
         <v>2</v>
       </c>
       <c r="J352" s="3" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="K352" s="2" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="354" spans="1:10" s="27" customFormat="1">
@@ -11188,27 +11186,27 @@
     </row>
     <row r="355" spans="1:10">
       <c r="E355" s="3" t="s">
+        <v>532</v>
+      </c>
+      <c r="F355" s="3" t="s">
+        <v>533</v>
+      </c>
+      <c r="H355" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J355" s="3" t="s">
         <v>534</v>
-      </c>
-      <c r="F355" s="3" t="s">
-        <v>535</v>
-      </c>
-      <c r="H355" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J355" s="3" t="s">
-        <v>536</v>
       </c>
     </row>
     <row r="356" spans="1:10">
       <c r="D356" s="18" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="E356" s="12" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="F356" s="3" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="H356" s="3" t="s">
         <v>2</v>
@@ -11263,13 +11261,13 @@
     </row>
     <row r="361" spans="1:10">
       <c r="A361" s="18" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="B361" s="3" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="J361" s="3" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
     </row>
     <row r="362" spans="1:10">
@@ -11468,7 +11466,7 @@
     <row r="379" spans="1:13" s="34" customFormat="1">
       <c r="A379" s="32"/>
       <c r="B379" s="33" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="C379" s="32"/>
       <c r="D379" s="32"/>
@@ -11484,19 +11482,19 @@
         <v>24</v>
       </c>
       <c r="J379" s="33" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="L379" s="34" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="M379" s="34" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
     </row>
     <row r="380" spans="1:13" s="34" customFormat="1">
       <c r="A380" s="32"/>
       <c r="B380" s="33" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="C380" s="32"/>
       <c r="D380" s="32"/>
@@ -11515,12 +11513,12 @@
         <v>1</v>
       </c>
       <c r="K380" s="34" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
     </row>
     <row r="381" spans="1:13">
       <c r="B381" s="12" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="C381" s="30"/>
       <c r="D381" s="30"/>
@@ -11539,7 +11537,7 @@
         <v>1</v>
       </c>
       <c r="K381" s="35" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="406" spans="1:1">

--- a/metadata/Inventory inscribed pieces.xlsx
+++ b/metadata/Inventory inscribed pieces.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vincenttournier/Documents/GitHub/tfb-satavahana-epigraphy/metadata/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vincentournier/Documents/GitHub/tfb-satavahana-epigraphy/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FFC2AB5-AE6F-AF4A-B7D4-408C4DB30FE8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EA67506-ED84-7E4C-975E-A3D9AC05984C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2560" windowWidth="39400" windowHeight="19860" xr2:uid="{D79794C4-FCC0-9B4A-B6F1-FEEF81BE6884}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{D79794C4-FCC0-9B4A-B6F1-FEEF81BE6884}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$B$379</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$B$376</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1734" uniqueCount="680">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1776" uniqueCount="680">
   <si>
     <t>shed 1</t>
   </si>
@@ -2326,7 +2326,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2446,14 +2446,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2769,11 +2766,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AE06EC2-582E-7A46-AA00-435759BE671C}">
-  <dimension ref="A1:M433"/>
+  <dimension ref="A1:M430"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A285" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C295" sqref="C295"/>
+      <pane ySplit="1" topLeftCell="A324" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B345" sqref="B345"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -6342,7 +6339,7 @@
         <v>2</v>
       </c>
       <c r="I147" s="8"/>
-      <c r="J147" s="46"/>
+      <c r="J147" s="47"/>
       <c r="K147" s="5" t="s">
         <v>57</v>
       </c>
@@ -6365,7 +6362,7 @@
         <v>2</v>
       </c>
       <c r="I148" s="8"/>
-      <c r="J148" s="46"/>
+      <c r="J148" s="47"/>
       <c r="K148" s="5" t="s">
         <v>58</v>
       </c>
@@ -10123,18 +10120,28 @@
         <v>154</v>
       </c>
     </row>
-    <row r="299" spans="1:11" s="45" customFormat="1">
-      <c r="A299" s="47">
+    <row r="299" spans="1:11" s="2" customFormat="1">
+      <c r="A299" s="18">
         <v>298</v>
       </c>
-      <c r="B299" s="48"/>
-      <c r="C299" s="48"/>
-      <c r="D299" s="47"/>
-      <c r="E299" s="44"/>
-      <c r="F299" s="49"/>
-      <c r="G299" s="49"/>
-      <c r="H299" s="49"/>
-      <c r="J299" s="49"/>
+      <c r="B299" s="42" t="s">
+        <v>393</v>
+      </c>
+      <c r="C299" s="42" t="s">
+        <v>393</v>
+      </c>
+      <c r="D299" s="18" t="s">
+        <v>673</v>
+      </c>
+      <c r="E299" s="22" t="s">
+        <v>674</v>
+      </c>
+      <c r="F299" s="3" t="s">
+        <v>572</v>
+      </c>
+      <c r="G299" s="3"/>
+      <c r="H299" s="3"/>
+      <c r="J299" s="3"/>
     </row>
     <row r="300" spans="1:11">
       <c r="A300" s="18">
@@ -10563,17 +10570,17 @@
       <c r="A316" s="18">
         <v>315</v>
       </c>
-      <c r="B316" s="42" t="s">
-        <v>393</v>
-      </c>
-      <c r="C316" s="42" t="s">
+      <c r="B316" s="43" t="s">
+        <v>393</v>
+      </c>
+      <c r="C316" s="43" t="s">
         <v>393</v>
       </c>
       <c r="D316" s="18" t="s">
-        <v>673</v>
+        <v>144</v>
       </c>
       <c r="E316" s="22" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="F316" s="3" t="s">
         <v>572</v>
@@ -10593,124 +10600,184 @@
         <v>393</v>
       </c>
       <c r="D317" s="18" t="s">
-        <v>144</v>
-      </c>
-      <c r="E317" s="22" t="s">
-        <v>675</v>
-      </c>
+        <v>676</v>
+      </c>
+      <c r="E317" s="22"/>
       <c r="F317" s="3" t="s">
-        <v>572</v>
+        <v>547</v>
       </c>
       <c r="G317" s="3"/>
       <c r="H317" s="3"/>
       <c r="J317" s="3"/>
     </row>
-    <row r="318" spans="1:13" s="2" customFormat="1">
+    <row r="318" spans="1:13">
       <c r="A318" s="18">
         <v>317</v>
       </c>
-      <c r="B318" s="43" t="s">
-        <v>393</v>
-      </c>
-      <c r="C318" s="43" t="s">
-        <v>393</v>
-      </c>
-      <c r="D318" s="18" t="s">
-        <v>676</v>
-      </c>
-      <c r="E318" s="22"/>
-      <c r="F318" s="3" t="s">
-        <v>547</v>
-      </c>
-      <c r="G318" s="3"/>
-      <c r="H318" s="3"/>
-      <c r="J318" s="3"/>
-    </row>
-    <row r="319" spans="1:13" s="2" customFormat="1">
-      <c r="A319" s="18"/>
-      <c r="B319" s="43"/>
-      <c r="C319" s="43"/>
-      <c r="D319" s="18"/>
-      <c r="E319" s="22"/>
-      <c r="F319" s="3"/>
-      <c r="G319" s="3"/>
-      <c r="H319" s="3"/>
-      <c r="J319" s="3"/>
-    </row>
-    <row r="320" spans="1:13" s="2" customFormat="1">
-      <c r="A320" s="18"/>
-      <c r="B320" s="42"/>
-      <c r="C320" s="42"/>
-      <c r="D320" s="18"/>
-      <c r="E320" s="12"/>
-      <c r="F320" s="3"/>
-      <c r="G320" s="3"/>
-      <c r="H320" s="3"/>
-      <c r="J320" s="3"/>
-    </row>
-    <row r="321" spans="2:11">
+      <c r="B318" s="46" t="s">
+        <v>393</v>
+      </c>
+      <c r="C318" s="46" t="s">
+        <v>393</v>
+      </c>
+      <c r="E318" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="F318" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G318" s="4"/>
+      <c r="H318" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="I318" s="8"/>
+      <c r="J318" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="K318" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="319" spans="1:13">
+      <c r="A319" s="18">
+        <v>318</v>
+      </c>
+      <c r="B319" s="46" t="s">
+        <v>393</v>
+      </c>
+      <c r="C319" s="46" t="s">
+        <v>393</v>
+      </c>
+      <c r="E319" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="F319" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G319" s="4"/>
+      <c r="H319" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="I319" s="8"/>
+      <c r="J319" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K319" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="320" spans="1:13">
+      <c r="A320" s="18">
+        <v>319</v>
+      </c>
+      <c r="B320" s="46" t="s">
+        <v>393</v>
+      </c>
+      <c r="C320" s="46" t="s">
+        <v>393</v>
+      </c>
+      <c r="E320" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="F320" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G320" s="4"/>
+      <c r="H320" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="I320" s="8"/>
+      <c r="J320" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="K320" s="5" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="321" spans="1:11">
+      <c r="A321" s="18">
+        <v>320</v>
+      </c>
+      <c r="B321" s="46" t="s">
+        <v>393</v>
+      </c>
+      <c r="C321" s="46" t="s">
+        <v>393</v>
+      </c>
+      <c r="D321" s="18" t="s">
+        <v>569</v>
+      </c>
       <c r="E321" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="F321" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G321" s="4"/>
-      <c r="H321" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="I321" s="8"/>
-      <c r="J321" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="K321" s="5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="322" spans="2:11">
+        <v>418</v>
+      </c>
+      <c r="F321" s="3" t="s">
+        <v>535</v>
+      </c>
+      <c r="H321" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J321" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="322" spans="1:11">
+      <c r="A322" s="18">
+        <v>321</v>
+      </c>
+      <c r="B322" s="3" t="s">
+        <v>549</v>
+      </c>
+      <c r="C322" s="30" t="s">
+        <v>393</v>
+      </c>
       <c r="E322" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="F322" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G322" s="4"/>
-      <c r="H322" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="I322" s="8"/>
-      <c r="J322" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="K322" s="5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="323" spans="2:11">
+        <v>429</v>
+      </c>
+      <c r="F322" s="3" t="s">
+        <v>535</v>
+      </c>
+      <c r="H322" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="J322" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="323" spans="1:11">
+      <c r="A323" s="18">
+        <v>322</v>
+      </c>
+      <c r="B323" s="46" t="s">
+        <v>393</v>
+      </c>
+      <c r="C323" s="46" t="s">
+        <v>393</v>
+      </c>
       <c r="E323" s="3" t="s">
-        <v>336</v>
-      </c>
-      <c r="F323" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G323" s="4"/>
-      <c r="H323" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="I323" s="8"/>
-      <c r="J323" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="K323" s="5" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="324" spans="2:11">
-      <c r="D324" s="18" t="s">
-        <v>569</v>
+        <v>430</v>
+      </c>
+      <c r="F323" s="3" t="s">
+        <v>535</v>
+      </c>
+      <c r="H323" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="J323" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="324" spans="1:11">
+      <c r="A324" s="18">
+        <v>323</v>
+      </c>
+      <c r="B324" s="46" t="s">
+        <v>393</v>
+      </c>
+      <c r="C324" s="46" t="s">
+        <v>393</v>
       </c>
       <c r="E324" s="3" t="s">
-        <v>418</v>
+        <v>432</v>
       </c>
       <c r="F324" s="3" t="s">
         <v>535</v>
@@ -10719,46 +10786,73 @@
         <v>2</v>
       </c>
       <c r="J324" s="3" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="325" spans="2:11">
-      <c r="B325" s="3" t="s">
-        <v>549</v>
-      </c>
-      <c r="C325" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="K324" s="3" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="325" spans="1:11">
+      <c r="A325" s="18">
+        <v>324</v>
+      </c>
+      <c r="B325" s="46" t="s">
+        <v>393</v>
+      </c>
+      <c r="C325" s="46" t="s">
         <v>393</v>
       </c>
       <c r="E325" s="3" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="F325" s="3" t="s">
         <v>535</v>
       </c>
       <c r="H325" s="3" t="s">
-        <v>165</v>
+        <v>2</v>
       </c>
       <c r="J325" s="3" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="326" spans="2:11">
+    <row r="326" spans="1:11">
+      <c r="A326" s="18">
+        <v>325</v>
+      </c>
+      <c r="B326" s="3" t="s">
+        <v>551</v>
+      </c>
+      <c r="C326" s="30" t="s">
+        <v>393</v>
+      </c>
       <c r="E326" s="3" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="F326" s="3" t="s">
         <v>535</v>
       </c>
       <c r="H326" s="3" t="s">
-        <v>166</v>
+        <v>2</v>
       </c>
       <c r="J326" s="3" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="327" spans="2:11">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="327" spans="1:11">
+      <c r="A327" s="18">
+        <v>326</v>
+      </c>
+      <c r="B327" s="46" t="s">
+        <v>393</v>
+      </c>
+      <c r="C327" s="46" t="s">
+        <v>393</v>
+      </c>
+      <c r="D327" s="18" t="s">
+        <v>570</v>
+      </c>
       <c r="E327" s="3" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="F327" s="3" t="s">
         <v>535</v>
@@ -10767,15 +10861,24 @@
         <v>2</v>
       </c>
       <c r="J327" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="K327" s="3" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="328" spans="2:11">
+        <v>168</v>
+      </c>
+      <c r="K327" s="2" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="328" spans="1:11">
+      <c r="A328" s="18">
+        <v>327</v>
+      </c>
+      <c r="B328" s="46" t="s">
+        <v>393</v>
+      </c>
+      <c r="C328" s="46" t="s">
+        <v>393</v>
+      </c>
       <c r="E328" s="3" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="F328" s="3" t="s">
         <v>535</v>
@@ -10784,18 +10887,21 @@
         <v>2</v>
       </c>
       <c r="J328" s="3" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="329" spans="2:11">
-      <c r="B329" s="3" t="s">
-        <v>551</v>
-      </c>
-      <c r="C329" s="30" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="329" spans="1:11">
+      <c r="A329" s="18">
+        <v>328</v>
+      </c>
+      <c r="B329" s="46" t="s">
+        <v>393</v>
+      </c>
+      <c r="C329" s="46" t="s">
         <v>393</v>
       </c>
       <c r="E329" s="3" t="s">
-        <v>434</v>
+        <v>441</v>
       </c>
       <c r="F329" s="3" t="s">
         <v>535</v>
@@ -10804,15 +10910,21 @@
         <v>2</v>
       </c>
       <c r="J329" s="3" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="330" spans="2:11">
-      <c r="D330" s="18" t="s">
-        <v>570</v>
+        <v>168</v>
+      </c>
+    </row>
+    <row r="330" spans="1:11">
+      <c r="A330" s="18">
+        <v>329</v>
+      </c>
+      <c r="B330" s="46" t="s">
+        <v>393</v>
+      </c>
+      <c r="C330" s="46" t="s">
+        <v>393</v>
       </c>
       <c r="E330" s="3" t="s">
-        <v>436</v>
+        <v>540</v>
       </c>
       <c r="F330" s="3" t="s">
         <v>535</v>
@@ -10823,17 +10935,27 @@
       <c r="J330" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="K330" s="2" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="331" spans="2:11">
-      <c r="E331" s="3" t="s">
-        <v>437</v>
+    </row>
+    <row r="331" spans="1:11" s="2" customFormat="1">
+      <c r="A331" s="18">
+        <v>330</v>
+      </c>
+      <c r="B331" s="3" t="s">
+        <v>550</v>
+      </c>
+      <c r="C331" s="30" t="s">
+        <v>393</v>
+      </c>
+      <c r="D331" s="18" t="s">
+        <v>571</v>
+      </c>
+      <c r="E331" s="12" t="s">
+        <v>442</v>
       </c>
       <c r="F331" s="3" t="s">
         <v>535</v>
       </c>
+      <c r="G331" s="3"/>
       <c r="H331" s="3" t="s">
         <v>2</v>
       </c>
@@ -10841,61 +10963,98 @@
         <v>168</v>
       </c>
     </row>
-    <row r="332" spans="2:11">
+    <row r="332" spans="1:11">
+      <c r="A332" s="18">
+        <v>331</v>
+      </c>
+      <c r="B332" s="46" t="s">
+        <v>393</v>
+      </c>
+      <c r="C332" s="46" t="s">
+        <v>393</v>
+      </c>
       <c r="E332" s="3" t="s">
-        <v>441</v>
+        <v>449</v>
       </c>
       <c r="F332" s="3" t="s">
-        <v>535</v>
+        <v>189</v>
+      </c>
+      <c r="G332" s="3" t="s">
+        <v>191</v>
       </c>
       <c r="H332" s="3" t="s">
         <v>2</v>
       </c>
       <c r="J332" s="3" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="333" spans="2:11">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="333" spans="1:11" s="2" customFormat="1">
+      <c r="A333" s="18">
+        <v>332</v>
+      </c>
+      <c r="B333" s="46" t="s">
+        <v>393</v>
+      </c>
+      <c r="C333" s="46" t="s">
+        <v>393</v>
+      </c>
+      <c r="D333" s="18"/>
       <c r="E333" s="3" t="s">
-        <v>540</v>
+        <v>450</v>
       </c>
       <c r="F333" s="3" t="s">
-        <v>535</v>
+        <v>189</v>
+      </c>
+      <c r="G333" s="3" t="s">
+        <v>194</v>
       </c>
       <c r="H333" s="3" t="s">
         <v>2</v>
       </c>
       <c r="J333" s="3" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="334" spans="2:11" s="2" customFormat="1">
-      <c r="B334" s="3" t="s">
-        <v>550</v>
-      </c>
-      <c r="C334" s="30" t="s">
-        <v>393</v>
-      </c>
-      <c r="D334" s="18" t="s">
-        <v>571</v>
-      </c>
-      <c r="E334" s="12" t="s">
-        <v>442</v>
+        <v>193</v>
+      </c>
+    </row>
+    <row r="334" spans="1:11">
+      <c r="A334" s="18">
+        <v>333</v>
+      </c>
+      <c r="B334" s="46" t="s">
+        <v>393</v>
+      </c>
+      <c r="C334" s="46" t="s">
+        <v>393</v>
+      </c>
+      <c r="E334" s="3" t="s">
+        <v>453</v>
       </c>
       <c r="F334" s="3" t="s">
-        <v>535</v>
-      </c>
-      <c r="G334" s="3"/>
+        <v>189</v>
+      </c>
+      <c r="G334" s="3" t="s">
+        <v>191</v>
+      </c>
       <c r="H334" s="3" t="s">
         <v>2</v>
       </c>
       <c r="J334" s="3" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="335" spans="2:11">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="335" spans="1:11" s="2" customFormat="1">
+      <c r="A335" s="18">
+        <v>334</v>
+      </c>
+      <c r="B335" s="46" t="s">
+        <v>393</v>
+      </c>
+      <c r="C335" s="46" t="s">
+        <v>393</v>
+      </c>
+      <c r="D335" s="18"/>
       <c r="E335" s="3" t="s">
-        <v>449</v>
+        <v>454</v>
       </c>
       <c r="F335" s="3" t="s">
         <v>189</v>
@@ -10907,21 +11066,21 @@
         <v>2</v>
       </c>
       <c r="J335" s="3" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="336" spans="2:11" s="2" customFormat="1">
-      <c r="B336" s="3"/>
-      <c r="C336" s="18"/>
-      <c r="D336" s="18"/>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="336" spans="1:11">
+      <c r="A336" s="18">
+        <v>335</v>
+      </c>
+      <c r="B336" s="3" t="s">
+        <v>539</v>
+      </c>
       <c r="E336" s="3" t="s">
-        <v>450</v>
+        <v>564</v>
       </c>
       <c r="F336" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="G336" s="3" t="s">
-        <v>194</v>
+        <v>535</v>
       </c>
       <c r="H336" s="3" t="s">
         <v>2</v>
@@ -10930,173 +11089,192 @@
         <v>193</v>
       </c>
     </row>
-    <row r="337" spans="1:11">
+    <row r="337" spans="1:11" s="2" customFormat="1">
+      <c r="A337" s="18">
+        <v>336</v>
+      </c>
+      <c r="B337" s="46" t="s">
+        <v>393</v>
+      </c>
+      <c r="C337" s="46" t="s">
+        <v>393</v>
+      </c>
+      <c r="D337" s="18"/>
       <c r="E337" s="3" t="s">
-        <v>453</v>
+        <v>577</v>
       </c>
       <c r="F337" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="G337" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="H337" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J337" s="3" t="s">
-        <v>47</v>
-      </c>
+        <v>535</v>
+      </c>
+      <c r="G337" s="3"/>
+      <c r="H337" s="3"/>
+      <c r="J337" s="3"/>
     </row>
     <row r="338" spans="1:11" s="2" customFormat="1">
-      <c r="B338" s="3"/>
-      <c r="C338" s="18"/>
+      <c r="A338" s="18">
+        <v>337</v>
+      </c>
+      <c r="B338" s="46" t="s">
+        <v>393</v>
+      </c>
+      <c r="C338" s="46" t="s">
+        <v>393</v>
+      </c>
       <c r="D338" s="18"/>
       <c r="E338" s="3" t="s">
-        <v>454</v>
+        <v>626</v>
       </c>
       <c r="F338" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="G338" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="H338" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J338" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="339" spans="1:11">
-      <c r="B339" s="3" t="s">
-        <v>539</v>
-      </c>
+        <v>535</v>
+      </c>
+      <c r="G338" s="3"/>
+      <c r="H338" s="3"/>
+      <c r="J338" s="3"/>
+    </row>
+    <row r="339" spans="1:11" s="2" customFormat="1">
+      <c r="A339" s="18">
+        <v>338</v>
+      </c>
+      <c r="B339" s="46" t="s">
+        <v>393</v>
+      </c>
+      <c r="C339" s="46" t="s">
+        <v>393</v>
+      </c>
+      <c r="D339" s="18"/>
       <c r="E339" s="3" t="s">
-        <v>564</v>
-      </c>
-      <c r="F339" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="F339" s="4" t="s">
         <v>535</v>
       </c>
-      <c r="H339" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J339" s="3" t="s">
-        <v>193</v>
-      </c>
+      <c r="G339" s="4" t="s">
+        <v>630</v>
+      </c>
+      <c r="H339" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J339" s="3"/>
     </row>
     <row r="340" spans="1:11" s="2" customFormat="1">
-      <c r="B340" s="3"/>
-      <c r="C340" s="18"/>
+      <c r="A340" s="18">
+        <v>339</v>
+      </c>
+      <c r="B340" s="46" t="s">
+        <v>393</v>
+      </c>
+      <c r="C340" s="46" t="s">
+        <v>393</v>
+      </c>
       <c r="D340" s="18"/>
       <c r="E340" s="3" t="s">
-        <v>577</v>
-      </c>
-      <c r="F340" s="3" t="s">
-        <v>535</v>
-      </c>
+        <v>628</v>
+      </c>
+      <c r="F340" s="3"/>
       <c r="G340" s="3"/>
       <c r="H340" s="3"/>
       <c r="J340" s="3"/>
     </row>
     <row r="341" spans="1:11" s="2" customFormat="1">
-      <c r="B341" s="3"/>
-      <c r="C341" s="18"/>
+      <c r="A341" s="18">
+        <v>340</v>
+      </c>
+      <c r="B341" s="46" t="s">
+        <v>393</v>
+      </c>
+      <c r="C341" s="46" t="s">
+        <v>393</v>
+      </c>
       <c r="D341" s="18"/>
       <c r="E341" s="3" t="s">
-        <v>626</v>
-      </c>
-      <c r="F341" s="3" t="s">
-        <v>535</v>
-      </c>
+        <v>629</v>
+      </c>
+      <c r="F341" s="3"/>
       <c r="G341" s="3"/>
       <c r="H341" s="3"/>
       <c r="J341" s="3"/>
     </row>
-    <row r="342" spans="1:11" s="2" customFormat="1">
-      <c r="B342" s="3"/>
-      <c r="C342" s="18"/>
-      <c r="D342" s="18"/>
-      <c r="E342" s="3" t="s">
-        <v>627</v>
-      </c>
-      <c r="F342" s="4" t="s">
-        <v>535</v>
-      </c>
-      <c r="G342" s="4" t="s">
-        <v>630</v>
-      </c>
-      <c r="H342" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="J342" s="3"/>
-    </row>
-    <row r="343" spans="1:11" s="2" customFormat="1">
-      <c r="B343" s="3"/>
-      <c r="C343" s="18"/>
-      <c r="D343" s="18"/>
+    <row r="342" spans="1:11">
+      <c r="A342" s="18">
+        <v>341</v>
+      </c>
+      <c r="B342" s="48" t="s">
+        <v>393</v>
+      </c>
+      <c r="C342" s="48" t="s">
+        <v>393</v>
+      </c>
+      <c r="E342" s="4" t="s">
+        <v>670</v>
+      </c>
+      <c r="F342" s="3" t="s">
+        <v>658</v>
+      </c>
+      <c r="G342" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="H342" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J342" s="3" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="343" spans="1:11">
+      <c r="D343" s="18" t="s">
+        <v>566</v>
+      </c>
       <c r="E343" s="3" t="s">
-        <v>628</v>
-      </c>
-      <c r="F343" s="3"/>
-      <c r="G343" s="3"/>
-      <c r="H343" s="3"/>
-      <c r="J343" s="3"/>
+        <v>567</v>
+      </c>
+      <c r="F343" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="G343" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="H343" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J343" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="K343" s="2" t="s">
+        <v>232</v>
+      </c>
     </row>
     <row r="344" spans="1:11" s="2" customFormat="1">
       <c r="A344" s="18"/>
       <c r="B344" s="3"/>
       <c r="C344" s="18"/>
       <c r="D344" s="18"/>
-      <c r="E344" s="3" t="s">
-        <v>629</v>
-      </c>
+      <c r="E344" s="3"/>
       <c r="F344" s="3"/>
       <c r="G344" s="3"/>
       <c r="H344" s="3"/>
       <c r="J344" s="3"/>
     </row>
-    <row r="345" spans="1:11">
-      <c r="C345" s="19">
-        <v>263</v>
-      </c>
-      <c r="E345" s="4" t="s">
-        <v>670</v>
-      </c>
-      <c r="F345" s="3" t="s">
-        <v>658</v>
-      </c>
-      <c r="G345" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="H345" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J345" s="3" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="346" spans="1:11">
-      <c r="D346" s="18" t="s">
-        <v>566</v>
-      </c>
-      <c r="E346" s="3" t="s">
-        <v>567</v>
-      </c>
-      <c r="F346" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="G346" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="H346" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J346" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="K346" s="2" t="s">
-        <v>232</v>
-      </c>
+    <row r="345" spans="1:11" s="2" customFormat="1">
+      <c r="A345" s="18"/>
+      <c r="B345" s="3"/>
+      <c r="C345" s="18"/>
+      <c r="D345" s="18"/>
+      <c r="E345" s="3"/>
+      <c r="F345" s="3"/>
+      <c r="G345" s="3"/>
+      <c r="H345" s="3"/>
+      <c r="J345" s="3"/>
+    </row>
+    <row r="346" spans="1:11" s="2" customFormat="1">
+      <c r="A346" s="18"/>
+      <c r="B346" s="3"/>
+      <c r="C346" s="18"/>
+      <c r="D346" s="18"/>
+      <c r="E346" s="3"/>
+      <c r="F346" s="3"/>
+      <c r="G346" s="3"/>
+      <c r="H346" s="3"/>
+      <c r="J346" s="3"/>
     </row>
     <row r="347" spans="1:11" s="2" customFormat="1">
       <c r="A347" s="18"/>
@@ -11109,111 +11287,111 @@
       <c r="H347" s="3"/>
       <c r="J347" s="3"/>
     </row>
-    <row r="348" spans="1:11" s="2" customFormat="1">
-      <c r="A348" s="18"/>
-      <c r="B348" s="3"/>
-      <c r="C348" s="18"/>
-      <c r="D348" s="18"/>
-      <c r="E348" s="3"/>
-      <c r="F348" s="3"/>
-      <c r="G348" s="3"/>
-      <c r="H348" s="3"/>
-      <c r="J348" s="3"/>
-    </row>
-    <row r="349" spans="1:11" s="2" customFormat="1">
-      <c r="A349" s="18"/>
-      <c r="B349" s="3"/>
-      <c r="C349" s="18"/>
-      <c r="D349" s="18"/>
-      <c r="E349" s="3"/>
-      <c r="F349" s="3"/>
-      <c r="G349" s="3"/>
-      <c r="H349" s="3"/>
-      <c r="J349" s="3"/>
-    </row>
-    <row r="350" spans="1:11" s="2" customFormat="1">
-      <c r="A350" s="18"/>
-      <c r="B350" s="3"/>
-      <c r="C350" s="18"/>
-      <c r="D350" s="18"/>
-      <c r="E350" s="3"/>
-      <c r="F350" s="3"/>
-      <c r="G350" s="3"/>
-      <c r="H350" s="3"/>
-      <c r="J350" s="3"/>
-    </row>
-    <row r="351" spans="1:11">
-      <c r="E351" s="3" t="s">
+    <row r="348" spans="1:11">
+      <c r="E348" s="3" t="s">
         <v>435</v>
       </c>
-      <c r="F351" s="3" t="s">
+      <c r="F348" s="3" t="s">
         <v>535</v>
       </c>
-      <c r="H351" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J351" s="3" t="s">
+      <c r="H348" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J348" s="3" t="s">
         <v>169</v>
       </c>
+    </row>
+    <row r="349" spans="1:11">
+      <c r="E349" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="F349" s="3" t="s">
+        <v>535</v>
+      </c>
+      <c r="H349" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J349" s="3" t="s">
+        <v>646</v>
+      </c>
+      <c r="K349" s="2" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="351" spans="1:11" s="27" customFormat="1">
+      <c r="A351" s="25"/>
+      <c r="B351" s="26"/>
+      <c r="C351" s="25"/>
+      <c r="D351" s="25"/>
+      <c r="E351" s="26"/>
+      <c r="F351" s="26"/>
+      <c r="G351" s="26"/>
+      <c r="H351" s="26"/>
+      <c r="J351" s="26"/>
     </row>
     <row r="352" spans="1:11">
       <c r="E352" s="3" t="s">
-        <v>439</v>
+        <v>532</v>
       </c>
       <c r="F352" s="3" t="s">
+        <v>533</v>
+      </c>
+      <c r="H352" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J352" s="3" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="353" spans="1:10">
+      <c r="D353" s="18" t="s">
+        <v>568</v>
+      </c>
+      <c r="E353" s="12" t="s">
+        <v>427</v>
+      </c>
+      <c r="F353" s="3" t="s">
         <v>535</v>
       </c>
-      <c r="H352" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J352" s="3" t="s">
-        <v>646</v>
-      </c>
-      <c r="K352" s="2" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="354" spans="1:10" s="27" customFormat="1">
-      <c r="A354" s="25"/>
-      <c r="B354" s="26"/>
-      <c r="C354" s="25"/>
-      <c r="D354" s="25"/>
-      <c r="E354" s="26"/>
-      <c r="F354" s="26"/>
-      <c r="G354" s="26"/>
-      <c r="H354" s="26"/>
-      <c r="J354" s="26"/>
-    </row>
-    <row r="355" spans="1:10">
-      <c r="E355" s="3" t="s">
-        <v>532</v>
-      </c>
-      <c r="F355" s="3" t="s">
-        <v>533</v>
-      </c>
-      <c r="H355" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J355" s="3" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="356" spans="1:10">
-      <c r="D356" s="18" t="s">
-        <v>568</v>
-      </c>
-      <c r="E356" s="12" t="s">
-        <v>427</v>
-      </c>
-      <c r="F356" s="3" t="s">
-        <v>535</v>
-      </c>
-      <c r="H356" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J356" s="3" t="s">
+      <c r="H353" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J353" s="3" t="s">
         <v>167</v>
       </c>
+    </row>
+    <row r="354" spans="1:10" s="2" customFormat="1">
+      <c r="A354" s="18"/>
+      <c r="B354" s="3"/>
+      <c r="C354" s="18"/>
+      <c r="D354" s="18"/>
+      <c r="E354" s="3"/>
+      <c r="F354" s="3"/>
+      <c r="G354" s="3"/>
+      <c r="H354" s="3"/>
+      <c r="J354" s="3"/>
+    </row>
+    <row r="355" spans="1:10" s="2" customFormat="1">
+      <c r="A355" s="18"/>
+      <c r="B355" s="3"/>
+      <c r="C355" s="18"/>
+      <c r="D355" s="18"/>
+      <c r="E355" s="3"/>
+      <c r="F355" s="3"/>
+      <c r="G355" s="3"/>
+      <c r="H355" s="3"/>
+      <c r="J355" s="3"/>
+    </row>
+    <row r="356" spans="1:10" s="2" customFormat="1">
+      <c r="A356" s="18"/>
+      <c r="B356" s="3"/>
+      <c r="C356" s="18"/>
+      <c r="D356" s="18"/>
+      <c r="E356" s="3"/>
+      <c r="F356" s="3"/>
+      <c r="G356" s="3"/>
+      <c r="H356" s="3"/>
+      <c r="J356" s="3"/>
     </row>
     <row r="357" spans="1:10" s="2" customFormat="1">
       <c r="A357" s="18"/>
@@ -11226,81 +11404,87 @@
       <c r="H357" s="3"/>
       <c r="J357" s="3"/>
     </row>
-    <row r="358" spans="1:10" s="2" customFormat="1">
-      <c r="A358" s="18"/>
-      <c r="B358" s="3"/>
-      <c r="C358" s="18"/>
-      <c r="D358" s="18"/>
-      <c r="E358" s="3"/>
-      <c r="F358" s="3"/>
-      <c r="G358" s="3"/>
-      <c r="H358" s="3"/>
-      <c r="J358" s="3"/>
-    </row>
-    <row r="359" spans="1:10" s="2" customFormat="1">
-      <c r="A359" s="18"/>
-      <c r="B359" s="3"/>
-      <c r="C359" s="18"/>
-      <c r="D359" s="18"/>
-      <c r="E359" s="3"/>
-      <c r="F359" s="3"/>
-      <c r="G359" s="3"/>
-      <c r="H359" s="3"/>
-      <c r="J359" s="3"/>
-    </row>
-    <row r="360" spans="1:10" s="2" customFormat="1">
-      <c r="A360" s="18"/>
-      <c r="B360" s="3"/>
-      <c r="C360" s="18"/>
-      <c r="D360" s="18"/>
-      <c r="E360" s="3"/>
-      <c r="F360" s="3"/>
-      <c r="G360" s="3"/>
-      <c r="H360" s="3"/>
-      <c r="J360" s="3"/>
-    </row>
-    <row r="361" spans="1:10">
-      <c r="A361" s="18" t="s">
+    <row r="358" spans="1:10">
+      <c r="A358" s="18" t="s">
         <v>591</v>
       </c>
-      <c r="B361" s="3" t="s">
+      <c r="B358" s="3" t="s">
         <v>588</v>
       </c>
-      <c r="J361" s="3" t="s">
+      <c r="J358" s="3" t="s">
         <v>589</v>
       </c>
     </row>
+    <row r="359" spans="1:10">
+      <c r="F359" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="360" spans="1:10">
+      <c r="F360" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="361" spans="1:10" s="27" customFormat="1">
+      <c r="A361" s="25"/>
+      <c r="B361" s="26"/>
+      <c r="C361" s="25"/>
+      <c r="D361" s="25"/>
+      <c r="E361" s="26"/>
+      <c r="F361" s="26"/>
+      <c r="G361" s="26"/>
+      <c r="H361" s="26"/>
+      <c r="J361" s="26"/>
+    </row>
     <row r="362" spans="1:10">
-      <c r="F362" s="3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="363" spans="1:10">
-      <c r="F363" s="3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="364" spans="1:10" s="27" customFormat="1">
-      <c r="A364" s="25"/>
-      <c r="B364" s="26"/>
-      <c r="C364" s="25"/>
-      <c r="D364" s="25"/>
-      <c r="E364" s="26"/>
-      <c r="F364" s="26"/>
-      <c r="G364" s="26"/>
-      <c r="H364" s="26"/>
-      <c r="J364" s="26"/>
-    </row>
-    <row r="365" spans="1:10">
+      <c r="C362" s="18">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="363" spans="1:10" s="2" customFormat="1">
+      <c r="A363" s="18"/>
+      <c r="B363" s="3"/>
+      <c r="C363" s="3">
+        <v>158</v>
+      </c>
+      <c r="D363" s="18"/>
+      <c r="E363" s="3"/>
+      <c r="F363" s="3"/>
+      <c r="G363" s="3"/>
+      <c r="H363" s="3"/>
+      <c r="J363" s="3"/>
+    </row>
+    <row r="364" spans="1:10" s="2" customFormat="1">
+      <c r="A364" s="18"/>
+      <c r="B364" s="3"/>
+      <c r="C364" s="18">
+        <v>159</v>
+      </c>
+      <c r="D364" s="18"/>
+      <c r="E364" s="3"/>
+      <c r="F364" s="3"/>
+      <c r="G364" s="3"/>
+      <c r="H364" s="3"/>
+      <c r="J364" s="3"/>
+    </row>
+    <row r="365" spans="1:10" s="2" customFormat="1">
+      <c r="A365" s="18"/>
+      <c r="B365" s="3"/>
       <c r="C365" s="18">
-        <v>152</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="D365" s="18"/>
+      <c r="E365" s="3"/>
+      <c r="F365" s="3"/>
+      <c r="G365" s="3"/>
+      <c r="H365" s="3"/>
+      <c r="J365" s="3"/>
     </row>
     <row r="366" spans="1:10" s="2" customFormat="1">
       <c r="A366" s="18"/>
       <c r="B366" s="3"/>
-      <c r="C366" s="3">
-        <v>158</v>
+      <c r="C366" s="18">
+        <v>170</v>
       </c>
       <c r="D366" s="18"/>
       <c r="E366" s="3"/>
@@ -11313,7 +11497,7 @@
       <c r="A367" s="18"/>
       <c r="B367" s="3"/>
       <c r="C367" s="18">
-        <v>159</v>
+        <v>178</v>
       </c>
       <c r="D367" s="18"/>
       <c r="E367" s="3"/>
@@ -11326,7 +11510,7 @@
       <c r="A368" s="18"/>
       <c r="B368" s="3"/>
       <c r="C368" s="18">
-        <v>160</v>
+        <v>184</v>
       </c>
       <c r="D368" s="18"/>
       <c r="E368" s="3"/>
@@ -11339,7 +11523,7 @@
       <c r="A369" s="18"/>
       <c r="B369" s="3"/>
       <c r="C369" s="18">
-        <v>170</v>
+        <v>186</v>
       </c>
       <c r="D369" s="18"/>
       <c r="E369" s="3"/>
@@ -11352,7 +11536,7 @@
       <c r="A370" s="18"/>
       <c r="B370" s="3"/>
       <c r="C370" s="18">
-        <v>178</v>
+        <v>194</v>
       </c>
       <c r="D370" s="18"/>
       <c r="E370" s="3"/>
@@ -11365,7 +11549,7 @@
       <c r="A371" s="18"/>
       <c r="B371" s="3"/>
       <c r="C371" s="18">
-        <v>184</v>
+        <v>211</v>
       </c>
       <c r="D371" s="18"/>
       <c r="E371" s="3"/>
@@ -11378,7 +11562,7 @@
       <c r="A372" s="18"/>
       <c r="B372" s="3"/>
       <c r="C372" s="18">
-        <v>186</v>
+        <v>253</v>
       </c>
       <c r="D372" s="18"/>
       <c r="E372" s="3"/>
@@ -11391,7 +11575,7 @@
       <c r="A373" s="18"/>
       <c r="B373" s="3"/>
       <c r="C373" s="18">
-        <v>194</v>
+        <v>258</v>
       </c>
       <c r="D373" s="18"/>
       <c r="E373" s="3"/>
@@ -11404,7 +11588,7 @@
       <c r="A374" s="18"/>
       <c r="B374" s="3"/>
       <c r="C374" s="18">
-        <v>211</v>
+        <v>261</v>
       </c>
       <c r="D374" s="18"/>
       <c r="E374" s="3"/>
@@ -11413,275 +11597,236 @@
       <c r="H374" s="3"/>
       <c r="J374" s="3"/>
     </row>
-    <row r="375" spans="1:13" s="2" customFormat="1">
-      <c r="A375" s="18"/>
-      <c r="B375" s="3"/>
-      <c r="C375" s="18">
-        <v>253</v>
-      </c>
-      <c r="D375" s="18"/>
-      <c r="E375" s="3"/>
-      <c r="F375" s="3"/>
-      <c r="G375" s="3"/>
-      <c r="H375" s="3"/>
-      <c r="J375" s="3"/>
-    </row>
-    <row r="376" spans="1:13" s="2" customFormat="1">
-      <c r="A376" s="18"/>
-      <c r="B376" s="3"/>
-      <c r="C376" s="18">
-        <v>258</v>
-      </c>
-      <c r="D376" s="18"/>
-      <c r="E376" s="3"/>
-      <c r="F376" s="3"/>
-      <c r="G376" s="3"/>
-      <c r="H376" s="3"/>
-      <c r="J376" s="3"/>
-    </row>
-    <row r="377" spans="1:13" s="2" customFormat="1">
-      <c r="A377" s="18"/>
-      <c r="B377" s="3"/>
-      <c r="C377" s="18">
-        <v>261</v>
-      </c>
-      <c r="D377" s="18"/>
-      <c r="E377" s="3"/>
-      <c r="F377" s="3"/>
-      <c r="G377" s="3"/>
-      <c r="H377" s="3"/>
-      <c r="J377" s="3"/>
-    </row>
-    <row r="378" spans="1:13" s="27" customFormat="1">
-      <c r="A378" s="25"/>
-      <c r="B378" s="26"/>
-      <c r="C378" s="25"/>
-      <c r="D378" s="25"/>
-      <c r="E378" s="26"/>
-      <c r="F378" s="26"/>
-      <c r="G378" s="26"/>
-      <c r="H378" s="26"/>
-      <c r="J378" s="26"/>
-    </row>
-    <row r="379" spans="1:13" s="34" customFormat="1">
-      <c r="A379" s="32"/>
-      <c r="B379" s="33" t="s">
+    <row r="375" spans="1:13" s="27" customFormat="1">
+      <c r="A375" s="25"/>
+      <c r="B375" s="26"/>
+      <c r="C375" s="25"/>
+      <c r="D375" s="25"/>
+      <c r="E375" s="26"/>
+      <c r="F375" s="26"/>
+      <c r="G375" s="26"/>
+      <c r="H375" s="26"/>
+      <c r="J375" s="26"/>
+    </row>
+    <row r="376" spans="1:13" s="34" customFormat="1">
+      <c r="A376" s="32"/>
+      <c r="B376" s="33" t="s">
         <v>591</v>
       </c>
-      <c r="C379" s="32"/>
-      <c r="D379" s="32"/>
-      <c r="E379" s="33"/>
-      <c r="F379" s="33" t="s">
+      <c r="C376" s="32"/>
+      <c r="D376" s="32"/>
+      <c r="E376" s="33"/>
+      <c r="F376" s="33" t="s">
         <v>106</v>
       </c>
-      <c r="G379" s="33"/>
-      <c r="H379" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="I379" s="33">
+      <c r="G376" s="33"/>
+      <c r="H376" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="I376" s="33">
         <v>24</v>
       </c>
-      <c r="J379" s="33" t="s">
+      <c r="J376" s="33" t="s">
         <v>364</v>
       </c>
-      <c r="L379" s="34" t="s">
+      <c r="L376" s="34" t="s">
         <v>621</v>
       </c>
-      <c r="M379" s="34" t="s">
+      <c r="M376" s="34" t="s">
         <v>622</v>
       </c>
     </row>
-    <row r="380" spans="1:13" s="34" customFormat="1">
-      <c r="A380" s="32"/>
-      <c r="B380" s="33" t="s">
+    <row r="377" spans="1:13" s="34" customFormat="1">
+      <c r="A377" s="32"/>
+      <c r="B377" s="33" t="s">
         <v>591</v>
       </c>
-      <c r="C380" s="32"/>
-      <c r="D380" s="32"/>
-      <c r="E380" s="33"/>
-      <c r="F380" s="33" t="s">
+      <c r="C377" s="32"/>
+      <c r="D377" s="32"/>
+      <c r="E377" s="33"/>
+      <c r="F377" s="33" t="s">
         <v>106</v>
       </c>
-      <c r="G380" s="33"/>
-      <c r="H380" s="33" t="s">
+      <c r="G377" s="33"/>
+      <c r="H377" s="33" t="s">
         <v>100</v>
       </c>
-      <c r="I380" s="33">
+      <c r="I377" s="33">
         <v>14</v>
       </c>
-      <c r="J380" s="33" t="s">
+      <c r="J377" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="K380" s="34" t="s">
+      <c r="K377" s="34" t="s">
         <v>620</v>
       </c>
     </row>
-    <row r="381" spans="1:13">
-      <c r="B381" s="12" t="s">
+    <row r="378" spans="1:13">
+      <c r="B378" s="12" t="s">
         <v>591</v>
       </c>
-      <c r="C381" s="30"/>
-      <c r="D381" s="30"/>
-      <c r="E381" s="12"/>
-      <c r="F381" s="12" t="s">
+      <c r="C378" s="30"/>
+      <c r="D378" s="30"/>
+      <c r="E378" s="12"/>
+      <c r="F378" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="G381" s="12"/>
-      <c r="H381" s="12">
+      <c r="G378" s="12"/>
+      <c r="H378" s="12">
         <v>16</v>
       </c>
-      <c r="I381" s="12">
+      <c r="I378" s="12">
         <v>31</v>
       </c>
-      <c r="J381" s="12" t="s">
+      <c r="J378" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="K381" s="35" t="s">
+      <c r="K378" s="35" t="s">
         <v>245</v>
+      </c>
+    </row>
+    <row r="403" spans="1:1">
+      <c r="A403" s="29">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="404" spans="1:1">
+      <c r="A404" s="29">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="405" spans="1:1">
+      <c r="A405" s="29">
+        <v>196</v>
       </c>
     </row>
     <row r="406" spans="1:1">
       <c r="A406" s="29">
-        <v>194</v>
+        <v>197</v>
       </c>
     </row>
     <row r="407" spans="1:1">
       <c r="A407" s="29">
-        <v>195</v>
+        <v>198</v>
       </c>
     </row>
     <row r="408" spans="1:1">
       <c r="A408" s="29">
-        <v>196</v>
+        <v>199</v>
       </c>
     </row>
     <row r="409" spans="1:1">
       <c r="A409" s="29">
-        <v>197</v>
+        <v>200</v>
       </c>
     </row>
     <row r="410" spans="1:1">
       <c r="A410" s="29">
-        <v>198</v>
+        <v>201</v>
       </c>
     </row>
     <row r="411" spans="1:1">
-      <c r="A411" s="29">
-        <v>199</v>
+      <c r="A411" s="31">
+        <v>202</v>
       </c>
     </row>
     <row r="412" spans="1:1">
       <c r="A412" s="29">
-        <v>200</v>
+        <v>203</v>
       </c>
     </row>
     <row r="413" spans="1:1">
       <c r="A413" s="29">
-        <v>201</v>
+        <v>204</v>
       </c>
     </row>
     <row r="414" spans="1:1">
-      <c r="A414" s="31">
-        <v>202</v>
+      <c r="A414" s="29">
+        <v>205</v>
       </c>
     </row>
     <row r="415" spans="1:1">
       <c r="A415" s="29">
-        <v>203</v>
+        <v>206</v>
       </c>
     </row>
     <row r="416" spans="1:1">
       <c r="A416" s="29">
-        <v>204</v>
+        <v>207</v>
       </c>
     </row>
     <row r="417" spans="1:1">
       <c r="A417" s="29">
-        <v>205</v>
+        <v>208</v>
       </c>
     </row>
     <row r="418" spans="1:1">
       <c r="A418" s="29">
-        <v>206</v>
+        <v>209</v>
       </c>
     </row>
     <row r="419" spans="1:1">
       <c r="A419" s="29">
-        <v>207</v>
+        <v>210</v>
       </c>
     </row>
     <row r="420" spans="1:1">
       <c r="A420" s="29">
-        <v>208</v>
+        <v>211</v>
       </c>
     </row>
     <row r="421" spans="1:1">
       <c r="A421" s="29">
-        <v>209</v>
+        <v>212</v>
       </c>
     </row>
     <row r="422" spans="1:1">
       <c r="A422" s="29">
-        <v>210</v>
+        <v>213</v>
       </c>
     </row>
     <row r="423" spans="1:1">
       <c r="A423" s="29">
-        <v>211</v>
+        <v>214</v>
       </c>
     </row>
     <row r="424" spans="1:1">
       <c r="A424" s="29">
-        <v>212</v>
+        <v>215</v>
       </c>
     </row>
     <row r="425" spans="1:1">
       <c r="A425" s="29">
-        <v>213</v>
+        <v>216</v>
       </c>
     </row>
     <row r="426" spans="1:1">
       <c r="A426" s="29">
-        <v>214</v>
+        <v>217</v>
       </c>
     </row>
     <row r="427" spans="1:1">
       <c r="A427" s="29">
-        <v>215</v>
+        <v>218</v>
       </c>
     </row>
     <row r="428" spans="1:1">
       <c r="A428" s="29">
-        <v>216</v>
+        <v>219</v>
       </c>
     </row>
     <row r="429" spans="1:1">
       <c r="A429" s="29">
-        <v>217</v>
+        <v>220</v>
       </c>
     </row>
     <row r="430" spans="1:1">
       <c r="A430" s="29">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="431" spans="1:1">
-      <c r="A431" s="29">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="432" spans="1:1">
-      <c r="A432" s="29">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="433" spans="1:1">
-      <c r="A433" s="29">
         <v>221</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B1:B379" xr:uid="{39BF6EB1-227D-4123-B057-897FB710CCBD}"/>
+  <autoFilter ref="B1:B376" xr:uid="{39BF6EB1-227D-4123-B057-897FB710CCBD}"/>
   <mergeCells count="1">
     <mergeCell ref="J147:J148"/>
   </mergeCells>

--- a/metadata/Inventory inscribed pieces.xlsx
+++ b/metadata/Inventory inscribed pieces.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vincenttournier/Documents/GitHub/tfb-satavahana-epigraphy/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66F5EC0D-4234-D343-8C24-A185E29B7E5B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91C6E7F1-DCD9-314E-A36A-F18BE8484433}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="38500" windowHeight="14700" xr2:uid="{D79794C4-FCC0-9B4A-B6F1-FEEF81BE6884}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$B$432</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$B$440</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1985" uniqueCount="714">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1998" uniqueCount="715">
   <si>
     <t>shed 1</t>
   </si>
@@ -2295,6 +2295,9 @@
   </si>
   <si>
     <t>D5</t>
+  </si>
+  <si>
+    <t>C4</t>
   </si>
 </sst>
 </file>
@@ -2551,11 +2554,11 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2871,11 +2874,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AE06EC2-582E-7A46-AA00-435759BE671C}">
-  <dimension ref="A1:M486"/>
+  <dimension ref="A1:M494"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A306" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D1" sqref="D1:D1048576"/>
+      <pane ySplit="1" topLeftCell="A319" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A326" sqref="A326:XFD326"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -4664,7 +4667,7 @@
       </c>
       <c r="D74" s="18"/>
       <c r="E74" s="12"/>
-      <c r="F74" s="49"/>
+      <c r="F74" s="48"/>
       <c r="G74" s="3"/>
       <c r="H74" s="3"/>
       <c r="J74" s="3"/>
@@ -4681,7 +4684,7 @@
       </c>
       <c r="D75" s="18"/>
       <c r="E75" s="12"/>
-      <c r="F75" s="49"/>
+      <c r="F75" s="48"/>
       <c r="G75" s="3"/>
       <c r="H75" s="3"/>
       <c r="J75" s="3"/>
@@ -4742,7 +4745,7 @@
       <c r="C78" s="18">
         <v>12</v>
       </c>
-      <c r="F78" s="49"/>
+      <c r="F78" s="48"/>
     </row>
     <row r="79" spans="1:11">
       <c r="A79" s="38">
@@ -4871,7 +4874,7 @@
       </c>
       <c r="D84" s="18"/>
       <c r="E84" s="12"/>
-      <c r="F84" s="49"/>
+      <c r="F84" s="48"/>
       <c r="G84" s="3"/>
       <c r="H84" s="3"/>
       <c r="J84" s="3"/>
@@ -5375,7 +5378,7 @@
       </c>
       <c r="D105" s="18"/>
       <c r="E105" s="3"/>
-      <c r="F105" s="49"/>
+      <c r="F105" s="48"/>
       <c r="G105" s="3"/>
       <c r="H105" s="3"/>
       <c r="J105" s="3"/>
@@ -6445,7 +6448,7 @@
         <v>2</v>
       </c>
       <c r="I147" s="8"/>
-      <c r="J147" s="48"/>
+      <c r="J147" s="49"/>
       <c r="K147" s="5" t="s">
         <v>57</v>
       </c>
@@ -6468,7 +6471,7 @@
         <v>2</v>
       </c>
       <c r="I148" s="8"/>
-      <c r="J148" s="48"/>
+      <c r="J148" s="49"/>
       <c r="K148" s="5" t="s">
         <v>58</v>
       </c>
@@ -9153,7 +9156,7 @@
       </c>
       <c r="D256" s="18"/>
       <c r="E256" s="3"/>
-      <c r="F256" s="49"/>
+      <c r="F256" s="48"/>
       <c r="G256" s="3"/>
       <c r="H256" s="3"/>
       <c r="J256" s="3"/>
@@ -9193,7 +9196,7 @@
       </c>
       <c r="D258" s="18"/>
       <c r="E258" s="3"/>
-      <c r="F258" s="49"/>
+      <c r="F258" s="48"/>
       <c r="G258" s="3"/>
       <c r="H258" s="3"/>
       <c r="J258" s="3"/>
@@ -9485,7 +9488,7 @@
       </c>
       <c r="D270" s="18"/>
       <c r="E270" s="3"/>
-      <c r="F270" s="49"/>
+      <c r="F270" s="48"/>
       <c r="G270" s="3"/>
       <c r="H270" s="3"/>
       <c r="J270" s="3"/>
@@ -10931,6 +10934,9 @@
       <c r="C326" s="30" t="s">
         <v>392</v>
       </c>
+      <c r="D326" s="18" t="s">
+        <v>570</v>
+      </c>
       <c r="E326" s="3" t="s">
         <v>433</v>
       </c>
@@ -11052,9 +11058,7 @@
       <c r="C331" s="30" t="s">
         <v>392</v>
       </c>
-      <c r="D331" s="18" t="s">
-        <v>570</v>
-      </c>
+      <c r="D331" s="18"/>
       <c r="E331" s="12" t="s">
         <v>441</v>
       </c>
@@ -11276,7 +11280,7 @@
       <c r="E340" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="F340" s="49"/>
+      <c r="F340" s="48"/>
       <c r="G340" s="3"/>
       <c r="H340" s="3"/>
       <c r="J340" s="3"/>
@@ -11295,7 +11299,7 @@
       <c r="E341" s="3" t="s">
         <v>628</v>
       </c>
-      <c r="F341" s="49"/>
+      <c r="F341" s="48"/>
       <c r="G341" s="3"/>
       <c r="H341" s="3"/>
       <c r="J341" s="3"/>
@@ -12490,7 +12494,9 @@
       </c>
       <c r="D399" s="18"/>
       <c r="E399" s="3"/>
-      <c r="F399" s="3"/>
+      <c r="F399" s="3" t="s">
+        <v>696</v>
+      </c>
       <c r="G399" s="3"/>
       <c r="H399" s="3"/>
       <c r="J399" s="3"/>
@@ -12509,116 +12515,144 @@
         <v>710</v>
       </c>
       <c r="E400" s="3"/>
-      <c r="F400" s="3"/>
+      <c r="F400" s="3" t="s">
+        <v>546</v>
+      </c>
       <c r="G400" s="3"/>
       <c r="H400" s="3"/>
       <c r="J400" s="3"/>
     </row>
     <row r="401" spans="1:10" s="2" customFormat="1">
-      <c r="A401" s="18"/>
-      <c r="B401" s="3"/>
-      <c r="C401" s="18"/>
+      <c r="A401" s="18">
+        <v>400</v>
+      </c>
+      <c r="B401" s="47" t="s">
+        <v>392</v>
+      </c>
+      <c r="C401" s="47" t="s">
+        <v>392</v>
+      </c>
       <c r="D401" s="18"/>
       <c r="E401" s="3"/>
-      <c r="F401" s="3"/>
+      <c r="F401" s="3" t="s">
+        <v>696</v>
+      </c>
       <c r="G401" s="3"/>
       <c r="H401" s="3"/>
       <c r="J401" s="3"/>
     </row>
     <row r="402" spans="1:10" s="2" customFormat="1">
-      <c r="A402" s="18"/>
-      <c r="B402" s="3"/>
-      <c r="C402" s="18"/>
-      <c r="D402" s="18"/>
+      <c r="A402" s="18">
+        <v>401</v>
+      </c>
+      <c r="B402" s="47" t="s">
+        <v>392</v>
+      </c>
+      <c r="C402" s="47" t="s">
+        <v>392</v>
+      </c>
+      <c r="D402" s="18" t="s">
+        <v>567</v>
+      </c>
       <c r="E402" s="3"/>
-      <c r="F402" s="3"/>
+      <c r="F402" s="3" t="s">
+        <v>546</v>
+      </c>
       <c r="G402" s="3"/>
       <c r="H402" s="3"/>
       <c r="J402" s="3"/>
     </row>
     <row r="403" spans="1:10" s="2" customFormat="1">
-      <c r="A403" s="18"/>
-      <c r="B403" s="3"/>
-      <c r="C403" s="18"/>
-      <c r="D403" s="18"/>
+      <c r="A403" s="18">
+        <v>402</v>
+      </c>
+      <c r="B403" s="47" t="s">
+        <v>392</v>
+      </c>
+      <c r="C403" s="47" t="s">
+        <v>392</v>
+      </c>
+      <c r="D403" s="18" t="s">
+        <v>714</v>
+      </c>
       <c r="E403" s="3"/>
-      <c r="F403" s="3"/>
+      <c r="F403" s="3" t="s">
+        <v>546</v>
+      </c>
       <c r="G403" s="3"/>
       <c r="H403" s="3"/>
       <c r="J403" s="3"/>
     </row>
-    <row r="404" spans="1:10">
-      <c r="B404" s="47" t="s">
-        <v>392</v>
-      </c>
-      <c r="C404" s="47" t="s">
-        <v>392</v>
-      </c>
-      <c r="E404" s="3" t="s">
-        <v>434</v>
-      </c>
-      <c r="F404" s="3" t="s">
-        <v>534</v>
-      </c>
-      <c r="H404" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J404" s="3" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="407" spans="1:10" s="27" customFormat="1">
-      <c r="A407" s="25"/>
-      <c r="B407" s="26"/>
-      <c r="C407" s="25"/>
-      <c r="D407" s="25"/>
-      <c r="E407" s="26"/>
-      <c r="F407" s="26"/>
-      <c r="G407" s="26"/>
-      <c r="H407" s="26"/>
-      <c r="J407" s="26"/>
-    </row>
-    <row r="408" spans="1:10">
-      <c r="E408" s="3" t="s">
-        <v>531</v>
-      </c>
-      <c r="F408" s="3" t="s">
-        <v>532</v>
-      </c>
-      <c r="H408" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J408" s="3" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="409" spans="1:10">
-      <c r="B409" s="47" t="s">
-        <v>392</v>
-      </c>
-      <c r="C409" s="47" t="s">
-        <v>392</v>
-      </c>
-      <c r="D409" s="18" t="s">
-        <v>567</v>
-      </c>
-      <c r="E409" s="12" t="s">
-        <v>426</v>
-      </c>
-      <c r="F409" s="3" t="s">
-        <v>534</v>
-      </c>
-      <c r="H409" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J409" s="3" t="s">
-        <v>166</v>
-      </c>
+    <row r="404" spans="1:10" s="2" customFormat="1">
+      <c r="A404" s="18"/>
+      <c r="B404" s="47"/>
+      <c r="C404" s="47"/>
+      <c r="D404" s="18"/>
+      <c r="E404" s="3"/>
+      <c r="F404" s="3"/>
+      <c r="G404" s="3"/>
+      <c r="H404" s="3"/>
+      <c r="J404" s="3"/>
+    </row>
+    <row r="405" spans="1:10" s="2" customFormat="1">
+      <c r="A405" s="18"/>
+      <c r="B405" s="47"/>
+      <c r="C405" s="47"/>
+      <c r="D405" s="18"/>
+      <c r="E405" s="3"/>
+      <c r="F405" s="3"/>
+      <c r="G405" s="3"/>
+      <c r="H405" s="3"/>
+      <c r="J405" s="3"/>
+    </row>
+    <row r="406" spans="1:10" s="2" customFormat="1">
+      <c r="A406" s="18"/>
+      <c r="B406" s="47"/>
+      <c r="C406" s="47"/>
+      <c r="D406" s="18"/>
+      <c r="E406" s="3"/>
+      <c r="F406" s="3"/>
+      <c r="G406" s="3"/>
+      <c r="H406" s="3"/>
+      <c r="J406" s="3"/>
+    </row>
+    <row r="407" spans="1:10" s="2" customFormat="1">
+      <c r="A407" s="18"/>
+      <c r="B407" s="47"/>
+      <c r="C407" s="47"/>
+      <c r="D407" s="18"/>
+      <c r="E407" s="3"/>
+      <c r="F407" s="3"/>
+      <c r="G407" s="3"/>
+      <c r="H407" s="3"/>
+      <c r="J407" s="3"/>
+    </row>
+    <row r="408" spans="1:10" s="2" customFormat="1">
+      <c r="A408" s="18"/>
+      <c r="B408" s="47"/>
+      <c r="C408" s="47"/>
+      <c r="D408" s="18"/>
+      <c r="E408" s="3"/>
+      <c r="F408" s="3"/>
+      <c r="G408" s="3"/>
+      <c r="H408" s="3"/>
+      <c r="J408" s="3"/>
+    </row>
+    <row r="409" spans="1:10" s="2" customFormat="1">
+      <c r="A409" s="18"/>
+      <c r="B409" s="47"/>
+      <c r="C409" s="47"/>
+      <c r="D409" s="18"/>
+      <c r="E409" s="3"/>
+      <c r="F409" s="3"/>
+      <c r="G409" s="3"/>
+      <c r="H409" s="3"/>
+      <c r="J409" s="3"/>
     </row>
     <row r="410" spans="1:10" s="2" customFormat="1">
       <c r="A410" s="18"/>
-      <c r="B410" s="3"/>
-      <c r="C410" s="18"/>
+      <c r="B410" s="47"/>
+      <c r="C410" s="47"/>
       <c r="D410" s="18"/>
       <c r="E410" s="3"/>
       <c r="F410" s="3"/>
@@ -12627,7 +12661,6 @@
       <c r="J410" s="3"/>
     </row>
     <row r="411" spans="1:10" s="2" customFormat="1">
-      <c r="A411" s="18"/>
       <c r="B411" s="3"/>
       <c r="C411" s="18"/>
       <c r="D411" s="18"/>
@@ -12637,71 +12670,89 @@
       <c r="H411" s="3"/>
       <c r="J411" s="3"/>
     </row>
-    <row r="412" spans="1:10" s="2" customFormat="1">
-      <c r="A412" s="18"/>
-      <c r="B412" s="3"/>
-      <c r="C412" s="18"/>
-      <c r="D412" s="18"/>
-      <c r="E412" s="3"/>
-      <c r="F412" s="3"/>
-      <c r="G412" s="3"/>
-      <c r="H412" s="3"/>
-      <c r="J412" s="3"/>
-    </row>
-    <row r="413" spans="1:10" s="2" customFormat="1">
-      <c r="A413" s="18"/>
-      <c r="B413" s="3"/>
-      <c r="C413" s="18"/>
-      <c r="D413" s="18"/>
-      <c r="E413" s="3"/>
-      <c r="F413" s="3"/>
-      <c r="G413" s="3"/>
-      <c r="H413" s="3"/>
-      <c r="J413" s="3"/>
-    </row>
-    <row r="414" spans="1:10">
-      <c r="A414" s="18" t="s">
-        <v>590</v>
-      </c>
-      <c r="B414" s="3" t="s">
-        <v>587</v>
-      </c>
-      <c r="J414" s="3" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="415" spans="1:10">
-      <c r="F415" s="3" t="s">
-        <v>107</v>
-      </c>
+    <row r="412" spans="1:10">
+      <c r="B412" s="47" t="s">
+        <v>392</v>
+      </c>
+      <c r="C412" s="47" t="s">
+        <v>392</v>
+      </c>
+      <c r="E412" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="F412" s="3" t="s">
+        <v>534</v>
+      </c>
+      <c r="H412" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J412" s="3" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="415" spans="1:10" s="27" customFormat="1">
+      <c r="A415" s="25"/>
+      <c r="B415" s="26"/>
+      <c r="C415" s="25"/>
+      <c r="D415" s="25"/>
+      <c r="E415" s="26"/>
+      <c r="F415" s="26"/>
+      <c r="G415" s="26"/>
+      <c r="H415" s="26"/>
+      <c r="J415" s="26"/>
     </row>
     <row r="416" spans="1:10">
+      <c r="E416" s="3" t="s">
+        <v>531</v>
+      </c>
       <c r="F416" s="3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="417" spans="1:13" s="27" customFormat="1">
-      <c r="A417" s="25"/>
-      <c r="B417" s="26"/>
-      <c r="C417" s="25"/>
-      <c r="D417" s="25"/>
-      <c r="E417" s="26"/>
-      <c r="F417" s="26"/>
-      <c r="G417" s="26"/>
-      <c r="H417" s="26"/>
-      <c r="J417" s="26"/>
-    </row>
-    <row r="418" spans="1:13">
-      <c r="C418" s="18">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="419" spans="1:13" s="2" customFormat="1">
+        <v>532</v>
+      </c>
+      <c r="H416" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J416" s="3" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="417" spans="1:10">
+      <c r="B417" s="47" t="s">
+        <v>392</v>
+      </c>
+      <c r="C417" s="47" t="s">
+        <v>392</v>
+      </c>
+      <c r="D417" s="18" t="s">
+        <v>567</v>
+      </c>
+      <c r="E417" s="12" t="s">
+        <v>426</v>
+      </c>
+      <c r="F417" s="3" t="s">
+        <v>534</v>
+      </c>
+      <c r="H417" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J417" s="3" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="418" spans="1:10" s="2" customFormat="1">
+      <c r="A418" s="18"/>
+      <c r="B418" s="3"/>
+      <c r="C418" s="18"/>
+      <c r="D418" s="18"/>
+      <c r="E418" s="3"/>
+      <c r="F418" s="3"/>
+      <c r="G418" s="3"/>
+      <c r="H418" s="3"/>
+      <c r="J418" s="3"/>
+    </row>
+    <row r="419" spans="1:10" s="2" customFormat="1">
       <c r="A419" s="18"/>
       <c r="B419" s="3"/>
-      <c r="C419" s="3">
-        <v>158</v>
-      </c>
+      <c r="C419" s="18"/>
       <c r="D419" s="18"/>
       <c r="E419" s="3"/>
       <c r="F419" s="3"/>
@@ -12709,12 +12760,10 @@
       <c r="H419" s="3"/>
       <c r="J419" s="3"/>
     </row>
-    <row r="420" spans="1:13" s="2" customFormat="1">
+    <row r="420" spans="1:10" s="2" customFormat="1">
       <c r="A420" s="18"/>
       <c r="B420" s="3"/>
-      <c r="C420" s="18">
-        <v>159</v>
-      </c>
+      <c r="C420" s="18"/>
       <c r="D420" s="18"/>
       <c r="E420" s="3"/>
       <c r="F420" s="3"/>
@@ -12722,12 +12771,10 @@
       <c r="H420" s="3"/>
       <c r="J420" s="3"/>
     </row>
-    <row r="421" spans="1:13" s="2" customFormat="1">
+    <row r="421" spans="1:10" s="2" customFormat="1">
       <c r="A421" s="18"/>
       <c r="B421" s="3"/>
-      <c r="C421" s="18">
-        <v>160</v>
-      </c>
+      <c r="C421" s="18"/>
       <c r="D421" s="18"/>
       <c r="E421" s="3"/>
       <c r="F421" s="3"/>
@@ -12735,76 +12782,48 @@
       <c r="H421" s="3"/>
       <c r="J421" s="3"/>
     </row>
-    <row r="422" spans="1:13" s="2" customFormat="1">
-      <c r="A422" s="18"/>
-      <c r="B422" s="3"/>
-      <c r="C422" s="18">
-        <v>170</v>
-      </c>
-      <c r="D422" s="18"/>
-      <c r="E422" s="3"/>
-      <c r="F422" s="3"/>
-      <c r="G422" s="3"/>
-      <c r="H422" s="3"/>
-      <c r="J422" s="3"/>
-    </row>
-    <row r="423" spans="1:13" s="2" customFormat="1">
-      <c r="A423" s="18"/>
-      <c r="B423" s="3"/>
-      <c r="C423" s="18">
-        <v>178</v>
-      </c>
-      <c r="D423" s="18"/>
-      <c r="E423" s="3"/>
-      <c r="F423" s="3"/>
-      <c r="G423" s="3"/>
-      <c r="H423" s="3"/>
-      <c r="J423" s="3"/>
-    </row>
-    <row r="424" spans="1:13" s="2" customFormat="1">
-      <c r="A424" s="18"/>
-      <c r="B424" s="3"/>
-      <c r="C424" s="18">
-        <v>184</v>
-      </c>
-      <c r="D424" s="18"/>
-      <c r="E424" s="3"/>
-      <c r="F424" s="3"/>
-      <c r="G424" s="3"/>
-      <c r="H424" s="3"/>
-      <c r="J424" s="3"/>
-    </row>
-    <row r="425" spans="1:13" s="2" customFormat="1">
-      <c r="A425" s="18"/>
-      <c r="B425" s="3"/>
-      <c r="C425" s="18">
-        <v>186</v>
-      </c>
-      <c r="D425" s="18"/>
-      <c r="E425" s="3"/>
-      <c r="F425" s="3"/>
-      <c r="G425" s="3"/>
-      <c r="H425" s="3"/>
-      <c r="J425" s="3"/>
-    </row>
-    <row r="426" spans="1:13" s="2" customFormat="1">
-      <c r="A426" s="18"/>
-      <c r="B426" s="3"/>
+    <row r="422" spans="1:10">
+      <c r="A422" s="18" t="s">
+        <v>590</v>
+      </c>
+      <c r="B422" s="3" t="s">
+        <v>587</v>
+      </c>
+      <c r="J422" s="3" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="423" spans="1:10">
+      <c r="F423" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="424" spans="1:10">
+      <c r="F424" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="425" spans="1:10" s="27" customFormat="1">
+      <c r="A425" s="25"/>
+      <c r="B425" s="26"/>
+      <c r="C425" s="25"/>
+      <c r="D425" s="25"/>
+      <c r="E425" s="26"/>
+      <c r="F425" s="26"/>
+      <c r="G425" s="26"/>
+      <c r="H425" s="26"/>
+      <c r="J425" s="26"/>
+    </row>
+    <row r="426" spans="1:10">
       <c r="C426" s="18">
-        <v>194</v>
-      </c>
-      <c r="D426" s="18"/>
-      <c r="E426" s="3"/>
-      <c r="F426" s="3"/>
-      <c r="G426" s="3"/>
-      <c r="H426" s="3"/>
-      <c r="J426" s="3"/>
-    </row>
-    <row r="427" spans="1:13" s="2" customFormat="1">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="427" spans="1:10" s="2" customFormat="1">
       <c r="A427" s="18"/>
       <c r="B427" s="3"/>
-      <c r="C427" s="18">
-        <v>211</v>
+      <c r="C427" s="3">
+        <v>158</v>
       </c>
       <c r="D427" s="18"/>
       <c r="E427" s="3"/>
@@ -12813,11 +12832,11 @@
       <c r="H427" s="3"/>
       <c r="J427" s="3"/>
     </row>
-    <row r="428" spans="1:13" s="2" customFormat="1">
+    <row r="428" spans="1:10" s="2" customFormat="1">
       <c r="A428" s="18"/>
       <c r="B428" s="3"/>
       <c r="C428" s="18">
-        <v>253</v>
+        <v>159</v>
       </c>
       <c r="D428" s="18"/>
       <c r="E428" s="3"/>
@@ -12826,11 +12845,11 @@
       <c r="H428" s="3"/>
       <c r="J428" s="3"/>
     </row>
-    <row r="429" spans="1:13" s="2" customFormat="1">
+    <row r="429" spans="1:10" s="2" customFormat="1">
       <c r="A429" s="18"/>
       <c r="B429" s="3"/>
       <c r="C429" s="18">
-        <v>258</v>
+        <v>160</v>
       </c>
       <c r="D429" s="18"/>
       <c r="E429" s="3"/>
@@ -12839,11 +12858,11 @@
       <c r="H429" s="3"/>
       <c r="J429" s="3"/>
     </row>
-    <row r="430" spans="1:13" s="2" customFormat="1">
+    <row r="430" spans="1:10" s="2" customFormat="1">
       <c r="A430" s="18"/>
       <c r="B430" s="3"/>
       <c r="C430" s="18">
-        <v>261</v>
+        <v>170</v>
       </c>
       <c r="D430" s="18"/>
       <c r="E430" s="3"/>
@@ -12852,236 +12871,340 @@
       <c r="H430" s="3"/>
       <c r="J430" s="3"/>
     </row>
-    <row r="431" spans="1:13" s="27" customFormat="1">
-      <c r="A431" s="25"/>
-      <c r="B431" s="26"/>
-      <c r="C431" s="25"/>
-      <c r="D431" s="25"/>
-      <c r="E431" s="26"/>
-      <c r="F431" s="26"/>
-      <c r="G431" s="26"/>
-      <c r="H431" s="26"/>
-      <c r="J431" s="26"/>
-    </row>
-    <row r="432" spans="1:13" s="34" customFormat="1">
-      <c r="A432" s="32"/>
-      <c r="B432" s="33" t="s">
+    <row r="431" spans="1:10" s="2" customFormat="1">
+      <c r="A431" s="18"/>
+      <c r="B431" s="3"/>
+      <c r="C431" s="18">
+        <v>178</v>
+      </c>
+      <c r="D431" s="18"/>
+      <c r="E431" s="3"/>
+      <c r="F431" s="3"/>
+      <c r="G431" s="3"/>
+      <c r="H431" s="3"/>
+      <c r="J431" s="3"/>
+    </row>
+    <row r="432" spans="1:10" s="2" customFormat="1">
+      <c r="A432" s="18"/>
+      <c r="B432" s="3"/>
+      <c r="C432" s="18">
+        <v>184</v>
+      </c>
+      <c r="D432" s="18"/>
+      <c r="E432" s="3"/>
+      <c r="F432" s="3"/>
+      <c r="G432" s="3"/>
+      <c r="H432" s="3"/>
+      <c r="J432" s="3"/>
+    </row>
+    <row r="433" spans="1:13" s="2" customFormat="1">
+      <c r="A433" s="18"/>
+      <c r="B433" s="3"/>
+      <c r="C433" s="18">
+        <v>186</v>
+      </c>
+      <c r="D433" s="18"/>
+      <c r="E433" s="3"/>
+      <c r="F433" s="3"/>
+      <c r="G433" s="3"/>
+      <c r="H433" s="3"/>
+      <c r="J433" s="3"/>
+    </row>
+    <row r="434" spans="1:13" s="2" customFormat="1">
+      <c r="A434" s="18"/>
+      <c r="B434" s="3"/>
+      <c r="C434" s="18">
+        <v>194</v>
+      </c>
+      <c r="D434" s="18"/>
+      <c r="E434" s="3"/>
+      <c r="F434" s="3"/>
+      <c r="G434" s="3"/>
+      <c r="H434" s="3"/>
+      <c r="J434" s="3"/>
+    </row>
+    <row r="435" spans="1:13" s="2" customFormat="1">
+      <c r="A435" s="18"/>
+      <c r="B435" s="3"/>
+      <c r="C435" s="18">
+        <v>211</v>
+      </c>
+      <c r="D435" s="18"/>
+      <c r="E435" s="3"/>
+      <c r="F435" s="3"/>
+      <c r="G435" s="3"/>
+      <c r="H435" s="3"/>
+      <c r="J435" s="3"/>
+    </row>
+    <row r="436" spans="1:13" s="2" customFormat="1">
+      <c r="A436" s="18"/>
+      <c r="B436" s="3"/>
+      <c r="C436" s="18">
+        <v>253</v>
+      </c>
+      <c r="D436" s="18"/>
+      <c r="E436" s="3"/>
+      <c r="F436" s="3"/>
+      <c r="G436" s="3"/>
+      <c r="H436" s="3"/>
+      <c r="J436" s="3"/>
+    </row>
+    <row r="437" spans="1:13" s="2" customFormat="1">
+      <c r="A437" s="18"/>
+      <c r="B437" s="3"/>
+      <c r="C437" s="18">
+        <v>258</v>
+      </c>
+      <c r="D437" s="18"/>
+      <c r="E437" s="3"/>
+      <c r="F437" s="3"/>
+      <c r="G437" s="3"/>
+      <c r="H437" s="3"/>
+      <c r="J437" s="3"/>
+    </row>
+    <row r="438" spans="1:13" s="2" customFormat="1">
+      <c r="A438" s="18"/>
+      <c r="B438" s="3"/>
+      <c r="C438" s="18">
+        <v>261</v>
+      </c>
+      <c r="D438" s="18"/>
+      <c r="E438" s="3"/>
+      <c r="F438" s="3"/>
+      <c r="G438" s="3"/>
+      <c r="H438" s="3"/>
+      <c r="J438" s="3"/>
+    </row>
+    <row r="439" spans="1:13" s="27" customFormat="1">
+      <c r="A439" s="25"/>
+      <c r="B439" s="26"/>
+      <c r="C439" s="25"/>
+      <c r="D439" s="25"/>
+      <c r="E439" s="26"/>
+      <c r="F439" s="26"/>
+      <c r="G439" s="26"/>
+      <c r="H439" s="26"/>
+      <c r="J439" s="26"/>
+    </row>
+    <row r="440" spans="1:13" s="34" customFormat="1">
+      <c r="A440" s="32"/>
+      <c r="B440" s="33" t="s">
         <v>590</v>
       </c>
-      <c r="C432" s="32"/>
-      <c r="D432" s="32"/>
-      <c r="E432" s="33"/>
-      <c r="F432" s="33" t="s">
+      <c r="C440" s="32"/>
+      <c r="D440" s="32"/>
+      <c r="E440" s="33"/>
+      <c r="F440" s="33" t="s">
         <v>106</v>
       </c>
-      <c r="G432" s="33"/>
-      <c r="H432" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="I432" s="33">
+      <c r="G440" s="33"/>
+      <c r="H440" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="I440" s="33">
         <v>24</v>
       </c>
-      <c r="J432" s="33" t="s">
+      <c r="J440" s="33" t="s">
         <v>363</v>
       </c>
-      <c r="L432" s="34" t="s">
+      <c r="L440" s="34" t="s">
         <v>620</v>
       </c>
-      <c r="M432" s="34" t="s">
+      <c r="M440" s="34" t="s">
         <v>621</v>
       </c>
     </row>
-    <row r="433" spans="1:11" s="34" customFormat="1">
-      <c r="A433" s="32"/>
-      <c r="B433" s="33" t="s">
+    <row r="441" spans="1:13" s="34" customFormat="1">
+      <c r="A441" s="32"/>
+      <c r="B441" s="33" t="s">
         <v>590</v>
       </c>
-      <c r="C433" s="32"/>
-      <c r="D433" s="32"/>
-      <c r="E433" s="33"/>
-      <c r="F433" s="33" t="s">
+      <c r="C441" s="32"/>
+      <c r="D441" s="32"/>
+      <c r="E441" s="33"/>
+      <c r="F441" s="33" t="s">
         <v>106</v>
       </c>
-      <c r="G433" s="33"/>
-      <c r="H433" s="33" t="s">
+      <c r="G441" s="33"/>
+      <c r="H441" s="33" t="s">
         <v>100</v>
       </c>
-      <c r="I433" s="33">
+      <c r="I441" s="33">
         <v>14</v>
       </c>
-      <c r="J433" s="33" t="s">
+      <c r="J441" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="K433" s="34" t="s">
+      <c r="K441" s="34" t="s">
         <v>619</v>
       </c>
     </row>
-    <row r="434" spans="1:11">
-      <c r="B434" s="12" t="s">
+    <row r="442" spans="1:13">
+      <c r="B442" s="12" t="s">
         <v>590</v>
       </c>
-      <c r="C434" s="30"/>
-      <c r="D434" s="30"/>
-      <c r="E434" s="12"/>
-      <c r="F434" s="12" t="s">
+      <c r="C442" s="30"/>
+      <c r="D442" s="30"/>
+      <c r="E442" s="12"/>
+      <c r="F442" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="G434" s="12"/>
-      <c r="H434" s="12">
+      <c r="G442" s="12"/>
+      <c r="H442" s="12">
         <v>16</v>
       </c>
-      <c r="I434" s="12">
+      <c r="I442" s="12">
         <v>31</v>
       </c>
-      <c r="J434" s="12" t="s">
+      <c r="J442" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="K434" s="35" t="s">
+      <c r="K442" s="35" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="459" spans="1:1">
-      <c r="A459" s="29">
+    <row r="467" spans="1:1">
+      <c r="A467" s="29">
         <v>194</v>
-      </c>
-    </row>
-    <row r="460" spans="1:1">
-      <c r="A460" s="29">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="461" spans="1:1">
-      <c r="A461" s="29">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="462" spans="1:1">
-      <c r="A462" s="29">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="463" spans="1:1">
-      <c r="A463" s="29">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="464" spans="1:1">
-      <c r="A464" s="29">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="465" spans="1:1">
-      <c r="A465" s="29">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="466" spans="1:1">
-      <c r="A466" s="29">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="467" spans="1:1">
-      <c r="A467" s="31">
-        <v>202</v>
       </c>
     </row>
     <row r="468" spans="1:1">
       <c r="A468" s="29">
-        <v>203</v>
+        <v>195</v>
       </c>
     </row>
     <row r="469" spans="1:1">
       <c r="A469" s="29">
-        <v>204</v>
+        <v>196</v>
       </c>
     </row>
     <row r="470" spans="1:1">
       <c r="A470" s="29">
-        <v>205</v>
+        <v>197</v>
       </c>
     </row>
     <row r="471" spans="1:1">
       <c r="A471" s="29">
-        <v>206</v>
+        <v>198</v>
       </c>
     </row>
     <row r="472" spans="1:1">
       <c r="A472" s="29">
-        <v>207</v>
+        <v>199</v>
       </c>
     </row>
     <row r="473" spans="1:1">
       <c r="A473" s="29">
-        <v>208</v>
+        <v>200</v>
       </c>
     </row>
     <row r="474" spans="1:1">
       <c r="A474" s="29">
-        <v>209</v>
+        <v>201</v>
       </c>
     </row>
     <row r="475" spans="1:1">
-      <c r="A475" s="29">
-        <v>210</v>
+      <c r="A475" s="31">
+        <v>202</v>
       </c>
     </row>
     <row r="476" spans="1:1">
       <c r="A476" s="29">
-        <v>211</v>
+        <v>203</v>
       </c>
     </row>
     <row r="477" spans="1:1">
       <c r="A477" s="29">
-        <v>212</v>
+        <v>204</v>
       </c>
     </row>
     <row r="478" spans="1:1">
       <c r="A478" s="29">
-        <v>213</v>
+        <v>205</v>
       </c>
     </row>
     <row r="479" spans="1:1">
       <c r="A479" s="29">
-        <v>214</v>
+        <v>206</v>
       </c>
     </row>
     <row r="480" spans="1:1">
       <c r="A480" s="29">
-        <v>215</v>
+        <v>207</v>
       </c>
     </row>
     <row r="481" spans="1:1">
       <c r="A481" s="29">
-        <v>216</v>
+        <v>208</v>
       </c>
     </row>
     <row r="482" spans="1:1">
       <c r="A482" s="29">
-        <v>217</v>
+        <v>209</v>
       </c>
     </row>
     <row r="483" spans="1:1">
       <c r="A483" s="29">
-        <v>218</v>
+        <v>210</v>
       </c>
     </row>
     <row r="484" spans="1:1">
       <c r="A484" s="29">
-        <v>219</v>
+        <v>211</v>
       </c>
     </row>
     <row r="485" spans="1:1">
       <c r="A485" s="29">
-        <v>220</v>
+        <v>212</v>
       </c>
     </row>
     <row r="486" spans="1:1">
       <c r="A486" s="29">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="487" spans="1:1">
+      <c r="A487" s="29">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="488" spans="1:1">
+      <c r="A488" s="29">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="489" spans="1:1">
+      <c r="A489" s="29">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="490" spans="1:1">
+      <c r="A490" s="29">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="491" spans="1:1">
+      <c r="A491" s="29">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="492" spans="1:1">
+      <c r="A492" s="29">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="493" spans="1:1">
+      <c r="A493" s="29">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="494" spans="1:1">
+      <c r="A494" s="29">
         <v>221</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B1:B432" xr:uid="{39BF6EB1-227D-4123-B057-897FB710CCBD}"/>
+  <autoFilter ref="B1:B440" xr:uid="{39BF6EB1-227D-4123-B057-897FB710CCBD}"/>
   <mergeCells count="1">
     <mergeCell ref="J147:J148"/>
   </mergeCells>

--- a/metadata/Inventory inscribed pieces.xlsx
+++ b/metadata/Inventory inscribed pieces.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vincenttournier/Documents/GitHub/tfb-satavahana-epigraphy/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91C6E7F1-DCD9-314E-A36A-F18BE8484433}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F328F3F-8B58-A94C-A0FF-92414FB98DC9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="38500" windowHeight="14700" xr2:uid="{D79794C4-FCC0-9B4A-B6F1-FEEF81BE6884}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$B$440</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$B$446</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1998" uniqueCount="715">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2016" uniqueCount="717">
   <si>
     <t>shed 1</t>
   </si>
@@ -2298,6 +2298,12 @@
   </si>
   <si>
     <t>C4</t>
+  </si>
+  <si>
+    <t>C6</t>
+  </si>
+  <si>
+    <t>D10?</t>
   </si>
 </sst>
 </file>
@@ -2874,11 +2880,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AE06EC2-582E-7A46-AA00-435759BE671C}">
-  <dimension ref="A1:M494"/>
+  <dimension ref="A1:M500"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A319" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A326" sqref="A326:XFD326"/>
+      <pane ySplit="1" topLeftCell="A317" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D321" sqref="D321"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -10785,6 +10791,9 @@
       <c r="C320" s="46" t="s">
         <v>392</v>
       </c>
+      <c r="D320" s="18" t="s">
+        <v>716</v>
+      </c>
       <c r="E320" s="3" t="s">
         <v>335</v>
       </c>
@@ -12532,10 +12541,12 @@
       <c r="C401" s="47" t="s">
         <v>392</v>
       </c>
-      <c r="D401" s="18"/>
+      <c r="D401" s="18" t="s">
+        <v>567</v>
+      </c>
       <c r="E401" s="3"/>
       <c r="F401" s="3" t="s">
-        <v>696</v>
+        <v>546</v>
       </c>
       <c r="G401" s="3"/>
       <c r="H401" s="3"/>
@@ -12552,7 +12563,7 @@
         <v>392</v>
       </c>
       <c r="D402" s="18" t="s">
-        <v>567</v>
+        <v>714</v>
       </c>
       <c r="E402" s="3"/>
       <c r="F402" s="3" t="s">
@@ -12573,7 +12584,7 @@
         <v>392</v>
       </c>
       <c r="D403" s="18" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="E403" s="3"/>
       <c r="F403" s="3" t="s">
@@ -12584,9 +12595,15 @@
       <c r="J403" s="3"/>
     </row>
     <row r="404" spans="1:10" s="2" customFormat="1">
-      <c r="A404" s="18"/>
-      <c r="B404" s="47"/>
-      <c r="C404" s="47"/>
+      <c r="A404" s="18">
+        <v>403</v>
+      </c>
+      <c r="B404" s="47" t="s">
+        <v>392</v>
+      </c>
+      <c r="C404" s="47" t="s">
+        <v>392</v>
+      </c>
       <c r="D404" s="18"/>
       <c r="E404" s="3"/>
       <c r="F404" s="3"/>
@@ -12595,9 +12612,15 @@
       <c r="J404" s="3"/>
     </row>
     <row r="405" spans="1:10" s="2" customFormat="1">
-      <c r="A405" s="18"/>
-      <c r="B405" s="47"/>
-      <c r="C405" s="47"/>
+      <c r="A405" s="18">
+        <v>404</v>
+      </c>
+      <c r="B405" s="47" t="s">
+        <v>392</v>
+      </c>
+      <c r="C405" s="47" t="s">
+        <v>392</v>
+      </c>
       <c r="D405" s="18"/>
       <c r="E405" s="3"/>
       <c r="F405" s="3"/>
@@ -12606,9 +12629,15 @@
       <c r="J405" s="3"/>
     </row>
     <row r="406" spans="1:10" s="2" customFormat="1">
-      <c r="A406" s="18"/>
-      <c r="B406" s="47"/>
-      <c r="C406" s="47"/>
+      <c r="A406" s="18">
+        <v>405</v>
+      </c>
+      <c r="B406" s="47" t="s">
+        <v>392</v>
+      </c>
+      <c r="C406" s="47" t="s">
+        <v>392</v>
+      </c>
       <c r="D406" s="18"/>
       <c r="E406" s="3"/>
       <c r="F406" s="3"/>
@@ -12617,9 +12646,15 @@
       <c r="J406" s="3"/>
     </row>
     <row r="407" spans="1:10" s="2" customFormat="1">
-      <c r="A407" s="18"/>
-      <c r="B407" s="47"/>
-      <c r="C407" s="47"/>
+      <c r="A407" s="18">
+        <v>406</v>
+      </c>
+      <c r="B407" s="47" t="s">
+        <v>392</v>
+      </c>
+      <c r="C407" s="47" t="s">
+        <v>392</v>
+      </c>
       <c r="D407" s="18"/>
       <c r="E407" s="3"/>
       <c r="F407" s="3"/>
@@ -12628,9 +12663,15 @@
       <c r="J407" s="3"/>
     </row>
     <row r="408" spans="1:10" s="2" customFormat="1">
-      <c r="A408" s="18"/>
-      <c r="B408" s="47"/>
-      <c r="C408" s="47"/>
+      <c r="A408" s="18">
+        <v>407</v>
+      </c>
+      <c r="B408" s="47" t="s">
+        <v>392</v>
+      </c>
+      <c r="C408" s="47" t="s">
+        <v>392</v>
+      </c>
       <c r="D408" s="18"/>
       <c r="E408" s="3"/>
       <c r="F408" s="3"/>
@@ -12639,9 +12680,15 @@
       <c r="J408" s="3"/>
     </row>
     <row r="409" spans="1:10" s="2" customFormat="1">
-      <c r="A409" s="18"/>
-      <c r="B409" s="47"/>
-      <c r="C409" s="47"/>
+      <c r="A409" s="18">
+        <v>408</v>
+      </c>
+      <c r="B409" s="47" t="s">
+        <v>392</v>
+      </c>
+      <c r="C409" s="47" t="s">
+        <v>392</v>
+      </c>
       <c r="D409" s="18"/>
       <c r="E409" s="3"/>
       <c r="F409" s="3"/>
@@ -12650,9 +12697,15 @@
       <c r="J409" s="3"/>
     </row>
     <row r="410" spans="1:10" s="2" customFormat="1">
-      <c r="A410" s="18"/>
-      <c r="B410" s="47"/>
-      <c r="C410" s="47"/>
+      <c r="A410" s="18">
+        <v>409</v>
+      </c>
+      <c r="B410" s="47" t="s">
+        <v>392</v>
+      </c>
+      <c r="C410" s="47" t="s">
+        <v>392</v>
+      </c>
       <c r="D410" s="18"/>
       <c r="E410" s="3"/>
       <c r="F410" s="3"/>
@@ -12661,8 +12714,9 @@
       <c r="J410" s="3"/>
     </row>
     <row r="411" spans="1:10" s="2" customFormat="1">
-      <c r="B411" s="3"/>
-      <c r="C411" s="18"/>
+      <c r="A411" s="18"/>
+      <c r="B411" s="47"/>
+      <c r="C411" s="47"/>
       <c r="D411" s="18"/>
       <c r="E411" s="3"/>
       <c r="F411" s="3"/>
@@ -12670,161 +12724,174 @@
       <c r="H411" s="3"/>
       <c r="J411" s="3"/>
     </row>
-    <row r="412" spans="1:10">
-      <c r="B412" s="47" t="s">
-        <v>392</v>
-      </c>
-      <c r="C412" s="47" t="s">
-        <v>392</v>
-      </c>
-      <c r="E412" s="3" t="s">
+    <row r="412" spans="1:10" s="2" customFormat="1">
+      <c r="A412" s="18"/>
+      <c r="B412" s="47"/>
+      <c r="C412" s="47"/>
+      <c r="D412" s="18"/>
+      <c r="E412" s="3"/>
+      <c r="F412" s="3"/>
+      <c r="G412" s="3"/>
+      <c r="H412" s="3"/>
+      <c r="J412" s="3"/>
+    </row>
+    <row r="413" spans="1:10" s="2" customFormat="1">
+      <c r="A413" s="18"/>
+      <c r="B413" s="47"/>
+      <c r="C413" s="47"/>
+      <c r="D413" s="18"/>
+      <c r="E413" s="3"/>
+      <c r="F413" s="3"/>
+      <c r="G413" s="3"/>
+      <c r="H413" s="3"/>
+      <c r="J413" s="3"/>
+    </row>
+    <row r="414" spans="1:10" s="2" customFormat="1">
+      <c r="A414" s="18"/>
+      <c r="B414" s="47"/>
+      <c r="C414" s="47"/>
+      <c r="D414" s="18"/>
+      <c r="E414" s="3"/>
+      <c r="F414" s="3"/>
+      <c r="G414" s="3"/>
+      <c r="H414" s="3"/>
+      <c r="J414" s="3"/>
+    </row>
+    <row r="415" spans="1:10" s="2" customFormat="1">
+      <c r="A415" s="18"/>
+      <c r="B415" s="47"/>
+      <c r="C415" s="47"/>
+      <c r="D415" s="18"/>
+      <c r="E415" s="3"/>
+      <c r="F415" s="3"/>
+      <c r="G415" s="3"/>
+      <c r="H415" s="3"/>
+      <c r="J415" s="3"/>
+    </row>
+    <row r="416" spans="1:10" s="2" customFormat="1">
+      <c r="A416" s="18"/>
+      <c r="B416" s="47"/>
+      <c r="C416" s="47"/>
+      <c r="D416" s="18"/>
+      <c r="E416" s="3"/>
+      <c r="F416" s="3"/>
+      <c r="G416" s="3"/>
+      <c r="H416" s="3"/>
+      <c r="J416" s="3"/>
+    </row>
+    <row r="418" spans="1:10">
+      <c r="B418" s="47" t="s">
+        <v>392</v>
+      </c>
+      <c r="C418" s="47" t="s">
+        <v>392</v>
+      </c>
+      <c r="E418" s="3" t="s">
         <v>434</v>
       </c>
-      <c r="F412" s="3" t="s">
+      <c r="F418" s="3" t="s">
         <v>534</v>
       </c>
-      <c r="H412" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J412" s="3" t="s">
+      <c r="H418" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J418" s="3" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="415" spans="1:10" s="27" customFormat="1">
-      <c r="A415" s="25"/>
-      <c r="B415" s="26"/>
-      <c r="C415" s="25"/>
-      <c r="D415" s="25"/>
-      <c r="E415" s="26"/>
-      <c r="F415" s="26"/>
-      <c r="G415" s="26"/>
-      <c r="H415" s="26"/>
-      <c r="J415" s="26"/>
-    </row>
-    <row r="416" spans="1:10">
-      <c r="E416" s="3" t="s">
+    <row r="419" spans="1:10">
+      <c r="B419" s="47" t="s">
+        <v>392</v>
+      </c>
+      <c r="C419" s="47" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="421" spans="1:10" s="27" customFormat="1">
+      <c r="A421" s="25"/>
+      <c r="B421" s="26"/>
+      <c r="C421" s="25"/>
+      <c r="D421" s="25"/>
+      <c r="E421" s="26"/>
+      <c r="F421" s="26"/>
+      <c r="G421" s="26"/>
+      <c r="H421" s="26"/>
+      <c r="J421" s="26"/>
+    </row>
+    <row r="422" spans="1:10">
+      <c r="E422" s="3" t="s">
         <v>531</v>
       </c>
-      <c r="F416" s="3" t="s">
+      <c r="F422" s="3" t="s">
         <v>532</v>
       </c>
-      <c r="H416" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J416" s="3" t="s">
+      <c r="H422" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J422" s="3" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="417" spans="1:10">
-      <c r="B417" s="47" t="s">
-        <v>392</v>
-      </c>
-      <c r="C417" s="47" t="s">
-        <v>392</v>
-      </c>
-      <c r="D417" s="18" t="s">
+    <row r="423" spans="1:10">
+      <c r="B423" s="47" t="s">
+        <v>392</v>
+      </c>
+      <c r="C423" s="47" t="s">
+        <v>392</v>
+      </c>
+      <c r="D423" s="18" t="s">
         <v>567</v>
       </c>
-      <c r="E417" s="12" t="s">
+      <c r="E423" s="12" t="s">
         <v>426</v>
       </c>
-      <c r="F417" s="3" t="s">
+      <c r="F423" s="3" t="s">
         <v>534</v>
       </c>
-      <c r="H417" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J417" s="3" t="s">
+      <c r="H423" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J423" s="3" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="418" spans="1:10" s="2" customFormat="1">
-      <c r="A418" s="18"/>
-      <c r="B418" s="3"/>
-      <c r="C418" s="18"/>
-      <c r="D418" s="18"/>
-      <c r="E418" s="3"/>
-      <c r="F418" s="3"/>
-      <c r="G418" s="3"/>
-      <c r="H418" s="3"/>
-      <c r="J418" s="3"/>
-    </row>
-    <row r="419" spans="1:10" s="2" customFormat="1">
-      <c r="A419" s="18"/>
-      <c r="B419" s="3"/>
-      <c r="C419" s="18"/>
-      <c r="D419" s="18"/>
-      <c r="E419" s="3"/>
-      <c r="F419" s="3"/>
-      <c r="G419" s="3"/>
-      <c r="H419" s="3"/>
-      <c r="J419" s="3"/>
-    </row>
-    <row r="420" spans="1:10" s="2" customFormat="1">
-      <c r="A420" s="18"/>
-      <c r="B420" s="3"/>
-      <c r="C420" s="18"/>
-      <c r="D420" s="18"/>
-      <c r="E420" s="3"/>
-      <c r="F420" s="3"/>
-      <c r="G420" s="3"/>
-      <c r="H420" s="3"/>
-      <c r="J420" s="3"/>
-    </row>
-    <row r="421" spans="1:10" s="2" customFormat="1">
-      <c r="A421" s="18"/>
-      <c r="B421" s="3"/>
-      <c r="C421" s="18"/>
-      <c r="D421" s="18"/>
-      <c r="E421" s="3"/>
-      <c r="F421" s="3"/>
-      <c r="G421" s="3"/>
-      <c r="H421" s="3"/>
-      <c r="J421" s="3"/>
-    </row>
-    <row r="422" spans="1:10">
-      <c r="A422" s="18" t="s">
-        <v>590</v>
-      </c>
-      <c r="B422" s="3" t="s">
-        <v>587</v>
-      </c>
-      <c r="J422" s="3" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="423" spans="1:10">
-      <c r="F423" s="3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="424" spans="1:10">
-      <c r="F424" s="3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="425" spans="1:10" s="27" customFormat="1">
-      <c r="A425" s="25"/>
-      <c r="B425" s="26"/>
-      <c r="C425" s="25"/>
-      <c r="D425" s="25"/>
-      <c r="E425" s="26"/>
-      <c r="F425" s="26"/>
-      <c r="G425" s="26"/>
-      <c r="H425" s="26"/>
-      <c r="J425" s="26"/>
-    </row>
-    <row r="426" spans="1:10">
-      <c r="C426" s="18">
-        <v>152</v>
-      </c>
+    <row r="424" spans="1:10" s="2" customFormat="1">
+      <c r="A424" s="18"/>
+      <c r="B424" s="3"/>
+      <c r="C424" s="18"/>
+      <c r="D424" s="18"/>
+      <c r="E424" s="3"/>
+      <c r="F424" s="3"/>
+      <c r="G424" s="3"/>
+      <c r="H424" s="3"/>
+      <c r="J424" s="3"/>
+    </row>
+    <row r="425" spans="1:10" s="2" customFormat="1">
+      <c r="A425" s="18"/>
+      <c r="B425" s="3"/>
+      <c r="C425" s="18"/>
+      <c r="D425" s="18"/>
+      <c r="E425" s="3"/>
+      <c r="F425" s="3"/>
+      <c r="G425" s="3"/>
+      <c r="H425" s="3"/>
+      <c r="J425" s="3"/>
+    </row>
+    <row r="426" spans="1:10" s="2" customFormat="1">
+      <c r="A426" s="18"/>
+      <c r="B426" s="3"/>
+      <c r="C426" s="18"/>
+      <c r="D426" s="18"/>
+      <c r="E426" s="3"/>
+      <c r="F426" s="3"/>
+      <c r="G426" s="3"/>
+      <c r="H426" s="3"/>
+      <c r="J426" s="3"/>
     </row>
     <row r="427" spans="1:10" s="2" customFormat="1">
       <c r="A427" s="18"/>
       <c r="B427" s="3"/>
-      <c r="C427" s="3">
-        <v>158</v>
-      </c>
+      <c r="C427" s="18"/>
       <c r="D427" s="18"/>
       <c r="E427" s="3"/>
       <c r="F427" s="3"/>
@@ -12832,76 +12899,48 @@
       <c r="H427" s="3"/>
       <c r="J427" s="3"/>
     </row>
-    <row r="428" spans="1:10" s="2" customFormat="1">
-      <c r="A428" s="18"/>
-      <c r="B428" s="3"/>
-      <c r="C428" s="18">
-        <v>159</v>
-      </c>
-      <c r="D428" s="18"/>
-      <c r="E428" s="3"/>
-      <c r="F428" s="3"/>
-      <c r="G428" s="3"/>
-      <c r="H428" s="3"/>
-      <c r="J428" s="3"/>
-    </row>
-    <row r="429" spans="1:10" s="2" customFormat="1">
-      <c r="A429" s="18"/>
-      <c r="B429" s="3"/>
-      <c r="C429" s="18">
-        <v>160</v>
-      </c>
-      <c r="D429" s="18"/>
-      <c r="E429" s="3"/>
-      <c r="F429" s="3"/>
-      <c r="G429" s="3"/>
-      <c r="H429" s="3"/>
-      <c r="J429" s="3"/>
-    </row>
-    <row r="430" spans="1:10" s="2" customFormat="1">
-      <c r="A430" s="18"/>
-      <c r="B430" s="3"/>
-      <c r="C430" s="18">
-        <v>170</v>
-      </c>
-      <c r="D430" s="18"/>
-      <c r="E430" s="3"/>
-      <c r="F430" s="3"/>
-      <c r="G430" s="3"/>
-      <c r="H430" s="3"/>
-      <c r="J430" s="3"/>
-    </row>
-    <row r="431" spans="1:10" s="2" customFormat="1">
-      <c r="A431" s="18"/>
-      <c r="B431" s="3"/>
-      <c r="C431" s="18">
-        <v>178</v>
-      </c>
-      <c r="D431" s="18"/>
-      <c r="E431" s="3"/>
-      <c r="F431" s="3"/>
-      <c r="G431" s="3"/>
-      <c r="H431" s="3"/>
-      <c r="J431" s="3"/>
-    </row>
-    <row r="432" spans="1:10" s="2" customFormat="1">
-      <c r="A432" s="18"/>
-      <c r="B432" s="3"/>
+    <row r="428" spans="1:10">
+      <c r="A428" s="18" t="s">
+        <v>590</v>
+      </c>
+      <c r="B428" s="3" t="s">
+        <v>587</v>
+      </c>
+      <c r="J428" s="3" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="429" spans="1:10">
+      <c r="F429" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="430" spans="1:10">
+      <c r="F430" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="431" spans="1:10" s="27" customFormat="1">
+      <c r="A431" s="25"/>
+      <c r="B431" s="26"/>
+      <c r="C431" s="25"/>
+      <c r="D431" s="25"/>
+      <c r="E431" s="26"/>
+      <c r="F431" s="26"/>
+      <c r="G431" s="26"/>
+      <c r="H431" s="26"/>
+      <c r="J431" s="26"/>
+    </row>
+    <row r="432" spans="1:10">
       <c r="C432" s="18">
-        <v>184</v>
-      </c>
-      <c r="D432" s="18"/>
-      <c r="E432" s="3"/>
-      <c r="F432" s="3"/>
-      <c r="G432" s="3"/>
-      <c r="H432" s="3"/>
-      <c r="J432" s="3"/>
+        <v>152</v>
+      </c>
     </row>
     <row r="433" spans="1:13" s="2" customFormat="1">
       <c r="A433" s="18"/>
       <c r="B433" s="3"/>
-      <c r="C433" s="18">
-        <v>186</v>
+      <c r="C433" s="3">
+        <v>158</v>
       </c>
       <c r="D433" s="18"/>
       <c r="E433" s="3"/>
@@ -12914,7 +12953,7 @@
       <c r="A434" s="18"/>
       <c r="B434" s="3"/>
       <c r="C434" s="18">
-        <v>194</v>
+        <v>159</v>
       </c>
       <c r="D434" s="18"/>
       <c r="E434" s="3"/>
@@ -12927,7 +12966,7 @@
       <c r="A435" s="18"/>
       <c r="B435" s="3"/>
       <c r="C435" s="18">
-        <v>211</v>
+        <v>160</v>
       </c>
       <c r="D435" s="18"/>
       <c r="E435" s="3"/>
@@ -12940,7 +12979,7 @@
       <c r="A436" s="18"/>
       <c r="B436" s="3"/>
       <c r="C436" s="18">
-        <v>253</v>
+        <v>170</v>
       </c>
       <c r="D436" s="18"/>
       <c r="E436" s="3"/>
@@ -12953,7 +12992,7 @@
       <c r="A437" s="18"/>
       <c r="B437" s="3"/>
       <c r="C437" s="18">
-        <v>258</v>
+        <v>178</v>
       </c>
       <c r="D437" s="18"/>
       <c r="E437" s="3"/>
@@ -12966,7 +13005,7 @@
       <c r="A438" s="18"/>
       <c r="B438" s="3"/>
       <c r="C438" s="18">
-        <v>261</v>
+        <v>184</v>
       </c>
       <c r="D438" s="18"/>
       <c r="E438" s="3"/>
@@ -12975,236 +13014,314 @@
       <c r="H438" s="3"/>
       <c r="J438" s="3"/>
     </row>
-    <row r="439" spans="1:13" s="27" customFormat="1">
-      <c r="A439" s="25"/>
-      <c r="B439" s="26"/>
-      <c r="C439" s="25"/>
-      <c r="D439" s="25"/>
-      <c r="E439" s="26"/>
-      <c r="F439" s="26"/>
-      <c r="G439" s="26"/>
-      <c r="H439" s="26"/>
-      <c r="J439" s="26"/>
-    </row>
-    <row r="440" spans="1:13" s="34" customFormat="1">
-      <c r="A440" s="32"/>
-      <c r="B440" s="33" t="s">
+    <row r="439" spans="1:13" s="2" customFormat="1">
+      <c r="A439" s="18"/>
+      <c r="B439" s="3"/>
+      <c r="C439" s="18">
+        <v>186</v>
+      </c>
+      <c r="D439" s="18"/>
+      <c r="E439" s="3"/>
+      <c r="F439" s="3"/>
+      <c r="G439" s="3"/>
+      <c r="H439" s="3"/>
+      <c r="J439" s="3"/>
+    </row>
+    <row r="440" spans="1:13" s="2" customFormat="1">
+      <c r="A440" s="18"/>
+      <c r="B440" s="3"/>
+      <c r="C440" s="18">
+        <v>194</v>
+      </c>
+      <c r="D440" s="18"/>
+      <c r="E440" s="3"/>
+      <c r="F440" s="3"/>
+      <c r="G440" s="3"/>
+      <c r="H440" s="3"/>
+      <c r="J440" s="3"/>
+    </row>
+    <row r="441" spans="1:13" s="2" customFormat="1">
+      <c r="A441" s="18"/>
+      <c r="B441" s="3"/>
+      <c r="C441" s="18">
+        <v>211</v>
+      </c>
+      <c r="D441" s="18"/>
+      <c r="E441" s="3"/>
+      <c r="F441" s="3"/>
+      <c r="G441" s="3"/>
+      <c r="H441" s="3"/>
+      <c r="J441" s="3"/>
+    </row>
+    <row r="442" spans="1:13" s="2" customFormat="1">
+      <c r="A442" s="18"/>
+      <c r="B442" s="3"/>
+      <c r="C442" s="18">
+        <v>253</v>
+      </c>
+      <c r="D442" s="18"/>
+      <c r="E442" s="3"/>
+      <c r="F442" s="3"/>
+      <c r="G442" s="3"/>
+      <c r="H442" s="3"/>
+      <c r="J442" s="3"/>
+    </row>
+    <row r="443" spans="1:13" s="2" customFormat="1">
+      <c r="A443" s="18"/>
+      <c r="B443" s="3"/>
+      <c r="C443" s="18">
+        <v>258</v>
+      </c>
+      <c r="D443" s="18"/>
+      <c r="E443" s="3"/>
+      <c r="F443" s="3"/>
+      <c r="G443" s="3"/>
+      <c r="H443" s="3"/>
+      <c r="J443" s="3"/>
+    </row>
+    <row r="444" spans="1:13" s="2" customFormat="1">
+      <c r="A444" s="18"/>
+      <c r="B444" s="3"/>
+      <c r="C444" s="18">
+        <v>261</v>
+      </c>
+      <c r="D444" s="18"/>
+      <c r="E444" s="3"/>
+      <c r="F444" s="3"/>
+      <c r="G444" s="3"/>
+      <c r="H444" s="3"/>
+      <c r="J444" s="3"/>
+    </row>
+    <row r="445" spans="1:13" s="27" customFormat="1">
+      <c r="A445" s="25"/>
+      <c r="B445" s="26"/>
+      <c r="C445" s="25"/>
+      <c r="D445" s="25"/>
+      <c r="E445" s="26"/>
+      <c r="F445" s="26"/>
+      <c r="G445" s="26"/>
+      <c r="H445" s="26"/>
+      <c r="J445" s="26"/>
+    </row>
+    <row r="446" spans="1:13" s="34" customFormat="1">
+      <c r="A446" s="32"/>
+      <c r="B446" s="33" t="s">
         <v>590</v>
       </c>
-      <c r="C440" s="32"/>
-      <c r="D440" s="32"/>
-      <c r="E440" s="33"/>
-      <c r="F440" s="33" t="s">
+      <c r="C446" s="32"/>
+      <c r="D446" s="32"/>
+      <c r="E446" s="33"/>
+      <c r="F446" s="33" t="s">
         <v>106</v>
       </c>
-      <c r="G440" s="33"/>
-      <c r="H440" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="I440" s="33">
+      <c r="G446" s="33"/>
+      <c r="H446" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="I446" s="33">
         <v>24</v>
       </c>
-      <c r="J440" s="33" t="s">
+      <c r="J446" s="33" t="s">
         <v>363</v>
       </c>
-      <c r="L440" s="34" t="s">
+      <c r="L446" s="34" t="s">
         <v>620</v>
       </c>
-      <c r="M440" s="34" t="s">
+      <c r="M446" s="34" t="s">
         <v>621</v>
       </c>
     </row>
-    <row r="441" spans="1:13" s="34" customFormat="1">
-      <c r="A441" s="32"/>
-      <c r="B441" s="33" t="s">
+    <row r="447" spans="1:13" s="34" customFormat="1">
+      <c r="A447" s="32"/>
+      <c r="B447" s="33" t="s">
         <v>590</v>
       </c>
-      <c r="C441" s="32"/>
-      <c r="D441" s="32"/>
-      <c r="E441" s="33"/>
-      <c r="F441" s="33" t="s">
+      <c r="C447" s="32"/>
+      <c r="D447" s="32"/>
+      <c r="E447" s="33"/>
+      <c r="F447" s="33" t="s">
         <v>106</v>
       </c>
-      <c r="G441" s="33"/>
-      <c r="H441" s="33" t="s">
+      <c r="G447" s="33"/>
+      <c r="H447" s="33" t="s">
         <v>100</v>
       </c>
-      <c r="I441" s="33">
+      <c r="I447" s="33">
         <v>14</v>
       </c>
-      <c r="J441" s="33" t="s">
+      <c r="J447" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="K441" s="34" t="s">
+      <c r="K447" s="34" t="s">
         <v>619</v>
       </c>
     </row>
-    <row r="442" spans="1:13">
-      <c r="B442" s="12" t="s">
+    <row r="448" spans="1:13">
+      <c r="B448" s="12" t="s">
         <v>590</v>
       </c>
-      <c r="C442" s="30"/>
-      <c r="D442" s="30"/>
-      <c r="E442" s="12"/>
-      <c r="F442" s="12" t="s">
+      <c r="C448" s="30"/>
+      <c r="D448" s="30"/>
+      <c r="E448" s="12"/>
+      <c r="F448" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="G442" s="12"/>
-      <c r="H442" s="12">
+      <c r="G448" s="12"/>
+      <c r="H448" s="12">
         <v>16</v>
       </c>
-      <c r="I442" s="12">
+      <c r="I448" s="12">
         <v>31</v>
       </c>
-      <c r="J442" s="12" t="s">
+      <c r="J448" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="K442" s="35" t="s">
+      <c r="K448" s="35" t="s">
         <v>244</v>
-      </c>
-    </row>
-    <row r="467" spans="1:1">
-      <c r="A467" s="29">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="468" spans="1:1">
-      <c r="A468" s="29">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="469" spans="1:1">
-      <c r="A469" s="29">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="470" spans="1:1">
-      <c r="A470" s="29">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="471" spans="1:1">
-      <c r="A471" s="29">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="472" spans="1:1">
-      <c r="A472" s="29">
-        <v>199</v>
       </c>
     </row>
     <row r="473" spans="1:1">
       <c r="A473" s="29">
-        <v>200</v>
+        <v>194</v>
       </c>
     </row>
     <row r="474" spans="1:1">
       <c r="A474" s="29">
-        <v>201</v>
+        <v>195</v>
       </c>
     </row>
     <row r="475" spans="1:1">
-      <c r="A475" s="31">
-        <v>202</v>
+      <c r="A475" s="29">
+        <v>196</v>
       </c>
     </row>
     <row r="476" spans="1:1">
       <c r="A476" s="29">
-        <v>203</v>
+        <v>197</v>
       </c>
     </row>
     <row r="477" spans="1:1">
       <c r="A477" s="29">
-        <v>204</v>
+        <v>198</v>
       </c>
     </row>
     <row r="478" spans="1:1">
       <c r="A478" s="29">
-        <v>205</v>
+        <v>199</v>
       </c>
     </row>
     <row r="479" spans="1:1">
       <c r="A479" s="29">
-        <v>206</v>
+        <v>200</v>
       </c>
     </row>
     <row r="480" spans="1:1">
       <c r="A480" s="29">
-        <v>207</v>
+        <v>201</v>
       </c>
     </row>
     <row r="481" spans="1:1">
-      <c r="A481" s="29">
-        <v>208</v>
+      <c r="A481" s="31">
+        <v>202</v>
       </c>
     </row>
     <row r="482" spans="1:1">
       <c r="A482" s="29">
-        <v>209</v>
+        <v>203</v>
       </c>
     </row>
     <row r="483" spans="1:1">
       <c r="A483" s="29">
-        <v>210</v>
+        <v>204</v>
       </c>
     </row>
     <row r="484" spans="1:1">
       <c r="A484" s="29">
-        <v>211</v>
+        <v>205</v>
       </c>
     </row>
     <row r="485" spans="1:1">
       <c r="A485" s="29">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="486" spans="1:1">
       <c r="A486" s="29">
-        <v>213</v>
+        <v>207</v>
       </c>
     </row>
     <row r="487" spans="1:1">
       <c r="A487" s="29">
-        <v>214</v>
+        <v>208</v>
       </c>
     </row>
     <row r="488" spans="1:1">
       <c r="A488" s="29">
-        <v>215</v>
+        <v>209</v>
       </c>
     </row>
     <row r="489" spans="1:1">
       <c r="A489" s="29">
-        <v>216</v>
+        <v>210</v>
       </c>
     </row>
     <row r="490" spans="1:1">
       <c r="A490" s="29">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="491" spans="1:1">
       <c r="A491" s="29">
-        <v>218</v>
+        <v>212</v>
       </c>
     </row>
     <row r="492" spans="1:1">
       <c r="A492" s="29">
-        <v>219</v>
+        <v>213</v>
       </c>
     </row>
     <row r="493" spans="1:1">
       <c r="A493" s="29">
-        <v>220</v>
+        <v>214</v>
       </c>
     </row>
     <row r="494" spans="1:1">
       <c r="A494" s="29">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="495" spans="1:1">
+      <c r="A495" s="29">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="496" spans="1:1">
+      <c r="A496" s="29">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="497" spans="1:1">
+      <c r="A497" s="29">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="498" spans="1:1">
+      <c r="A498" s="29">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="499" spans="1:1">
+      <c r="A499" s="29">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="500" spans="1:1">
+      <c r="A500" s="29">
         <v>221</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B1:B440" xr:uid="{39BF6EB1-227D-4123-B057-897FB710CCBD}"/>
+  <autoFilter ref="B1:B446" xr:uid="{39BF6EB1-227D-4123-B057-897FB710CCBD}"/>
   <mergeCells count="1">
     <mergeCell ref="J147:J148"/>
   </mergeCells>

--- a/metadata/Inventory inscribed pieces.xlsx
+++ b/metadata/Inventory inscribed pieces.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vincenttournier/Documents/GitHub/tfb-satavahana-epigraphy/metadata/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vincentournier/Documents/GitHub/tfb-satavahana-epigraphy/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F328F3F-8B58-A94C-A0FF-92414FB98DC9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E33CD6D-6E47-4444-B967-93F68581B4C4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38500" windowHeight="14700" xr2:uid="{D79794C4-FCC0-9B4A-B6F1-FEEF81BE6884}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="14700" xr2:uid="{D79794C4-FCC0-9B4A-B6F1-FEEF81BE6884}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2016" uniqueCount="717">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2018" uniqueCount="721">
   <si>
     <t>shed 1</t>
   </si>
@@ -2304,6 +2304,18 @@
   </si>
   <si>
     <t>D10?</t>
+  </si>
+  <si>
+    <t>C9</t>
+  </si>
+  <si>
+    <t>E8</t>
+  </si>
+  <si>
+    <t>E9</t>
+  </si>
+  <si>
+    <t>A</t>
   </si>
 </sst>
 </file>
@@ -2883,8 +2895,8 @@
   <dimension ref="A1:M500"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A317" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D321" sqref="D321"/>
+      <pane ySplit="1" topLeftCell="A400" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F408" sqref="F408"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -12604,9 +12616,13 @@
       <c r="C404" s="47" t="s">
         <v>392</v>
       </c>
-      <c r="D404" s="18"/>
+      <c r="D404" s="18" t="s">
+        <v>717</v>
+      </c>
       <c r="E404" s="3"/>
-      <c r="F404" s="3"/>
+      <c r="F404" s="3" t="s">
+        <v>546</v>
+      </c>
       <c r="G404" s="3"/>
       <c r="H404" s="3"/>
       <c r="J404" s="3"/>
@@ -12621,9 +12637,13 @@
       <c r="C405" s="47" t="s">
         <v>392</v>
       </c>
-      <c r="D405" s="18"/>
+      <c r="D405" s="18" t="s">
+        <v>718</v>
+      </c>
       <c r="E405" s="3"/>
-      <c r="F405" s="3"/>
+      <c r="F405" s="3" t="s">
+        <v>546</v>
+      </c>
       <c r="G405" s="3"/>
       <c r="H405" s="3"/>
       <c r="J405" s="3"/>
@@ -12638,9 +12658,13 @@
       <c r="C406" s="47" t="s">
         <v>392</v>
       </c>
-      <c r="D406" s="18"/>
+      <c r="D406" s="18" t="s">
+        <v>719</v>
+      </c>
       <c r="E406" s="3"/>
-      <c r="F406" s="3"/>
+      <c r="F406" s="3" t="s">
+        <v>546</v>
+      </c>
       <c r="G406" s="3"/>
       <c r="H406" s="3"/>
       <c r="J406" s="3"/>
@@ -12655,23 +12679,21 @@
       <c r="C407" s="47" t="s">
         <v>392</v>
       </c>
-      <c r="D407" s="18"/>
+      <c r="D407" s="18" t="s">
+        <v>720</v>
+      </c>
       <c r="E407" s="3"/>
-      <c r="F407" s="3"/>
+      <c r="F407" s="3" t="s">
+        <v>546</v>
+      </c>
       <c r="G407" s="3"/>
       <c r="H407" s="3"/>
       <c r="J407" s="3"/>
     </row>
     <row r="408" spans="1:10" s="2" customFormat="1">
-      <c r="A408" s="18">
-        <v>407</v>
-      </c>
-      <c r="B408" s="47" t="s">
-        <v>392</v>
-      </c>
-      <c r="C408" s="47" t="s">
-        <v>392</v>
-      </c>
+      <c r="A408" s="18"/>
+      <c r="B408" s="47"/>
+      <c r="C408" s="47"/>
       <c r="D408" s="18"/>
       <c r="E408" s="3"/>
       <c r="F408" s="3"/>
@@ -12680,15 +12702,9 @@
       <c r="J408" s="3"/>
     </row>
     <row r="409" spans="1:10" s="2" customFormat="1">
-      <c r="A409" s="18">
-        <v>408</v>
-      </c>
-      <c r="B409" s="47" t="s">
-        <v>392</v>
-      </c>
-      <c r="C409" s="47" t="s">
-        <v>392</v>
-      </c>
+      <c r="A409" s="18"/>
+      <c r="B409" s="47"/>
+      <c r="C409" s="47"/>
       <c r="D409" s="18"/>
       <c r="E409" s="3"/>
       <c r="F409" s="3"/>
@@ -12697,15 +12713,9 @@
       <c r="J409" s="3"/>
     </row>
     <row r="410" spans="1:10" s="2" customFormat="1">
-      <c r="A410" s="18">
-        <v>409</v>
-      </c>
-      <c r="B410" s="47" t="s">
-        <v>392</v>
-      </c>
-      <c r="C410" s="47" t="s">
-        <v>392</v>
-      </c>
+      <c r="A410" s="18"/>
+      <c r="B410" s="47"/>
+      <c r="C410" s="47"/>
       <c r="D410" s="18"/>
       <c r="E410" s="3"/>
       <c r="F410" s="3"/>

--- a/metadata/Inventory inscribed pieces.xlsx
+++ b/metadata/Inventory inscribed pieces.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vincenttournier/Documents/GitHub/tfb-satavahana-epigraphy/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9537762-D001-4B42-8D6F-F3E1FF03AB12}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09C01FBB-E28A-904B-9450-DCFD0E721E08}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="39640" windowHeight="17720" xr2:uid="{D79794C4-FCC0-9B4A-B6F1-FEEF81BE6884}"/>
+    <workbookView xWindow="1320" yWindow="6000" windowWidth="39640" windowHeight="17720" xr2:uid="{D79794C4-FCC0-9B4A-B6F1-FEEF81BE6884}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$B$449</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$B$464</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2440" uniqueCount="763">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2524" uniqueCount="788">
   <si>
     <t>shed 1</t>
   </si>
@@ -2432,9 +2432,6 @@
     <t>E6</t>
   </si>
   <si>
-    <t>fragment of a memorial stone?</t>
-  </si>
-  <si>
     <t>E15</t>
   </si>
   <si>
@@ -2442,6 +2439,84 @@
   </si>
   <si>
     <t>B4</t>
+  </si>
+  <si>
+    <t>E25</t>
+  </si>
+  <si>
+    <t>1966–67: B221</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1996–97: B11?</t>
+  </si>
+  <si>
+    <t>D9</t>
+  </si>
+  <si>
+    <t>D11</t>
+  </si>
+  <si>
+    <t>1968–69: B92</t>
+  </si>
+  <si>
+    <t>E16</t>
+  </si>
+  <si>
+    <t>1966–67: B211</t>
+  </si>
+  <si>
+    <t>1966–67: B212</t>
+  </si>
+  <si>
+    <t>E17</t>
+  </si>
+  <si>
+    <t>E18</t>
+  </si>
+  <si>
+    <t>1966–67: B214</t>
+  </si>
+  <si>
+    <t>E19</t>
+  </si>
+  <si>
+    <t>1966–67: B215</t>
+  </si>
+  <si>
+    <t>E21</t>
+  </si>
+  <si>
+    <t>1966–67: B217</t>
+  </si>
+  <si>
+    <t>1966–67: B218</t>
+  </si>
+  <si>
+    <t>E22</t>
+  </si>
+  <si>
+    <t>E23</t>
+  </si>
+  <si>
+    <t>1966–67: B219</t>
+  </si>
+  <si>
+    <t>E26</t>
+  </si>
+  <si>
+    <t>1968–69: B88</t>
+  </si>
+  <si>
+    <t>E30</t>
+  </si>
+  <si>
+    <t>1968–69: B94</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1996–97: B10</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1996–97: B8</t>
   </si>
 </sst>
 </file>
@@ -2607,7 +2682,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2735,6 +2810,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3049,11 +3127,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AE06EC2-582E-7A46-AA00-435759BE671C}">
-  <dimension ref="A1:N503"/>
+  <dimension ref="A1:N518"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A400" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A401" sqref="A401:XFD401"/>
+      <pane ySplit="1" topLeftCell="A416" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F435" sqref="F435"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -7494,7 +7572,7 @@
         <v>385</v>
       </c>
       <c r="E147" s="22"/>
-      <c r="F147" s="39"/>
+      <c r="F147" s="51"/>
       <c r="G147" s="22" t="s">
         <v>6</v>
       </c>
@@ -7522,7 +7600,7 @@
         <v>385</v>
       </c>
       <c r="E148" s="22"/>
-      <c r="F148" s="39"/>
+      <c r="F148" s="51"/>
       <c r="G148" s="22" t="s">
         <v>6</v>
       </c>
@@ -13541,8 +13619,8 @@
       <c r="C348" s="46" t="s">
         <v>385</v>
       </c>
-      <c r="D348" s="21" t="s">
-        <v>664</v>
+      <c r="D348" s="18" t="s">
+        <v>385</v>
       </c>
       <c r="E348" s="22"/>
       <c r="F348" s="22"/>
@@ -14110,7 +14188,7 @@
         <v>385</v>
       </c>
       <c r="D371" s="46" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="E371" s="22" t="s">
         <v>717</v>
@@ -14856,7 +14934,7 @@
         <v>385</v>
       </c>
       <c r="D401" s="21" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="E401" s="22"/>
       <c r="F401" s="22"/>
@@ -15017,198 +15095,203 @@
       <c r="L407" s="23"/>
       <c r="M407" s="22"/>
     </row>
-    <row r="408" spans="1:13">
-      <c r="A408" s="6">
+    <row r="408" spans="1:13" s="1" customFormat="1">
+      <c r="A408" s="39">
         <v>407</v>
       </c>
-      <c r="B408" s="18" t="s">
-        <v>385</v>
-      </c>
-      <c r="C408" s="18" t="s">
-        <v>385</v>
-      </c>
-      <c r="D408" s="18" t="s">
-        <v>385</v>
-      </c>
-      <c r="F408" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="G408" s="2" t="s">
-        <v>527</v>
-      </c>
-      <c r="I408" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="M408" s="2" t="s">
-        <v>427</v>
-      </c>
+      <c r="B408" s="46" t="s">
+        <v>385</v>
+      </c>
+      <c r="C408" s="46" t="s">
+        <v>385</v>
+      </c>
+      <c r="D408" s="39" t="s">
+        <v>762</v>
+      </c>
+      <c r="E408" s="22" t="s">
+        <v>763</v>
+      </c>
+      <c r="F408" s="22"/>
+      <c r="G408" s="22" t="s">
+        <v>563</v>
+      </c>
+      <c r="H408" s="22"/>
+      <c r="I408" s="22"/>
+      <c r="J408" s="23"/>
+      <c r="L408" s="23"/>
+      <c r="M408" s="22"/>
     </row>
     <row r="409" spans="1:13" s="1" customFormat="1">
-      <c r="A409" s="6">
+      <c r="A409" s="39">
         <v>408</v>
       </c>
-      <c r="B409" s="18" t="s">
-        <v>385</v>
-      </c>
-      <c r="C409" s="18" t="s">
-        <v>385</v>
-      </c>
-      <c r="D409" s="21" t="s">
-        <v>743</v>
-      </c>
-      <c r="E409" s="22" t="s">
-        <v>744</v>
-      </c>
-      <c r="F409" s="2"/>
-      <c r="G409" s="2" t="s">
-        <v>539</v>
-      </c>
-      <c r="H409" s="2"/>
-      <c r="I409" s="2"/>
-      <c r="M409" s="2"/>
+      <c r="B409" s="46" t="s">
+        <v>385</v>
+      </c>
+      <c r="C409" s="46" t="s">
+        <v>385</v>
+      </c>
+      <c r="D409" s="46" t="s">
+        <v>385</v>
+      </c>
+      <c r="E409" s="46"/>
+      <c r="F409" s="22"/>
+      <c r="G409" s="22" t="s">
+        <v>563</v>
+      </c>
+      <c r="H409" s="22"/>
+      <c r="I409" s="22"/>
+      <c r="J409" s="23"/>
+      <c r="L409" s="23"/>
+      <c r="M409" s="22"/>
     </row>
     <row r="410" spans="1:13" s="1" customFormat="1">
-      <c r="A410" s="6">
+      <c r="A410" s="39">
         <v>409</v>
       </c>
-      <c r="B410" s="18" t="s">
-        <v>385</v>
-      </c>
-      <c r="C410" s="18" t="s">
-        <v>385</v>
-      </c>
-      <c r="D410" s="18" t="s">
-        <v>385</v>
-      </c>
-      <c r="F410" s="2"/>
-      <c r="G410" s="2" t="s">
-        <v>539</v>
-      </c>
-      <c r="H410" s="2"/>
-      <c r="I410" s="2"/>
-      <c r="M410" s="2"/>
+      <c r="B410" s="46" t="s">
+        <v>385</v>
+      </c>
+      <c r="C410" s="46" t="s">
+        <v>385</v>
+      </c>
+      <c r="D410" s="46" t="s">
+        <v>385</v>
+      </c>
+      <c r="E410" s="22"/>
+      <c r="F410" s="22"/>
+      <c r="G410" s="22" t="s">
+        <v>563</v>
+      </c>
+      <c r="H410" s="22"/>
+      <c r="I410" s="22"/>
+      <c r="J410" s="23"/>
+      <c r="L410" s="23"/>
+      <c r="M410" s="22"/>
     </row>
     <row r="411" spans="1:13" s="1" customFormat="1">
-      <c r="A411" s="6">
+      <c r="A411" s="39">
         <v>410</v>
       </c>
-      <c r="B411" s="18" t="s">
-        <v>385</v>
-      </c>
-      <c r="C411" s="18" t="s">
-        <v>385</v>
-      </c>
-      <c r="D411" s="6" t="s">
-        <v>559</v>
-      </c>
-      <c r="E411" s="22" t="s">
-        <v>745</v>
-      </c>
-      <c r="F411" s="2" t="s">
-        <v>750</v>
-      </c>
-      <c r="G411" s="2" t="s">
-        <v>527</v>
-      </c>
-      <c r="H411" s="2"/>
-      <c r="I411" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="M411" s="5" t="s">
-        <v>419</v>
-      </c>
+      <c r="B411" s="46" t="s">
+        <v>385</v>
+      </c>
+      <c r="C411" s="46" t="s">
+        <v>385</v>
+      </c>
+      <c r="D411" s="46" t="s">
+        <v>385</v>
+      </c>
+      <c r="E411" s="22"/>
+      <c r="F411" s="22"/>
+      <c r="G411" s="22" t="s">
+        <v>563</v>
+      </c>
+      <c r="H411" s="22"/>
+      <c r="I411" s="22"/>
+      <c r="J411" s="23"/>
+      <c r="L411" s="23"/>
+      <c r="M411" s="22"/>
     </row>
     <row r="412" spans="1:13" s="1" customFormat="1">
-      <c r="A412" s="6">
+      <c r="A412" s="39">
         <v>411</v>
       </c>
-      <c r="B412" s="18" t="s">
-        <v>385</v>
-      </c>
-      <c r="C412" s="18" t="s">
-        <v>385</v>
-      </c>
-      <c r="D412" s="6" t="s">
-        <v>748</v>
+      <c r="B412" s="46" t="s">
+        <v>385</v>
+      </c>
+      <c r="C412" s="46" t="s">
+        <v>385</v>
+      </c>
+      <c r="D412" s="46" t="s">
+        <v>385</v>
       </c>
       <c r="E412" s="22" t="s">
-        <v>749</v>
-      </c>
-      <c r="F412" s="2"/>
-      <c r="G412" s="2" t="s">
-        <v>539</v>
-      </c>
-      <c r="H412" s="2"/>
-      <c r="I412" s="2"/>
-      <c r="M412" s="2"/>
+        <v>764</v>
+      </c>
+      <c r="F412" s="22"/>
+      <c r="G412" s="22" t="s">
+        <v>563</v>
+      </c>
+      <c r="H412" s="22"/>
+      <c r="I412" s="22"/>
+      <c r="J412" s="23"/>
+      <c r="L412" s="23"/>
+      <c r="M412" s="22"/>
     </row>
     <row r="413" spans="1:13" s="1" customFormat="1">
-      <c r="A413" s="6">
+      <c r="A413" s="39">
         <v>412</v>
       </c>
-      <c r="B413" s="18" t="s">
-        <v>385</v>
-      </c>
-      <c r="C413" s="18" t="s">
-        <v>385</v>
-      </c>
-      <c r="D413" s="6" t="s">
-        <v>751</v>
+      <c r="B413" s="46" t="s">
+        <v>385</v>
+      </c>
+      <c r="C413" s="46" t="s">
+        <v>385</v>
+      </c>
+      <c r="D413" s="46" t="s">
+        <v>385</v>
       </c>
       <c r="E413" s="22"/>
-      <c r="F413" s="2"/>
+      <c r="F413" s="22"/>
       <c r="G413" s="22" t="s">
         <v>563</v>
       </c>
-      <c r="H413" s="2"/>
-      <c r="I413" s="2"/>
-      <c r="M413" s="2"/>
-    </row>
-    <row r="414" spans="1:13">
-      <c r="A414" s="6">
+      <c r="H413" s="22"/>
+      <c r="I413" s="22"/>
+      <c r="J413" s="23"/>
+      <c r="L413" s="23"/>
+      <c r="M413" s="22"/>
+    </row>
+    <row r="414" spans="1:13" s="1" customFormat="1">
+      <c r="A414" s="39">
         <v>413</v>
       </c>
-      <c r="B414" s="2" t="s">
-        <v>579</v>
-      </c>
-      <c r="C414" s="18" t="s">
-        <v>385</v>
-      </c>
-      <c r="D414" s="18" t="s">
-        <v>385</v>
-      </c>
-      <c r="F414" s="2" t="s">
-        <v>580</v>
-      </c>
-      <c r="G414" s="2" t="s">
+      <c r="B414" s="46" t="s">
+        <v>385</v>
+      </c>
+      <c r="C414" s="46" t="s">
+        <v>385</v>
+      </c>
+      <c r="D414" s="39" t="s">
+        <v>758</v>
+      </c>
+      <c r="E414" s="22"/>
+      <c r="F414" s="22"/>
+      <c r="G414" s="22" t="s">
         <v>539</v>
       </c>
+      <c r="H414" s="22"/>
+      <c r="I414" s="22"/>
+      <c r="J414" s="23"/>
+      <c r="L414" s="23"/>
+      <c r="M414" s="22"/>
     </row>
     <row r="415" spans="1:13" s="1" customFormat="1">
-      <c r="A415" s="6">
+      <c r="A415" s="39">
         <v>414</v>
       </c>
-      <c r="B415" s="18" t="s">
-        <v>385</v>
-      </c>
-      <c r="C415" s="18" t="s">
-        <v>385</v>
-      </c>
-      <c r="D415" s="18" t="s">
-        <v>758</v>
-      </c>
-      <c r="E415" s="2"/>
-      <c r="F415" s="2" t="s">
+      <c r="B415" s="46" t="s">
+        <v>385</v>
+      </c>
+      <c r="C415" s="46" t="s">
+        <v>385</v>
+      </c>
+      <c r="D415" s="39" t="s">
         <v>759</v>
       </c>
-      <c r="G415" s="2" t="s">
+      <c r="E415" s="22"/>
+      <c r="F415" s="22"/>
+      <c r="G415" s="22" t="s">
         <v>539</v>
       </c>
-      <c r="H415" s="2"/>
-      <c r="I415" s="2"/>
-      <c r="M415" s="2"/>
-    </row>
-    <row r="416" spans="1:13" s="1" customFormat="1">
+      <c r="H415" s="22"/>
+      <c r="I415" s="22"/>
+      <c r="J415" s="23"/>
+      <c r="L415" s="23"/>
+      <c r="M415" s="22"/>
+    </row>
+    <row r="416" spans="1:13">
       <c r="A416" s="6">
         <v>415</v>
       </c>
@@ -15219,35 +15302,48 @@
         <v>385</v>
       </c>
       <c r="D416" s="18" t="s">
-        <v>760</v>
-      </c>
-      <c r="E416" s="2"/>
+        <v>385</v>
+      </c>
       <c r="F416" s="2" t="s">
-        <v>759</v>
+        <v>164</v>
       </c>
       <c r="G416" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="I416" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="M416" s="2" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="417" spans="1:13" s="1" customFormat="1">
+      <c r="A417" s="6">
+        <v>416</v>
+      </c>
+      <c r="B417" s="18" t="s">
+        <v>385</v>
+      </c>
+      <c r="C417" s="18" t="s">
+        <v>385</v>
+      </c>
+      <c r="D417" s="21" t="s">
+        <v>743</v>
+      </c>
+      <c r="E417" s="22" t="s">
+        <v>744</v>
+      </c>
+      <c r="F417" s="2"/>
+      <c r="G417" s="2" t="s">
         <v>539</v>
       </c>
-      <c r="H416" s="2"/>
-      <c r="I416" s="2"/>
-      <c r="M416" s="2"/>
-    </row>
-    <row r="417" spans="1:13" s="50" customFormat="1">
-      <c r="B417" s="47" t="s">
-        <v>757</v>
-      </c>
-      <c r="C417" s="49"/>
-      <c r="D417" s="49"/>
-      <c r="E417" s="48"/>
-      <c r="F417" s="48"/>
-      <c r="G417" s="48"/>
-      <c r="H417" s="48"/>
-      <c r="I417" s="48"/>
-      <c r="M417" s="48"/>
+      <c r="H417" s="2"/>
+      <c r="I417" s="2"/>
+      <c r="M417" s="2"/>
     </row>
     <row r="418" spans="1:13" s="1" customFormat="1">
       <c r="A418" s="6">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B418" s="18" t="s">
         <v>385</v>
@@ -15255,11 +15351,8 @@
       <c r="C418" s="18" t="s">
         <v>385</v>
       </c>
-      <c r="D418" s="6" t="s">
-        <v>747</v>
-      </c>
-      <c r="E418" s="22" t="s">
-        <v>746</v>
+      <c r="D418" s="18" t="s">
+        <v>385</v>
       </c>
       <c r="F418" s="2"/>
       <c r="G418" s="2" t="s">
@@ -15270,146 +15363,360 @@
       <c r="M418" s="2"/>
     </row>
     <row r="419" spans="1:13" s="1" customFormat="1">
-      <c r="A419" s="6"/>
-      <c r="B419" s="18"/>
-      <c r="C419" s="18"/>
-      <c r="D419" s="6"/>
-      <c r="E419" s="2"/>
-      <c r="F419" s="2"/>
-      <c r="G419" s="2"/>
+      <c r="A419" s="6">
+        <v>418</v>
+      </c>
+      <c r="B419" s="18" t="s">
+        <v>385</v>
+      </c>
+      <c r="C419" s="18" t="s">
+        <v>385</v>
+      </c>
+      <c r="D419" s="6" t="s">
+        <v>559</v>
+      </c>
+      <c r="E419" s="22" t="s">
+        <v>745</v>
+      </c>
+      <c r="F419" s="2" t="s">
+        <v>750</v>
+      </c>
+      <c r="G419" s="2" t="s">
+        <v>527</v>
+      </c>
       <c r="H419" s="2"/>
-      <c r="I419" s="2"/>
-      <c r="M419" s="2"/>
+      <c r="I419" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="M419" s="5" t="s">
+        <v>419</v>
+      </c>
     </row>
     <row r="420" spans="1:13" s="1" customFormat="1">
-      <c r="A420" s="6"/>
-      <c r="B420" s="18"/>
-      <c r="C420" s="18"/>
-      <c r="D420" s="6"/>
-      <c r="E420" s="2"/>
+      <c r="A420" s="6">
+        <v>419</v>
+      </c>
+      <c r="B420" s="18" t="s">
+        <v>385</v>
+      </c>
+      <c r="C420" s="18" t="s">
+        <v>385</v>
+      </c>
+      <c r="D420" s="6" t="s">
+        <v>748</v>
+      </c>
+      <c r="E420" s="22" t="s">
+        <v>749</v>
+      </c>
       <c r="F420" s="2"/>
-      <c r="G420" s="2"/>
+      <c r="G420" s="2" t="s">
+        <v>539</v>
+      </c>
       <c r="H420" s="2"/>
       <c r="I420" s="2"/>
       <c r="M420" s="2"/>
     </row>
-    <row r="423" spans="1:13">
-      <c r="B423" s="18" t="s">
-        <v>385</v>
-      </c>
-      <c r="C423" s="18" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="425" spans="1:13" s="10" customFormat="1">
-      <c r="A425" s="8"/>
-      <c r="B425" s="9"/>
-      <c r="C425" s="8"/>
-      <c r="D425" s="8"/>
-      <c r="E425" s="9"/>
-      <c r="F425" s="9"/>
-      <c r="G425" s="9"/>
-      <c r="H425" s="9"/>
-      <c r="I425" s="9"/>
-      <c r="M425" s="9"/>
-    </row>
-    <row r="426" spans="1:13">
-      <c r="A426" s="2" t="s">
-        <v>524</v>
-      </c>
-      <c r="F426" s="2" t="s">
-        <v>526</v>
-      </c>
+    <row r="421" spans="1:13" s="1" customFormat="1">
+      <c r="A421" s="6">
+        <v>420</v>
+      </c>
+      <c r="B421" s="18" t="s">
+        <v>385</v>
+      </c>
+      <c r="C421" s="18" t="s">
+        <v>385</v>
+      </c>
+      <c r="D421" s="6" t="s">
+        <v>751</v>
+      </c>
+      <c r="E421" s="22"/>
+      <c r="F421" s="2"/>
+      <c r="G421" s="22" t="s">
+        <v>563</v>
+      </c>
+      <c r="H421" s="2"/>
+      <c r="I421" s="2"/>
+      <c r="M421" s="2"/>
+    </row>
+    <row r="422" spans="1:13">
+      <c r="A422" s="6">
+        <v>421</v>
+      </c>
+      <c r="B422" s="2" t="s">
+        <v>579</v>
+      </c>
+      <c r="C422" s="18" t="s">
+        <v>385</v>
+      </c>
+      <c r="D422" s="18" t="s">
+        <v>385</v>
+      </c>
+      <c r="F422" s="2" t="s">
+        <v>580</v>
+      </c>
+      <c r="G422" s="2" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="423" spans="1:13" s="50" customFormat="1">
+      <c r="B423" s="47" t="s">
+        <v>757</v>
+      </c>
+      <c r="C423" s="49"/>
+      <c r="D423" s="49"/>
+      <c r="E423" s="48"/>
+      <c r="F423" s="48"/>
+      <c r="G423" s="48"/>
+      <c r="H423" s="48"/>
+      <c r="I423" s="48"/>
+      <c r="M423" s="48"/>
+    </row>
+    <row r="424" spans="1:13" s="1" customFormat="1">
+      <c r="A424" s="6"/>
+      <c r="B424" s="18" t="s">
+        <v>385</v>
+      </c>
+      <c r="C424" s="18" t="s">
+        <v>385</v>
+      </c>
+      <c r="D424" s="6" t="s">
+        <v>747</v>
+      </c>
+      <c r="E424" s="22" t="s">
+        <v>746</v>
+      </c>
+      <c r="F424" s="2"/>
+      <c r="G424" s="2" t="s">
+        <v>539</v>
+      </c>
+      <c r="H424" s="2"/>
+      <c r="I424" s="2"/>
+      <c r="M424" s="2"/>
+    </row>
+    <row r="425" spans="1:13" s="1" customFormat="1">
+      <c r="A425" s="6"/>
+      <c r="B425" s="18" t="s">
+        <v>385</v>
+      </c>
+      <c r="C425" s="18" t="s">
+        <v>385</v>
+      </c>
+      <c r="D425" s="6" t="s">
+        <v>765</v>
+      </c>
+      <c r="E425" s="2"/>
+      <c r="F425" s="2"/>
+      <c r="G425" s="2" t="s">
+        <v>539</v>
+      </c>
+      <c r="H425" s="2"/>
+      <c r="I425" s="2"/>
+      <c r="M425" s="2"/>
+    </row>
+    <row r="426" spans="1:13" s="1" customFormat="1">
+      <c r="A426" s="6"/>
+      <c r="B426" s="18" t="s">
+        <v>385</v>
+      </c>
+      <c r="C426" s="18" t="s">
+        <v>385</v>
+      </c>
+      <c r="D426" s="6" t="s">
+        <v>766</v>
+      </c>
+      <c r="E426" s="22" t="s">
+        <v>767</v>
+      </c>
+      <c r="F426" s="2"/>
       <c r="G426" s="2" t="s">
-        <v>525</v>
-      </c>
-      <c r="I426" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="427" spans="1:13" s="1" customFormat="1">
-      <c r="A427" s="6"/>
-      <c r="B427" s="2"/>
-      <c r="C427" s="6"/>
-      <c r="D427" s="6"/>
-      <c r="E427" s="2"/>
-      <c r="F427" s="2"/>
-      <c r="G427" s="2"/>
-      <c r="H427" s="2"/>
-      <c r="I427" s="2"/>
-      <c r="M427" s="2"/>
-    </row>
-    <row r="428" spans="1:13" s="1" customFormat="1">
-      <c r="A428" s="6"/>
-      <c r="B428" s="2"/>
-      <c r="C428" s="6"/>
-      <c r="D428" s="6"/>
-      <c r="E428" s="2"/>
-      <c r="F428" s="2"/>
-      <c r="G428" s="2"/>
-      <c r="H428" s="2"/>
-      <c r="I428" s="2"/>
-      <c r="M428" s="2"/>
-    </row>
-    <row r="429" spans="1:13" s="1" customFormat="1">
-      <c r="A429" s="6"/>
-      <c r="B429" s="2"/>
-      <c r="C429" s="6"/>
-      <c r="D429" s="6"/>
-      <c r="E429" s="2"/>
-      <c r="F429" s="2"/>
-      <c r="G429" s="2"/>
-      <c r="H429" s="2"/>
-      <c r="I429" s="2"/>
-      <c r="M429" s="2"/>
+        <v>539</v>
+      </c>
+      <c r="H426" s="2"/>
+      <c r="I426" s="2"/>
+      <c r="M426" s="2"/>
+    </row>
+    <row r="427" spans="1:13">
+      <c r="B427" s="18" t="s">
+        <v>385</v>
+      </c>
+      <c r="C427" s="18" t="s">
+        <v>385</v>
+      </c>
+      <c r="D427" s="6" t="s">
+        <v>768</v>
+      </c>
+      <c r="E427" s="22" t="s">
+        <v>769</v>
+      </c>
+      <c r="G427" s="2" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="428" spans="1:13">
+      <c r="B428" s="18" t="s">
+        <v>385</v>
+      </c>
+      <c r="C428" s="18" t="s">
+        <v>385</v>
+      </c>
+      <c r="D428" s="6" t="s">
+        <v>771</v>
+      </c>
+      <c r="E428" s="34" t="s">
+        <v>770</v>
+      </c>
+      <c r="G428" s="2" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="429" spans="1:13">
+      <c r="B429" s="18" t="s">
+        <v>385</v>
+      </c>
+      <c r="C429" s="18" t="s">
+        <v>385</v>
+      </c>
+      <c r="D429" s="18" t="s">
+        <v>772</v>
+      </c>
+      <c r="E429" s="22" t="s">
+        <v>773</v>
+      </c>
+      <c r="G429" s="2" t="s">
+        <v>539</v>
+      </c>
     </row>
     <row r="430" spans="1:13" s="1" customFormat="1">
       <c r="A430" s="6"/>
-      <c r="B430" s="2"/>
-      <c r="C430" s="6"/>
-      <c r="D430" s="6"/>
-      <c r="E430" s="2"/>
+      <c r="B430" s="18" t="s">
+        <v>385</v>
+      </c>
+      <c r="C430" s="18" t="s">
+        <v>385</v>
+      </c>
+      <c r="D430" s="18" t="s">
+        <v>774</v>
+      </c>
+      <c r="E430" s="22" t="s">
+        <v>775</v>
+      </c>
       <c r="F430" s="2"/>
       <c r="G430" s="2"/>
       <c r="H430" s="2"/>
       <c r="I430" s="2"/>
       <c r="M430" s="2"/>
     </row>
-    <row r="432" spans="1:13">
-      <c r="G432" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="433" spans="1:13">
-      <c r="G433" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="434" spans="1:13" s="10" customFormat="1">
-      <c r="A434" s="8"/>
-      <c r="B434" s="9"/>
-      <c r="C434" s="8"/>
-      <c r="D434" s="8"/>
-      <c r="E434" s="9"/>
-      <c r="F434" s="9"/>
-      <c r="G434" s="9"/>
-      <c r="H434" s="9"/>
-      <c r="I434" s="9"/>
-      <c r="M434" s="9"/>
+    <row r="431" spans="1:13" s="1" customFormat="1">
+      <c r="A431" s="6"/>
+      <c r="B431" s="18" t="s">
+        <v>385</v>
+      </c>
+      <c r="C431" s="18" t="s">
+        <v>385</v>
+      </c>
+      <c r="D431" s="18" t="s">
+        <v>760</v>
+      </c>
+      <c r="E431" s="22" t="s">
+        <v>717</v>
+      </c>
+      <c r="F431" s="2"/>
+      <c r="G431" s="2"/>
+      <c r="H431" s="2"/>
+      <c r="I431" s="2"/>
+      <c r="M431" s="2"/>
+    </row>
+    <row r="432" spans="1:13" s="1" customFormat="1">
+      <c r="A432" s="6"/>
+      <c r="B432" s="18" t="s">
+        <v>385</v>
+      </c>
+      <c r="C432" s="18" t="s">
+        <v>385</v>
+      </c>
+      <c r="D432" s="18" t="s">
+        <v>776</v>
+      </c>
+      <c r="E432" s="22" t="s">
+        <v>777</v>
+      </c>
+      <c r="F432" s="2"/>
+      <c r="G432" s="2"/>
+      <c r="H432" s="2"/>
+      <c r="I432" s="2"/>
+      <c r="M432" s="2"/>
+    </row>
+    <row r="433" spans="1:13" s="1" customFormat="1">
+      <c r="A433" s="6"/>
+      <c r="B433" s="18" t="s">
+        <v>385</v>
+      </c>
+      <c r="C433" s="18" t="s">
+        <v>385</v>
+      </c>
+      <c r="D433" s="18" t="s">
+        <v>779</v>
+      </c>
+      <c r="E433" s="22" t="s">
+        <v>778</v>
+      </c>
+      <c r="F433" s="2"/>
+      <c r="G433" s="2"/>
+      <c r="H433" s="2"/>
+      <c r="I433" s="2"/>
+      <c r="M433" s="2"/>
+    </row>
+    <row r="434" spans="1:13" s="1" customFormat="1">
+      <c r="A434" s="6"/>
+      <c r="B434" s="18" t="s">
+        <v>385</v>
+      </c>
+      <c r="C434" s="18" t="s">
+        <v>385</v>
+      </c>
+      <c r="D434" s="18" t="s">
+        <v>780</v>
+      </c>
+      <c r="E434" s="22" t="s">
+        <v>781</v>
+      </c>
+      <c r="F434" s="2"/>
+      <c r="G434" s="2"/>
+      <c r="H434" s="2"/>
+      <c r="I434" s="2"/>
+      <c r="M434" s="2"/>
     </row>
     <row r="435" spans="1:13">
-      <c r="C435" s="6">
-        <v>152</v>
+      <c r="B435" s="18" t="s">
+        <v>385</v>
+      </c>
+      <c r="C435" s="18" t="s">
+        <v>385</v>
+      </c>
+      <c r="D435" s="18" t="s">
+        <v>782</v>
+      </c>
+      <c r="E435" s="22" t="s">
+        <v>783</v>
+      </c>
+      <c r="G435" s="2" t="s">
+        <v>539</v>
       </c>
     </row>
     <row r="436" spans="1:13" s="1" customFormat="1">
       <c r="A436" s="6"/>
-      <c r="B436" s="2"/>
-      <c r="C436" s="2">
-        <v>158</v>
-      </c>
-      <c r="D436" s="6"/>
-      <c r="E436" s="2"/>
+      <c r="B436" s="18" t="s">
+        <v>385</v>
+      </c>
+      <c r="C436" s="18" t="s">
+        <v>385</v>
+      </c>
+      <c r="D436" s="18" t="s">
+        <v>784</v>
+      </c>
+      <c r="E436" s="22" t="s">
+        <v>785</v>
+      </c>
       <c r="F436" s="2"/>
       <c r="G436" s="2"/>
       <c r="H436" s="2"/>
@@ -15418,12 +15725,16 @@
     </row>
     <row r="437" spans="1:13" s="1" customFormat="1">
       <c r="A437" s="6"/>
-      <c r="B437" s="2"/>
-      <c r="C437" s="6">
-        <v>159</v>
-      </c>
-      <c r="D437" s="6"/>
-      <c r="E437" s="2"/>
+      <c r="B437" s="18" t="s">
+        <v>385</v>
+      </c>
+      <c r="C437" s="18" t="s">
+        <v>385</v>
+      </c>
+      <c r="D437" s="18" t="s">
+        <v>664</v>
+      </c>
+      <c r="E437" s="22"/>
       <c r="F437" s="2"/>
       <c r="G437" s="2"/>
       <c r="H437" s="2"/>
@@ -15432,12 +15743,16 @@
     </row>
     <row r="438" spans="1:13" s="1" customFormat="1">
       <c r="A438" s="6"/>
-      <c r="B438" s="2"/>
-      <c r="C438" s="6">
-        <v>160</v>
-      </c>
-      <c r="D438" s="6"/>
-      <c r="E438" s="2"/>
+      <c r="B438" s="18" t="s">
+        <v>385</v>
+      </c>
+      <c r="C438" s="18" t="s">
+        <v>385</v>
+      </c>
+      <c r="D438" s="18"/>
+      <c r="E438" s="22" t="s">
+        <v>786</v>
+      </c>
       <c r="F438" s="2"/>
       <c r="G438" s="2"/>
       <c r="H438" s="2"/>
@@ -15446,52 +15761,52 @@
     </row>
     <row r="439" spans="1:13" s="1" customFormat="1">
       <c r="A439" s="6"/>
-      <c r="B439" s="2"/>
-      <c r="C439" s="6">
-        <v>170</v>
-      </c>
-      <c r="D439" s="6"/>
-      <c r="E439" s="2"/>
+      <c r="B439" s="18" t="s">
+        <v>385</v>
+      </c>
+      <c r="C439" s="18" t="s">
+        <v>385</v>
+      </c>
+      <c r="D439" s="18"/>
+      <c r="E439" s="34" t="s">
+        <v>787</v>
+      </c>
       <c r="F439" s="2"/>
       <c r="G439" s="2"/>
       <c r="H439" s="2"/>
       <c r="I439" s="2"/>
       <c r="M439" s="2"/>
     </row>
-    <row r="440" spans="1:13" s="1" customFormat="1">
-      <c r="A440" s="6"/>
-      <c r="B440" s="2"/>
-      <c r="C440" s="6">
-        <v>178</v>
-      </c>
-      <c r="D440" s="6"/>
-      <c r="E440" s="2"/>
-      <c r="F440" s="2"/>
-      <c r="G440" s="2"/>
-      <c r="H440" s="2"/>
-      <c r="I440" s="2"/>
-      <c r="M440" s="2"/>
-    </row>
-    <row r="441" spans="1:13" s="1" customFormat="1">
-      <c r="A441" s="6"/>
-      <c r="B441" s="2"/>
-      <c r="C441" s="6">
-        <v>184</v>
-      </c>
-      <c r="D441" s="6"/>
-      <c r="E441" s="2"/>
-      <c r="F441" s="2"/>
-      <c r="G441" s="2"/>
-      <c r="H441" s="2"/>
-      <c r="I441" s="2"/>
-      <c r="M441" s="2"/>
+    <row r="440" spans="1:13" s="10" customFormat="1">
+      <c r="A440" s="8"/>
+      <c r="B440" s="9"/>
+      <c r="C440" s="8"/>
+      <c r="D440" s="8"/>
+      <c r="E440" s="9"/>
+      <c r="F440" s="9"/>
+      <c r="G440" s="9"/>
+      <c r="H440" s="9"/>
+      <c r="I440" s="9"/>
+      <c r="M440" s="9"/>
+    </row>
+    <row r="441" spans="1:13">
+      <c r="A441" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="F441" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="G441" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="I441" s="2" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="442" spans="1:13" s="1" customFormat="1">
       <c r="A442" s="6"/>
       <c r="B442" s="2"/>
-      <c r="C442" s="6">
-        <v>186</v>
-      </c>
+      <c r="C442" s="6"/>
       <c r="D442" s="6"/>
       <c r="E442" s="2"/>
       <c r="F442" s="2"/>
@@ -15503,9 +15818,7 @@
     <row r="443" spans="1:13" s="1" customFormat="1">
       <c r="A443" s="6"/>
       <c r="B443" s="2"/>
-      <c r="C443" s="6">
-        <v>194</v>
-      </c>
+      <c r="C443" s="6"/>
       <c r="D443" s="6"/>
       <c r="E443" s="2"/>
       <c r="F443" s="2"/>
@@ -15517,9 +15830,7 @@
     <row r="444" spans="1:13" s="1" customFormat="1">
       <c r="A444" s="6"/>
       <c r="B444" s="2"/>
-      <c r="C444" s="6">
-        <v>211</v>
-      </c>
+      <c r="C444" s="6"/>
       <c r="D444" s="6"/>
       <c r="E444" s="2"/>
       <c r="F444" s="2"/>
@@ -15531,9 +15842,7 @@
     <row r="445" spans="1:13" s="1" customFormat="1">
       <c r="A445" s="6"/>
       <c r="B445" s="2"/>
-      <c r="C445" s="6">
-        <v>253</v>
-      </c>
+      <c r="C445" s="6"/>
       <c r="D445" s="6"/>
       <c r="E445" s="2"/>
       <c r="F445" s="2"/>
@@ -15542,264 +15851,431 @@
       <c r="I445" s="2"/>
       <c r="M445" s="2"/>
     </row>
-    <row r="446" spans="1:13" s="1" customFormat="1">
-      <c r="A446" s="6"/>
-      <c r="B446" s="2"/>
-      <c r="C446" s="6">
+    <row r="447" spans="1:13">
+      <c r="G447" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="448" spans="1:13">
+      <c r="G448" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="449" spans="1:14" s="10" customFormat="1">
+      <c r="A449" s="8"/>
+      <c r="B449" s="9"/>
+      <c r="C449" s="8"/>
+      <c r="D449" s="8"/>
+      <c r="E449" s="9"/>
+      <c r="F449" s="9"/>
+      <c r="G449" s="9"/>
+      <c r="H449" s="9"/>
+      <c r="I449" s="9"/>
+      <c r="M449" s="9"/>
+    </row>
+    <row r="450" spans="1:14">
+      <c r="C450" s="6">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="451" spans="1:14" s="1" customFormat="1">
+      <c r="A451" s="6"/>
+      <c r="B451" s="2"/>
+      <c r="C451" s="2">
+        <v>158</v>
+      </c>
+      <c r="D451" s="6"/>
+      <c r="E451" s="2"/>
+      <c r="F451" s="2"/>
+      <c r="G451" s="2"/>
+      <c r="H451" s="2"/>
+      <c r="I451" s="2"/>
+      <c r="M451" s="2"/>
+    </row>
+    <row r="452" spans="1:14" s="1" customFormat="1">
+      <c r="A452" s="6"/>
+      <c r="B452" s="2"/>
+      <c r="C452" s="6">
+        <v>159</v>
+      </c>
+      <c r="D452" s="6"/>
+      <c r="E452" s="2"/>
+      <c r="F452" s="2"/>
+      <c r="G452" s="2"/>
+      <c r="H452" s="2"/>
+      <c r="I452" s="2"/>
+      <c r="M452" s="2"/>
+    </row>
+    <row r="453" spans="1:14" s="1" customFormat="1">
+      <c r="A453" s="6"/>
+      <c r="B453" s="2"/>
+      <c r="C453" s="6">
+        <v>160</v>
+      </c>
+      <c r="D453" s="6"/>
+      <c r="E453" s="2"/>
+      <c r="F453" s="2"/>
+      <c r="G453" s="2"/>
+      <c r="H453" s="2"/>
+      <c r="I453" s="2"/>
+      <c r="M453" s="2"/>
+    </row>
+    <row r="454" spans="1:14" s="1" customFormat="1">
+      <c r="A454" s="6"/>
+      <c r="B454" s="2"/>
+      <c r="C454" s="6">
+        <v>170</v>
+      </c>
+      <c r="D454" s="6"/>
+      <c r="E454" s="2"/>
+      <c r="F454" s="2"/>
+      <c r="G454" s="2"/>
+      <c r="H454" s="2"/>
+      <c r="I454" s="2"/>
+      <c r="M454" s="2"/>
+    </row>
+    <row r="455" spans="1:14" s="1" customFormat="1">
+      <c r="A455" s="6"/>
+      <c r="B455" s="2"/>
+      <c r="C455" s="6">
+        <v>178</v>
+      </c>
+      <c r="D455" s="6"/>
+      <c r="E455" s="2"/>
+      <c r="F455" s="2"/>
+      <c r="G455" s="2"/>
+      <c r="H455" s="2"/>
+      <c r="I455" s="2"/>
+      <c r="M455" s="2"/>
+    </row>
+    <row r="456" spans="1:14" s="1" customFormat="1">
+      <c r="A456" s="6"/>
+      <c r="B456" s="2"/>
+      <c r="C456" s="6">
+        <v>184</v>
+      </c>
+      <c r="D456" s="6"/>
+      <c r="E456" s="2"/>
+      <c r="F456" s="2"/>
+      <c r="G456" s="2"/>
+      <c r="H456" s="2"/>
+      <c r="I456" s="2"/>
+      <c r="M456" s="2"/>
+    </row>
+    <row r="457" spans="1:14" s="1" customFormat="1">
+      <c r="A457" s="6"/>
+      <c r="B457" s="2"/>
+      <c r="C457" s="6">
+        <v>186</v>
+      </c>
+      <c r="D457" s="6"/>
+      <c r="E457" s="2"/>
+      <c r="F457" s="2"/>
+      <c r="G457" s="2"/>
+      <c r="H457" s="2"/>
+      <c r="I457" s="2"/>
+      <c r="M457" s="2"/>
+    </row>
+    <row r="458" spans="1:14" s="1" customFormat="1">
+      <c r="A458" s="6"/>
+      <c r="B458" s="2"/>
+      <c r="C458" s="6">
+        <v>194</v>
+      </c>
+      <c r="D458" s="6"/>
+      <c r="E458" s="2"/>
+      <c r="F458" s="2"/>
+      <c r="G458" s="2"/>
+      <c r="H458" s="2"/>
+      <c r="I458" s="2"/>
+      <c r="M458" s="2"/>
+    </row>
+    <row r="459" spans="1:14" s="1" customFormat="1">
+      <c r="A459" s="6"/>
+      <c r="B459" s="2"/>
+      <c r="C459" s="6">
+        <v>211</v>
+      </c>
+      <c r="D459" s="6"/>
+      <c r="E459" s="2"/>
+      <c r="F459" s="2"/>
+      <c r="G459" s="2"/>
+      <c r="H459" s="2"/>
+      <c r="I459" s="2"/>
+      <c r="M459" s="2"/>
+    </row>
+    <row r="460" spans="1:14" s="1" customFormat="1">
+      <c r="A460" s="6"/>
+      <c r="B460" s="2"/>
+      <c r="C460" s="6">
+        <v>253</v>
+      </c>
+      <c r="D460" s="6"/>
+      <c r="E460" s="2"/>
+      <c r="F460" s="2"/>
+      <c r="G460" s="2"/>
+      <c r="H460" s="2"/>
+      <c r="I460" s="2"/>
+      <c r="M460" s="2"/>
+    </row>
+    <row r="461" spans="1:14" s="1" customFormat="1">
+      <c r="A461" s="6"/>
+      <c r="B461" s="2"/>
+      <c r="C461" s="6">
         <v>258</v>
       </c>
-      <c r="D446" s="6"/>
-      <c r="E446" s="2"/>
-      <c r="F446" s="2"/>
-      <c r="G446" s="2"/>
-      <c r="H446" s="2"/>
-      <c r="I446" s="2"/>
-      <c r="M446" s="2"/>
-    </row>
-    <row r="447" spans="1:13" s="1" customFormat="1">
-      <c r="A447" s="6"/>
-      <c r="B447" s="2"/>
-      <c r="C447" s="6">
+      <c r="D461" s="6"/>
+      <c r="E461" s="2"/>
+      <c r="F461" s="2"/>
+      <c r="G461" s="2"/>
+      <c r="H461" s="2"/>
+      <c r="I461" s="2"/>
+      <c r="M461" s="2"/>
+    </row>
+    <row r="462" spans="1:14" s="1" customFormat="1">
+      <c r="A462" s="6"/>
+      <c r="B462" s="2"/>
+      <c r="C462" s="6">
         <v>261</v>
       </c>
-      <c r="D447" s="6"/>
-      <c r="E447" s="2"/>
-      <c r="F447" s="2"/>
-      <c r="G447" s="2"/>
-      <c r="H447" s="2"/>
-      <c r="I447" s="2"/>
-      <c r="M447" s="2"/>
-    </row>
-    <row r="448" spans="1:13" s="10" customFormat="1">
-      <c r="A448" s="8"/>
-      <c r="B448" s="9"/>
-      <c r="C448" s="8"/>
-      <c r="D448" s="8"/>
-      <c r="E448" s="9"/>
-      <c r="F448" s="9"/>
-      <c r="G448" s="9"/>
-      <c r="H448" s="9"/>
-      <c r="I448" s="9"/>
-      <c r="M448" s="9"/>
-    </row>
-    <row r="449" spans="1:14" s="16" customFormat="1">
-      <c r="A449" s="14"/>
-      <c r="B449" s="15" t="s">
+      <c r="D462" s="6"/>
+      <c r="E462" s="2"/>
+      <c r="F462" s="2"/>
+      <c r="G462" s="2"/>
+      <c r="H462" s="2"/>
+      <c r="I462" s="2"/>
+      <c r="M462" s="2"/>
+    </row>
+    <row r="463" spans="1:14" s="10" customFormat="1">
+      <c r="A463" s="8"/>
+      <c r="B463" s="9"/>
+      <c r="C463" s="8"/>
+      <c r="D463" s="8"/>
+      <c r="E463" s="9"/>
+      <c r="F463" s="9"/>
+      <c r="G463" s="9"/>
+      <c r="H463" s="9"/>
+      <c r="I463" s="9"/>
+      <c r="M463" s="9"/>
+    </row>
+    <row r="464" spans="1:14" s="16" customFormat="1">
+      <c r="A464" s="14"/>
+      <c r="B464" s="15" t="s">
         <v>582</v>
       </c>
-      <c r="C449" s="14"/>
-      <c r="D449" s="14"/>
-      <c r="E449" s="15"/>
-      <c r="F449" s="15" t="s">
+      <c r="C464" s="14"/>
+      <c r="D464" s="14"/>
+      <c r="E464" s="15"/>
+      <c r="F464" s="15" t="s">
         <v>356</v>
       </c>
-      <c r="G449" s="15" t="s">
+      <c r="G464" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="H449" s="15"/>
-      <c r="I449" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="J449" s="15">
+      <c r="H464" s="15"/>
+      <c r="I464" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="J464" s="15">
         <v>24</v>
       </c>
-      <c r="M449" s="15"/>
-      <c r="N449" s="16" t="s">
+      <c r="M464" s="15"/>
+      <c r="N464" s="16" t="s">
         <v>610</v>
       </c>
     </row>
-    <row r="450" spans="1:14" s="16" customFormat="1">
-      <c r="A450" s="14"/>
-      <c r="B450" s="15" t="s">
+    <row r="465" spans="1:13" s="16" customFormat="1">
+      <c r="A465" s="14"/>
+      <c r="B465" s="15" t="s">
         <v>582</v>
       </c>
-      <c r="C450" s="14"/>
-      <c r="D450" s="14"/>
-      <c r="E450" s="15"/>
-      <c r="F450" s="15" t="s">
+      <c r="C465" s="14"/>
+      <c r="D465" s="14"/>
+      <c r="E465" s="15"/>
+      <c r="F465" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="G450" s="15" t="s">
+      <c r="G465" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="H450" s="15"/>
-      <c r="I450" s="15" t="s">
+      <c r="H465" s="15"/>
+      <c r="I465" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="J450" s="15">
+      <c r="J465" s="15">
         <v>14</v>
       </c>
-      <c r="L450" s="16" t="s">
+      <c r="L465" s="16" t="s">
         <v>609</v>
       </c>
-      <c r="M450" s="15"/>
-    </row>
-    <row r="451" spans="1:14">
-      <c r="B451" s="5" t="s">
+      <c r="M465" s="15"/>
+    </row>
+    <row r="466" spans="1:13">
+      <c r="B466" s="5" t="s">
         <v>582</v>
       </c>
-      <c r="C451" s="12"/>
-      <c r="D451" s="12"/>
-      <c r="F451" s="5" t="s">
+      <c r="C466" s="12"/>
+      <c r="D466" s="12"/>
+      <c r="F466" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="G451" s="5" t="s">
+      <c r="G466" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="H451" s="5"/>
-      <c r="I451" s="5">
+      <c r="H466" s="5"/>
+      <c r="I466" s="5">
         <v>16</v>
       </c>
-      <c r="J451" s="5">
+      <c r="J466" s="5">
         <v>31</v>
       </c>
-      <c r="L451" s="17" t="s">
+      <c r="L466" s="17" t="s">
         <v>238</v>
       </c>
-      <c r="M451" s="5"/>
-    </row>
-    <row r="476" spans="1:1">
-      <c r="A476" s="11">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="477" spans="1:1">
-      <c r="A477" s="11">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="478" spans="1:1">
-      <c r="A478" s="11">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="479" spans="1:1">
-      <c r="A479" s="11">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="480" spans="1:1">
-      <c r="A480" s="11">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="481" spans="1:1">
-      <c r="A481" s="11">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="482" spans="1:1">
-      <c r="A482" s="11">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="483" spans="1:1">
-      <c r="A483" s="11">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="484" spans="1:1">
-      <c r="A484" s="13">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="485" spans="1:1">
-      <c r="A485" s="11">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="486" spans="1:1">
-      <c r="A486" s="11">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="487" spans="1:1">
-      <c r="A487" s="11">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="488" spans="1:1">
-      <c r="A488" s="11">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="489" spans="1:1">
-      <c r="A489" s="11">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="490" spans="1:1">
-      <c r="A490" s="11">
-        <v>208</v>
-      </c>
+      <c r="M466" s="5"/>
     </row>
     <row r="491" spans="1:1">
       <c r="A491" s="11">
-        <v>209</v>
+        <v>194</v>
       </c>
     </row>
     <row r="492" spans="1:1">
       <c r="A492" s="11">
-        <v>210</v>
+        <v>195</v>
       </c>
     </row>
     <row r="493" spans="1:1">
       <c r="A493" s="11">
-        <v>211</v>
+        <v>196</v>
       </c>
     </row>
     <row r="494" spans="1:1">
       <c r="A494" s="11">
-        <v>212</v>
+        <v>197</v>
       </c>
     </row>
     <row r="495" spans="1:1">
       <c r="A495" s="11">
-        <v>213</v>
+        <v>198</v>
       </c>
     </row>
     <row r="496" spans="1:1">
       <c r="A496" s="11">
-        <v>214</v>
+        <v>199</v>
       </c>
     </row>
     <row r="497" spans="1:1">
       <c r="A497" s="11">
-        <v>215</v>
+        <v>200</v>
       </c>
     </row>
     <row r="498" spans="1:1">
       <c r="A498" s="11">
-        <v>216</v>
+        <v>201</v>
       </c>
     </row>
     <row r="499" spans="1:1">
-      <c r="A499" s="11">
-        <v>217</v>
+      <c r="A499" s="13">
+        <v>202</v>
       </c>
     </row>
     <row r="500" spans="1:1">
       <c r="A500" s="11">
-        <v>218</v>
+        <v>203</v>
       </c>
     </row>
     <row r="501" spans="1:1">
       <c r="A501" s="11">
-        <v>219</v>
+        <v>204</v>
       </c>
     </row>
     <row r="502" spans="1:1">
       <c r="A502" s="11">
-        <v>220</v>
+        <v>205</v>
       </c>
     </row>
     <row r="503" spans="1:1">
       <c r="A503" s="11">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="504" spans="1:1">
+      <c r="A504" s="11">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="505" spans="1:1">
+      <c r="A505" s="11">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="506" spans="1:1">
+      <c r="A506" s="11">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="507" spans="1:1">
+      <c r="A507" s="11">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="508" spans="1:1">
+      <c r="A508" s="11">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="509" spans="1:1">
+      <c r="A509" s="11">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="510" spans="1:1">
+      <c r="A510" s="11">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="511" spans="1:1">
+      <c r="A511" s="11">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="512" spans="1:1">
+      <c r="A512" s="11">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="513" spans="1:1">
+      <c r="A513" s="11">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="514" spans="1:1">
+      <c r="A514" s="11">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="515" spans="1:1">
+      <c r="A515" s="11">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="516" spans="1:1">
+      <c r="A516" s="11">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="517" spans="1:1">
+      <c r="A517" s="11">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="518" spans="1:1">
+      <c r="A518" s="11">
         <v>221</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B1:B449" xr:uid="{39BF6EB1-227D-4123-B057-897FB710CCBD}"/>
+  <autoFilter ref="B1:B464" xr:uid="{39BF6EB1-227D-4123-B057-897FB710CCBD}"/>
   <mergeCells count="1">
     <mergeCell ref="F147:F148"/>
   </mergeCells>

--- a/metadata/Inventory inscribed pieces.xlsx
+++ b/metadata/Inventory inscribed pieces.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vincenttournier/Documents/GitHub/tfb-satavahana-epigraphy/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09C01FBB-E28A-904B-9450-DCFD0E721E08}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5AEAA9E-F4A8-6747-B168-317A62CB91F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1320" yWindow="6000" windowWidth="39640" windowHeight="17720" xr2:uid="{D79794C4-FCC0-9B4A-B6F1-FEEF81BE6884}"/>
+    <workbookView xWindow="9260" yWindow="1500" windowWidth="39640" windowHeight="17720" xr2:uid="{D79794C4-FCC0-9B4A-B6F1-FEEF81BE6884}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -3130,8 +3130,8 @@
   <dimension ref="A1:N518"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A416" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F435" sqref="F435"/>
+      <pane ySplit="1" topLeftCell="A383" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G396" sqref="G396"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -14815,7 +14815,7 @@
       <c r="E396" s="22"/>
       <c r="F396" s="22"/>
       <c r="G396" s="22" t="s">
-        <v>539</v>
+        <v>563</v>
       </c>
       <c r="H396" s="22"/>
       <c r="I396" s="22"/>

--- a/metadata/Inventory inscribed pieces.xlsx
+++ b/metadata/Inventory inscribed pieces.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vincenttournier/Documents/GitHub/tfb-satavahana-epigraphy/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5AEAA9E-F4A8-6747-B168-317A62CB91F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88279295-1F2F-4846-9792-B34135AEC100}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9260" yWindow="1500" windowWidth="39640" windowHeight="17720" xr2:uid="{D79794C4-FCC0-9B4A-B6F1-FEEF81BE6884}"/>
+    <workbookView xWindow="11060" yWindow="2880" windowWidth="39640" windowHeight="17720" xr2:uid="{D79794C4-FCC0-9B4A-B6F1-FEEF81BE6884}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$B$464</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$B$469</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2524" uniqueCount="788">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2532" uniqueCount="790">
   <si>
     <t>shed 1</t>
   </si>
@@ -2517,6 +2517,12 @@
   </si>
   <si>
     <t xml:space="preserve"> 1996–97: B8</t>
+  </si>
+  <si>
+    <t>E28</t>
+  </si>
+  <si>
+    <t>1968–69: B90</t>
   </si>
 </sst>
 </file>
@@ -3127,11 +3133,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AE06EC2-582E-7A46-AA00-435759BE671C}">
-  <dimension ref="A1:N518"/>
+  <dimension ref="A1:N523"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A383" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G396" sqref="G396"/>
+      <pane ySplit="1" topLeftCell="A411" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A416" sqref="A416"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -15472,7 +15478,9 @@
       <c r="M423" s="48"/>
     </row>
     <row r="424" spans="1:13" s="1" customFormat="1">
-      <c r="A424" s="6"/>
+      <c r="A424" s="6">
+        <v>422</v>
+      </c>
       <c r="B424" s="18" t="s">
         <v>385</v>
       </c>
@@ -15494,7 +15502,9 @@
       <c r="M424" s="2"/>
     </row>
     <row r="425" spans="1:13" s="1" customFormat="1">
-      <c r="A425" s="6"/>
+      <c r="A425" s="6">
+        <v>423</v>
+      </c>
       <c r="B425" s="18" t="s">
         <v>385</v>
       </c>
@@ -15514,7 +15524,9 @@
       <c r="M425" s="2"/>
     </row>
     <row r="426" spans="1:13" s="1" customFormat="1">
-      <c r="A426" s="6"/>
+      <c r="A426" s="6">
+        <v>424</v>
+      </c>
       <c r="B426" s="18" t="s">
         <v>385</v>
       </c>
@@ -15536,6 +15548,9 @@
       <c r="M426" s="2"/>
     </row>
     <row r="427" spans="1:13">
+      <c r="A427" s="6">
+        <v>425</v>
+      </c>
       <c r="B427" s="18" t="s">
         <v>385</v>
       </c>
@@ -15553,6 +15568,9 @@
       </c>
     </row>
     <row r="428" spans="1:13">
+      <c r="A428" s="6">
+        <v>426</v>
+      </c>
       <c r="B428" s="18" t="s">
         <v>385</v>
       </c>
@@ -15570,6 +15588,9 @@
       </c>
     </row>
     <row r="429" spans="1:13">
+      <c r="A429" s="6">
+        <v>427</v>
+      </c>
       <c r="B429" s="18" t="s">
         <v>385</v>
       </c>
@@ -15587,7 +15608,9 @@
       </c>
     </row>
     <row r="430" spans="1:13" s="1" customFormat="1">
-      <c r="A430" s="6"/>
+      <c r="A430" s="6">
+        <v>428</v>
+      </c>
       <c r="B430" s="18" t="s">
         <v>385</v>
       </c>
@@ -15607,7 +15630,9 @@
       <c r="M430" s="2"/>
     </row>
     <row r="431" spans="1:13" s="1" customFormat="1">
-      <c r="A431" s="6"/>
+      <c r="A431" s="6">
+        <v>429</v>
+      </c>
       <c r="B431" s="18" t="s">
         <v>385</v>
       </c>
@@ -15627,7 +15652,9 @@
       <c r="M431" s="2"/>
     </row>
     <row r="432" spans="1:13" s="1" customFormat="1">
-      <c r="A432" s="6"/>
+      <c r="A432" s="6">
+        <v>430</v>
+      </c>
       <c r="B432" s="18" t="s">
         <v>385</v>
       </c>
@@ -15647,7 +15674,9 @@
       <c r="M432" s="2"/>
     </row>
     <row r="433" spans="1:13" s="1" customFormat="1">
-      <c r="A433" s="6"/>
+      <c r="A433" s="6">
+        <v>431</v>
+      </c>
       <c r="B433" s="18" t="s">
         <v>385</v>
       </c>
@@ -15667,7 +15696,9 @@
       <c r="M433" s="2"/>
     </row>
     <row r="434" spans="1:13" s="1" customFormat="1">
-      <c r="A434" s="6"/>
+      <c r="A434" s="6">
+        <v>432</v>
+      </c>
       <c r="B434" s="18" t="s">
         <v>385</v>
       </c>
@@ -15687,6 +15718,9 @@
       <c r="M434" s="2"/>
     </row>
     <row r="435" spans="1:13">
+      <c r="A435" s="6">
+        <v>433</v>
+      </c>
       <c r="B435" s="18" t="s">
         <v>385</v>
       </c>
@@ -15704,7 +15738,9 @@
       </c>
     </row>
     <row r="436" spans="1:13" s="1" customFormat="1">
-      <c r="A436" s="6"/>
+      <c r="A436" s="6">
+        <v>434</v>
+      </c>
       <c r="B436" s="18" t="s">
         <v>385</v>
       </c>
@@ -15712,10 +15748,10 @@
         <v>385</v>
       </c>
       <c r="D436" s="18" t="s">
-        <v>784</v>
+        <v>788</v>
       </c>
       <c r="E436" s="22" t="s">
-        <v>785</v>
+        <v>789</v>
       </c>
       <c r="F436" s="2"/>
       <c r="G436" s="2"/>
@@ -15724,7 +15760,9 @@
       <c r="M436" s="2"/>
     </row>
     <row r="437" spans="1:13" s="1" customFormat="1">
-      <c r="A437" s="6"/>
+      <c r="A437" s="6">
+        <v>435</v>
+      </c>
       <c r="B437" s="18" t="s">
         <v>385</v>
       </c>
@@ -15732,9 +15770,11 @@
         <v>385</v>
       </c>
       <c r="D437" s="18" t="s">
-        <v>664</v>
-      </c>
-      <c r="E437" s="22"/>
+        <v>784</v>
+      </c>
+      <c r="E437" s="22" t="s">
+        <v>785</v>
+      </c>
       <c r="F437" s="2"/>
       <c r="G437" s="2"/>
       <c r="H437" s="2"/>
@@ -15742,17 +15782,19 @@
       <c r="M437" s="2"/>
     </row>
     <row r="438" spans="1:13" s="1" customFormat="1">
-      <c r="A438" s="6"/>
+      <c r="A438" s="6">
+        <v>436</v>
+      </c>
       <c r="B438" s="18" t="s">
         <v>385</v>
       </c>
       <c r="C438" s="18" t="s">
         <v>385</v>
       </c>
-      <c r="D438" s="18"/>
-      <c r="E438" s="22" t="s">
-        <v>786</v>
-      </c>
+      <c r="D438" s="18" t="s">
+        <v>664</v>
+      </c>
+      <c r="E438" s="22"/>
       <c r="F438" s="2"/>
       <c r="G438" s="2"/>
       <c r="H438" s="2"/>
@@ -15760,7 +15802,9 @@
       <c r="M438" s="2"/>
     </row>
     <row r="439" spans="1:13" s="1" customFormat="1">
-      <c r="A439" s="6"/>
+      <c r="A439" s="6">
+        <v>437</v>
+      </c>
       <c r="B439" s="18" t="s">
         <v>385</v>
       </c>
@@ -15768,8 +15812,8 @@
         <v>385</v>
       </c>
       <c r="D439" s="18"/>
-      <c r="E439" s="34" t="s">
-        <v>787</v>
+      <c r="E439" s="22" t="s">
+        <v>786</v>
       </c>
       <c r="F439" s="2"/>
       <c r="G439" s="2"/>
@@ -15777,182 +15821,180 @@
       <c r="I439" s="2"/>
       <c r="M439" s="2"/>
     </row>
-    <row r="440" spans="1:13" s="10" customFormat="1">
-      <c r="A440" s="8"/>
-      <c r="B440" s="9"/>
-      <c r="C440" s="8"/>
-      <c r="D440" s="8"/>
-      <c r="E440" s="9"/>
-      <c r="F440" s="9"/>
-      <c r="G440" s="9"/>
-      <c r="H440" s="9"/>
-      <c r="I440" s="9"/>
-      <c r="M440" s="9"/>
-    </row>
-    <row r="441" spans="1:13">
-      <c r="A441" s="2" t="s">
-        <v>524</v>
-      </c>
-      <c r="F441" s="2" t="s">
-        <v>526</v>
-      </c>
-      <c r="G441" s="2" t="s">
-        <v>525</v>
-      </c>
-      <c r="I441" s="2" t="s">
-        <v>2</v>
-      </c>
+    <row r="440" spans="1:13" s="1" customFormat="1">
+      <c r="A440" s="6">
+        <v>438</v>
+      </c>
+      <c r="B440" s="18" t="s">
+        <v>385</v>
+      </c>
+      <c r="C440" s="18" t="s">
+        <v>385</v>
+      </c>
+      <c r="D440" s="18"/>
+      <c r="E440" s="34" t="s">
+        <v>787</v>
+      </c>
+      <c r="F440" s="2"/>
+      <c r="G440" s="2"/>
+      <c r="H440" s="2"/>
+      <c r="I440" s="2"/>
+      <c r="M440" s="2"/>
+    </row>
+    <row r="441" spans="1:13" s="1" customFormat="1">
+      <c r="A441" s="6">
+        <v>439</v>
+      </c>
+      <c r="B441" s="18" t="s">
+        <v>385</v>
+      </c>
+      <c r="C441" s="18" t="s">
+        <v>385</v>
+      </c>
+      <c r="D441" s="18"/>
+      <c r="E441" s="22"/>
+      <c r="F441" s="2"/>
+      <c r="G441" s="2"/>
+      <c r="H441" s="2"/>
+      <c r="I441" s="2"/>
+      <c r="M441" s="2"/>
     </row>
     <row r="442" spans="1:13" s="1" customFormat="1">
-      <c r="A442" s="6"/>
-      <c r="B442" s="2"/>
-      <c r="C442" s="6"/>
-      <c r="D442" s="6"/>
-      <c r="E442" s="2"/>
-      <c r="F442" s="2"/>
-      <c r="G442" s="2"/>
+      <c r="A442" s="6">
+        <v>440</v>
+      </c>
+      <c r="B442" s="18"/>
+      <c r="C442" s="18"/>
+      <c r="D442" s="18"/>
+      <c r="E442" s="22"/>
+      <c r="F442" s="22" t="s">
+        <v>188</v>
+      </c>
+      <c r="G442" s="2" t="s">
+        <v>539</v>
+      </c>
       <c r="H442" s="2"/>
       <c r="I442" s="2"/>
       <c r="M442" s="2"/>
     </row>
     <row r="443" spans="1:13" s="1" customFormat="1">
       <c r="A443" s="6"/>
-      <c r="B443" s="2"/>
-      <c r="C443" s="6"/>
-      <c r="D443" s="6"/>
-      <c r="E443" s="2"/>
+      <c r="B443" s="18"/>
+      <c r="C443" s="18"/>
+      <c r="D443" s="18"/>
+      <c r="E443" s="22"/>
       <c r="F443" s="2"/>
       <c r="G443" s="2"/>
       <c r="H443" s="2"/>
       <c r="I443" s="2"/>
       <c r="M443" s="2"/>
     </row>
-    <row r="444" spans="1:13" s="1" customFormat="1">
-      <c r="A444" s="6"/>
-      <c r="B444" s="2"/>
-      <c r="C444" s="6"/>
-      <c r="D444" s="6"/>
-      <c r="E444" s="2"/>
-      <c r="F444" s="2"/>
-      <c r="G444" s="2"/>
-      <c r="H444" s="2"/>
-      <c r="I444" s="2"/>
-      <c r="M444" s="2"/>
-    </row>
-    <row r="445" spans="1:13" s="1" customFormat="1">
-      <c r="A445" s="6"/>
-      <c r="B445" s="2"/>
-      <c r="C445" s="6"/>
-      <c r="D445" s="6"/>
-      <c r="E445" s="2"/>
-      <c r="F445" s="2"/>
-      <c r="G445" s="2"/>
-      <c r="H445" s="2"/>
-      <c r="I445" s="2"/>
-      <c r="M445" s="2"/>
-    </row>
-    <row r="447" spans="1:13">
-      <c r="G447" s="2" t="s">
+    <row r="445" spans="1:13" s="10" customFormat="1">
+      <c r="A445" s="8"/>
+      <c r="B445" s="9"/>
+      <c r="C445" s="8"/>
+      <c r="D445" s="8"/>
+      <c r="E445" s="9"/>
+      <c r="F445" s="9"/>
+      <c r="G445" s="9"/>
+      <c r="H445" s="9"/>
+      <c r="I445" s="9"/>
+      <c r="M445" s="9"/>
+    </row>
+    <row r="446" spans="1:13">
+      <c r="A446" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="F446" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="G446" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="I446" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="447" spans="1:13" s="1" customFormat="1">
+      <c r="A447" s="6"/>
+      <c r="B447" s="2"/>
+      <c r="C447" s="6"/>
+      <c r="D447" s="6"/>
+      <c r="E447" s="2"/>
+      <c r="F447" s="2"/>
+      <c r="G447" s="2"/>
+      <c r="H447" s="2"/>
+      <c r="I447" s="2"/>
+      <c r="M447" s="2"/>
+    </row>
+    <row r="448" spans="1:13" s="1" customFormat="1">
+      <c r="A448" s="6"/>
+      <c r="B448" s="2"/>
+      <c r="C448" s="6"/>
+      <c r="D448" s="6"/>
+      <c r="E448" s="2"/>
+      <c r="F448" s="2"/>
+      <c r="G448" s="2"/>
+      <c r="H448" s="2"/>
+      <c r="I448" s="2"/>
+      <c r="M448" s="2"/>
+    </row>
+    <row r="449" spans="1:13" s="1" customFormat="1">
+      <c r="A449" s="6"/>
+      <c r="B449" s="2"/>
+      <c r="C449" s="6"/>
+      <c r="D449" s="6"/>
+      <c r="E449" s="2"/>
+      <c r="F449" s="2"/>
+      <c r="G449" s="2"/>
+      <c r="H449" s="2"/>
+      <c r="I449" s="2"/>
+      <c r="M449" s="2"/>
+    </row>
+    <row r="450" spans="1:13" s="1" customFormat="1">
+      <c r="A450" s="6"/>
+      <c r="B450" s="2"/>
+      <c r="C450" s="6"/>
+      <c r="D450" s="6"/>
+      <c r="E450" s="2"/>
+      <c r="F450" s="2"/>
+      <c r="G450" s="2"/>
+      <c r="H450" s="2"/>
+      <c r="I450" s="2"/>
+      <c r="M450" s="2"/>
+    </row>
+    <row r="452" spans="1:13">
+      <c r="G452" s="2" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="448" spans="1:13">
-      <c r="G448" s="2" t="s">
+    <row r="453" spans="1:13">
+      <c r="G453" s="2" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="449" spans="1:14" s="10" customFormat="1">
-      <c r="A449" s="8"/>
-      <c r="B449" s="9"/>
-      <c r="C449" s="8"/>
-      <c r="D449" s="8"/>
-      <c r="E449" s="9"/>
-      <c r="F449" s="9"/>
-      <c r="G449" s="9"/>
-      <c r="H449" s="9"/>
-      <c r="I449" s="9"/>
-      <c r="M449" s="9"/>
-    </row>
-    <row r="450" spans="1:14">
-      <c r="C450" s="6">
+    <row r="454" spans="1:13" s="10" customFormat="1">
+      <c r="A454" s="8"/>
+      <c r="B454" s="9"/>
+      <c r="C454" s="8"/>
+      <c r="D454" s="8"/>
+      <c r="E454" s="9"/>
+      <c r="F454" s="9"/>
+      <c r="G454" s="9"/>
+      <c r="H454" s="9"/>
+      <c r="I454" s="9"/>
+      <c r="M454" s="9"/>
+    </row>
+    <row r="455" spans="1:13">
+      <c r="C455" s="6">
         <v>152</v>
       </c>
     </row>
-    <row r="451" spans="1:14" s="1" customFormat="1">
-      <c r="A451" s="6"/>
-      <c r="B451" s="2"/>
-      <c r="C451" s="2">
-        <v>158</v>
-      </c>
-      <c r="D451" s="6"/>
-      <c r="E451" s="2"/>
-      <c r="F451" s="2"/>
-      <c r="G451" s="2"/>
-      <c r="H451" s="2"/>
-      <c r="I451" s="2"/>
-      <c r="M451" s="2"/>
-    </row>
-    <row r="452" spans="1:14" s="1" customFormat="1">
-      <c r="A452" s="6"/>
-      <c r="B452" s="2"/>
-      <c r="C452" s="6">
-        <v>159</v>
-      </c>
-      <c r="D452" s="6"/>
-      <c r="E452" s="2"/>
-      <c r="F452" s="2"/>
-      <c r="G452" s="2"/>
-      <c r="H452" s="2"/>
-      <c r="I452" s="2"/>
-      <c r="M452" s="2"/>
-    </row>
-    <row r="453" spans="1:14" s="1" customFormat="1">
-      <c r="A453" s="6"/>
-      <c r="B453" s="2"/>
-      <c r="C453" s="6">
-        <v>160</v>
-      </c>
-      <c r="D453" s="6"/>
-      <c r="E453" s="2"/>
-      <c r="F453" s="2"/>
-      <c r="G453" s="2"/>
-      <c r="H453" s="2"/>
-      <c r="I453" s="2"/>
-      <c r="M453" s="2"/>
-    </row>
-    <row r="454" spans="1:14" s="1" customFormat="1">
-      <c r="A454" s="6"/>
-      <c r="B454" s="2"/>
-      <c r="C454" s="6">
-        <v>170</v>
-      </c>
-      <c r="D454" s="6"/>
-      <c r="E454" s="2"/>
-      <c r="F454" s="2"/>
-      <c r="G454" s="2"/>
-      <c r="H454" s="2"/>
-      <c r="I454" s="2"/>
-      <c r="M454" s="2"/>
-    </row>
-    <row r="455" spans="1:14" s="1" customFormat="1">
-      <c r="A455" s="6"/>
-      <c r="B455" s="2"/>
-      <c r="C455" s="6">
-        <v>178</v>
-      </c>
-      <c r="D455" s="6"/>
-      <c r="E455" s="2"/>
-      <c r="F455" s="2"/>
-      <c r="G455" s="2"/>
-      <c r="H455" s="2"/>
-      <c r="I455" s="2"/>
-      <c r="M455" s="2"/>
-    </row>
-    <row r="456" spans="1:14" s="1" customFormat="1">
+    <row r="456" spans="1:13" s="1" customFormat="1">
       <c r="A456" s="6"/>
       <c r="B456" s="2"/>
-      <c r="C456" s="6">
-        <v>184</v>
+      <c r="C456" s="2">
+        <v>158</v>
       </c>
       <c r="D456" s="6"/>
       <c r="E456" s="2"/>
@@ -15962,11 +16004,11 @@
       <c r="I456" s="2"/>
       <c r="M456" s="2"/>
     </row>
-    <row r="457" spans="1:14" s="1" customFormat="1">
+    <row r="457" spans="1:13" s="1" customFormat="1">
       <c r="A457" s="6"/>
       <c r="B457" s="2"/>
       <c r="C457" s="6">
-        <v>186</v>
+        <v>159</v>
       </c>
       <c r="D457" s="6"/>
       <c r="E457" s="2"/>
@@ -15976,11 +16018,11 @@
       <c r="I457" s="2"/>
       <c r="M457" s="2"/>
     </row>
-    <row r="458" spans="1:14" s="1" customFormat="1">
+    <row r="458" spans="1:13" s="1" customFormat="1">
       <c r="A458" s="6"/>
       <c r="B458" s="2"/>
       <c r="C458" s="6">
-        <v>194</v>
+        <v>160</v>
       </c>
       <c r="D458" s="6"/>
       <c r="E458" s="2"/>
@@ -15990,11 +16032,11 @@
       <c r="I458" s="2"/>
       <c r="M458" s="2"/>
     </row>
-    <row r="459" spans="1:14" s="1" customFormat="1">
+    <row r="459" spans="1:13" s="1" customFormat="1">
       <c r="A459" s="6"/>
       <c r="B459" s="2"/>
       <c r="C459" s="6">
-        <v>211</v>
+        <v>170</v>
       </c>
       <c r="D459" s="6"/>
       <c r="E459" s="2"/>
@@ -16004,11 +16046,11 @@
       <c r="I459" s="2"/>
       <c r="M459" s="2"/>
     </row>
-    <row r="460" spans="1:14" s="1" customFormat="1">
+    <row r="460" spans="1:13" s="1" customFormat="1">
       <c r="A460" s="6"/>
       <c r="B460" s="2"/>
       <c r="C460" s="6">
-        <v>253</v>
+        <v>178</v>
       </c>
       <c r="D460" s="6"/>
       <c r="E460" s="2"/>
@@ -16018,11 +16060,11 @@
       <c r="I460" s="2"/>
       <c r="M460" s="2"/>
     </row>
-    <row r="461" spans="1:14" s="1" customFormat="1">
+    <row r="461" spans="1:13" s="1" customFormat="1">
       <c r="A461" s="6"/>
       <c r="B461" s="2"/>
       <c r="C461" s="6">
-        <v>258</v>
+        <v>184</v>
       </c>
       <c r="D461" s="6"/>
       <c r="E461" s="2"/>
@@ -16032,11 +16074,11 @@
       <c r="I461" s="2"/>
       <c r="M461" s="2"/>
     </row>
-    <row r="462" spans="1:14" s="1" customFormat="1">
+    <row r="462" spans="1:13" s="1" customFormat="1">
       <c r="A462" s="6"/>
       <c r="B462" s="2"/>
       <c r="C462" s="6">
-        <v>261</v>
+        <v>186</v>
       </c>
       <c r="D462" s="6"/>
       <c r="E462" s="2"/>
@@ -16046,236 +16088,306 @@
       <c r="I462" s="2"/>
       <c r="M462" s="2"/>
     </row>
-    <row r="463" spans="1:14" s="10" customFormat="1">
-      <c r="A463" s="8"/>
-      <c r="B463" s="9"/>
-      <c r="C463" s="8"/>
-      <c r="D463" s="8"/>
-      <c r="E463" s="9"/>
-      <c r="F463" s="9"/>
-      <c r="G463" s="9"/>
-      <c r="H463" s="9"/>
-      <c r="I463" s="9"/>
-      <c r="M463" s="9"/>
-    </row>
-    <row r="464" spans="1:14" s="16" customFormat="1">
-      <c r="A464" s="14"/>
-      <c r="B464" s="15" t="s">
+    <row r="463" spans="1:13" s="1" customFormat="1">
+      <c r="A463" s="6"/>
+      <c r="B463" s="2"/>
+      <c r="C463" s="6">
+        <v>194</v>
+      </c>
+      <c r="D463" s="6"/>
+      <c r="E463" s="2"/>
+      <c r="F463" s="2"/>
+      <c r="G463" s="2"/>
+      <c r="H463" s="2"/>
+      <c r="I463" s="2"/>
+      <c r="M463" s="2"/>
+    </row>
+    <row r="464" spans="1:13" s="1" customFormat="1">
+      <c r="A464" s="6"/>
+      <c r="B464" s="2"/>
+      <c r="C464" s="6">
+        <v>211</v>
+      </c>
+      <c r="D464" s="6"/>
+      <c r="E464" s="2"/>
+      <c r="F464" s="2"/>
+      <c r="G464" s="2"/>
+      <c r="H464" s="2"/>
+      <c r="I464" s="2"/>
+      <c r="M464" s="2"/>
+    </row>
+    <row r="465" spans="1:14" s="1" customFormat="1">
+      <c r="A465" s="6"/>
+      <c r="B465" s="2"/>
+      <c r="C465" s="6">
+        <v>253</v>
+      </c>
+      <c r="D465" s="6"/>
+      <c r="E465" s="2"/>
+      <c r="F465" s="2"/>
+      <c r="G465" s="2"/>
+      <c r="H465" s="2"/>
+      <c r="I465" s="2"/>
+      <c r="M465" s="2"/>
+    </row>
+    <row r="466" spans="1:14" s="1" customFormat="1">
+      <c r="A466" s="6"/>
+      <c r="B466" s="2"/>
+      <c r="C466" s="6">
+        <v>258</v>
+      </c>
+      <c r="D466" s="6"/>
+      <c r="E466" s="2"/>
+      <c r="F466" s="2"/>
+      <c r="G466" s="2"/>
+      <c r="H466" s="2"/>
+      <c r="I466" s="2"/>
+      <c r="M466" s="2"/>
+    </row>
+    <row r="467" spans="1:14" s="1" customFormat="1">
+      <c r="A467" s="6"/>
+      <c r="B467" s="2"/>
+      <c r="C467" s="6">
+        <v>261</v>
+      </c>
+      <c r="D467" s="6"/>
+      <c r="E467" s="2"/>
+      <c r="F467" s="2"/>
+      <c r="G467" s="2"/>
+      <c r="H467" s="2"/>
+      <c r="I467" s="2"/>
+      <c r="M467" s="2"/>
+    </row>
+    <row r="468" spans="1:14" s="10" customFormat="1">
+      <c r="A468" s="8"/>
+      <c r="B468" s="9"/>
+      <c r="C468" s="8"/>
+      <c r="D468" s="8"/>
+      <c r="E468" s="9"/>
+      <c r="F468" s="9"/>
+      <c r="G468" s="9"/>
+      <c r="H468" s="9"/>
+      <c r="I468" s="9"/>
+      <c r="M468" s="9"/>
+    </row>
+    <row r="469" spans="1:14" s="16" customFormat="1">
+      <c r="A469" s="14"/>
+      <c r="B469" s="15" t="s">
         <v>582</v>
       </c>
-      <c r="C464" s="14"/>
-      <c r="D464" s="14"/>
-      <c r="E464" s="15"/>
-      <c r="F464" s="15" t="s">
+      <c r="C469" s="14"/>
+      <c r="D469" s="14"/>
+      <c r="E469" s="15"/>
+      <c r="F469" s="15" t="s">
         <v>356</v>
       </c>
-      <c r="G464" s="15" t="s">
+      <c r="G469" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="H464" s="15"/>
-      <c r="I464" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="J464" s="15">
+      <c r="H469" s="15"/>
+      <c r="I469" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="J469" s="15">
         <v>24</v>
       </c>
-      <c r="M464" s="15"/>
-      <c r="N464" s="16" t="s">
+      <c r="M469" s="15"/>
+      <c r="N469" s="16" t="s">
         <v>610</v>
       </c>
     </row>
-    <row r="465" spans="1:13" s="16" customFormat="1">
-      <c r="A465" s="14"/>
-      <c r="B465" s="15" t="s">
+    <row r="470" spans="1:14" s="16" customFormat="1">
+      <c r="A470" s="14"/>
+      <c r="B470" s="15" t="s">
         <v>582</v>
       </c>
-      <c r="C465" s="14"/>
-      <c r="D465" s="14"/>
-      <c r="E465" s="15"/>
-      <c r="F465" s="15" t="s">
+      <c r="C470" s="14"/>
+      <c r="D470" s="14"/>
+      <c r="E470" s="15"/>
+      <c r="F470" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="G465" s="15" t="s">
+      <c r="G470" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="H465" s="15"/>
-      <c r="I465" s="15" t="s">
+      <c r="H470" s="15"/>
+      <c r="I470" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="J465" s="15">
+      <c r="J470" s="15">
         <v>14</v>
       </c>
-      <c r="L465" s="16" t="s">
+      <c r="L470" s="16" t="s">
         <v>609</v>
       </c>
-      <c r="M465" s="15"/>
-    </row>
-    <row r="466" spans="1:13">
-      <c r="B466" s="5" t="s">
+      <c r="M470" s="15"/>
+    </row>
+    <row r="471" spans="1:14">
+      <c r="B471" s="5" t="s">
         <v>582</v>
       </c>
-      <c r="C466" s="12"/>
-      <c r="D466" s="12"/>
-      <c r="F466" s="5" t="s">
+      <c r="C471" s="12"/>
+      <c r="D471" s="12"/>
+      <c r="F471" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="G466" s="5" t="s">
+      <c r="G471" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="H466" s="5"/>
-      <c r="I466" s="5">
+      <c r="H471" s="5"/>
+      <c r="I471" s="5">
         <v>16</v>
       </c>
-      <c r="J466" s="5">
+      <c r="J471" s="5">
         <v>31</v>
       </c>
-      <c r="L466" s="17" t="s">
+      <c r="L471" s="17" t="s">
         <v>238</v>
       </c>
-      <c r="M466" s="5"/>
-    </row>
-    <row r="491" spans="1:1">
-      <c r="A491" s="11">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="492" spans="1:1">
-      <c r="A492" s="11">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="493" spans="1:1">
-      <c r="A493" s="11">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="494" spans="1:1">
-      <c r="A494" s="11">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="495" spans="1:1">
-      <c r="A495" s="11">
-        <v>198</v>
-      </c>
+      <c r="M471" s="5"/>
     </row>
     <row r="496" spans="1:1">
       <c r="A496" s="11">
-        <v>199</v>
+        <v>194</v>
       </c>
     </row>
     <row r="497" spans="1:1">
       <c r="A497" s="11">
-        <v>200</v>
+        <v>195</v>
       </c>
     </row>
     <row r="498" spans="1:1">
       <c r="A498" s="11">
-        <v>201</v>
+        <v>196</v>
       </c>
     </row>
     <row r="499" spans="1:1">
-      <c r="A499" s="13">
-        <v>202</v>
+      <c r="A499" s="11">
+        <v>197</v>
       </c>
     </row>
     <row r="500" spans="1:1">
       <c r="A500" s="11">
-        <v>203</v>
+        <v>198</v>
       </c>
     </row>
     <row r="501" spans="1:1">
       <c r="A501" s="11">
-        <v>204</v>
+        <v>199</v>
       </c>
     </row>
     <row r="502" spans="1:1">
       <c r="A502" s="11">
-        <v>205</v>
+        <v>200</v>
       </c>
     </row>
     <row r="503" spans="1:1">
       <c r="A503" s="11">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="504" spans="1:1">
-      <c r="A504" s="11">
-        <v>207</v>
+      <c r="A504" s="13">
+        <v>202</v>
       </c>
     </row>
     <row r="505" spans="1:1">
       <c r="A505" s="11">
-        <v>208</v>
+        <v>203</v>
       </c>
     </row>
     <row r="506" spans="1:1">
       <c r="A506" s="11">
-        <v>209</v>
+        <v>204</v>
       </c>
     </row>
     <row r="507" spans="1:1">
       <c r="A507" s="11">
-        <v>210</v>
+        <v>205</v>
       </c>
     </row>
     <row r="508" spans="1:1">
       <c r="A508" s="11">
-        <v>211</v>
+        <v>206</v>
       </c>
     </row>
     <row r="509" spans="1:1">
       <c r="A509" s="11">
-        <v>212</v>
+        <v>207</v>
       </c>
     </row>
     <row r="510" spans="1:1">
       <c r="A510" s="11">
-        <v>213</v>
+        <v>208</v>
       </c>
     </row>
     <row r="511" spans="1:1">
       <c r="A511" s="11">
-        <v>214</v>
+        <v>209</v>
       </c>
     </row>
     <row r="512" spans="1:1">
       <c r="A512" s="11">
-        <v>215</v>
+        <v>210</v>
       </c>
     </row>
     <row r="513" spans="1:1">
       <c r="A513" s="11">
-        <v>216</v>
+        <v>211</v>
       </c>
     </row>
     <row r="514" spans="1:1">
       <c r="A514" s="11">
-        <v>217</v>
+        <v>212</v>
       </c>
     </row>
     <row r="515" spans="1:1">
       <c r="A515" s="11">
-        <v>218</v>
+        <v>213</v>
       </c>
     </row>
     <row r="516" spans="1:1">
       <c r="A516" s="11">
-        <v>219</v>
+        <v>214</v>
       </c>
     </row>
     <row r="517" spans="1:1">
       <c r="A517" s="11">
-        <v>220</v>
+        <v>215</v>
       </c>
     </row>
     <row r="518" spans="1:1">
       <c r="A518" s="11">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="519" spans="1:1">
+      <c r="A519" s="11">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="520" spans="1:1">
+      <c r="A520" s="11">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="521" spans="1:1">
+      <c r="A521" s="11">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="522" spans="1:1">
+      <c r="A522" s="11">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="523" spans="1:1">
+      <c r="A523" s="11">
         <v>221</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B1:B464" xr:uid="{39BF6EB1-227D-4123-B057-897FB710CCBD}"/>
+  <autoFilter ref="B1:B469" xr:uid="{39BF6EB1-227D-4123-B057-897FB710CCBD}"/>
   <mergeCells count="1">
     <mergeCell ref="F147:F148"/>
   </mergeCells>

--- a/metadata/Inventory inscribed pieces.xlsx
+++ b/metadata/Inventory inscribed pieces.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vincenttournier/Dropbox/Mac/Desktop/GitHub/tfb-satavahana-epigraphy/metadata/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vincenttournier/Library/CloudStorage/Dropbox/Mac (2)/Documents/GitHub/tfb-satavahana-epigraphy/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3139C771-0083-9E4B-855A-3AB3071DD150}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BCAAE9C-1A7A-1C49-814D-752BB41FC67A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11060" yWindow="2880" windowWidth="39640" windowHeight="17720" xr2:uid="{D79794C4-FCC0-9B4A-B6F1-FEEF81BE6884}"/>
+    <workbookView xWindow="1660" yWindow="500" windowWidth="39140" windowHeight="15700" xr2:uid="{D79794C4-FCC0-9B4A-B6F1-FEEF81BE6884}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2532" uniqueCount="790">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2537" uniqueCount="795">
   <si>
     <t>shed 1</t>
   </si>
@@ -2523,6 +2523,21 @@
   </si>
   <si>
     <t>1968–69: B90</t>
+  </si>
+  <si>
+    <t>labels</t>
+  </si>
+  <si>
+    <t>label cum donative</t>
+  </si>
+  <si>
+    <t>memorials</t>
+  </si>
+  <si>
+    <t>others</t>
+  </si>
+  <si>
+    <t>buddhist donative</t>
   </si>
 </sst>
 </file>
@@ -2633,7 +2648,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2664,6 +2679,36 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -2688,7 +2733,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2797,6 +2842,32 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3111,11 +3182,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AE06EC2-582E-7A46-AA00-435759BE671C}">
-  <dimension ref="A1:N523"/>
+  <dimension ref="A1:O523"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A421" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B422" sqref="B422"/>
+      <pane ySplit="1" topLeftCell="A100" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -3134,7 +3205,7 @@
     <col min="13" max="13" width="13.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15" customHeight="1" thickBot="1">
+    <row r="1" spans="1:15" ht="15" customHeight="1" thickBot="1">
       <c r="A1" s="15" t="s">
         <v>569</v>
       </c>
@@ -3172,8 +3243,8 @@
         <v>364</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="17" thickTop="1">
-      <c r="A2" s="17">
+    <row r="2" spans="1:15" ht="17" thickTop="1">
+      <c r="A2" s="42">
         <v>1</v>
       </c>
       <c r="B2" s="18" t="s">
@@ -3199,9 +3270,13 @@
       <c r="J2" s="19"/>
       <c r="L2" s="19"/>
       <c r="M2" s="18"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="17">
+      <c r="N2" s="48"/>
+      <c r="O2" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" s="42">
         <v>2</v>
       </c>
       <c r="B3" s="18" t="s">
@@ -3227,9 +3302,13 @@
       <c r="J3" s="19"/>
       <c r="L3" s="19"/>
       <c r="M3" s="18"/>
-    </row>
-    <row r="4" spans="1:13">
-      <c r="A4" s="17">
+      <c r="N3" s="49"/>
+      <c r="O3" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" s="43">
         <v>3</v>
       </c>
       <c r="B4" s="18" t="s">
@@ -3259,9 +3338,13 @@
         <v>648</v>
       </c>
       <c r="M4" s="18"/>
-    </row>
-    <row r="5" spans="1:13">
-      <c r="A5" s="17">
+      <c r="N4" s="50"/>
+      <c r="O4" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" s="42">
         <v>4</v>
       </c>
       <c r="B5" s="18" t="s">
@@ -3291,9 +3374,13 @@
         <v>534</v>
       </c>
       <c r="M5" s="18"/>
-    </row>
-    <row r="6" spans="1:13">
-      <c r="A6" s="17">
+      <c r="N5" s="51"/>
+      <c r="O5" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" s="42">
         <v>5</v>
       </c>
       <c r="B6" s="18" t="s">
@@ -3323,9 +3410,13 @@
         <v>71</v>
       </c>
       <c r="M6" s="18"/>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="A7" s="17">
+      <c r="N6" s="53"/>
+      <c r="O6" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" s="42">
         <v>6</v>
       </c>
       <c r="B7" s="18" t="s">
@@ -3356,8 +3447,8 @@
       </c>
       <c r="M7" s="18"/>
     </row>
-    <row r="8" spans="1:13">
-      <c r="A8" s="17">
+    <row r="8" spans="1:15">
+      <c r="A8" s="42">
         <v>7</v>
       </c>
       <c r="B8" s="18" t="s">
@@ -3388,8 +3479,8 @@
       </c>
       <c r="M8" s="18"/>
     </row>
-    <row r="9" spans="1:13">
-      <c r="A9" s="17">
+    <row r="9" spans="1:15">
+      <c r="A9" s="43">
         <v>8</v>
       </c>
       <c r="B9" s="18" t="s">
@@ -3418,8 +3509,8 @@
       <c r="L9" s="19"/>
       <c r="M9" s="18"/>
     </row>
-    <row r="10" spans="1:13">
-      <c r="A10" s="17">
+    <row r="10" spans="1:15">
+      <c r="A10" s="42">
         <v>9</v>
       </c>
       <c r="B10" s="18" t="s">
@@ -3450,8 +3541,8 @@
       </c>
       <c r="M10" s="18"/>
     </row>
-    <row r="11" spans="1:13">
-      <c r="A11" s="17">
+    <row r="11" spans="1:15">
+      <c r="A11" s="43">
         <v>10</v>
       </c>
       <c r="B11" s="18" t="s">
@@ -3480,8 +3571,8 @@
       <c r="L11" s="19"/>
       <c r="M11" s="18"/>
     </row>
-    <row r="12" spans="1:13">
-      <c r="A12" s="17">
+    <row r="12" spans="1:15">
+      <c r="A12" s="43">
         <v>11</v>
       </c>
       <c r="B12" s="18" t="s">
@@ -3510,8 +3601,8 @@
       <c r="L12" s="20"/>
       <c r="M12" s="18"/>
     </row>
-    <row r="13" spans="1:13">
-      <c r="A13" s="17">
+    <row r="13" spans="1:15">
+      <c r="A13" s="43">
         <v>12</v>
       </c>
       <c r="B13" s="18" t="s">
@@ -3540,8 +3631,8 @@
       <c r="L13" s="19"/>
       <c r="M13" s="18"/>
     </row>
-    <row r="14" spans="1:13">
-      <c r="A14" s="17">
+    <row r="14" spans="1:15">
+      <c r="A14" s="43">
         <v>13</v>
       </c>
       <c r="B14" s="18" t="s">
@@ -3568,8 +3659,8 @@
       </c>
       <c r="M14" s="18"/>
     </row>
-    <row r="15" spans="1:13">
-      <c r="A15" s="17">
+    <row r="15" spans="1:15">
+      <c r="A15" s="43">
         <v>14</v>
       </c>
       <c r="B15" s="18" t="s">
@@ -3600,8 +3691,8 @@
       </c>
       <c r="M15" s="18"/>
     </row>
-    <row r="16" spans="1:13">
-      <c r="A16" s="17">
+    <row r="16" spans="1:15">
+      <c r="A16" s="43">
         <v>15</v>
       </c>
       <c r="B16" s="18" t="s">
@@ -3633,7 +3724,7 @@
       <c r="M16" s="18"/>
     </row>
     <row r="17" spans="1:13">
-      <c r="A17" s="17">
+      <c r="A17" s="43">
         <v>16</v>
       </c>
       <c r="B17" s="18" t="s">
@@ -3663,7 +3754,7 @@
       <c r="M17" s="18"/>
     </row>
     <row r="18" spans="1:13">
-      <c r="A18" s="17">
+      <c r="A18" s="43">
         <v>17</v>
       </c>
       <c r="B18" s="18" t="s">
@@ -3693,7 +3784,7 @@
       <c r="M18" s="18"/>
     </row>
     <row r="19" spans="1:13">
-      <c r="A19" s="17">
+      <c r="A19" s="43">
         <v>18</v>
       </c>
       <c r="B19" s="18" t="s">
@@ -3723,7 +3814,7 @@
       <c r="M19" s="18"/>
     </row>
     <row r="20" spans="1:13">
-      <c r="A20" s="17">
+      <c r="A20" s="43">
         <v>19</v>
       </c>
       <c r="B20" s="18" t="s">
@@ -3755,7 +3846,7 @@
       <c r="M20" s="18"/>
     </row>
     <row r="21" spans="1:13">
-      <c r="A21" s="17">
+      <c r="A21" s="43">
         <v>20</v>
       </c>
       <c r="B21" s="18" t="s">
@@ -3785,7 +3876,7 @@
       <c r="M21" s="18"/>
     </row>
     <row r="22" spans="1:13">
-      <c r="A22" s="17">
+      <c r="A22" s="43">
         <v>21</v>
       </c>
       <c r="B22" s="18" t="s">
@@ -3815,7 +3906,7 @@
       <c r="M22" s="18"/>
     </row>
     <row r="23" spans="1:13">
-      <c r="A23" s="17">
+      <c r="A23" s="43">
         <v>22</v>
       </c>
       <c r="B23" s="18" t="s">
@@ -3845,7 +3936,7 @@
       <c r="M23" s="18"/>
     </row>
     <row r="24" spans="1:13">
-      <c r="A24" s="17">
+      <c r="A24" s="43">
         <v>23</v>
       </c>
       <c r="B24" s="18" t="s">
@@ -3875,7 +3966,7 @@
       <c r="M24" s="18"/>
     </row>
     <row r="25" spans="1:13">
-      <c r="A25" s="17">
+      <c r="A25" s="43">
         <v>24</v>
       </c>
       <c r="B25" s="18" t="s">
@@ -3905,7 +3996,7 @@
       <c r="M25" s="18"/>
     </row>
     <row r="26" spans="1:13">
-      <c r="A26" s="17">
+      <c r="A26" s="43">
         <v>25</v>
       </c>
       <c r="B26" s="18" t="s">
@@ -3935,7 +4026,7 @@
       <c r="M26" s="18"/>
     </row>
     <row r="27" spans="1:13">
-      <c r="A27" s="17">
+      <c r="A27" s="43">
         <v>26</v>
       </c>
       <c r="B27" s="18" t="s">
@@ -3965,7 +4056,7 @@
       <c r="M27" s="18"/>
     </row>
     <row r="28" spans="1:13">
-      <c r="A28" s="17">
+      <c r="A28" s="43">
         <v>27</v>
       </c>
       <c r="B28" s="18" t="s">
@@ -3997,7 +4088,7 @@
       </c>
     </row>
     <row r="29" spans="1:13">
-      <c r="A29" s="17">
+      <c r="A29" s="43">
         <v>28</v>
       </c>
       <c r="B29" s="18" t="s">
@@ -4027,7 +4118,7 @@
       <c r="M29" s="18"/>
     </row>
     <row r="30" spans="1:13">
-      <c r="A30" s="17">
+      <c r="A30" s="43">
         <v>29</v>
       </c>
       <c r="B30" s="18" t="s">
@@ -4059,7 +4150,7 @@
       </c>
     </row>
     <row r="31" spans="1:13">
-      <c r="A31" s="17">
+      <c r="A31" s="43">
         <v>30</v>
       </c>
       <c r="B31" s="18" t="s">
@@ -4089,7 +4180,7 @@
       <c r="M31" s="18"/>
     </row>
     <row r="32" spans="1:13">
-      <c r="A32" s="17">
+      <c r="A32" s="43">
         <v>31</v>
       </c>
       <c r="B32" s="18" t="s">
@@ -4119,7 +4210,7 @@
       <c r="M32" s="18"/>
     </row>
     <row r="33" spans="1:13">
-      <c r="A33" s="17">
+      <c r="A33" s="43">
         <v>32</v>
       </c>
       <c r="B33" s="18" t="s">
@@ -4147,7 +4238,7 @@
       <c r="M33" s="18"/>
     </row>
     <row r="34" spans="1:13">
-      <c r="A34" s="17">
+      <c r="A34" s="43">
         <v>33</v>
       </c>
       <c r="B34" s="18" t="s">
@@ -4179,7 +4270,7 @@
       <c r="M34" s="18"/>
     </row>
     <row r="35" spans="1:13">
-      <c r="A35" s="17">
+      <c r="A35" s="43">
         <v>34</v>
       </c>
       <c r="B35" s="18" t="s">
@@ -4209,7 +4300,7 @@
       <c r="M35" s="18"/>
     </row>
     <row r="36" spans="1:13">
-      <c r="A36" s="17">
+      <c r="A36" s="43">
         <v>35</v>
       </c>
       <c r="B36" s="18" t="s">
@@ -4241,7 +4332,7 @@
       <c r="M36" s="18"/>
     </row>
     <row r="37" spans="1:13">
-      <c r="A37" s="17">
+      <c r="A37" s="43">
         <v>36</v>
       </c>
       <c r="B37" s="18" t="s">
@@ -4269,7 +4360,7 @@
       <c r="M37" s="18"/>
     </row>
     <row r="38" spans="1:13">
-      <c r="A38" s="17">
+      <c r="A38" s="43">
         <v>37</v>
       </c>
       <c r="B38" s="18" t="s">
@@ -4299,7 +4390,7 @@
       <c r="M38" s="18"/>
     </row>
     <row r="39" spans="1:13">
-      <c r="A39" s="17">
+      <c r="A39" s="43">
         <v>38</v>
       </c>
       <c r="B39" s="18" t="s">
@@ -4329,7 +4420,7 @@
       <c r="M39" s="18"/>
     </row>
     <row r="40" spans="1:13">
-      <c r="A40" s="17">
+      <c r="A40" s="43">
         <v>39</v>
       </c>
       <c r="B40" s="18" t="s">
@@ -4359,7 +4450,7 @@
       <c r="M40" s="18"/>
     </row>
     <row r="41" spans="1:13">
-      <c r="A41" s="17">
+      <c r="A41" s="43">
         <v>40</v>
       </c>
       <c r="B41" s="18" t="s">
@@ -4389,7 +4480,7 @@
       <c r="M41" s="18"/>
     </row>
     <row r="42" spans="1:13">
-      <c r="A42" s="17">
+      <c r="A42" s="43">
         <v>41</v>
       </c>
       <c r="B42" s="18" t="s">
@@ -4417,7 +4508,7 @@
       <c r="M42" s="18"/>
     </row>
     <row r="43" spans="1:13">
-      <c r="A43" s="17">
+      <c r="A43" s="43">
         <v>42</v>
       </c>
       <c r="B43" s="18" t="s">
@@ -4447,7 +4538,7 @@
       <c r="M43" s="18"/>
     </row>
     <row r="44" spans="1:13">
-      <c r="A44" s="17">
+      <c r="A44" s="43">
         <v>43</v>
       </c>
       <c r="B44" s="18" t="s">
@@ -4477,7 +4568,7 @@
       <c r="M44" s="18"/>
     </row>
     <row r="45" spans="1:13">
-      <c r="A45" s="17">
+      <c r="A45" s="43">
         <v>44</v>
       </c>
       <c r="B45" s="18" t="s">
@@ -4507,7 +4598,7 @@
       <c r="M45" s="18"/>
     </row>
     <row r="46" spans="1:13" ht="15" customHeight="1">
-      <c r="A46" s="17">
+      <c r="A46" s="43">
         <v>45</v>
       </c>
       <c r="B46" s="18" t="s">
@@ -4537,7 +4628,7 @@
       <c r="M46" s="18"/>
     </row>
     <row r="47" spans="1:13">
-      <c r="A47" s="17">
+      <c r="A47" s="43">
         <v>46</v>
       </c>
       <c r="B47" s="18" t="s">
@@ -4567,7 +4658,7 @@
       <c r="M47" s="18"/>
     </row>
     <row r="48" spans="1:13">
-      <c r="A48" s="17">
+      <c r="A48" s="43">
         <v>47</v>
       </c>
       <c r="B48" s="18" t="s">
@@ -4597,7 +4688,7 @@
       <c r="M48" s="18"/>
     </row>
     <row r="49" spans="1:13">
-      <c r="A49" s="17">
+      <c r="A49" s="43">
         <v>48</v>
       </c>
       <c r="B49" s="18" t="s">
@@ -4625,7 +4716,7 @@
       <c r="M49" s="18"/>
     </row>
     <row r="50" spans="1:13">
-      <c r="A50" s="17">
+      <c r="A50" s="43">
         <v>49</v>
       </c>
       <c r="B50" s="18" t="s">
@@ -4655,7 +4746,7 @@
       <c r="M50" s="18"/>
     </row>
     <row r="51" spans="1:13">
-      <c r="A51" s="17">
+      <c r="A51" s="43">
         <v>50</v>
       </c>
       <c r="B51" s="18" t="s">
@@ -4685,7 +4776,7 @@
       <c r="M51" s="18"/>
     </row>
     <row r="52" spans="1:13">
-      <c r="A52" s="17">
+      <c r="A52" s="43">
         <v>51</v>
       </c>
       <c r="B52" s="18" t="s">
@@ -4715,7 +4806,7 @@
       <c r="M52" s="18"/>
     </row>
     <row r="53" spans="1:13">
-      <c r="A53" s="17">
+      <c r="A53" s="43">
         <v>52</v>
       </c>
       <c r="B53" s="18" t="s">
@@ -4745,7 +4836,7 @@
       <c r="M53" s="18"/>
     </row>
     <row r="54" spans="1:13">
-      <c r="A54" s="17">
+      <c r="A54" s="43">
         <v>53</v>
       </c>
       <c r="B54" s="18" t="s">
@@ -4775,7 +4866,7 @@
       <c r="M54" s="18"/>
     </row>
     <row r="55" spans="1:13">
-      <c r="A55" s="17">
+      <c r="A55" s="43">
         <v>54</v>
       </c>
       <c r="B55" s="18" t="s">
@@ -4807,7 +4898,7 @@
       <c r="M55" s="18"/>
     </row>
     <row r="56" spans="1:13">
-      <c r="A56" s="17">
+      <c r="A56" s="43">
         <v>55</v>
       </c>
       <c r="B56" s="18" t="s">
@@ -4837,7 +4928,7 @@
       </c>
     </row>
     <row r="57" spans="1:13">
-      <c r="A57" s="17">
+      <c r="A57" s="43">
         <v>56</v>
       </c>
       <c r="B57" s="18" t="s">
@@ -4867,7 +4958,7 @@
       <c r="M57" s="18"/>
     </row>
     <row r="58" spans="1:13">
-      <c r="A58" s="17">
+      <c r="A58" s="43">
         <v>57</v>
       </c>
       <c r="B58" s="18" t="s">
@@ -4897,7 +4988,7 @@
       </c>
     </row>
     <row r="59" spans="1:13">
-      <c r="A59" s="17">
+      <c r="A59" s="43">
         <v>58</v>
       </c>
       <c r="B59" s="18" t="s">
@@ -4927,7 +5018,7 @@
       </c>
     </row>
     <row r="60" spans="1:13">
-      <c r="A60" s="17">
+      <c r="A60" s="43">
         <v>59</v>
       </c>
       <c r="B60" s="18" t="s">
@@ -4957,7 +5048,7 @@
       <c r="M60" s="18"/>
     </row>
     <row r="61" spans="1:13">
-      <c r="A61" s="17">
+      <c r="A61" s="43">
         <v>60</v>
       </c>
       <c r="B61" s="18" t="s">
@@ -4989,7 +5080,7 @@
       </c>
     </row>
     <row r="62" spans="1:13">
-      <c r="A62" s="17">
+      <c r="A62" s="43">
         <v>61</v>
       </c>
       <c r="B62" s="18" t="s">
@@ -5021,7 +5112,7 @@
       </c>
     </row>
     <row r="63" spans="1:13">
-      <c r="A63" s="17">
+      <c r="A63" s="43">
         <v>62</v>
       </c>
       <c r="B63" s="18" t="s">
@@ -5051,7 +5142,7 @@
       <c r="M63" s="18"/>
     </row>
     <row r="64" spans="1:13">
-      <c r="A64" s="17">
+      <c r="A64" s="43">
         <v>63</v>
       </c>
       <c r="B64" s="18" t="s">
@@ -5083,7 +5174,7 @@
       <c r="M64" s="18"/>
     </row>
     <row r="65" spans="1:13">
-      <c r="A65" s="17">
+      <c r="A65" s="43">
         <v>64</v>
       </c>
       <c r="B65" s="18" t="s">
@@ -5113,7 +5204,7 @@
       <c r="M65" s="18"/>
     </row>
     <row r="66" spans="1:13">
-      <c r="A66" s="17">
+      <c r="A66" s="43">
         <v>65</v>
       </c>
       <c r="B66" s="18" t="s">
@@ -5143,7 +5234,7 @@
       <c r="M66" s="18"/>
     </row>
     <row r="67" spans="1:13">
-      <c r="A67" s="17">
+      <c r="A67" s="43">
         <v>66</v>
       </c>
       <c r="B67" s="18" t="s">
@@ -5173,7 +5264,7 @@
       <c r="M67" s="18"/>
     </row>
     <row r="68" spans="1:13">
-      <c r="A68" s="17">
+      <c r="A68" s="43">
         <v>67</v>
       </c>
       <c r="B68" s="18" t="s">
@@ -5205,7 +5296,7 @@
       <c r="M68" s="18"/>
     </row>
     <row r="69" spans="1:13">
-      <c r="A69" s="17">
+      <c r="A69" s="43">
         <v>68</v>
       </c>
       <c r="B69" s="18" t="s">
@@ -5235,7 +5326,7 @@
       <c r="M69" s="18"/>
     </row>
     <row r="70" spans="1:13">
-      <c r="A70" s="17">
+      <c r="A70" s="43">
         <v>69</v>
       </c>
       <c r="B70" s="18" t="s">
@@ -5265,7 +5356,7 @@
       <c r="M70" s="18"/>
     </row>
     <row r="71" spans="1:13">
-      <c r="A71" s="17">
+      <c r="A71" s="43">
         <v>70</v>
       </c>
       <c r="B71" s="18" t="s">
@@ -5295,7 +5386,7 @@
       <c r="M71" s="18"/>
     </row>
     <row r="72" spans="1:13">
-      <c r="A72" s="17">
+      <c r="A72" s="43">
         <v>71</v>
       </c>
       <c r="B72" s="18" t="s">
@@ -5325,7 +5416,7 @@
       <c r="M72" s="18"/>
     </row>
     <row r="73" spans="1:13">
-      <c r="A73" s="17">
+      <c r="A73" s="43">
         <v>72</v>
       </c>
       <c r="B73" s="18" t="s">
@@ -5355,7 +5446,7 @@
       <c r="M73" s="18"/>
     </row>
     <row r="74" spans="1:13">
-      <c r="A74" s="17">
+      <c r="A74" s="43">
         <v>73</v>
       </c>
       <c r="B74" s="18" t="s">
@@ -5377,7 +5468,7 @@
       <c r="M74" s="25"/>
     </row>
     <row r="75" spans="1:13">
-      <c r="A75" s="17">
+      <c r="A75" s="43">
         <v>74</v>
       </c>
       <c r="B75" s="18" t="s">
@@ -5399,7 +5490,7 @@
       <c r="M75" s="25"/>
     </row>
     <row r="76" spans="1:13">
-      <c r="A76" s="17">
+      <c r="A76" s="43">
         <v>75</v>
       </c>
       <c r="B76" s="18" t="s">
@@ -5429,7 +5520,7 @@
       <c r="M76" s="18"/>
     </row>
     <row r="77" spans="1:13">
-      <c r="A77" s="17">
+      <c r="A77" s="43">
         <v>76</v>
       </c>
       <c r="B77" s="18" t="s">
@@ -5459,7 +5550,7 @@
       <c r="M77" s="18"/>
     </row>
     <row r="78" spans="1:13">
-      <c r="A78" s="17">
+      <c r="A78" s="43">
         <v>77</v>
       </c>
       <c r="B78" s="18" t="s">
@@ -5481,7 +5572,7 @@
       <c r="M78" s="18"/>
     </row>
     <row r="79" spans="1:13">
-      <c r="A79" s="17">
+      <c r="A79" s="43">
         <v>78</v>
       </c>
       <c r="B79" s="18" t="s">
@@ -5511,7 +5602,7 @@
       <c r="M79" s="18"/>
     </row>
     <row r="80" spans="1:13">
-      <c r="A80" s="17">
+      <c r="A80" s="43">
         <v>79</v>
       </c>
       <c r="B80" s="18" t="s">
@@ -5541,7 +5632,7 @@
       <c r="M80" s="18"/>
     </row>
     <row r="81" spans="1:13">
-      <c r="A81" s="17">
+      <c r="A81" s="43">
         <v>80</v>
       </c>
       <c r="B81" s="18" t="s">
@@ -5571,7 +5662,7 @@
       <c r="M81" s="18"/>
     </row>
     <row r="82" spans="1:13">
-      <c r="A82" s="17">
+      <c r="A82" s="43">
         <v>81</v>
       </c>
       <c r="B82" s="18" t="s">
@@ -5601,7 +5692,7 @@
       <c r="M82" s="18"/>
     </row>
     <row r="83" spans="1:13">
-      <c r="A83" s="17">
+      <c r="A83" s="43">
         <v>82</v>
       </c>
       <c r="B83" s="18" t="s">
@@ -5631,7 +5722,7 @@
       <c r="M83" s="18"/>
     </row>
     <row r="84" spans="1:13">
-      <c r="A84" s="17">
+      <c r="A84" s="43">
         <v>83</v>
       </c>
       <c r="B84" s="18" t="s">
@@ -5653,7 +5744,7 @@
       <c r="M84" s="25"/>
     </row>
     <row r="85" spans="1:13">
-      <c r="A85" s="17">
+      <c r="A85" s="43">
         <v>84</v>
       </c>
       <c r="B85" s="18" t="s">
@@ -5683,7 +5774,7 @@
       <c r="M85" s="18"/>
     </row>
     <row r="86" spans="1:13">
-      <c r="A86" s="17">
+      <c r="A86" s="43">
         <v>85</v>
       </c>
       <c r="B86" s="18" t="s">
@@ -5713,7 +5804,7 @@
       <c r="M86" s="18"/>
     </row>
     <row r="87" spans="1:13">
-      <c r="A87" s="17">
+      <c r="A87" s="43">
         <v>86</v>
       </c>
       <c r="B87" s="18" t="s">
@@ -5743,7 +5834,7 @@
       <c r="M87" s="18"/>
     </row>
     <row r="88" spans="1:13">
-      <c r="A88" s="17">
+      <c r="A88" s="43">
         <v>87</v>
       </c>
       <c r="B88" s="18" t="s">
@@ -5773,7 +5864,7 @@
       <c r="M88" s="18"/>
     </row>
     <row r="89" spans="1:13">
-      <c r="A89" s="17">
+      <c r="A89" s="43">
         <v>88</v>
       </c>
       <c r="B89" s="18" t="s">
@@ -5803,7 +5894,7 @@
       <c r="M89" s="18"/>
     </row>
     <row r="90" spans="1:13">
-      <c r="A90" s="17">
+      <c r="A90" s="43">
         <v>89</v>
       </c>
       <c r="B90" s="18" t="s">
@@ -5833,7 +5924,7 @@
       <c r="M90" s="18"/>
     </row>
     <row r="91" spans="1:13">
-      <c r="A91" s="17">
+      <c r="A91" s="43">
         <v>90</v>
       </c>
       <c r="B91" s="18" t="s">
@@ -5863,7 +5954,7 @@
       <c r="M91" s="18"/>
     </row>
     <row r="92" spans="1:13">
-      <c r="A92" s="17">
+      <c r="A92" s="43">
         <v>91</v>
       </c>
       <c r="B92" s="18" t="s">
@@ -5885,7 +5976,7 @@
       <c r="M92" s="18"/>
     </row>
     <row r="93" spans="1:13">
-      <c r="A93" s="17">
+      <c r="A93" s="42">
         <v>92</v>
       </c>
       <c r="B93" s="18" t="s">
@@ -5917,7 +6008,7 @@
       <c r="M93" s="18"/>
     </row>
     <row r="94" spans="1:13">
-      <c r="A94" s="17">
+      <c r="A94" s="43">
         <v>93</v>
       </c>
       <c r="B94" s="18" t="s">
@@ -5949,7 +6040,7 @@
       <c r="M94" s="18"/>
     </row>
     <row r="95" spans="1:13">
-      <c r="A95" s="17">
+      <c r="A95" s="43">
         <v>94</v>
       </c>
       <c r="B95" s="18" t="s">
@@ -5981,7 +6072,7 @@
       <c r="M95" s="18"/>
     </row>
     <row r="96" spans="1:13">
-      <c r="A96" s="17">
+      <c r="A96" s="43">
         <v>95</v>
       </c>
       <c r="B96" s="18" t="s">
@@ -6015,7 +6106,7 @@
       </c>
     </row>
     <row r="97" spans="1:13">
-      <c r="A97" s="17">
+      <c r="A97" s="43">
         <v>96</v>
       </c>
       <c r="B97" s="18" t="s">
@@ -6045,7 +6136,7 @@
       <c r="M97" s="18"/>
     </row>
     <row r="98" spans="1:13">
-      <c r="A98" s="17">
+      <c r="A98" s="43">
         <v>97</v>
       </c>
       <c r="B98" s="18" t="s">
@@ -6075,7 +6166,7 @@
       <c r="M98" s="18"/>
     </row>
     <row r="99" spans="1:13">
-      <c r="A99" s="17">
+      <c r="A99" s="43">
         <v>98</v>
       </c>
       <c r="B99" s="18" t="s">
@@ -6105,7 +6196,7 @@
       <c r="M99" s="18"/>
     </row>
     <row r="100" spans="1:13">
-      <c r="A100" s="17">
+      <c r="A100" s="43">
         <v>99</v>
       </c>
       <c r="B100" s="18" t="s">
@@ -6135,7 +6226,7 @@
       <c r="M100" s="18"/>
     </row>
     <row r="101" spans="1:13">
-      <c r="A101" s="17">
+      <c r="A101" s="43">
         <v>100</v>
       </c>
       <c r="B101" s="18" t="s">
@@ -6163,7 +6254,7 @@
       <c r="M101" s="18"/>
     </row>
     <row r="102" spans="1:13">
-      <c r="A102" s="17">
+      <c r="A102" s="43">
         <v>101</v>
       </c>
       <c r="B102" s="18" t="s">
@@ -6191,7 +6282,7 @@
       <c r="M102" s="18"/>
     </row>
     <row r="103" spans="1:13">
-      <c r="A103" s="17">
+      <c r="A103" s="43">
         <v>102</v>
       </c>
       <c r="B103" s="18" t="s">
@@ -6221,7 +6312,7 @@
       <c r="M103" s="18"/>
     </row>
     <row r="104" spans="1:13">
-      <c r="A104" s="17">
+      <c r="A104" s="43">
         <v>103</v>
       </c>
       <c r="B104" s="18" t="s">
@@ -6251,7 +6342,7 @@
       <c r="M104" s="18"/>
     </row>
     <row r="105" spans="1:13">
-      <c r="A105" s="17">
+      <c r="A105" s="43">
         <v>104</v>
       </c>
       <c r="B105" s="18" t="s">
@@ -6273,7 +6364,7 @@
       <c r="M105" s="18"/>
     </row>
     <row r="106" spans="1:13">
-      <c r="A106" s="17">
+      <c r="A106" s="43">
         <v>105</v>
       </c>
       <c r="B106" s="18" t="s">
@@ -6303,7 +6394,7 @@
       <c r="M106" s="18"/>
     </row>
     <row r="107" spans="1:13">
-      <c r="A107" s="17">
+      <c r="A107" s="43">
         <v>106</v>
       </c>
       <c r="B107" s="18" t="s">
@@ -6335,7 +6426,7 @@
       <c r="M107" s="18"/>
     </row>
     <row r="108" spans="1:13">
-      <c r="A108" s="17">
+      <c r="A108" s="43">
         <v>107</v>
       </c>
       <c r="B108" s="18" t="s">
@@ -6367,7 +6458,7 @@
       <c r="M108" s="18"/>
     </row>
     <row r="109" spans="1:13">
-      <c r="A109" s="17">
+      <c r="A109" s="43">
         <v>108</v>
       </c>
       <c r="B109" s="18" t="s">
@@ -6395,7 +6486,7 @@
       <c r="M109" s="18"/>
     </row>
     <row r="110" spans="1:13" ht="15" customHeight="1">
-      <c r="A110" s="17">
+      <c r="A110" s="44">
         <v>109</v>
       </c>
       <c r="B110" s="28" t="s">
@@ -6425,7 +6516,7 @@
       <c r="M110" s="18"/>
     </row>
     <row r="111" spans="1:13" ht="15" customHeight="1">
-      <c r="A111" s="17">
+      <c r="A111" s="44">
         <v>110</v>
       </c>
       <c r="B111" s="28" t="s">
@@ -6455,7 +6546,7 @@
       <c r="M111" s="18"/>
     </row>
     <row r="112" spans="1:13">
-      <c r="A112" s="17">
+      <c r="A112" s="44">
         <v>111</v>
       </c>
       <c r="B112" s="28" t="s">
@@ -6485,7 +6576,7 @@
       <c r="M112" s="18"/>
     </row>
     <row r="113" spans="1:13">
-      <c r="A113" s="17">
+      <c r="A113" s="44">
         <v>112</v>
       </c>
       <c r="B113" s="28" t="s">
@@ -6515,7 +6606,7 @@
       <c r="M113" s="18"/>
     </row>
     <row r="114" spans="1:13" ht="15" customHeight="1">
-      <c r="A114" s="17">
+      <c r="A114" s="44">
         <v>113</v>
       </c>
       <c r="B114" s="28" t="s">
@@ -6545,7 +6636,7 @@
       <c r="M114" s="18"/>
     </row>
     <row r="115" spans="1:13">
-      <c r="A115" s="17">
+      <c r="A115" s="44">
         <v>114</v>
       </c>
       <c r="B115" s="28" t="s">
@@ -6575,7 +6666,7 @@
       <c r="M115" s="18"/>
     </row>
     <row r="116" spans="1:13">
-      <c r="A116" s="17">
+      <c r="A116" s="44">
         <v>115</v>
       </c>
       <c r="B116" s="28" t="s">
@@ -6605,7 +6696,7 @@
       <c r="M116" s="18"/>
     </row>
     <row r="117" spans="1:13">
-      <c r="A117" s="17">
+      <c r="A117" s="44">
         <v>116</v>
       </c>
       <c r="B117" s="28" t="s">
@@ -6635,7 +6726,7 @@
       <c r="M117" s="18"/>
     </row>
     <row r="118" spans="1:13">
-      <c r="A118" s="17">
+      <c r="A118" s="43">
         <v>117</v>
       </c>
       <c r="B118" s="28" t="s">
@@ -6665,7 +6756,7 @@
       <c r="M118" s="18"/>
     </row>
     <row r="119" spans="1:13">
-      <c r="A119" s="17">
+      <c r="A119" s="43">
         <v>118</v>
       </c>
       <c r="B119" s="18" t="s">
@@ -6695,7 +6786,7 @@
       <c r="M119" s="18"/>
     </row>
     <row r="120" spans="1:13">
-      <c r="A120" s="17">
+      <c r="A120" s="42">
         <v>119</v>
       </c>
       <c r="B120" s="18" t="s">
@@ -6723,7 +6814,7 @@
       <c r="M120" s="18"/>
     </row>
     <row r="121" spans="1:13">
-      <c r="A121" s="17">
+      <c r="A121" s="42">
         <v>120</v>
       </c>
       <c r="B121" s="18" t="s">
@@ -6755,7 +6846,7 @@
       <c r="M121" s="18"/>
     </row>
     <row r="122" spans="1:13">
-      <c r="A122" s="17">
+      <c r="A122" s="42">
         <v>121</v>
       </c>
       <c r="B122" s="18" t="s">
@@ -6787,7 +6878,7 @@
       <c r="M122" s="18"/>
     </row>
     <row r="123" spans="1:13">
-      <c r="A123" s="17">
+      <c r="A123" s="42">
         <v>122</v>
       </c>
       <c r="B123" s="18" t="s">
@@ -6819,7 +6910,7 @@
       <c r="M123" s="18"/>
     </row>
     <row r="124" spans="1:13">
-      <c r="A124" s="17">
+      <c r="A124" s="42">
         <v>123</v>
       </c>
       <c r="B124" s="18" t="s">
@@ -6849,7 +6940,7 @@
       <c r="M124" s="18"/>
     </row>
     <row r="125" spans="1:13">
-      <c r="A125" s="17">
+      <c r="A125" s="42">
         <v>124</v>
       </c>
       <c r="B125" s="18" t="s">
@@ -6881,7 +6972,7 @@
       <c r="M125" s="18"/>
     </row>
     <row r="126" spans="1:13">
-      <c r="A126" s="17">
+      <c r="A126" s="42">
         <v>125</v>
       </c>
       <c r="B126" s="18" t="s">
@@ -6911,7 +7002,7 @@
       <c r="M126" s="18"/>
     </row>
     <row r="127" spans="1:13">
-      <c r="A127" s="17">
+      <c r="A127" s="43">
         <v>126</v>
       </c>
       <c r="B127" s="18" t="s">
@@ -6939,7 +7030,7 @@
       <c r="M127" s="18"/>
     </row>
     <row r="128" spans="1:13">
-      <c r="A128" s="17">
+      <c r="A128" s="43">
         <v>127</v>
       </c>
       <c r="B128" s="18" t="s">
@@ -6969,7 +7060,7 @@
       <c r="M128" s="18"/>
     </row>
     <row r="129" spans="1:13">
-      <c r="A129" s="17">
+      <c r="A129" s="42">
         <v>128</v>
       </c>
       <c r="B129" s="18" t="s">
@@ -7001,7 +7092,7 @@
       <c r="M129" s="18"/>
     </row>
     <row r="130" spans="1:13">
-      <c r="A130" s="17">
+      <c r="A130" s="42">
         <v>129</v>
       </c>
       <c r="B130" s="18" t="s">
@@ -7033,7 +7124,7 @@
       <c r="M130" s="18"/>
     </row>
     <row r="131" spans="1:13">
-      <c r="A131" s="17">
+      <c r="A131" s="42">
         <v>130</v>
       </c>
       <c r="B131" s="18" t="s">
@@ -7065,7 +7156,7 @@
       <c r="M131" s="18"/>
     </row>
     <row r="132" spans="1:13">
-      <c r="A132" s="17">
+      <c r="A132" s="42">
         <v>131</v>
       </c>
       <c r="B132" s="18" t="s">
@@ -7095,7 +7186,7 @@
       <c r="M132" s="18"/>
     </row>
     <row r="133" spans="1:13">
-      <c r="A133" s="17">
+      <c r="A133" s="42">
         <v>132</v>
       </c>
       <c r="B133" s="18" t="s">
@@ -7125,7 +7216,7 @@
       <c r="M133" s="18"/>
     </row>
     <row r="134" spans="1:13">
-      <c r="A134" s="17">
+      <c r="A134" s="42">
         <v>133</v>
       </c>
       <c r="B134" s="18" t="s">
@@ -7157,7 +7248,7 @@
       <c r="M134" s="18"/>
     </row>
     <row r="135" spans="1:13">
-      <c r="A135" s="17">
+      <c r="A135" s="42">
         <v>134</v>
       </c>
       <c r="B135" s="18" t="s">
@@ -7189,7 +7280,7 @@
       <c r="M135" s="18"/>
     </row>
     <row r="136" spans="1:13">
-      <c r="A136" s="17">
+      <c r="A136" s="42">
         <v>135</v>
       </c>
       <c r="B136" s="18" t="s">
@@ -7221,7 +7312,7 @@
       <c r="M136" s="18"/>
     </row>
     <row r="137" spans="1:13">
-      <c r="A137" s="17">
+      <c r="A137" s="42">
         <v>136</v>
       </c>
       <c r="B137" s="18" t="s">
@@ -7253,7 +7344,7 @@
       <c r="M137" s="18"/>
     </row>
     <row r="138" spans="1:13">
-      <c r="A138" s="17">
+      <c r="A138" s="42">
         <v>137</v>
       </c>
       <c r="B138" s="18" t="s">
@@ -7285,7 +7376,7 @@
       <c r="M138" s="18"/>
     </row>
     <row r="139" spans="1:13">
-      <c r="A139" s="17">
+      <c r="A139" s="42">
         <v>138</v>
       </c>
       <c r="B139" s="18" t="s">
@@ -7317,7 +7408,7 @@
       <c r="M139" s="18"/>
     </row>
     <row r="140" spans="1:13">
-      <c r="A140" s="17">
+      <c r="A140" s="44">
         <v>139</v>
       </c>
       <c r="B140" s="18" t="s">
@@ -7349,7 +7440,7 @@
       <c r="M140" s="18"/>
     </row>
     <row r="141" spans="1:13">
-      <c r="A141" s="17">
+      <c r="A141" s="42">
         <v>140</v>
       </c>
       <c r="B141" s="18" t="s">
@@ -7381,7 +7472,7 @@
       <c r="M141" s="18"/>
     </row>
     <row r="142" spans="1:13">
-      <c r="A142" s="17">
+      <c r="A142" s="42">
         <v>141</v>
       </c>
       <c r="B142" s="18" t="s">
@@ -7413,7 +7504,7 @@
       <c r="M142" s="18"/>
     </row>
     <row r="143" spans="1:13">
-      <c r="A143" s="17">
+      <c r="A143" s="42">
         <v>142</v>
       </c>
       <c r="B143" s="18" t="s">
@@ -7445,7 +7536,7 @@
       <c r="M143" s="18"/>
     </row>
     <row r="144" spans="1:13">
-      <c r="A144" s="17">
+      <c r="A144" s="42">
         <v>143</v>
       </c>
       <c r="B144" s="18" t="s">
@@ -7477,7 +7568,7 @@
       <c r="M144" s="18"/>
     </row>
     <row r="145" spans="1:13">
-      <c r="A145" s="17">
+      <c r="A145" s="42">
         <v>144</v>
       </c>
       <c r="B145" s="18" t="s">
@@ -7509,7 +7600,7 @@
       <c r="M145" s="18"/>
     </row>
     <row r="146" spans="1:13">
-      <c r="A146" s="17">
+      <c r="A146" s="42">
         <v>145</v>
       </c>
       <c r="B146" s="18" t="s">
@@ -7543,7 +7634,7 @@
       </c>
     </row>
     <row r="147" spans="1:13">
-      <c r="A147" s="17">
+      <c r="A147" s="43">
         <v>146</v>
       </c>
       <c r="B147" s="18" t="s">
@@ -7571,7 +7662,7 @@
       <c r="M147" s="18"/>
     </row>
     <row r="148" spans="1:13">
-      <c r="A148" s="17">
+      <c r="A148" s="43">
         <v>147</v>
       </c>
       <c r="B148" s="18" t="s">
@@ -7599,7 +7690,7 @@
       <c r="M148" s="18"/>
     </row>
     <row r="149" spans="1:13">
-      <c r="A149" s="17">
+      <c r="A149" s="42">
         <v>148</v>
       </c>
       <c r="B149" s="18" t="s">
@@ -7631,7 +7722,7 @@
       <c r="M149" s="18"/>
     </row>
     <row r="150" spans="1:13">
-      <c r="A150" s="17">
+      <c r="A150" s="42">
         <v>149</v>
       </c>
       <c r="B150" s="18" t="s">
@@ -7663,7 +7754,7 @@
       <c r="M150" s="18"/>
     </row>
     <row r="151" spans="1:13">
-      <c r="A151" s="17">
+      <c r="A151" s="42">
         <v>150</v>
       </c>
       <c r="B151" s="18" t="s">
@@ -7695,7 +7786,7 @@
       <c r="M151" s="18"/>
     </row>
     <row r="152" spans="1:13">
-      <c r="A152" s="17">
+      <c r="A152" s="42">
         <v>151</v>
       </c>
       <c r="B152" s="18" t="s">
@@ -7727,7 +7818,7 @@
       <c r="M152" s="18"/>
     </row>
     <row r="153" spans="1:13">
-      <c r="A153" s="17">
+      <c r="A153" s="42">
         <v>152</v>
       </c>
       <c r="B153" s="18" t="s">
@@ -7759,7 +7850,7 @@
       <c r="M153" s="18"/>
     </row>
     <row r="154" spans="1:13">
-      <c r="A154" s="17">
+      <c r="A154" s="43">
         <v>153</v>
       </c>
       <c r="B154" s="18" t="s">
@@ -7789,7 +7880,7 @@
       <c r="M154" s="18"/>
     </row>
     <row r="155" spans="1:13">
-      <c r="A155" s="17">
+      <c r="A155" s="42">
         <v>154</v>
       </c>
       <c r="B155" s="18" t="s">
@@ -7821,7 +7912,7 @@
       <c r="M155" s="18"/>
     </row>
     <row r="156" spans="1:13">
-      <c r="A156" s="17">
+      <c r="A156" s="42">
         <v>155</v>
       </c>
       <c r="B156" s="18" t="s">
@@ -7853,7 +7944,7 @@
       <c r="M156" s="18"/>
     </row>
     <row r="157" spans="1:13">
-      <c r="A157" s="17">
+      <c r="A157" s="42">
         <v>156</v>
       </c>
       <c r="B157" s="18" t="s">
@@ -7885,7 +7976,7 @@
       <c r="M157" s="18"/>
     </row>
     <row r="158" spans="1:13">
-      <c r="A158" s="17">
+      <c r="A158" s="42">
         <v>157</v>
       </c>
       <c r="B158" s="18" t="s">
@@ -7917,7 +8008,7 @@
       <c r="M158" s="18"/>
     </row>
     <row r="159" spans="1:13">
-      <c r="A159" s="17">
+      <c r="A159" s="42">
         <v>158</v>
       </c>
       <c r="B159" s="18" t="s">
@@ -7949,7 +8040,7 @@
       <c r="M159" s="18"/>
     </row>
     <row r="160" spans="1:13">
-      <c r="A160" s="17">
+      <c r="A160" s="42">
         <v>159</v>
       </c>
       <c r="B160" s="18" t="s">
@@ -7981,7 +8072,7 @@
       <c r="M160" s="18"/>
     </row>
     <row r="161" spans="1:13">
-      <c r="A161" s="17">
+      <c r="A161" s="42">
         <v>160</v>
       </c>
       <c r="B161" s="18" t="s">
@@ -8003,7 +8094,7 @@
       <c r="M161" s="18"/>
     </row>
     <row r="162" spans="1:13">
-      <c r="A162" s="17">
+      <c r="A162" s="42">
         <v>161</v>
       </c>
       <c r="B162" s="18" t="s">
@@ -8025,7 +8116,7 @@
       <c r="M162" s="18"/>
     </row>
     <row r="163" spans="1:13">
-      <c r="A163" s="17">
+      <c r="A163" s="43">
         <v>162</v>
       </c>
       <c r="B163" s="18" t="s">
@@ -8057,7 +8148,7 @@
       <c r="M163" s="18"/>
     </row>
     <row r="164" spans="1:13">
-      <c r="A164" s="17">
+      <c r="A164" s="42">
         <v>163</v>
       </c>
       <c r="B164" s="18" t="s">
@@ -8089,7 +8180,7 @@
       <c r="M164" s="19"/>
     </row>
     <row r="165" spans="1:13">
-      <c r="A165" s="17">
+      <c r="A165" s="42">
         <v>164</v>
       </c>
       <c r="B165" s="18" t="s">
@@ -8121,7 +8212,7 @@
       <c r="M165" s="18"/>
     </row>
     <row r="166" spans="1:13">
-      <c r="A166" s="17">
+      <c r="A166" s="42">
         <v>165</v>
       </c>
       <c r="B166" s="18" t="s">
@@ -8153,7 +8244,7 @@
       <c r="M166" s="18"/>
     </row>
     <row r="167" spans="1:13">
-      <c r="A167" s="17">
+      <c r="A167" s="42">
         <v>166</v>
       </c>
       <c r="B167" s="18" t="s">
@@ -8185,7 +8276,7 @@
       <c r="M167" s="18"/>
     </row>
     <row r="168" spans="1:13">
-      <c r="A168" s="17">
+      <c r="A168" s="42">
         <v>167</v>
       </c>
       <c r="B168" s="18" t="s">
@@ -8217,7 +8308,7 @@
       <c r="M168" s="18"/>
     </row>
     <row r="169" spans="1:13">
-      <c r="A169" s="17">
+      <c r="A169" s="42">
         <v>168</v>
       </c>
       <c r="B169" s="18" t="s">
@@ -8249,7 +8340,7 @@
       <c r="M169" s="18"/>
     </row>
     <row r="170" spans="1:13">
-      <c r="A170" s="17">
+      <c r="A170" s="42">
         <v>169</v>
       </c>
       <c r="B170" s="18" t="s">
@@ -8281,7 +8372,7 @@
       <c r="M170" s="18"/>
     </row>
     <row r="171" spans="1:13" ht="16" customHeight="1">
-      <c r="A171" s="17">
+      <c r="A171" s="42">
         <v>170</v>
       </c>
       <c r="B171" s="18" t="s">
@@ -8313,7 +8404,7 @@
       <c r="M171" s="18"/>
     </row>
     <row r="172" spans="1:13">
-      <c r="A172" s="17">
+      <c r="A172" s="42">
         <v>171</v>
       </c>
       <c r="B172" s="18" t="s">
@@ -8345,7 +8436,7 @@
       <c r="M172" s="18"/>
     </row>
     <row r="173" spans="1:13">
-      <c r="A173" s="17">
+      <c r="A173" s="42">
         <v>172</v>
       </c>
       <c r="B173" s="18" t="s">
@@ -8377,7 +8468,7 @@
       <c r="M173" s="18"/>
     </row>
     <row r="174" spans="1:13">
-      <c r="A174" s="17">
+      <c r="A174" s="42">
         <v>173</v>
       </c>
       <c r="B174" s="18" t="s">
@@ -8409,7 +8500,7 @@
       <c r="M174" s="18"/>
     </row>
     <row r="175" spans="1:13">
-      <c r="A175" s="17">
+      <c r="A175" s="42">
         <v>174</v>
       </c>
       <c r="B175" s="18" t="s">
@@ -8441,7 +8532,7 @@
       <c r="M175" s="18"/>
     </row>
     <row r="176" spans="1:13">
-      <c r="A176" s="17">
+      <c r="A176" s="42">
         <v>175</v>
       </c>
       <c r="B176" s="18" t="s">
@@ -8473,7 +8564,7 @@
       <c r="M176" s="18"/>
     </row>
     <row r="177" spans="1:13">
-      <c r="A177" s="17">
+      <c r="A177" s="42">
         <v>176</v>
       </c>
       <c r="B177" s="18" t="s">
@@ -8505,7 +8596,7 @@
       <c r="M177" s="18"/>
     </row>
     <row r="178" spans="1:13">
-      <c r="A178" s="17">
+      <c r="A178" s="42">
         <v>177</v>
       </c>
       <c r="B178" s="18" t="s">
@@ -8537,7 +8628,7 @@
       <c r="M178" s="18"/>
     </row>
     <row r="179" spans="1:13">
-      <c r="A179" s="17">
+      <c r="A179" s="42">
         <v>178</v>
       </c>
       <c r="B179" s="18" t="s">
@@ -8569,7 +8660,7 @@
       <c r="M179" s="18"/>
     </row>
     <row r="180" spans="1:13">
-      <c r="A180" s="17">
+      <c r="A180" s="42">
         <v>179</v>
       </c>
       <c r="B180" s="18" t="s">
@@ -8601,7 +8692,7 @@
       <c r="M180" s="18"/>
     </row>
     <row r="181" spans="1:13">
-      <c r="A181" s="17">
+      <c r="A181" s="42">
         <v>180</v>
       </c>
       <c r="B181" s="18" t="s">
@@ -8633,7 +8724,7 @@
       <c r="M181" s="18"/>
     </row>
     <row r="182" spans="1:13">
-      <c r="A182" s="17">
+      <c r="A182" s="42">
         <v>181</v>
       </c>
       <c r="B182" s="18" t="s">
@@ -8665,7 +8756,7 @@
       <c r="M182" s="18"/>
     </row>
     <row r="183" spans="1:13">
-      <c r="A183" s="17">
+      <c r="A183" s="42">
         <v>182</v>
       </c>
       <c r="B183" s="18" t="s">
@@ -8697,7 +8788,7 @@
       <c r="M183" s="18"/>
     </row>
     <row r="184" spans="1:13">
-      <c r="A184" s="17">
+      <c r="A184" s="42">
         <v>183</v>
       </c>
       <c r="B184" s="18" t="s">
@@ -8729,7 +8820,7 @@
       <c r="M184" s="18"/>
     </row>
     <row r="185" spans="1:13">
-      <c r="A185" s="17">
+      <c r="A185" s="42">
         <v>184</v>
       </c>
       <c r="B185" s="18" t="s">
@@ -8761,7 +8852,7 @@
       <c r="M185" s="18"/>
     </row>
     <row r="186" spans="1:13">
-      <c r="A186" s="17">
+      <c r="A186" s="42">
         <v>185</v>
       </c>
       <c r="B186" s="18" t="s">
@@ -8793,7 +8884,7 @@
       <c r="M186" s="18"/>
     </row>
     <row r="187" spans="1:13">
-      <c r="A187" s="17">
+      <c r="A187" s="42">
         <v>186</v>
       </c>
       <c r="B187" s="18" t="s">
@@ -8825,7 +8916,7 @@
       <c r="M187" s="18"/>
     </row>
     <row r="188" spans="1:13">
-      <c r="A188" s="17">
+      <c r="A188" s="42">
         <v>187</v>
       </c>
       <c r="B188" s="18" t="s">
@@ -8857,7 +8948,7 @@
       <c r="M188" s="18"/>
     </row>
     <row r="189" spans="1:13">
-      <c r="A189" s="17">
+      <c r="A189" s="42">
         <v>188</v>
       </c>
       <c r="B189" s="18" t="s">
@@ -8889,7 +8980,7 @@
       <c r="M189" s="18"/>
     </row>
     <row r="190" spans="1:13">
-      <c r="A190" s="17">
+      <c r="A190" s="43">
         <v>189</v>
       </c>
       <c r="B190" s="18" t="s">
@@ -8921,7 +9012,7 @@
       <c r="M190" s="18"/>
     </row>
     <row r="191" spans="1:13">
-      <c r="A191" s="17">
+      <c r="A191" s="43">
         <v>190</v>
       </c>
       <c r="B191" s="18" t="s">
@@ -8957,7 +9048,7 @@
       </c>
     </row>
     <row r="192" spans="1:13">
-      <c r="A192" s="17">
+      <c r="A192" s="42">
         <v>191</v>
       </c>
       <c r="B192" s="18" t="s">
@@ -8989,7 +9080,7 @@
       <c r="M192" s="18"/>
     </row>
     <row r="193" spans="1:13">
-      <c r="A193" s="17">
+      <c r="A193" s="43">
         <v>192</v>
       </c>
       <c r="B193" s="18" t="s">
@@ -9019,7 +9110,7 @@
       <c r="M193" s="18"/>
     </row>
     <row r="194" spans="1:13">
-      <c r="A194" s="17">
+      <c r="A194" s="43">
         <v>193</v>
       </c>
       <c r="B194" s="18" t="s">
@@ -9047,7 +9138,7 @@
       <c r="M194" s="18"/>
     </row>
     <row r="195" spans="1:13">
-      <c r="A195" s="17">
+      <c r="A195" s="43">
         <v>194</v>
       </c>
       <c r="B195" s="18" t="s">
@@ -9077,7 +9168,7 @@
       <c r="M195" s="18"/>
     </row>
     <row r="196" spans="1:13">
-      <c r="A196" s="17">
+      <c r="A196" s="43">
         <v>195</v>
       </c>
       <c r="B196" s="18" t="s">
@@ -9105,7 +9196,7 @@
       <c r="M196" s="18"/>
     </row>
     <row r="197" spans="1:13">
-      <c r="A197" s="17">
+      <c r="A197" s="43">
         <v>196</v>
       </c>
       <c r="B197" s="18" t="s">
@@ -9135,7 +9226,7 @@
       <c r="M197" s="18"/>
     </row>
     <row r="198" spans="1:13">
-      <c r="A198" s="17">
+      <c r="A198" s="43">
         <v>197</v>
       </c>
       <c r="B198" s="18" t="s">
@@ -9163,7 +9254,7 @@
       <c r="M198" s="18"/>
     </row>
     <row r="199" spans="1:13">
-      <c r="A199" s="17">
+      <c r="A199" s="43">
         <v>198</v>
       </c>
       <c r="B199" s="18" t="s">
@@ -9195,7 +9286,7 @@
       <c r="M199" s="18"/>
     </row>
     <row r="200" spans="1:13">
-      <c r="A200" s="17">
+      <c r="A200" s="43">
         <v>199</v>
       </c>
       <c r="B200" s="18" t="s">
@@ -9225,7 +9316,7 @@
       <c r="M200" s="18"/>
     </row>
     <row r="201" spans="1:13">
-      <c r="A201" s="17">
+      <c r="A201" s="43">
         <v>200</v>
       </c>
       <c r="B201" s="18" t="s">
@@ -9255,7 +9346,7 @@
       <c r="M201" s="18"/>
     </row>
     <row r="202" spans="1:13">
-      <c r="A202" s="17">
+      <c r="A202" s="43">
         <v>201</v>
       </c>
       <c r="B202" s="18" t="s">
@@ -9287,7 +9378,7 @@
       <c r="M202" s="18"/>
     </row>
     <row r="203" spans="1:13">
-      <c r="A203" s="17">
+      <c r="A203" s="43">
         <v>202</v>
       </c>
       <c r="B203" s="18" t="s">
@@ -9315,7 +9406,7 @@
       <c r="M203" s="18"/>
     </row>
     <row r="204" spans="1:13">
-      <c r="A204" s="17">
+      <c r="A204" s="43">
         <v>203</v>
       </c>
       <c r="B204" s="18" t="s">
@@ -9345,7 +9436,7 @@
       <c r="M204" s="18"/>
     </row>
     <row r="205" spans="1:13">
-      <c r="A205" s="17">
+      <c r="A205" s="43">
         <v>204</v>
       </c>
       <c r="B205" s="18" t="s">
@@ -9367,7 +9458,7 @@
       <c r="M205" s="18"/>
     </row>
     <row r="206" spans="1:13">
-      <c r="A206" s="17">
+      <c r="A206" s="43">
         <v>205</v>
       </c>
       <c r="B206" s="18" t="s">
@@ -9397,7 +9488,7 @@
       <c r="M206" s="18"/>
     </row>
     <row r="207" spans="1:13">
-      <c r="A207" s="17">
+      <c r="A207" s="43">
         <v>206</v>
       </c>
       <c r="B207" s="18" t="s">
@@ -9427,7 +9518,7 @@
       <c r="M207" s="18"/>
     </row>
     <row r="208" spans="1:13">
-      <c r="A208" s="17">
+      <c r="A208" s="43">
         <v>207</v>
       </c>
       <c r="B208" s="18" t="s">
@@ -9457,7 +9548,7 @@
       <c r="M208" s="18"/>
     </row>
     <row r="209" spans="1:13" ht="17" customHeight="1">
-      <c r="A209" s="17">
+      <c r="A209" s="43">
         <v>208</v>
       </c>
       <c r="B209" s="18" t="s">
@@ -9487,7 +9578,7 @@
       <c r="M209" s="18"/>
     </row>
     <row r="210" spans="1:13">
-      <c r="A210" s="17">
+      <c r="A210" s="43">
         <v>209</v>
       </c>
       <c r="B210" s="18" t="s">
@@ -9515,7 +9606,7 @@
       <c r="M210" s="18"/>
     </row>
     <row r="211" spans="1:13">
-      <c r="A211" s="17">
+      <c r="A211" s="43">
         <v>210</v>
       </c>
       <c r="B211" s="18" t="s">
@@ -9543,7 +9634,7 @@
       <c r="M211" s="18"/>
     </row>
     <row r="212" spans="1:13">
-      <c r="A212" s="17">
+      <c r="A212" s="43">
         <v>211</v>
       </c>
       <c r="B212" s="18" t="s">
@@ -9565,7 +9656,7 @@
       <c r="M212" s="18"/>
     </row>
     <row r="213" spans="1:13">
-      <c r="A213" s="17">
+      <c r="A213" s="43">
         <v>212</v>
       </c>
       <c r="B213" s="18" t="s">
@@ -9595,7 +9686,7 @@
       <c r="M213" s="18"/>
     </row>
     <row r="214" spans="1:13">
-      <c r="A214" s="17">
+      <c r="A214" s="43">
         <v>213</v>
       </c>
       <c r="B214" s="18" t="s">
@@ -9617,7 +9708,7 @@
       <c r="M214" s="18"/>
     </row>
     <row r="215" spans="1:13">
-      <c r="A215" s="17">
+      <c r="A215" s="43">
         <v>214</v>
       </c>
       <c r="B215" s="18" t="s">
@@ -9645,7 +9736,7 @@
       <c r="M215" s="18"/>
     </row>
     <row r="216" spans="1:13">
-      <c r="A216" s="17">
+      <c r="A216" s="43">
         <v>215</v>
       </c>
       <c r="B216" s="18" t="s">
@@ -9675,7 +9766,7 @@
       <c r="M216" s="18"/>
     </row>
     <row r="217" spans="1:13">
-      <c r="A217" s="17">
+      <c r="A217" s="43">
         <v>216</v>
       </c>
       <c r="B217" s="18" t="s">
@@ -9697,7 +9788,7 @@
       <c r="M217" s="18"/>
     </row>
     <row r="218" spans="1:13" ht="17" customHeight="1">
-      <c r="A218" s="17">
+      <c r="A218" s="43">
         <v>217</v>
       </c>
       <c r="B218" s="17" t="s">
@@ -9719,7 +9810,7 @@
       <c r="M218" s="18"/>
     </row>
     <row r="219" spans="1:13">
-      <c r="A219" s="17">
+      <c r="A219" s="43">
         <v>218</v>
       </c>
       <c r="B219" s="17" t="s">
@@ -9749,7 +9840,7 @@
       <c r="M219" s="18"/>
     </row>
     <row r="220" spans="1:13">
-      <c r="A220" s="17">
+      <c r="A220" s="43">
         <v>219</v>
       </c>
       <c r="B220" s="17" t="s">
@@ -9779,7 +9870,7 @@
       <c r="M220" s="18"/>
     </row>
     <row r="221" spans="1:13">
-      <c r="A221" s="17">
+      <c r="A221" s="43">
         <v>220</v>
       </c>
       <c r="B221" s="17" t="s">
@@ -9809,7 +9900,7 @@
       <c r="M221" s="18"/>
     </row>
     <row r="222" spans="1:13">
-      <c r="A222" s="17">
+      <c r="A222" s="43">
         <v>221</v>
       </c>
       <c r="B222" s="17" t="s">
@@ -9831,7 +9922,7 @@
       <c r="M222" s="18"/>
     </row>
     <row r="223" spans="1:13">
-      <c r="A223" s="17">
+      <c r="A223" s="43">
         <v>222</v>
       </c>
       <c r="B223" s="17" t="s">
@@ -9853,7 +9944,7 @@
       <c r="M223" s="18"/>
     </row>
     <row r="224" spans="1:13">
-      <c r="A224" s="17">
+      <c r="A224" s="43">
         <v>223</v>
       </c>
       <c r="B224" s="17" t="s">
@@ -9883,7 +9974,7 @@
       <c r="M224" s="18"/>
     </row>
     <row r="225" spans="1:13">
-      <c r="A225" s="17">
+      <c r="A225" s="43">
         <v>224</v>
       </c>
       <c r="B225" s="17" t="s">
@@ -9913,7 +10004,7 @@
       <c r="M225" s="18"/>
     </row>
     <row r="226" spans="1:13">
-      <c r="A226" s="17">
+      <c r="A226" s="43">
         <v>225</v>
       </c>
       <c r="B226" s="17" t="s">
@@ -9943,7 +10034,7 @@
       <c r="M226" s="18"/>
     </row>
     <row r="227" spans="1:13">
-      <c r="A227" s="17">
+      <c r="A227" s="43">
         <v>226</v>
       </c>
       <c r="B227" s="17" t="s">
@@ -9975,7 +10066,7 @@
       </c>
     </row>
     <row r="228" spans="1:13">
-      <c r="A228" s="17">
+      <c r="A228" s="43">
         <v>227</v>
       </c>
       <c r="B228" s="17" t="s">
@@ -10005,7 +10096,7 @@
       <c r="M228" s="18"/>
     </row>
     <row r="229" spans="1:13">
-      <c r="A229" s="17">
+      <c r="A229" s="43">
         <v>228</v>
       </c>
       <c r="B229" s="17" t="s">
@@ -10035,7 +10126,7 @@
       <c r="M229" s="18"/>
     </row>
     <row r="230" spans="1:13">
-      <c r="A230" s="17">
+      <c r="A230" s="43">
         <v>229</v>
       </c>
       <c r="B230" s="17" t="s">
@@ -10065,7 +10156,7 @@
       <c r="M230" s="18"/>
     </row>
     <row r="231" spans="1:13">
-      <c r="A231" s="17">
+      <c r="A231" s="43">
         <v>230</v>
       </c>
       <c r="B231" s="17" t="s">
@@ -10097,7 +10188,7 @@
       </c>
     </row>
     <row r="232" spans="1:13">
-      <c r="A232" s="17">
+      <c r="A232" s="43">
         <v>231</v>
       </c>
       <c r="B232" s="17" t="s">
@@ -10127,7 +10218,7 @@
       <c r="M232" s="18"/>
     </row>
     <row r="233" spans="1:13">
-      <c r="A233" s="17">
+      <c r="A233" s="43">
         <v>232</v>
       </c>
       <c r="B233" s="17" t="s">
@@ -10158,7 +10249,7 @@
       <c r="M233" s="18"/>
     </row>
     <row r="234" spans="1:13">
-      <c r="A234" s="17">
+      <c r="A234" s="43">
         <v>233</v>
       </c>
       <c r="B234" s="17" t="s">
@@ -10188,7 +10279,7 @@
       <c r="M234" s="18"/>
     </row>
     <row r="235" spans="1:13">
-      <c r="A235" s="17">
+      <c r="A235" s="43">
         <v>234</v>
       </c>
       <c r="B235" s="17" t="s">
@@ -10218,7 +10309,7 @@
       <c r="M235" s="18"/>
     </row>
     <row r="236" spans="1:13">
-      <c r="A236" s="17">
+      <c r="A236" s="43">
         <v>235</v>
       </c>
       <c r="B236" s="17" t="s">
@@ -10248,7 +10339,7 @@
       <c r="M236" s="18"/>
     </row>
     <row r="237" spans="1:13" ht="17" customHeight="1">
-      <c r="A237" s="17">
+      <c r="A237" s="42">
         <v>236</v>
       </c>
       <c r="B237" s="17" t="s">
@@ -10276,7 +10367,7 @@
       <c r="M237" s="18"/>
     </row>
     <row r="238" spans="1:13" ht="17" customHeight="1">
-      <c r="A238" s="17">
+      <c r="A238" s="42">
         <v>237</v>
       </c>
       <c r="B238" s="17" t="s">
@@ -10304,7 +10395,7 @@
       <c r="M238" s="18"/>
     </row>
     <row r="239" spans="1:13">
-      <c r="A239" s="17">
+      <c r="A239" s="43">
         <v>238</v>
       </c>
       <c r="B239" s="17" t="s">
@@ -10332,7 +10423,7 @@
       <c r="M239" s="18"/>
     </row>
     <row r="240" spans="1:13">
-      <c r="A240" s="17">
+      <c r="A240" s="43">
         <v>239</v>
       </c>
       <c r="B240" s="17" t="s">
@@ -10366,7 +10457,7 @@
       </c>
     </row>
     <row r="241" spans="1:13">
-      <c r="A241" s="17">
+      <c r="A241" s="43">
         <v>240</v>
       </c>
       <c r="B241" s="17" t="s">
@@ -10396,7 +10487,7 @@
       <c r="M241" s="18"/>
     </row>
     <row r="242" spans="1:13">
-      <c r="A242" s="17">
+      <c r="A242" s="43">
         <v>241</v>
       </c>
       <c r="B242" s="17" t="s">
@@ -10424,7 +10515,7 @@
       <c r="M242" s="18"/>
     </row>
     <row r="243" spans="1:13">
-      <c r="A243" s="17">
+      <c r="A243" s="43">
         <v>242</v>
       </c>
       <c r="B243" s="17" t="s">
@@ -10456,7 +10547,7 @@
       </c>
     </row>
     <row r="244" spans="1:13">
-      <c r="A244" s="17">
+      <c r="A244" s="43">
         <v>243</v>
       </c>
       <c r="B244" s="17" t="s">
@@ -10478,7 +10569,7 @@
       <c r="M244" s="18"/>
     </row>
     <row r="245" spans="1:13">
-      <c r="A245" s="17">
+      <c r="A245" s="43">
         <v>244</v>
       </c>
       <c r="B245" s="17" t="s">
@@ -10508,7 +10599,7 @@
       <c r="M245" s="18"/>
     </row>
     <row r="246" spans="1:13">
-      <c r="A246" s="17">
+      <c r="A246" s="43">
         <v>245</v>
       </c>
       <c r="B246" s="17" t="s">
@@ -10530,7 +10621,7 @@
       <c r="M246" s="18"/>
     </row>
     <row r="247" spans="1:13">
-      <c r="A247" s="17">
+      <c r="A247" s="43">
         <v>246</v>
       </c>
       <c r="B247" s="17" t="s">
@@ -10560,7 +10651,7 @@
       <c r="M247" s="18"/>
     </row>
     <row r="248" spans="1:13">
-      <c r="A248" s="17">
+      <c r="A248" s="43">
         <v>247</v>
       </c>
       <c r="B248" s="17" t="s">
@@ -10592,7 +10683,7 @@
       </c>
     </row>
     <row r="249" spans="1:13">
-      <c r="A249" s="17">
+      <c r="A249" s="43">
         <v>248</v>
       </c>
       <c r="B249" s="17" t="s">
@@ -10624,7 +10715,7 @@
       </c>
     </row>
     <row r="250" spans="1:13">
-      <c r="A250" s="17">
+      <c r="A250" s="43">
         <v>249</v>
       </c>
       <c r="B250" s="17" t="s">
@@ -10654,7 +10745,7 @@
       <c r="M250" s="18"/>
     </row>
     <row r="251" spans="1:13">
-      <c r="A251" s="17">
+      <c r="A251" s="43">
         <v>250</v>
       </c>
       <c r="B251" s="17" t="s">
@@ -10686,7 +10777,7 @@
       </c>
     </row>
     <row r="252" spans="1:13">
-      <c r="A252" s="17">
+      <c r="A252" s="43">
         <v>251</v>
       </c>
       <c r="B252" s="17" t="s">
@@ -10716,7 +10807,7 @@
       <c r="M252" s="18"/>
     </row>
     <row r="253" spans="1:13">
-      <c r="A253" s="17">
+      <c r="A253" s="43">
         <v>252</v>
       </c>
       <c r="B253" s="17" t="s">
@@ -10746,7 +10837,7 @@
       <c r="M253" s="18"/>
     </row>
     <row r="254" spans="1:13">
-      <c r="A254" s="17">
+      <c r="A254" s="43">
         <v>253</v>
       </c>
       <c r="B254" s="17" t="s">
@@ -10778,7 +10869,7 @@
       </c>
     </row>
     <row r="255" spans="1:13">
-      <c r="A255" s="17">
+      <c r="A255" s="43">
         <v>254</v>
       </c>
       <c r="B255" s="17" t="s">
@@ -10808,7 +10899,7 @@
       <c r="M255" s="18"/>
     </row>
     <row r="256" spans="1:13">
-      <c r="A256" s="17">
+      <c r="A256" s="43">
         <v>255</v>
       </c>
       <c r="B256" s="17" t="s">
@@ -10830,7 +10921,7 @@
       <c r="M256" s="18"/>
     </row>
     <row r="257" spans="1:13">
-      <c r="A257" s="17">
+      <c r="A257" s="43">
         <v>256</v>
       </c>
       <c r="B257" s="17" t="s">
@@ -10860,7 +10951,7 @@
       <c r="M257" s="18"/>
     </row>
     <row r="258" spans="1:13">
-      <c r="A258" s="17">
+      <c r="A258" s="43">
         <v>257</v>
       </c>
       <c r="B258" s="17" t="s">
@@ -10882,7 +10973,7 @@
       <c r="M258" s="18"/>
     </row>
     <row r="259" spans="1:13">
-      <c r="A259" s="17">
+      <c r="A259" s="43">
         <v>258</v>
       </c>
       <c r="B259" s="17" t="s">
@@ -10912,7 +11003,7 @@
       <c r="M259" s="18"/>
     </row>
     <row r="260" spans="1:13">
-      <c r="A260" s="17">
+      <c r="A260" s="43">
         <v>259</v>
       </c>
       <c r="B260" s="17" t="s">
@@ -10942,7 +11033,7 @@
       </c>
     </row>
     <row r="261" spans="1:13">
-      <c r="A261" s="17">
+      <c r="A261" s="43">
         <v>260</v>
       </c>
       <c r="B261" s="17" t="s">
@@ -10972,7 +11063,7 @@
       <c r="M261" s="18"/>
     </row>
     <row r="262" spans="1:13">
-      <c r="A262" s="17">
+      <c r="A262" s="43">
         <v>261</v>
       </c>
       <c r="B262" s="17" t="s">
@@ -11002,7 +11093,7 @@
       <c r="M262" s="18"/>
     </row>
     <row r="263" spans="1:13">
-      <c r="A263" s="17">
+      <c r="A263" s="43">
         <v>262</v>
       </c>
       <c r="B263" s="17" t="s">
@@ -11034,7 +11125,7 @@
       </c>
     </row>
     <row r="264" spans="1:13">
-      <c r="A264" s="17">
+      <c r="A264" s="43">
         <v>263</v>
       </c>
       <c r="B264" s="17" t="s">
@@ -11066,7 +11157,7 @@
       </c>
     </row>
     <row r="265" spans="1:13">
-      <c r="A265" s="17">
+      <c r="A265" s="43">
         <v>264</v>
       </c>
       <c r="B265" s="17" t="s">
@@ -11096,7 +11187,7 @@
       <c r="M265" s="18"/>
     </row>
     <row r="266" spans="1:13">
-      <c r="A266" s="17">
+      <c r="A266" s="43">
         <v>265</v>
       </c>
       <c r="B266" s="17" t="s">
@@ -11128,7 +11219,7 @@
       </c>
     </row>
     <row r="267" spans="1:13">
-      <c r="A267" s="17">
+      <c r="A267" s="43">
         <v>266</v>
       </c>
       <c r="B267" s="17" t="s">
@@ -11158,7 +11249,7 @@
       <c r="M267" s="18"/>
     </row>
     <row r="268" spans="1:13">
-      <c r="A268" s="17">
+      <c r="A268" s="43">
         <v>267</v>
       </c>
       <c r="B268" s="17" t="s">
@@ -11188,7 +11279,7 @@
       </c>
     </row>
     <row r="269" spans="1:13">
-      <c r="A269" s="17">
+      <c r="A269" s="43">
         <v>268</v>
       </c>
       <c r="B269" s="17" t="s">
@@ -11218,7 +11309,7 @@
       <c r="M269" s="18"/>
     </row>
     <row r="270" spans="1:13">
-      <c r="A270" s="17">
+      <c r="A270" s="43">
         <v>269</v>
       </c>
       <c r="B270" s="17" t="s">
@@ -11240,7 +11331,7 @@
       <c r="M270" s="18"/>
     </row>
     <row r="271" spans="1:13">
-      <c r="A271" s="17">
+      <c r="A271" s="43">
         <v>270</v>
       </c>
       <c r="B271" s="17" t="s">
@@ -11272,7 +11363,7 @@
       </c>
     </row>
     <row r="272" spans="1:13">
-      <c r="A272" s="17">
+      <c r="A272" s="42">
         <v>271</v>
       </c>
       <c r="B272" s="17" t="s">
@@ -11306,7 +11397,7 @@
       </c>
     </row>
     <row r="273" spans="1:13">
-      <c r="A273" s="17">
+      <c r="A273" s="43">
         <v>272</v>
       </c>
       <c r="B273" s="17" t="s">
@@ -11336,7 +11427,7 @@
       </c>
     </row>
     <row r="274" spans="1:13">
-      <c r="A274" s="17">
+      <c r="A274" s="43">
         <v>273</v>
       </c>
       <c r="B274" s="17" t="s">
@@ -11366,7 +11457,7 @@
       </c>
     </row>
     <row r="275" spans="1:13">
-      <c r="A275" s="17">
+      <c r="A275" s="43">
         <v>274</v>
       </c>
       <c r="B275" s="17" t="s">
@@ -11398,7 +11489,7 @@
       </c>
     </row>
     <row r="276" spans="1:13">
-      <c r="A276" s="17">
+      <c r="A276" s="43">
         <v>275</v>
       </c>
       <c r="B276" s="17" t="s">
@@ -11430,7 +11521,7 @@
       </c>
     </row>
     <row r="277" spans="1:13">
-      <c r="A277" s="17">
+      <c r="A277" s="43">
         <v>276</v>
       </c>
       <c r="B277" s="17" t="s">
@@ -11462,7 +11553,7 @@
       </c>
     </row>
     <row r="278" spans="1:13">
-      <c r="A278" s="17">
+      <c r="A278" s="43">
         <v>277</v>
       </c>
       <c r="B278" s="17" t="s">
@@ -11494,7 +11585,7 @@
       </c>
     </row>
     <row r="279" spans="1:13">
-      <c r="A279" s="17">
+      <c r="A279" s="43">
         <v>278</v>
       </c>
       <c r="B279" s="17" t="s">
@@ -11526,7 +11617,7 @@
       </c>
     </row>
     <row r="280" spans="1:13">
-      <c r="A280" s="17">
+      <c r="A280" s="43">
         <v>279</v>
       </c>
       <c r="B280" s="17" t="s">
@@ -11558,7 +11649,7 @@
       </c>
     </row>
     <row r="281" spans="1:13">
-      <c r="A281" s="17">
+      <c r="A281" s="43">
         <v>280</v>
       </c>
       <c r="B281" s="17" t="s">
@@ -11590,7 +11681,7 @@
       </c>
     </row>
     <row r="282" spans="1:13">
-      <c r="A282" s="17">
+      <c r="A282" s="43">
         <v>281</v>
       </c>
       <c r="B282" s="17" t="s">
@@ -11622,7 +11713,7 @@
       </c>
     </row>
     <row r="283" spans="1:13">
-      <c r="A283" s="17">
+      <c r="A283" s="43">
         <v>282</v>
       </c>
       <c r="B283" s="17" t="s">
@@ -11654,7 +11745,7 @@
       </c>
     </row>
     <row r="284" spans="1:13">
-      <c r="A284" s="17">
+      <c r="A284" s="43">
         <v>283</v>
       </c>
       <c r="B284" s="17" t="s">
@@ -11686,7 +11777,7 @@
       </c>
     </row>
     <row r="285" spans="1:13">
-      <c r="A285" s="17">
+      <c r="A285" s="43">
         <v>284</v>
       </c>
       <c r="B285" s="17" t="s">
@@ -11718,7 +11809,7 @@
       </c>
     </row>
     <row r="286" spans="1:13">
-      <c r="A286" s="17">
+      <c r="A286" s="43">
         <v>285</v>
       </c>
       <c r="B286" s="17" t="s">
@@ -11750,7 +11841,7 @@
       </c>
     </row>
     <row r="287" spans="1:13">
-      <c r="A287" s="17">
+      <c r="A287" s="43">
         <v>286</v>
       </c>
       <c r="B287" s="17" t="s">
@@ -11782,7 +11873,7 @@
       </c>
     </row>
     <row r="288" spans="1:13">
-      <c r="A288" s="17">
+      <c r="A288" s="43">
         <v>287</v>
       </c>
       <c r="B288" s="17" t="s">
@@ -11814,7 +11905,7 @@
       </c>
     </row>
     <row r="289" spans="1:13">
-      <c r="A289" s="17">
+      <c r="A289" s="43">
         <v>288</v>
       </c>
       <c r="B289" s="17" t="s">
@@ -11846,7 +11937,7 @@
       </c>
     </row>
     <row r="290" spans="1:13">
-      <c r="A290" s="17">
+      <c r="A290" s="43">
         <v>289</v>
       </c>
       <c r="B290" s="17" t="s">
@@ -11878,7 +11969,7 @@
       </c>
     </row>
     <row r="291" spans="1:13">
-      <c r="A291" s="17">
+      <c r="A291" s="43">
         <v>290</v>
       </c>
       <c r="B291" s="17" t="s">
@@ -11910,7 +12001,7 @@
       </c>
     </row>
     <row r="292" spans="1:13">
-      <c r="A292" s="17">
+      <c r="A292" s="43">
         <v>291</v>
       </c>
       <c r="B292" s="17" t="s">
@@ -11942,7 +12033,7 @@
       </c>
     </row>
     <row r="293" spans="1:13" ht="18" customHeight="1">
-      <c r="A293" s="17">
+      <c r="A293" s="43">
         <v>292</v>
       </c>
       <c r="B293" s="17" t="s">
@@ -11974,7 +12065,7 @@
       </c>
     </row>
     <row r="294" spans="1:13">
-      <c r="A294" s="17">
+      <c r="A294" s="43">
         <v>293</v>
       </c>
       <c r="B294" s="17" t="s">
@@ -12004,7 +12095,7 @@
       </c>
     </row>
     <row r="295" spans="1:13">
-      <c r="A295" s="17">
+      <c r="A295" s="43">
         <v>294</v>
       </c>
       <c r="B295" s="17" t="s">
@@ -12034,7 +12125,7 @@
       </c>
     </row>
     <row r="296" spans="1:13">
-      <c r="A296" s="17">
+      <c r="A296" s="43">
         <v>295</v>
       </c>
       <c r="B296" s="17" t="s">
@@ -12064,7 +12155,7 @@
       </c>
     </row>
     <row r="297" spans="1:13">
-      <c r="A297" s="17">
+      <c r="A297" s="43">
         <v>296</v>
       </c>
       <c r="B297" s="17" t="s">
@@ -12094,7 +12185,7 @@
       </c>
     </row>
     <row r="298" spans="1:13">
-      <c r="A298" s="17">
+      <c r="A298" s="43">
         <v>297</v>
       </c>
       <c r="B298" s="17" t="s">
@@ -12124,7 +12215,7 @@
       </c>
     </row>
     <row r="299" spans="1:13">
-      <c r="A299" s="17">
+      <c r="A299" s="43">
         <v>298</v>
       </c>
       <c r="B299" s="17" t="s">
@@ -12150,7 +12241,7 @@
       </c>
     </row>
     <row r="300" spans="1:13">
-      <c r="A300" s="17">
+      <c r="A300" s="43">
         <v>299</v>
       </c>
       <c r="B300" s="17" t="s">
@@ -12182,7 +12273,7 @@
       </c>
     </row>
     <row r="301" spans="1:13">
-      <c r="A301" s="17">
+      <c r="A301" s="43">
         <v>300</v>
       </c>
       <c r="B301" s="17" t="s">
@@ -12212,7 +12303,7 @@
       </c>
     </row>
     <row r="302" spans="1:13">
-      <c r="A302" s="17">
+      <c r="A302" s="43">
         <v>301</v>
       </c>
       <c r="B302" s="17" t="s">
@@ -12242,7 +12333,7 @@
       </c>
     </row>
     <row r="303" spans="1:13">
-      <c r="A303" s="17">
+      <c r="A303" s="43">
         <v>302</v>
       </c>
       <c r="B303" s="17" t="s">
@@ -12272,7 +12363,7 @@
       </c>
     </row>
     <row r="304" spans="1:13">
-      <c r="A304" s="17">
+      <c r="A304" s="43">
         <v>303</v>
       </c>
       <c r="B304" s="17" t="s">
@@ -12304,7 +12395,7 @@
       </c>
     </row>
     <row r="305" spans="1:14">
-      <c r="A305" s="17">
+      <c r="A305" s="43">
         <v>304</v>
       </c>
       <c r="B305" s="17" t="s">
@@ -12336,7 +12427,7 @@
       </c>
     </row>
     <row r="306" spans="1:14">
-      <c r="A306" s="17">
+      <c r="A306" s="43">
         <v>305</v>
       </c>
       <c r="B306" s="17" t="s">
@@ -12368,7 +12459,7 @@
       </c>
     </row>
     <row r="307" spans="1:14">
-      <c r="A307" s="17">
+      <c r="A307" s="43">
         <v>306</v>
       </c>
       <c r="B307" s="17" t="s">
@@ -12396,7 +12487,7 @@
       </c>
     </row>
     <row r="308" spans="1:14">
-      <c r="A308" s="18">
+      <c r="A308" s="45">
         <v>307</v>
       </c>
       <c r="B308" s="17" t="s">
@@ -12428,7 +12519,7 @@
       </c>
     </row>
     <row r="309" spans="1:14">
-      <c r="A309" s="18">
+      <c r="A309" s="45">
         <v>308</v>
       </c>
       <c r="B309" s="17" t="s">
@@ -12460,7 +12551,7 @@
       </c>
     </row>
     <row r="310" spans="1:14">
-      <c r="A310" s="18">
+      <c r="A310" s="45">
         <v>309</v>
       </c>
       <c r="B310" s="17" t="s">
@@ -12494,7 +12585,7 @@
       </c>
     </row>
     <row r="311" spans="1:14">
-      <c r="A311" s="18">
+      <c r="A311" s="46">
         <v>310</v>
       </c>
       <c r="B311" s="17" t="s">
@@ -12526,7 +12617,7 @@
       </c>
     </row>
     <row r="312" spans="1:14">
-      <c r="A312" s="18">
+      <c r="A312" s="45">
         <v>311</v>
       </c>
       <c r="B312" s="17" t="s">
@@ -12560,7 +12651,7 @@
       </c>
     </row>
     <row r="313" spans="1:14">
-      <c r="A313" s="18">
+      <c r="A313" s="45">
         <v>312</v>
       </c>
       <c r="B313" s="17" t="s">
@@ -12591,7 +12682,7 @@
       <c r="N313" s="4"/>
     </row>
     <row r="314" spans="1:14">
-      <c r="A314" s="17">
+      <c r="A314" s="43">
         <v>313</v>
       </c>
       <c r="B314" s="17" t="s">
@@ -12616,7 +12707,7 @@
       <c r="N314" s="4"/>
     </row>
     <row r="315" spans="1:14">
-      <c r="A315" s="17">
+      <c r="A315" s="44">
         <v>314</v>
       </c>
       <c r="B315" s="17" t="s">
@@ -12648,7 +12739,7 @@
       </c>
     </row>
     <row r="316" spans="1:14">
-      <c r="A316" s="17">
+      <c r="A316" s="43">
         <v>315</v>
       </c>
       <c r="B316" s="17" t="s">
@@ -12676,7 +12767,7 @@
       </c>
     </row>
     <row r="317" spans="1:14">
-      <c r="A317" s="17">
+      <c r="A317" s="43">
         <v>316</v>
       </c>
       <c r="B317" s="17" t="s">
@@ -12702,7 +12793,7 @@
       <c r="M317" s="28"/>
     </row>
     <row r="318" spans="1:14">
-      <c r="A318" s="17">
+      <c r="A318" s="47">
         <v>317</v>
       </c>
       <c r="B318" s="17" t="s">
@@ -12734,7 +12825,7 @@
       </c>
     </row>
     <row r="319" spans="1:14">
-      <c r="A319" s="17">
+      <c r="A319" s="47">
         <v>318</v>
       </c>
       <c r="B319" s="17" t="s">
@@ -12766,7 +12857,7 @@
       </c>
     </row>
     <row r="320" spans="1:14">
-      <c r="A320" s="17">
+      <c r="A320" s="47">
         <v>319</v>
       </c>
       <c r="B320" s="17" t="s">
@@ -12800,7 +12891,7 @@
       </c>
     </row>
     <row r="321" spans="1:13">
-      <c r="A321" s="17">
+      <c r="A321" s="47">
         <v>320</v>
       </c>
       <c r="B321" s="17" t="s">
@@ -12830,7 +12921,7 @@
       </c>
     </row>
     <row r="322" spans="1:13">
-      <c r="A322" s="17">
+      <c r="A322" s="47">
         <v>321</v>
       </c>
       <c r="B322" s="18" t="s">
@@ -12860,7 +12951,7 @@
       </c>
     </row>
     <row r="323" spans="1:13">
-      <c r="A323" s="17">
+      <c r="A323" s="47">
         <v>322</v>
       </c>
       <c r="B323" s="17" t="s">
@@ -12890,7 +12981,7 @@
       </c>
     </row>
     <row r="324" spans="1:13">
-      <c r="A324" s="17">
+      <c r="A324" s="47">
         <v>323</v>
       </c>
       <c r="B324" s="17" t="s">
@@ -12922,7 +13013,7 @@
       </c>
     </row>
     <row r="325" spans="1:13">
-      <c r="A325" s="17">
+      <c r="A325" s="47">
         <v>324</v>
       </c>
       <c r="B325" s="17" t="s">
@@ -12952,7 +13043,7 @@
       </c>
     </row>
     <row r="326" spans="1:13">
-      <c r="A326" s="17">
+      <c r="A326" s="47">
         <v>325</v>
       </c>
       <c r="B326" s="18" t="s">
@@ -12982,7 +13073,7 @@
       </c>
     </row>
     <row r="327" spans="1:13">
-      <c r="A327" s="17">
+      <c r="A327" s="47">
         <v>326</v>
       </c>
       <c r="B327" s="17" t="s">
@@ -13014,7 +13105,7 @@
       </c>
     </row>
     <row r="328" spans="1:13">
-      <c r="A328" s="17">
+      <c r="A328" s="47">
         <v>327</v>
       </c>
       <c r="B328" s="17" t="s">
@@ -13044,7 +13135,7 @@
       </c>
     </row>
     <row r="329" spans="1:13">
-      <c r="A329" s="17">
+      <c r="A329" s="47">
         <v>328</v>
       </c>
       <c r="B329" s="17" t="s">
@@ -13074,7 +13165,7 @@
       </c>
     </row>
     <row r="330" spans="1:13">
-      <c r="A330" s="17">
+      <c r="A330" s="47">
         <v>329</v>
       </c>
       <c r="B330" s="17" t="s">
@@ -13104,7 +13195,7 @@
       </c>
     </row>
     <row r="331" spans="1:13">
-      <c r="A331" s="17">
+      <c r="A331" s="47">
         <v>330</v>
       </c>
       <c r="B331" s="18" t="s">
@@ -13134,7 +13225,7 @@
       </c>
     </row>
     <row r="332" spans="1:13">
-      <c r="A332" s="17">
+      <c r="A332" s="47">
         <v>331</v>
       </c>
       <c r="B332" s="17" t="s">
@@ -13166,7 +13257,7 @@
       </c>
     </row>
     <row r="333" spans="1:13">
-      <c r="A333" s="17">
+      <c r="A333" s="47">
         <v>332</v>
       </c>
       <c r="B333" s="17" t="s">
@@ -13198,7 +13289,7 @@
       </c>
     </row>
     <row r="334" spans="1:13">
-      <c r="A334" s="17">
+      <c r="A334" s="47">
         <v>333</v>
       </c>
       <c r="B334" s="17" t="s">
@@ -13230,7 +13321,7 @@
       </c>
     </row>
     <row r="335" spans="1:13">
-      <c r="A335" s="17">
+      <c r="A335" s="47">
         <v>334</v>
       </c>
       <c r="B335" s="17" t="s">
@@ -13262,7 +13353,7 @@
       </c>
     </row>
     <row r="336" spans="1:13">
-      <c r="A336" s="17">
+      <c r="A336" s="47">
         <v>335</v>
       </c>
       <c r="B336" s="18" t="s">
@@ -13290,7 +13381,7 @@
       </c>
     </row>
     <row r="337" spans="1:13">
-      <c r="A337" s="17">
+      <c r="A337" s="47">
         <v>336</v>
       </c>
       <c r="B337" s="17" t="s">
@@ -13316,7 +13407,7 @@
       </c>
     </row>
     <row r="338" spans="1:13">
-      <c r="A338" s="17">
+      <c r="A338" s="47">
         <v>337</v>
       </c>
       <c r="B338" s="17" t="s">
@@ -13342,7 +13433,7 @@
       </c>
     </row>
     <row r="339" spans="1:13">
-      <c r="A339" s="17">
+      <c r="A339" s="47">
         <v>338</v>
       </c>
       <c r="B339" s="17" t="s">
@@ -13372,7 +13463,7 @@
       </c>
     </row>
     <row r="340" spans="1:13">
-      <c r="A340" s="17">
+      <c r="A340" s="47">
         <v>339</v>
       </c>
       <c r="B340" s="17" t="s">
@@ -13396,7 +13487,7 @@
       </c>
     </row>
     <row r="341" spans="1:13">
-      <c r="A341" s="17">
+      <c r="A341" s="47">
         <v>340</v>
       </c>
       <c r="B341" s="17" t="s">
@@ -13420,7 +13511,7 @@
       </c>
     </row>
     <row r="342" spans="1:13">
-      <c r="A342" s="17">
+      <c r="A342" s="47">
         <v>341</v>
       </c>
       <c r="B342" s="36" t="s">
@@ -13452,7 +13543,7 @@
       </c>
     </row>
     <row r="343" spans="1:13">
-      <c r="A343" s="17">
+      <c r="A343" s="47">
         <v>342</v>
       </c>
       <c r="B343" s="36" t="s">
@@ -13486,7 +13577,7 @@
       </c>
     </row>
     <row r="344" spans="1:13">
-      <c r="A344" s="17">
+      <c r="A344" s="47">
         <v>343</v>
       </c>
       <c r="B344" s="36" t="s">
@@ -13520,7 +13611,7 @@
       </c>
     </row>
     <row r="345" spans="1:13">
-      <c r="A345" s="17">
+      <c r="A345" s="47">
         <v>344</v>
       </c>
       <c r="B345" s="36" t="s">
@@ -13546,7 +13637,7 @@
       <c r="M345" s="18"/>
     </row>
     <row r="346" spans="1:13">
-      <c r="A346" s="17">
+      <c r="A346" s="47">
         <v>345</v>
       </c>
       <c r="B346" s="36" t="s">
@@ -13570,7 +13661,7 @@
       <c r="M346" s="18"/>
     </row>
     <row r="347" spans="1:13">
-      <c r="A347" s="17">
+      <c r="A347" s="47">
         <v>346</v>
       </c>
       <c r="B347" s="36" t="s">
@@ -13594,7 +13685,7 @@
       <c r="M347" s="18"/>
     </row>
     <row r="348" spans="1:13">
-      <c r="A348" s="17">
+      <c r="A348" s="47">
         <v>347</v>
       </c>
       <c r="B348" s="36" t="s">
@@ -13618,7 +13709,7 @@
       <c r="M348" s="18"/>
     </row>
     <row r="349" spans="1:13">
-      <c r="A349" s="17">
+      <c r="A349" s="47">
         <v>348</v>
       </c>
       <c r="B349" s="36" t="s">
@@ -13644,7 +13735,7 @@
       <c r="M349" s="18"/>
     </row>
     <row r="350" spans="1:13">
-      <c r="A350" s="17">
+      <c r="A350" s="47">
         <v>349</v>
       </c>
       <c r="B350" s="36" t="s">
@@ -13668,7 +13759,7 @@
       <c r="M350" s="18"/>
     </row>
     <row r="351" spans="1:13">
-      <c r="A351" s="17">
+      <c r="A351" s="47">
         <v>350</v>
       </c>
       <c r="B351" s="36" t="s">
@@ -13694,7 +13785,7 @@
       <c r="M351" s="18"/>
     </row>
     <row r="352" spans="1:13">
-      <c r="A352" s="17">
+      <c r="A352" s="47">
         <v>351</v>
       </c>
       <c r="B352" s="36" t="s">
@@ -13718,7 +13809,7 @@
       <c r="M352" s="18"/>
     </row>
     <row r="353" spans="1:13">
-      <c r="A353" s="17">
+      <c r="A353" s="47">
         <v>352</v>
       </c>
       <c r="B353" s="36" t="s">
@@ -13744,7 +13835,7 @@
       <c r="M353" s="18"/>
     </row>
     <row r="354" spans="1:13">
-      <c r="A354" s="17">
+      <c r="A354" s="47">
         <v>353</v>
       </c>
       <c r="B354" s="36" t="s">
@@ -13770,7 +13861,7 @@
       <c r="M354" s="18"/>
     </row>
     <row r="355" spans="1:13">
-      <c r="A355" s="17">
+      <c r="A355" s="47">
         <v>354</v>
       </c>
       <c r="B355" s="36" t="s">
@@ -13796,7 +13887,7 @@
       <c r="M355" s="18"/>
     </row>
     <row r="356" spans="1:13">
-      <c r="A356" s="17">
+      <c r="A356" s="47">
         <v>355</v>
       </c>
       <c r="B356" s="36" t="s">
@@ -13820,7 +13911,7 @@
       <c r="M356" s="18"/>
     </row>
     <row r="357" spans="1:13">
-      <c r="A357" s="17">
+      <c r="A357" s="47">
         <v>356</v>
       </c>
       <c r="B357" s="36" t="s">
@@ -13844,7 +13935,7 @@
       <c r="M357" s="18"/>
     </row>
     <row r="358" spans="1:13">
-      <c r="A358" s="17">
+      <c r="A358" s="47">
         <v>357</v>
       </c>
       <c r="B358" s="36" t="s">
@@ -13868,7 +13959,7 @@
       <c r="M358" s="18"/>
     </row>
     <row r="359" spans="1:13">
-      <c r="A359" s="17">
+      <c r="A359" s="47">
         <v>358</v>
       </c>
       <c r="B359" s="36" t="s">
@@ -13892,7 +13983,7 @@
       <c r="M359" s="18"/>
     </row>
     <row r="360" spans="1:13">
-      <c r="A360" s="17">
+      <c r="A360" s="47">
         <v>359</v>
       </c>
       <c r="B360" s="36" t="s">
@@ -13918,7 +14009,7 @@
       <c r="M360" s="18"/>
     </row>
     <row r="361" spans="1:13">
-      <c r="A361" s="17">
+      <c r="A361" s="47">
         <v>360</v>
       </c>
       <c r="B361" s="36" t="s">
@@ -13942,7 +14033,7 @@
       <c r="M361" s="18"/>
     </row>
     <row r="362" spans="1:13">
-      <c r="A362" s="17">
+      <c r="A362" s="47">
         <v>361</v>
       </c>
       <c r="B362" s="36" t="s">
@@ -13966,7 +14057,7 @@
       <c r="M362" s="18"/>
     </row>
     <row r="363" spans="1:13">
-      <c r="A363" s="17">
+      <c r="A363" s="47">
         <v>362</v>
       </c>
       <c r="B363" s="36" t="s">
@@ -13990,7 +14081,7 @@
       <c r="M363" s="18"/>
     </row>
     <row r="364" spans="1:13">
-      <c r="A364" s="17">
+      <c r="A364" s="47">
         <v>363</v>
       </c>
       <c r="B364" s="36" t="s">
@@ -14014,7 +14105,7 @@
       <c r="M364" s="18"/>
     </row>
     <row r="365" spans="1:13">
-      <c r="A365" s="17">
+      <c r="A365" s="47">
         <v>364</v>
       </c>
       <c r="B365" s="36" t="s">
@@ -14040,7 +14131,7 @@
       <c r="M365" s="18"/>
     </row>
     <row r="366" spans="1:13">
-      <c r="A366" s="17">
+      <c r="A366" s="47">
         <v>365</v>
       </c>
       <c r="B366" s="36" t="s">
@@ -14064,7 +14155,7 @@
       <c r="M366" s="18"/>
     </row>
     <row r="367" spans="1:13">
-      <c r="A367" s="17">
+      <c r="A367" s="47">
         <v>366</v>
       </c>
       <c r="B367" s="36" t="s">
@@ -14088,7 +14179,7 @@
       <c r="M367" s="18"/>
     </row>
     <row r="368" spans="1:13">
-      <c r="A368" s="17">
+      <c r="A368" s="47">
         <v>367</v>
       </c>
       <c r="B368" s="36" t="s">
@@ -14112,7 +14203,7 @@
       <c r="M368" s="18"/>
     </row>
     <row r="369" spans="1:13">
-      <c r="A369" s="17">
+      <c r="A369" s="47">
         <v>368</v>
       </c>
       <c r="B369" s="36" t="s">
@@ -14136,7 +14227,7 @@
       <c r="M369" s="18"/>
     </row>
     <row r="370" spans="1:13">
-      <c r="A370" s="17">
+      <c r="A370" s="47">
         <v>369</v>
       </c>
       <c r="B370" s="36" t="s">
@@ -14162,7 +14253,7 @@
       <c r="M370" s="18"/>
     </row>
     <row r="371" spans="1:13">
-      <c r="A371" s="17">
+      <c r="A371" s="47">
         <v>370</v>
       </c>
       <c r="B371" s="36" t="s">
@@ -14188,7 +14279,7 @@
       <c r="M371" s="18"/>
     </row>
     <row r="372" spans="1:13">
-      <c r="A372" s="17">
+      <c r="A372" s="47">
         <v>371</v>
       </c>
       <c r="B372" s="36" t="s">
@@ -14212,7 +14303,7 @@
       <c r="M372" s="18"/>
     </row>
     <row r="373" spans="1:13">
-      <c r="A373" s="17">
+      <c r="A373" s="47">
         <v>372</v>
       </c>
       <c r="B373" s="36" t="s">
@@ -14238,7 +14329,7 @@
       <c r="M373" s="18"/>
     </row>
     <row r="374" spans="1:13">
-      <c r="A374" s="17">
+      <c r="A374" s="47">
         <v>373</v>
       </c>
       <c r="B374" s="36" t="s">
@@ -14262,7 +14353,7 @@
       <c r="M374" s="18"/>
     </row>
     <row r="375" spans="1:13">
-      <c r="A375" s="17">
+      <c r="A375" s="47">
         <v>374</v>
       </c>
       <c r="B375" s="36" t="s">
@@ -14286,7 +14377,7 @@
       <c r="M375" s="18"/>
     </row>
     <row r="376" spans="1:13">
-      <c r="A376" s="17">
+      <c r="A376" s="47">
         <v>375</v>
       </c>
       <c r="B376" s="36" t="s">
@@ -14310,7 +14401,7 @@
       <c r="M376" s="18"/>
     </row>
     <row r="377" spans="1:13">
-      <c r="A377" s="17">
+      <c r="A377" s="47">
         <v>376</v>
       </c>
       <c r="B377" s="36" t="s">
@@ -14334,7 +14425,7 @@
       <c r="M377" s="18"/>
     </row>
     <row r="378" spans="1:13">
-      <c r="A378" s="17">
+      <c r="A378" s="47">
         <v>377</v>
       </c>
       <c r="B378" s="36" t="s">
@@ -14360,7 +14451,7 @@
       <c r="M378" s="18"/>
     </row>
     <row r="379" spans="1:13">
-      <c r="A379" s="17">
+      <c r="A379" s="47">
         <v>378</v>
       </c>
       <c r="B379" s="36" t="s">
@@ -14386,7 +14477,7 @@
       <c r="M379" s="18"/>
     </row>
     <row r="380" spans="1:13">
-      <c r="A380" s="17">
+      <c r="A380" s="47">
         <v>379</v>
       </c>
       <c r="B380" s="36" t="s">
@@ -14412,7 +14503,7 @@
       <c r="M380" s="18"/>
     </row>
     <row r="381" spans="1:13">
-      <c r="A381" s="17">
+      <c r="A381" s="47">
         <v>380</v>
       </c>
       <c r="B381" s="36" t="s">
@@ -14438,7 +14529,7 @@
       <c r="M381" s="18"/>
     </row>
     <row r="382" spans="1:13">
-      <c r="A382" s="17">
+      <c r="A382" s="47">
         <v>381</v>
       </c>
       <c r="B382" s="36" t="s">
@@ -14464,7 +14555,7 @@
       <c r="M382" s="18"/>
     </row>
     <row r="383" spans="1:13">
-      <c r="A383" s="17">
+      <c r="A383" s="47">
         <v>382</v>
       </c>
       <c r="B383" s="36" t="s">
@@ -14488,7 +14579,7 @@
       <c r="M383" s="18"/>
     </row>
     <row r="384" spans="1:13">
-      <c r="A384" s="17">
+      <c r="A384" s="47">
         <v>383</v>
       </c>
       <c r="B384" s="36" t="s">
@@ -14512,7 +14603,7 @@
       <c r="M384" s="18"/>
     </row>
     <row r="385" spans="1:13">
-      <c r="A385" s="17">
+      <c r="A385" s="47">
         <v>384</v>
       </c>
       <c r="B385" s="36" t="s">
@@ -14538,7 +14629,7 @@
       <c r="M385" s="18"/>
     </row>
     <row r="386" spans="1:13">
-      <c r="A386" s="17">
+      <c r="A386" s="47">
         <v>385</v>
       </c>
       <c r="B386" s="36" t="s">
@@ -14562,7 +14653,7 @@
       <c r="M386" s="18"/>
     </row>
     <row r="387" spans="1:13">
-      <c r="A387" s="17">
+      <c r="A387" s="47">
         <v>386</v>
       </c>
       <c r="B387" s="36" t="s">
@@ -14588,7 +14679,7 @@
       <c r="M387" s="18"/>
     </row>
     <row r="388" spans="1:13">
-      <c r="A388" s="17">
+      <c r="A388" s="47">
         <v>387</v>
       </c>
       <c r="B388" s="36" t="s">
@@ -14614,7 +14705,7 @@
       <c r="M388" s="18"/>
     </row>
     <row r="389" spans="1:13">
-      <c r="A389" s="17">
+      <c r="A389" s="47">
         <v>388</v>
       </c>
       <c r="B389" s="36" t="s">
@@ -14638,7 +14729,7 @@
       <c r="M389" s="18"/>
     </row>
     <row r="390" spans="1:13">
-      <c r="A390" s="17">
+      <c r="A390" s="47">
         <v>389</v>
       </c>
       <c r="B390" s="36" t="s">
@@ -14662,7 +14753,7 @@
       <c r="M390" s="18"/>
     </row>
     <row r="391" spans="1:13">
-      <c r="A391" s="17">
+      <c r="A391" s="47">
         <v>390</v>
       </c>
       <c r="B391" s="36" t="s">
@@ -14688,7 +14779,7 @@
       <c r="M391" s="18"/>
     </row>
     <row r="392" spans="1:13">
-      <c r="A392" s="17">
+      <c r="A392" s="47">
         <v>391</v>
       </c>
       <c r="B392" s="36" t="s">
@@ -14712,7 +14803,7 @@
       <c r="M392" s="18"/>
     </row>
     <row r="393" spans="1:13">
-      <c r="A393" s="17">
+      <c r="A393" s="47">
         <v>392</v>
       </c>
       <c r="B393" s="36" t="s">
@@ -14736,7 +14827,7 @@
       <c r="M393" s="18"/>
     </row>
     <row r="394" spans="1:13">
-      <c r="A394" s="17">
+      <c r="A394" s="47">
         <v>393</v>
       </c>
       <c r="B394" s="36" t="s">
@@ -14760,7 +14851,7 @@
       <c r="M394" s="18"/>
     </row>
     <row r="395" spans="1:13">
-      <c r="A395" s="17">
+      <c r="A395" s="47">
         <v>394</v>
       </c>
       <c r="B395" s="36" t="s">
@@ -14784,7 +14875,7 @@
       <c r="M395" s="18"/>
     </row>
     <row r="396" spans="1:13">
-      <c r="A396" s="17">
+      <c r="A396" s="47">
         <v>395</v>
       </c>
       <c r="B396" s="36" t="s">
@@ -14808,7 +14899,7 @@
       <c r="M396" s="18"/>
     </row>
     <row r="397" spans="1:13">
-      <c r="A397" s="17">
+      <c r="A397" s="47">
         <v>396</v>
       </c>
       <c r="B397" s="36" t="s">
@@ -14834,7 +14925,7 @@
       <c r="M397" s="18"/>
     </row>
     <row r="398" spans="1:13">
-      <c r="A398" s="17">
+      <c r="A398" s="47">
         <v>397</v>
       </c>
       <c r="B398" s="36" t="s">
@@ -14860,7 +14951,7 @@
       <c r="M398" s="18"/>
     </row>
     <row r="399" spans="1:13">
-      <c r="A399" s="17">
+      <c r="A399" s="47">
         <v>398</v>
       </c>
       <c r="B399" s="36" t="s">
@@ -14884,7 +14975,7 @@
       <c r="M399" s="18"/>
     </row>
     <row r="400" spans="1:13">
-      <c r="A400" s="17">
+      <c r="A400" s="47">
         <v>399</v>
       </c>
       <c r="B400" s="36" t="s">
@@ -14908,7 +14999,7 @@
       <c r="M400" s="18"/>
     </row>
     <row r="401" spans="1:13">
-      <c r="A401" s="17">
+      <c r="A401" s="47">
         <v>400</v>
       </c>
       <c r="B401" s="36" t="s">
@@ -14932,7 +15023,7 @@
       <c r="M401" s="18"/>
     </row>
     <row r="402" spans="1:13">
-      <c r="A402" s="17">
+      <c r="A402" s="47">
         <v>401</v>
       </c>
       <c r="B402" s="36" t="s">
@@ -14958,7 +15049,7 @@
       <c r="M402" s="18"/>
     </row>
     <row r="403" spans="1:13">
-      <c r="A403" s="17">
+      <c r="A403" s="47">
         <v>402</v>
       </c>
       <c r="B403" s="36" t="s">
@@ -14982,7 +15073,7 @@
       <c r="M403" s="18"/>
     </row>
     <row r="404" spans="1:13">
-      <c r="A404" s="17">
+      <c r="A404" s="47">
         <v>403</v>
       </c>
       <c r="B404" s="36" t="s">
@@ -15008,7 +15099,7 @@
       <c r="M404" s="18"/>
     </row>
     <row r="405" spans="1:13">
-      <c r="A405" s="17">
+      <c r="A405" s="47">
         <v>404</v>
       </c>
       <c r="B405" s="36" t="s">
@@ -15032,7 +15123,7 @@
       <c r="M405" s="18"/>
     </row>
     <row r="406" spans="1:13">
-      <c r="A406" s="17">
+      <c r="A406" s="47">
         <v>405</v>
       </c>
       <c r="B406" s="36" t="s">
@@ -15056,7 +15147,7 @@
       <c r="M406" s="18"/>
     </row>
     <row r="407" spans="1:13">
-      <c r="A407" s="17">
+      <c r="A407" s="47">
         <v>406</v>
       </c>
       <c r="B407" s="36" t="s">
@@ -15080,7 +15171,7 @@
       <c r="M407" s="18"/>
     </row>
     <row r="408" spans="1:13">
-      <c r="A408" s="17">
+      <c r="A408" s="47">
         <v>407</v>
       </c>
       <c r="B408" s="36" t="s">
@@ -15106,7 +15197,7 @@
       <c r="M408" s="18"/>
     </row>
     <row r="409" spans="1:13">
-      <c r="A409" s="17">
+      <c r="A409" s="47">
         <v>408</v>
       </c>
       <c r="B409" s="36" t="s">
@@ -15130,7 +15221,7 @@
       <c r="M409" s="18"/>
     </row>
     <row r="410" spans="1:13">
-      <c r="A410" s="17">
+      <c r="A410" s="47">
         <v>409</v>
       </c>
       <c r="B410" s="36" t="s">
@@ -15154,7 +15245,7 @@
       <c r="M410" s="18"/>
     </row>
     <row r="411" spans="1:13">
-      <c r="A411" s="17">
+      <c r="A411" s="47">
         <v>410</v>
       </c>
       <c r="B411" s="36" t="s">
@@ -15178,7 +15269,7 @@
       <c r="M411" s="18"/>
     </row>
     <row r="412" spans="1:13">
-      <c r="A412" s="17">
+      <c r="A412" s="47">
         <v>411</v>
       </c>
       <c r="B412" s="36" t="s">
@@ -15204,7 +15295,7 @@
       <c r="M412" s="18"/>
     </row>
     <row r="413" spans="1:13">
-      <c r="A413" s="17">
+      <c r="A413" s="47">
         <v>412</v>
       </c>
       <c r="B413" s="36" t="s">
@@ -15228,7 +15319,7 @@
       <c r="M413" s="18"/>
     </row>
     <row r="414" spans="1:13">
-      <c r="A414" s="17">
+      <c r="A414" s="47">
         <v>413</v>
       </c>
       <c r="B414" s="36" t="s">
@@ -15252,7 +15343,7 @@
       <c r="M414" s="18"/>
     </row>
     <row r="415" spans="1:13">
-      <c r="A415" s="17">
+      <c r="A415" s="47">
         <v>414</v>
       </c>
       <c r="B415" s="36" t="s">
@@ -15276,7 +15367,7 @@
       <c r="M415" s="18"/>
     </row>
     <row r="416" spans="1:13">
-      <c r="A416" s="3">
+      <c r="A416" s="52">
         <v>415</v>
       </c>
       <c r="B416" s="14" t="s">
@@ -15302,7 +15393,7 @@
       </c>
     </row>
     <row r="417" spans="1:13">
-      <c r="A417" s="3">
+      <c r="A417" s="52">
         <v>416</v>
       </c>
       <c r="B417" s="14" t="s">
@@ -15322,7 +15413,7 @@
       </c>
     </row>
     <row r="418" spans="1:13">
-      <c r="A418" s="3">
+      <c r="A418" s="52">
         <v>417</v>
       </c>
       <c r="B418" s="14" t="s">
@@ -15340,7 +15431,7 @@
       </c>
     </row>
     <row r="419" spans="1:13">
-      <c r="A419" s="3">
+      <c r="A419" s="52">
         <v>418</v>
       </c>
       <c r="B419" s="14" t="s">
@@ -15369,7 +15460,7 @@
       </c>
     </row>
     <row r="420" spans="1:13">
-      <c r="A420" s="3">
+      <c r="A420" s="52">
         <v>419</v>
       </c>
       <c r="B420" s="14" t="s">
@@ -15389,7 +15480,7 @@
       </c>
     </row>
     <row r="421" spans="1:13">
-      <c r="A421" s="3">
+      <c r="A421" s="52">
         <v>420</v>
       </c>
       <c r="B421" s="14" t="s">

--- a/metadata/Inventory inscribed pieces.xlsx
+++ b/metadata/Inventory inscribed pieces.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10908"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vincenttournier/Library/CloudStorage/Dropbox/Mac (2)/Documents/GitHub/tfb-satavahana-epigraphy/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BCAAE9C-1A7A-1C49-814D-752BB41FC67A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57006237-C5FE-4F49-8CB3-46B99BE7F3BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1660" yWindow="500" windowWidth="39140" windowHeight="15700" xr2:uid="{D79794C4-FCC0-9B4A-B6F1-FEEF81BE6884}"/>
+    <workbookView xWindow="1660" yWindow="500" windowWidth="41660" windowHeight="19800" xr2:uid="{D79794C4-FCC0-9B4A-B6F1-FEEF81BE6884}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2537" uniqueCount="795">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2547" uniqueCount="798">
   <si>
     <t>shed 1</t>
   </si>
@@ -2538,6 +2538,15 @@
   </si>
   <si>
     <t>buddhist donative</t>
+  </si>
+  <si>
+    <t>Gulbarga museum, 37B</t>
+  </si>
+  <si>
+    <t>B10</t>
+  </si>
+  <si>
+    <t>1966–1967: B222</t>
   </si>
 </sst>
 </file>
@@ -2839,9 +2848,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2868,6 +2874,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2886,9 +2895,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2926,7 +2935,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -3032,7 +3041,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3174,7 +3183,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3185,8 +3194,8 @@
   <dimension ref="A1:O523"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A100" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O4" sqref="O4"/>
+      <pane ySplit="1" topLeftCell="A419" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G442" sqref="G442"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -3244,7 +3253,7 @@
       </c>
     </row>
     <row r="2" spans="1:15" ht="17" thickTop="1">
-      <c r="A2" s="42">
+      <c r="A2" s="41">
         <v>1</v>
       </c>
       <c r="B2" s="18" t="s">
@@ -3270,13 +3279,13 @@
       <c r="J2" s="19"/>
       <c r="L2" s="19"/>
       <c r="M2" s="18"/>
-      <c r="N2" s="48"/>
+      <c r="N2" s="47"/>
       <c r="O2" t="s">
         <v>790</v>
       </c>
     </row>
     <row r="3" spans="1:15">
-      <c r="A3" s="42">
+      <c r="A3" s="41">
         <v>2</v>
       </c>
       <c r="B3" s="18" t="s">
@@ -3302,13 +3311,13 @@
       <c r="J3" s="19"/>
       <c r="L3" s="19"/>
       <c r="M3" s="18"/>
-      <c r="N3" s="49"/>
+      <c r="N3" s="48"/>
       <c r="O3" t="s">
         <v>794</v>
       </c>
     </row>
     <row r="4" spans="1:15">
-      <c r="A4" s="43">
+      <c r="A4" s="42">
         <v>3</v>
       </c>
       <c r="B4" s="18" t="s">
@@ -3338,13 +3347,13 @@
         <v>648</v>
       </c>
       <c r="M4" s="18"/>
-      <c r="N4" s="50"/>
+      <c r="N4" s="49"/>
       <c r="O4" t="s">
         <v>791</v>
       </c>
     </row>
     <row r="5" spans="1:15">
-      <c r="A5" s="42">
+      <c r="A5" s="41">
         <v>4</v>
       </c>
       <c r="B5" s="18" t="s">
@@ -3374,13 +3383,13 @@
         <v>534</v>
       </c>
       <c r="M5" s="18"/>
-      <c r="N5" s="51"/>
+      <c r="N5" s="50"/>
       <c r="O5" t="s">
         <v>792</v>
       </c>
     </row>
     <row r="6" spans="1:15">
-      <c r="A6" s="42">
+      <c r="A6" s="41">
         <v>5</v>
       </c>
       <c r="B6" s="18" t="s">
@@ -3410,13 +3419,13 @@
         <v>71</v>
       </c>
       <c r="M6" s="18"/>
-      <c r="N6" s="53"/>
+      <c r="N6" s="52"/>
       <c r="O6" t="s">
         <v>793</v>
       </c>
     </row>
     <row r="7" spans="1:15">
-      <c r="A7" s="42">
+      <c r="A7" s="41">
         <v>6</v>
       </c>
       <c r="B7" s="18" t="s">
@@ -3448,7 +3457,7 @@
       <c r="M7" s="18"/>
     </row>
     <row r="8" spans="1:15">
-      <c r="A8" s="42">
+      <c r="A8" s="41">
         <v>7</v>
       </c>
       <c r="B8" s="18" t="s">
@@ -3480,7 +3489,7 @@
       <c r="M8" s="18"/>
     </row>
     <row r="9" spans="1:15">
-      <c r="A9" s="43">
+      <c r="A9" s="42">
         <v>8</v>
       </c>
       <c r="B9" s="18" t="s">
@@ -3510,7 +3519,7 @@
       <c r="M9" s="18"/>
     </row>
     <row r="10" spans="1:15">
-      <c r="A10" s="42">
+      <c r="A10" s="41">
         <v>9</v>
       </c>
       <c r="B10" s="18" t="s">
@@ -3542,7 +3551,7 @@
       <c r="M10" s="18"/>
     </row>
     <row r="11" spans="1:15">
-      <c r="A11" s="43">
+      <c r="A11" s="42">
         <v>10</v>
       </c>
       <c r="B11" s="18" t="s">
@@ -3572,7 +3581,7 @@
       <c r="M11" s="18"/>
     </row>
     <row r="12" spans="1:15">
-      <c r="A12" s="43">
+      <c r="A12" s="42">
         <v>11</v>
       </c>
       <c r="B12" s="18" t="s">
@@ -3602,7 +3611,7 @@
       <c r="M12" s="18"/>
     </row>
     <row r="13" spans="1:15">
-      <c r="A13" s="43">
+      <c r="A13" s="42">
         <v>12</v>
       </c>
       <c r="B13" s="18" t="s">
@@ -3632,7 +3641,7 @@
       <c r="M13" s="18"/>
     </row>
     <row r="14" spans="1:15">
-      <c r="A14" s="43">
+      <c r="A14" s="42">
         <v>13</v>
       </c>
       <c r="B14" s="18" t="s">
@@ -3660,7 +3669,7 @@
       <c r="M14" s="18"/>
     </row>
     <row r="15" spans="1:15">
-      <c r="A15" s="43">
+      <c r="A15" s="42">
         <v>14</v>
       </c>
       <c r="B15" s="18" t="s">
@@ -3692,7 +3701,7 @@
       <c r="M15" s="18"/>
     </row>
     <row r="16" spans="1:15">
-      <c r="A16" s="43">
+      <c r="A16" s="42">
         <v>15</v>
       </c>
       <c r="B16" s="18" t="s">
@@ -3724,7 +3733,7 @@
       <c r="M16" s="18"/>
     </row>
     <row r="17" spans="1:13">
-      <c r="A17" s="43">
+      <c r="A17" s="42">
         <v>16</v>
       </c>
       <c r="B17" s="18" t="s">
@@ -3754,7 +3763,7 @@
       <c r="M17" s="18"/>
     </row>
     <row r="18" spans="1:13">
-      <c r="A18" s="43">
+      <c r="A18" s="42">
         <v>17</v>
       </c>
       <c r="B18" s="18" t="s">
@@ -3784,7 +3793,7 @@
       <c r="M18" s="18"/>
     </row>
     <row r="19" spans="1:13">
-      <c r="A19" s="43">
+      <c r="A19" s="42">
         <v>18</v>
       </c>
       <c r="B19" s="18" t="s">
@@ -3814,7 +3823,7 @@
       <c r="M19" s="18"/>
     </row>
     <row r="20" spans="1:13">
-      <c r="A20" s="43">
+      <c r="A20" s="42">
         <v>19</v>
       </c>
       <c r="B20" s="18" t="s">
@@ -3846,7 +3855,7 @@
       <c r="M20" s="18"/>
     </row>
     <row r="21" spans="1:13">
-      <c r="A21" s="43">
+      <c r="A21" s="42">
         <v>20</v>
       </c>
       <c r="B21" s="18" t="s">
@@ -3876,7 +3885,7 @@
       <c r="M21" s="18"/>
     </row>
     <row r="22" spans="1:13">
-      <c r="A22" s="43">
+      <c r="A22" s="42">
         <v>21</v>
       </c>
       <c r="B22" s="18" t="s">
@@ -3906,7 +3915,7 @@
       <c r="M22" s="18"/>
     </row>
     <row r="23" spans="1:13">
-      <c r="A23" s="43">
+      <c r="A23" s="42">
         <v>22</v>
       </c>
       <c r="B23" s="18" t="s">
@@ -3936,7 +3945,7 @@
       <c r="M23" s="18"/>
     </row>
     <row r="24" spans="1:13">
-      <c r="A24" s="43">
+      <c r="A24" s="42">
         <v>23</v>
       </c>
       <c r="B24" s="18" t="s">
@@ -3966,7 +3975,7 @@
       <c r="M24" s="18"/>
     </row>
     <row r="25" spans="1:13">
-      <c r="A25" s="43">
+      <c r="A25" s="42">
         <v>24</v>
       </c>
       <c r="B25" s="18" t="s">
@@ -3996,7 +4005,7 @@
       <c r="M25" s="18"/>
     </row>
     <row r="26" spans="1:13">
-      <c r="A26" s="43">
+      <c r="A26" s="42">
         <v>25</v>
       </c>
       <c r="B26" s="18" t="s">
@@ -4026,7 +4035,7 @@
       <c r="M26" s="18"/>
     </row>
     <row r="27" spans="1:13">
-      <c r="A27" s="43">
+      <c r="A27" s="42">
         <v>26</v>
       </c>
       <c r="B27" s="18" t="s">
@@ -4056,7 +4065,7 @@
       <c r="M27" s="18"/>
     </row>
     <row r="28" spans="1:13">
-      <c r="A28" s="43">
+      <c r="A28" s="42">
         <v>27</v>
       </c>
       <c r="B28" s="18" t="s">
@@ -4088,7 +4097,7 @@
       </c>
     </row>
     <row r="29" spans="1:13">
-      <c r="A29" s="43">
+      <c r="A29" s="42">
         <v>28</v>
       </c>
       <c r="B29" s="18" t="s">
@@ -4118,7 +4127,7 @@
       <c r="M29" s="18"/>
     </row>
     <row r="30" spans="1:13">
-      <c r="A30" s="43">
+      <c r="A30" s="42">
         <v>29</v>
       </c>
       <c r="B30" s="18" t="s">
@@ -4150,7 +4159,7 @@
       </c>
     </row>
     <row r="31" spans="1:13">
-      <c r="A31" s="43">
+      <c r="A31" s="42">
         <v>30</v>
       </c>
       <c r="B31" s="18" t="s">
@@ -4180,7 +4189,7 @@
       <c r="M31" s="18"/>
     </row>
     <row r="32" spans="1:13">
-      <c r="A32" s="43">
+      <c r="A32" s="42">
         <v>31</v>
       </c>
       <c r="B32" s="18" t="s">
@@ -4210,7 +4219,7 @@
       <c r="M32" s="18"/>
     </row>
     <row r="33" spans="1:13">
-      <c r="A33" s="43">
+      <c r="A33" s="42">
         <v>32</v>
       </c>
       <c r="B33" s="18" t="s">
@@ -4238,7 +4247,7 @@
       <c r="M33" s="18"/>
     </row>
     <row r="34" spans="1:13">
-      <c r="A34" s="43">
+      <c r="A34" s="42">
         <v>33</v>
       </c>
       <c r="B34" s="18" t="s">
@@ -4270,7 +4279,7 @@
       <c r="M34" s="18"/>
     </row>
     <row r="35" spans="1:13">
-      <c r="A35" s="43">
+      <c r="A35" s="42">
         <v>34</v>
       </c>
       <c r="B35" s="18" t="s">
@@ -4300,7 +4309,7 @@
       <c r="M35" s="18"/>
     </row>
     <row r="36" spans="1:13">
-      <c r="A36" s="43">
+      <c r="A36" s="42">
         <v>35</v>
       </c>
       <c r="B36" s="18" t="s">
@@ -4332,7 +4341,7 @@
       <c r="M36" s="18"/>
     </row>
     <row r="37" spans="1:13">
-      <c r="A37" s="43">
+      <c r="A37" s="42">
         <v>36</v>
       </c>
       <c r="B37" s="18" t="s">
@@ -4360,7 +4369,7 @@
       <c r="M37" s="18"/>
     </row>
     <row r="38" spans="1:13">
-      <c r="A38" s="43">
+      <c r="A38" s="42">
         <v>37</v>
       </c>
       <c r="B38" s="18" t="s">
@@ -4390,7 +4399,7 @@
       <c r="M38" s="18"/>
     </row>
     <row r="39" spans="1:13">
-      <c r="A39" s="43">
+      <c r="A39" s="42">
         <v>38</v>
       </c>
       <c r="B39" s="18" t="s">
@@ -4420,7 +4429,7 @@
       <c r="M39" s="18"/>
     </row>
     <row r="40" spans="1:13">
-      <c r="A40" s="43">
+      <c r="A40" s="42">
         <v>39</v>
       </c>
       <c r="B40" s="18" t="s">
@@ -4450,7 +4459,7 @@
       <c r="M40" s="18"/>
     </row>
     <row r="41" spans="1:13">
-      <c r="A41" s="43">
+      <c r="A41" s="42">
         <v>40</v>
       </c>
       <c r="B41" s="18" t="s">
@@ -4480,7 +4489,7 @@
       <c r="M41" s="18"/>
     </row>
     <row r="42" spans="1:13">
-      <c r="A42" s="43">
+      <c r="A42" s="42">
         <v>41</v>
       </c>
       <c r="B42" s="18" t="s">
@@ -4508,7 +4517,7 @@
       <c r="M42" s="18"/>
     </row>
     <row r="43" spans="1:13">
-      <c r="A43" s="43">
+      <c r="A43" s="42">
         <v>42</v>
       </c>
       <c r="B43" s="18" t="s">
@@ -4538,7 +4547,7 @@
       <c r="M43" s="18"/>
     </row>
     <row r="44" spans="1:13">
-      <c r="A44" s="43">
+      <c r="A44" s="42">
         <v>43</v>
       </c>
       <c r="B44" s="18" t="s">
@@ -4568,7 +4577,7 @@
       <c r="M44" s="18"/>
     </row>
     <row r="45" spans="1:13">
-      <c r="A45" s="43">
+      <c r="A45" s="42">
         <v>44</v>
       </c>
       <c r="B45" s="18" t="s">
@@ -4598,7 +4607,7 @@
       <c r="M45" s="18"/>
     </row>
     <row r="46" spans="1:13" ht="15" customHeight="1">
-      <c r="A46" s="43">
+      <c r="A46" s="42">
         <v>45</v>
       </c>
       <c r="B46" s="18" t="s">
@@ -4628,7 +4637,7 @@
       <c r="M46" s="18"/>
     </row>
     <row r="47" spans="1:13">
-      <c r="A47" s="43">
+      <c r="A47" s="42">
         <v>46</v>
       </c>
       <c r="B47" s="18" t="s">
@@ -4658,7 +4667,7 @@
       <c r="M47" s="18"/>
     </row>
     <row r="48" spans="1:13">
-      <c r="A48" s="43">
+      <c r="A48" s="42">
         <v>47</v>
       </c>
       <c r="B48" s="18" t="s">
@@ -4688,7 +4697,7 @@
       <c r="M48" s="18"/>
     </row>
     <row r="49" spans="1:13">
-      <c r="A49" s="43">
+      <c r="A49" s="42">
         <v>48</v>
       </c>
       <c r="B49" s="18" t="s">
@@ -4716,7 +4725,7 @@
       <c r="M49" s="18"/>
     </row>
     <row r="50" spans="1:13">
-      <c r="A50" s="43">
+      <c r="A50" s="42">
         <v>49</v>
       </c>
       <c r="B50" s="18" t="s">
@@ -4746,7 +4755,7 @@
       <c r="M50" s="18"/>
     </row>
     <row r="51" spans="1:13">
-      <c r="A51" s="43">
+      <c r="A51" s="42">
         <v>50</v>
       </c>
       <c r="B51" s="18" t="s">
@@ -4776,7 +4785,7 @@
       <c r="M51" s="18"/>
     </row>
     <row r="52" spans="1:13">
-      <c r="A52" s="43">
+      <c r="A52" s="42">
         <v>51</v>
       </c>
       <c r="B52" s="18" t="s">
@@ -4806,7 +4815,7 @@
       <c r="M52" s="18"/>
     </row>
     <row r="53" spans="1:13">
-      <c r="A53" s="43">
+      <c r="A53" s="42">
         <v>52</v>
       </c>
       <c r="B53" s="18" t="s">
@@ -4836,7 +4845,7 @@
       <c r="M53" s="18"/>
     </row>
     <row r="54" spans="1:13">
-      <c r="A54" s="43">
+      <c r="A54" s="42">
         <v>53</v>
       </c>
       <c r="B54" s="18" t="s">
@@ -4866,7 +4875,7 @@
       <c r="M54" s="18"/>
     </row>
     <row r="55" spans="1:13">
-      <c r="A55" s="43">
+      <c r="A55" s="42">
         <v>54</v>
       </c>
       <c r="B55" s="18" t="s">
@@ -4898,7 +4907,7 @@
       <c r="M55" s="18"/>
     </row>
     <row r="56" spans="1:13">
-      <c r="A56" s="43">
+      <c r="A56" s="42">
         <v>55</v>
       </c>
       <c r="B56" s="18" t="s">
@@ -4928,7 +4937,7 @@
       </c>
     </row>
     <row r="57" spans="1:13">
-      <c r="A57" s="43">
+      <c r="A57" s="42">
         <v>56</v>
       </c>
       <c r="B57" s="18" t="s">
@@ -4958,7 +4967,7 @@
       <c r="M57" s="18"/>
     </row>
     <row r="58" spans="1:13">
-      <c r="A58" s="43">
+      <c r="A58" s="42">
         <v>57</v>
       </c>
       <c r="B58" s="18" t="s">
@@ -4988,7 +4997,7 @@
       </c>
     </row>
     <row r="59" spans="1:13">
-      <c r="A59" s="43">
+      <c r="A59" s="42">
         <v>58</v>
       </c>
       <c r="B59" s="18" t="s">
@@ -5018,7 +5027,7 @@
       </c>
     </row>
     <row r="60" spans="1:13">
-      <c r="A60" s="43">
+      <c r="A60" s="42">
         <v>59</v>
       </c>
       <c r="B60" s="18" t="s">
@@ -5048,7 +5057,7 @@
       <c r="M60" s="18"/>
     </row>
     <row r="61" spans="1:13">
-      <c r="A61" s="43">
+      <c r="A61" s="42">
         <v>60</v>
       </c>
       <c r="B61" s="18" t="s">
@@ -5080,7 +5089,7 @@
       </c>
     </row>
     <row r="62" spans="1:13">
-      <c r="A62" s="43">
+      <c r="A62" s="42">
         <v>61</v>
       </c>
       <c r="B62" s="18" t="s">
@@ -5112,7 +5121,7 @@
       </c>
     </row>
     <row r="63" spans="1:13">
-      <c r="A63" s="43">
+      <c r="A63" s="42">
         <v>62</v>
       </c>
       <c r="B63" s="18" t="s">
@@ -5142,7 +5151,7 @@
       <c r="M63" s="18"/>
     </row>
     <row r="64" spans="1:13">
-      <c r="A64" s="43">
+      <c r="A64" s="42">
         <v>63</v>
       </c>
       <c r="B64" s="18" t="s">
@@ -5174,7 +5183,7 @@
       <c r="M64" s="18"/>
     </row>
     <row r="65" spans="1:13">
-      <c r="A65" s="43">
+      <c r="A65" s="42">
         <v>64</v>
       </c>
       <c r="B65" s="18" t="s">
@@ -5204,7 +5213,7 @@
       <c r="M65" s="18"/>
     </row>
     <row r="66" spans="1:13">
-      <c r="A66" s="43">
+      <c r="A66" s="42">
         <v>65</v>
       </c>
       <c r="B66" s="18" t="s">
@@ -5234,7 +5243,7 @@
       <c r="M66" s="18"/>
     </row>
     <row r="67" spans="1:13">
-      <c r="A67" s="43">
+      <c r="A67" s="42">
         <v>66</v>
       </c>
       <c r="B67" s="18" t="s">
@@ -5264,7 +5273,7 @@
       <c r="M67" s="18"/>
     </row>
     <row r="68" spans="1:13">
-      <c r="A68" s="43">
+      <c r="A68" s="42">
         <v>67</v>
       </c>
       <c r="B68" s="18" t="s">
@@ -5296,7 +5305,7 @@
       <c r="M68" s="18"/>
     </row>
     <row r="69" spans="1:13">
-      <c r="A69" s="43">
+      <c r="A69" s="42">
         <v>68</v>
       </c>
       <c r="B69" s="18" t="s">
@@ -5326,7 +5335,7 @@
       <c r="M69" s="18"/>
     </row>
     <row r="70" spans="1:13">
-      <c r="A70" s="43">
+      <c r="A70" s="42">
         <v>69</v>
       </c>
       <c r="B70" s="18" t="s">
@@ -5356,7 +5365,7 @@
       <c r="M70" s="18"/>
     </row>
     <row r="71" spans="1:13">
-      <c r="A71" s="43">
+      <c r="A71" s="42">
         <v>70</v>
       </c>
       <c r="B71" s="18" t="s">
@@ -5386,7 +5395,7 @@
       <c r="M71" s="18"/>
     </row>
     <row r="72" spans="1:13">
-      <c r="A72" s="43">
+      <c r="A72" s="42">
         <v>71</v>
       </c>
       <c r="B72" s="18" t="s">
@@ -5416,7 +5425,7 @@
       <c r="M72" s="18"/>
     </row>
     <row r="73" spans="1:13">
-      <c r="A73" s="43">
+      <c r="A73" s="42">
         <v>72</v>
       </c>
       <c r="B73" s="18" t="s">
@@ -5446,7 +5455,7 @@
       <c r="M73" s="18"/>
     </row>
     <row r="74" spans="1:13">
-      <c r="A74" s="43">
+      <c r="A74" s="42">
         <v>73</v>
       </c>
       <c r="B74" s="18" t="s">
@@ -5468,7 +5477,7 @@
       <c r="M74" s="25"/>
     </row>
     <row r="75" spans="1:13">
-      <c r="A75" s="43">
+      <c r="A75" s="42">
         <v>74</v>
       </c>
       <c r="B75" s="18" t="s">
@@ -5490,7 +5499,7 @@
       <c r="M75" s="25"/>
     </row>
     <row r="76" spans="1:13">
-      <c r="A76" s="43">
+      <c r="A76" s="42">
         <v>75</v>
       </c>
       <c r="B76" s="18" t="s">
@@ -5520,7 +5529,7 @@
       <c r="M76" s="18"/>
     </row>
     <row r="77" spans="1:13">
-      <c r="A77" s="43">
+      <c r="A77" s="42">
         <v>76</v>
       </c>
       <c r="B77" s="18" t="s">
@@ -5550,7 +5559,7 @@
       <c r="M77" s="18"/>
     </row>
     <row r="78" spans="1:13">
-      <c r="A78" s="43">
+      <c r="A78" s="42">
         <v>77</v>
       </c>
       <c r="B78" s="18" t="s">
@@ -5572,7 +5581,7 @@
       <c r="M78" s="18"/>
     </row>
     <row r="79" spans="1:13">
-      <c r="A79" s="43">
+      <c r="A79" s="42">
         <v>78</v>
       </c>
       <c r="B79" s="18" t="s">
@@ -5602,7 +5611,7 @@
       <c r="M79" s="18"/>
     </row>
     <row r="80" spans="1:13">
-      <c r="A80" s="43">
+      <c r="A80" s="42">
         <v>79</v>
       </c>
       <c r="B80" s="18" t="s">
@@ -5632,7 +5641,7 @@
       <c r="M80" s="18"/>
     </row>
     <row r="81" spans="1:13">
-      <c r="A81" s="43">
+      <c r="A81" s="42">
         <v>80</v>
       </c>
       <c r="B81" s="18" t="s">
@@ -5662,7 +5671,7 @@
       <c r="M81" s="18"/>
     </row>
     <row r="82" spans="1:13">
-      <c r="A82" s="43">
+      <c r="A82" s="42">
         <v>81</v>
       </c>
       <c r="B82" s="18" t="s">
@@ -5692,7 +5701,7 @@
       <c r="M82" s="18"/>
     </row>
     <row r="83" spans="1:13">
-      <c r="A83" s="43">
+      <c r="A83" s="42">
         <v>82</v>
       </c>
       <c r="B83" s="18" t="s">
@@ -5722,7 +5731,7 @@
       <c r="M83" s="18"/>
     </row>
     <row r="84" spans="1:13">
-      <c r="A84" s="43">
+      <c r="A84" s="42">
         <v>83</v>
       </c>
       <c r="B84" s="18" t="s">
@@ -5744,7 +5753,7 @@
       <c r="M84" s="25"/>
     </row>
     <row r="85" spans="1:13">
-      <c r="A85" s="43">
+      <c r="A85" s="42">
         <v>84</v>
       </c>
       <c r="B85" s="18" t="s">
@@ -5774,7 +5783,7 @@
       <c r="M85" s="18"/>
     </row>
     <row r="86" spans="1:13">
-      <c r="A86" s="43">
+      <c r="A86" s="42">
         <v>85</v>
       </c>
       <c r="B86" s="18" t="s">
@@ -5804,7 +5813,7 @@
       <c r="M86" s="18"/>
     </row>
     <row r="87" spans="1:13">
-      <c r="A87" s="43">
+      <c r="A87" s="42">
         <v>86</v>
       </c>
       <c r="B87" s="18" t="s">
@@ -5834,7 +5843,7 @@
       <c r="M87" s="18"/>
     </row>
     <row r="88" spans="1:13">
-      <c r="A88" s="43">
+      <c r="A88" s="42">
         <v>87</v>
       </c>
       <c r="B88" s="18" t="s">
@@ -5864,7 +5873,7 @@
       <c r="M88" s="18"/>
     </row>
     <row r="89" spans="1:13">
-      <c r="A89" s="43">
+      <c r="A89" s="42">
         <v>88</v>
       </c>
       <c r="B89" s="18" t="s">
@@ -5894,7 +5903,7 @@
       <c r="M89" s="18"/>
     </row>
     <row r="90" spans="1:13">
-      <c r="A90" s="43">
+      <c r="A90" s="42">
         <v>89</v>
       </c>
       <c r="B90" s="18" t="s">
@@ -5924,7 +5933,7 @@
       <c r="M90" s="18"/>
     </row>
     <row r="91" spans="1:13">
-      <c r="A91" s="43">
+      <c r="A91" s="42">
         <v>90</v>
       </c>
       <c r="B91" s="18" t="s">
@@ -5954,7 +5963,7 @@
       <c r="M91" s="18"/>
     </row>
     <row r="92" spans="1:13">
-      <c r="A92" s="43">
+      <c r="A92" s="42">
         <v>91</v>
       </c>
       <c r="B92" s="18" t="s">
@@ -5976,7 +5985,7 @@
       <c r="M92" s="18"/>
     </row>
     <row r="93" spans="1:13">
-      <c r="A93" s="42">
+      <c r="A93" s="41">
         <v>92</v>
       </c>
       <c r="B93" s="18" t="s">
@@ -6008,7 +6017,7 @@
       <c r="M93" s="18"/>
     </row>
     <row r="94" spans="1:13">
-      <c r="A94" s="43">
+      <c r="A94" s="42">
         <v>93</v>
       </c>
       <c r="B94" s="18" t="s">
@@ -6040,7 +6049,7 @@
       <c r="M94" s="18"/>
     </row>
     <row r="95" spans="1:13">
-      <c r="A95" s="43">
+      <c r="A95" s="42">
         <v>94</v>
       </c>
       <c r="B95" s="18" t="s">
@@ -6072,7 +6081,7 @@
       <c r="M95" s="18"/>
     </row>
     <row r="96" spans="1:13">
-      <c r="A96" s="43">
+      <c r="A96" s="42">
         <v>95</v>
       </c>
       <c r="B96" s="18" t="s">
@@ -6106,7 +6115,7 @@
       </c>
     </row>
     <row r="97" spans="1:13">
-      <c r="A97" s="43">
+      <c r="A97" s="42">
         <v>96</v>
       </c>
       <c r="B97" s="18" t="s">
@@ -6136,7 +6145,7 @@
       <c r="M97" s="18"/>
     </row>
     <row r="98" spans="1:13">
-      <c r="A98" s="43">
+      <c r="A98" s="42">
         <v>97</v>
       </c>
       <c r="B98" s="18" t="s">
@@ -6166,7 +6175,7 @@
       <c r="M98" s="18"/>
     </row>
     <row r="99" spans="1:13">
-      <c r="A99" s="43">
+      <c r="A99" s="42">
         <v>98</v>
       </c>
       <c r="B99" s="18" t="s">
@@ -6196,7 +6205,7 @@
       <c r="M99" s="18"/>
     </row>
     <row r="100" spans="1:13">
-      <c r="A100" s="43">
+      <c r="A100" s="42">
         <v>99</v>
       </c>
       <c r="B100" s="18" t="s">
@@ -6226,7 +6235,7 @@
       <c r="M100" s="18"/>
     </row>
     <row r="101" spans="1:13">
-      <c r="A101" s="43">
+      <c r="A101" s="42">
         <v>100</v>
       </c>
       <c r="B101" s="18" t="s">
@@ -6254,7 +6263,7 @@
       <c r="M101" s="18"/>
     </row>
     <row r="102" spans="1:13">
-      <c r="A102" s="43">
+      <c r="A102" s="42">
         <v>101</v>
       </c>
       <c r="B102" s="18" t="s">
@@ -6282,7 +6291,7 @@
       <c r="M102" s="18"/>
     </row>
     <row r="103" spans="1:13">
-      <c r="A103" s="43">
+      <c r="A103" s="42">
         <v>102</v>
       </c>
       <c r="B103" s="18" t="s">
@@ -6312,7 +6321,7 @@
       <c r="M103" s="18"/>
     </row>
     <row r="104" spans="1:13">
-      <c r="A104" s="43">
+      <c r="A104" s="42">
         <v>103</v>
       </c>
       <c r="B104" s="18" t="s">
@@ -6342,7 +6351,7 @@
       <c r="M104" s="18"/>
     </row>
     <row r="105" spans="1:13">
-      <c r="A105" s="43">
+      <c r="A105" s="42">
         <v>104</v>
       </c>
       <c r="B105" s="18" t="s">
@@ -6364,7 +6373,7 @@
       <c r="M105" s="18"/>
     </row>
     <row r="106" spans="1:13">
-      <c r="A106" s="43">
+      <c r="A106" s="42">
         <v>105</v>
       </c>
       <c r="B106" s="18" t="s">
@@ -6394,7 +6403,7 @@
       <c r="M106" s="18"/>
     </row>
     <row r="107" spans="1:13">
-      <c r="A107" s="43">
+      <c r="A107" s="42">
         <v>106</v>
       </c>
       <c r="B107" s="18" t="s">
@@ -6426,7 +6435,7 @@
       <c r="M107" s="18"/>
     </row>
     <row r="108" spans="1:13">
-      <c r="A108" s="43">
+      <c r="A108" s="42">
         <v>107</v>
       </c>
       <c r="B108" s="18" t="s">
@@ -6458,7 +6467,7 @@
       <c r="M108" s="18"/>
     </row>
     <row r="109" spans="1:13">
-      <c r="A109" s="43">
+      <c r="A109" s="42">
         <v>108</v>
       </c>
       <c r="B109" s="18" t="s">
@@ -6486,7 +6495,7 @@
       <c r="M109" s="18"/>
     </row>
     <row r="110" spans="1:13" ht="15" customHeight="1">
-      <c r="A110" s="44">
+      <c r="A110" s="43">
         <v>109</v>
       </c>
       <c r="B110" s="28" t="s">
@@ -6516,7 +6525,7 @@
       <c r="M110" s="18"/>
     </row>
     <row r="111" spans="1:13" ht="15" customHeight="1">
-      <c r="A111" s="44">
+      <c r="A111" s="43">
         <v>110</v>
       </c>
       <c r="B111" s="28" t="s">
@@ -6546,7 +6555,7 @@
       <c r="M111" s="18"/>
     </row>
     <row r="112" spans="1:13">
-      <c r="A112" s="44">
+      <c r="A112" s="43">
         <v>111</v>
       </c>
       <c r="B112" s="28" t="s">
@@ -6576,7 +6585,7 @@
       <c r="M112" s="18"/>
     </row>
     <row r="113" spans="1:13">
-      <c r="A113" s="44">
+      <c r="A113" s="43">
         <v>112</v>
       </c>
       <c r="B113" s="28" t="s">
@@ -6606,7 +6615,7 @@
       <c r="M113" s="18"/>
     </row>
     <row r="114" spans="1:13" ht="15" customHeight="1">
-      <c r="A114" s="44">
+      <c r="A114" s="43">
         <v>113</v>
       </c>
       <c r="B114" s="28" t="s">
@@ -6636,7 +6645,7 @@
       <c r="M114" s="18"/>
     </row>
     <row r="115" spans="1:13">
-      <c r="A115" s="44">
+      <c r="A115" s="43">
         <v>114</v>
       </c>
       <c r="B115" s="28" t="s">
@@ -6666,7 +6675,7 @@
       <c r="M115" s="18"/>
     </row>
     <row r="116" spans="1:13">
-      <c r="A116" s="44">
+      <c r="A116" s="43">
         <v>115</v>
       </c>
       <c r="B116" s="28" t="s">
@@ -6696,7 +6705,7 @@
       <c r="M116" s="18"/>
     </row>
     <row r="117" spans="1:13">
-      <c r="A117" s="44">
+      <c r="A117" s="43">
         <v>116</v>
       </c>
       <c r="B117" s="28" t="s">
@@ -6726,7 +6735,7 @@
       <c r="M117" s="18"/>
     </row>
     <row r="118" spans="1:13">
-      <c r="A118" s="43">
+      <c r="A118" s="42">
         <v>117</v>
       </c>
       <c r="B118" s="28" t="s">
@@ -6756,7 +6765,7 @@
       <c r="M118" s="18"/>
     </row>
     <row r="119" spans="1:13">
-      <c r="A119" s="43">
+      <c r="A119" s="42">
         <v>118</v>
       </c>
       <c r="B119" s="18" t="s">
@@ -6786,7 +6795,7 @@
       <c r="M119" s="18"/>
     </row>
     <row r="120" spans="1:13">
-      <c r="A120" s="42">
+      <c r="A120" s="41">
         <v>119</v>
       </c>
       <c r="B120" s="18" t="s">
@@ -6814,7 +6823,7 @@
       <c r="M120" s="18"/>
     </row>
     <row r="121" spans="1:13">
-      <c r="A121" s="42">
+      <c r="A121" s="41">
         <v>120</v>
       </c>
       <c r="B121" s="18" t="s">
@@ -6846,7 +6855,7 @@
       <c r="M121" s="18"/>
     </row>
     <row r="122" spans="1:13">
-      <c r="A122" s="42">
+      <c r="A122" s="41">
         <v>121</v>
       </c>
       <c r="B122" s="18" t="s">
@@ -6878,7 +6887,7 @@
       <c r="M122" s="18"/>
     </row>
     <row r="123" spans="1:13">
-      <c r="A123" s="42">
+      <c r="A123" s="41">
         <v>122</v>
       </c>
       <c r="B123" s="18" t="s">
@@ -6910,7 +6919,7 @@
       <c r="M123" s="18"/>
     </row>
     <row r="124" spans="1:13">
-      <c r="A124" s="42">
+      <c r="A124" s="41">
         <v>123</v>
       </c>
       <c r="B124" s="18" t="s">
@@ -6940,7 +6949,7 @@
       <c r="M124" s="18"/>
     </row>
     <row r="125" spans="1:13">
-      <c r="A125" s="42">
+      <c r="A125" s="41">
         <v>124</v>
       </c>
       <c r="B125" s="18" t="s">
@@ -6972,7 +6981,7 @@
       <c r="M125" s="18"/>
     </row>
     <row r="126" spans="1:13">
-      <c r="A126" s="42">
+      <c r="A126" s="41">
         <v>125</v>
       </c>
       <c r="B126" s="18" t="s">
@@ -7002,7 +7011,7 @@
       <c r="M126" s="18"/>
     </row>
     <row r="127" spans="1:13">
-      <c r="A127" s="43">
+      <c r="A127" s="42">
         <v>126</v>
       </c>
       <c r="B127" s="18" t="s">
@@ -7030,7 +7039,7 @@
       <c r="M127" s="18"/>
     </row>
     <row r="128" spans="1:13">
-      <c r="A128" s="43">
+      <c r="A128" s="42">
         <v>127</v>
       </c>
       <c r="B128" s="18" t="s">
@@ -7060,7 +7069,7 @@
       <c r="M128" s="18"/>
     </row>
     <row r="129" spans="1:13">
-      <c r="A129" s="42">
+      <c r="A129" s="41">
         <v>128</v>
       </c>
       <c r="B129" s="18" t="s">
@@ -7092,7 +7101,7 @@
       <c r="M129" s="18"/>
     </row>
     <row r="130" spans="1:13">
-      <c r="A130" s="42">
+      <c r="A130" s="41">
         <v>129</v>
       </c>
       <c r="B130" s="18" t="s">
@@ -7124,7 +7133,7 @@
       <c r="M130" s="18"/>
     </row>
     <row r="131" spans="1:13">
-      <c r="A131" s="42">
+      <c r="A131" s="41">
         <v>130</v>
       </c>
       <c r="B131" s="18" t="s">
@@ -7156,7 +7165,7 @@
       <c r="M131" s="18"/>
     </row>
     <row r="132" spans="1:13">
-      <c r="A132" s="42">
+      <c r="A132" s="41">
         <v>131</v>
       </c>
       <c r="B132" s="18" t="s">
@@ -7186,7 +7195,7 @@
       <c r="M132" s="18"/>
     </row>
     <row r="133" spans="1:13">
-      <c r="A133" s="42">
+      <c r="A133" s="41">
         <v>132</v>
       </c>
       <c r="B133" s="18" t="s">
@@ -7216,7 +7225,7 @@
       <c r="M133" s="18"/>
     </row>
     <row r="134" spans="1:13">
-      <c r="A134" s="42">
+      <c r="A134" s="41">
         <v>133</v>
       </c>
       <c r="B134" s="18" t="s">
@@ -7248,7 +7257,7 @@
       <c r="M134" s="18"/>
     </row>
     <row r="135" spans="1:13">
-      <c r="A135" s="42">
+      <c r="A135" s="41">
         <v>134</v>
       </c>
       <c r="B135" s="18" t="s">
@@ -7280,7 +7289,7 @@
       <c r="M135" s="18"/>
     </row>
     <row r="136" spans="1:13">
-      <c r="A136" s="42">
+      <c r="A136" s="41">
         <v>135</v>
       </c>
       <c r="B136" s="18" t="s">
@@ -7312,7 +7321,7 @@
       <c r="M136" s="18"/>
     </row>
     <row r="137" spans="1:13">
-      <c r="A137" s="42">
+      <c r="A137" s="41">
         <v>136</v>
       </c>
       <c r="B137" s="18" t="s">
@@ -7344,7 +7353,7 @@
       <c r="M137" s="18"/>
     </row>
     <row r="138" spans="1:13">
-      <c r="A138" s="42">
+      <c r="A138" s="41">
         <v>137</v>
       </c>
       <c r="B138" s="18" t="s">
@@ -7376,7 +7385,7 @@
       <c r="M138" s="18"/>
     </row>
     <row r="139" spans="1:13">
-      <c r="A139" s="42">
+      <c r="A139" s="41">
         <v>138</v>
       </c>
       <c r="B139" s="18" t="s">
@@ -7408,7 +7417,7 @@
       <c r="M139" s="18"/>
     </row>
     <row r="140" spans="1:13">
-      <c r="A140" s="44">
+      <c r="A140" s="43">
         <v>139</v>
       </c>
       <c r="B140" s="18" t="s">
@@ -7440,7 +7449,7 @@
       <c r="M140" s="18"/>
     </row>
     <row r="141" spans="1:13">
-      <c r="A141" s="42">
+      <c r="A141" s="41">
         <v>140</v>
       </c>
       <c r="B141" s="18" t="s">
@@ -7472,7 +7481,7 @@
       <c r="M141" s="18"/>
     </row>
     <row r="142" spans="1:13">
-      <c r="A142" s="42">
+      <c r="A142" s="41">
         <v>141</v>
       </c>
       <c r="B142" s="18" t="s">
@@ -7504,7 +7513,7 @@
       <c r="M142" s="18"/>
     </row>
     <row r="143" spans="1:13">
-      <c r="A143" s="42">
+      <c r="A143" s="41">
         <v>142</v>
       </c>
       <c r="B143" s="18" t="s">
@@ -7536,7 +7545,7 @@
       <c r="M143" s="18"/>
     </row>
     <row r="144" spans="1:13">
-      <c r="A144" s="42">
+      <c r="A144" s="41">
         <v>143</v>
       </c>
       <c r="B144" s="18" t="s">
@@ -7568,7 +7577,7 @@
       <c r="M144" s="18"/>
     </row>
     <row r="145" spans="1:13">
-      <c r="A145" s="42">
+      <c r="A145" s="41">
         <v>144</v>
       </c>
       <c r="B145" s="18" t="s">
@@ -7600,7 +7609,7 @@
       <c r="M145" s="18"/>
     </row>
     <row r="146" spans="1:13">
-      <c r="A146" s="42">
+      <c r="A146" s="41">
         <v>145</v>
       </c>
       <c r="B146" s="18" t="s">
@@ -7634,7 +7643,7 @@
       </c>
     </row>
     <row r="147" spans="1:13">
-      <c r="A147" s="43">
+      <c r="A147" s="42">
         <v>146</v>
       </c>
       <c r="B147" s="18" t="s">
@@ -7647,7 +7656,7 @@
         <v>385</v>
       </c>
       <c r="E147" s="18"/>
-      <c r="F147" s="41"/>
+      <c r="F147" s="53"/>
       <c r="G147" s="18" t="s">
         <v>6</v>
       </c>
@@ -7662,7 +7671,7 @@
       <c r="M147" s="18"/>
     </row>
     <row r="148" spans="1:13">
-      <c r="A148" s="43">
+      <c r="A148" s="42">
         <v>147</v>
       </c>
       <c r="B148" s="18" t="s">
@@ -7675,7 +7684,7 @@
         <v>385</v>
       </c>
       <c r="E148" s="18"/>
-      <c r="F148" s="41"/>
+      <c r="F148" s="53"/>
       <c r="G148" s="18" t="s">
         <v>6</v>
       </c>
@@ -7690,7 +7699,7 @@
       <c r="M148" s="18"/>
     </row>
     <row r="149" spans="1:13">
-      <c r="A149" s="42">
+      <c r="A149" s="41">
         <v>148</v>
       </c>
       <c r="B149" s="18" t="s">
@@ -7722,7 +7731,7 @@
       <c r="M149" s="18"/>
     </row>
     <row r="150" spans="1:13">
-      <c r="A150" s="42">
+      <c r="A150" s="41">
         <v>149</v>
       </c>
       <c r="B150" s="18" t="s">
@@ -7754,7 +7763,7 @@
       <c r="M150" s="18"/>
     </row>
     <row r="151" spans="1:13">
-      <c r="A151" s="42">
+      <c r="A151" s="41">
         <v>150</v>
       </c>
       <c r="B151" s="18" t="s">
@@ -7786,7 +7795,7 @@
       <c r="M151" s="18"/>
     </row>
     <row r="152" spans="1:13">
-      <c r="A152" s="42">
+      <c r="A152" s="41">
         <v>151</v>
       </c>
       <c r="B152" s="18" t="s">
@@ -7818,7 +7827,7 @@
       <c r="M152" s="18"/>
     </row>
     <row r="153" spans="1:13">
-      <c r="A153" s="42">
+      <c r="A153" s="41">
         <v>152</v>
       </c>
       <c r="B153" s="18" t="s">
@@ -7850,7 +7859,7 @@
       <c r="M153" s="18"/>
     </row>
     <row r="154" spans="1:13">
-      <c r="A154" s="43">
+      <c r="A154" s="42">
         <v>153</v>
       </c>
       <c r="B154" s="18" t="s">
@@ -7880,7 +7889,7 @@
       <c r="M154" s="18"/>
     </row>
     <row r="155" spans="1:13">
-      <c r="A155" s="42">
+      <c r="A155" s="41">
         <v>154</v>
       </c>
       <c r="B155" s="18" t="s">
@@ -7912,7 +7921,7 @@
       <c r="M155" s="18"/>
     </row>
     <row r="156" spans="1:13">
-      <c r="A156" s="42">
+      <c r="A156" s="41">
         <v>155</v>
       </c>
       <c r="B156" s="18" t="s">
@@ -7944,7 +7953,7 @@
       <c r="M156" s="18"/>
     </row>
     <row r="157" spans="1:13">
-      <c r="A157" s="42">
+      <c r="A157" s="41">
         <v>156</v>
       </c>
       <c r="B157" s="18" t="s">
@@ -7976,7 +7985,7 @@
       <c r="M157" s="18"/>
     </row>
     <row r="158" spans="1:13">
-      <c r="A158" s="42">
+      <c r="A158" s="41">
         <v>157</v>
       </c>
       <c r="B158" s="18" t="s">
@@ -8008,7 +8017,7 @@
       <c r="M158" s="18"/>
     </row>
     <row r="159" spans="1:13">
-      <c r="A159" s="42">
+      <c r="A159" s="41">
         <v>158</v>
       </c>
       <c r="B159" s="18" t="s">
@@ -8040,7 +8049,7 @@
       <c r="M159" s="18"/>
     </row>
     <row r="160" spans="1:13">
-      <c r="A160" s="42">
+      <c r="A160" s="41">
         <v>159</v>
       </c>
       <c r="B160" s="18" t="s">
@@ -8072,7 +8081,7 @@
       <c r="M160" s="18"/>
     </row>
     <row r="161" spans="1:13">
-      <c r="A161" s="42">
+      <c r="A161" s="41">
         <v>160</v>
       </c>
       <c r="B161" s="18" t="s">
@@ -8094,7 +8103,7 @@
       <c r="M161" s="18"/>
     </row>
     <row r="162" spans="1:13">
-      <c r="A162" s="42">
+      <c r="A162" s="41">
         <v>161</v>
       </c>
       <c r="B162" s="18" t="s">
@@ -8116,7 +8125,7 @@
       <c r="M162" s="18"/>
     </row>
     <row r="163" spans="1:13">
-      <c r="A163" s="43">
+      <c r="A163" s="42">
         <v>162</v>
       </c>
       <c r="B163" s="18" t="s">
@@ -8148,7 +8157,7 @@
       <c r="M163" s="18"/>
     </row>
     <row r="164" spans="1:13">
-      <c r="A164" s="42">
+      <c r="A164" s="41">
         <v>163</v>
       </c>
       <c r="B164" s="18" t="s">
@@ -8180,7 +8189,7 @@
       <c r="M164" s="19"/>
     </row>
     <row r="165" spans="1:13">
-      <c r="A165" s="42">
+      <c r="A165" s="41">
         <v>164</v>
       </c>
       <c r="B165" s="18" t="s">
@@ -8212,7 +8221,7 @@
       <c r="M165" s="18"/>
     </row>
     <row r="166" spans="1:13">
-      <c r="A166" s="42">
+      <c r="A166" s="41">
         <v>165</v>
       </c>
       <c r="B166" s="18" t="s">
@@ -8244,7 +8253,7 @@
       <c r="M166" s="18"/>
     </row>
     <row r="167" spans="1:13">
-      <c r="A167" s="42">
+      <c r="A167" s="41">
         <v>166</v>
       </c>
       <c r="B167" s="18" t="s">
@@ -8276,7 +8285,7 @@
       <c r="M167" s="18"/>
     </row>
     <row r="168" spans="1:13">
-      <c r="A168" s="42">
+      <c r="A168" s="41">
         <v>167</v>
       </c>
       <c r="B168" s="18" t="s">
@@ -8308,7 +8317,7 @@
       <c r="M168" s="18"/>
     </row>
     <row r="169" spans="1:13">
-      <c r="A169" s="42">
+      <c r="A169" s="41">
         <v>168</v>
       </c>
       <c r="B169" s="18" t="s">
@@ -8340,7 +8349,7 @@
       <c r="M169" s="18"/>
     </row>
     <row r="170" spans="1:13">
-      <c r="A170" s="42">
+      <c r="A170" s="41">
         <v>169</v>
       </c>
       <c r="B170" s="18" t="s">
@@ -8372,7 +8381,7 @@
       <c r="M170" s="18"/>
     </row>
     <row r="171" spans="1:13" ht="16" customHeight="1">
-      <c r="A171" s="42">
+      <c r="A171" s="41">
         <v>170</v>
       </c>
       <c r="B171" s="18" t="s">
@@ -8404,7 +8413,7 @@
       <c r="M171" s="18"/>
     </row>
     <row r="172" spans="1:13">
-      <c r="A172" s="42">
+      <c r="A172" s="41">
         <v>171</v>
       </c>
       <c r="B172" s="18" t="s">
@@ -8436,7 +8445,7 @@
       <c r="M172" s="18"/>
     </row>
     <row r="173" spans="1:13">
-      <c r="A173" s="42">
+      <c r="A173" s="41">
         <v>172</v>
       </c>
       <c r="B173" s="18" t="s">
@@ -8468,7 +8477,7 @@
       <c r="M173" s="18"/>
     </row>
     <row r="174" spans="1:13">
-      <c r="A174" s="42">
+      <c r="A174" s="41">
         <v>173</v>
       </c>
       <c r="B174" s="18" t="s">
@@ -8500,7 +8509,7 @@
       <c r="M174" s="18"/>
     </row>
     <row r="175" spans="1:13">
-      <c r="A175" s="42">
+      <c r="A175" s="41">
         <v>174</v>
       </c>
       <c r="B175" s="18" t="s">
@@ -8532,7 +8541,7 @@
       <c r="M175" s="18"/>
     </row>
     <row r="176" spans="1:13">
-      <c r="A176" s="42">
+      <c r="A176" s="41">
         <v>175</v>
       </c>
       <c r="B176" s="18" t="s">
@@ -8564,7 +8573,7 @@
       <c r="M176" s="18"/>
     </row>
     <row r="177" spans="1:13">
-      <c r="A177" s="42">
+      <c r="A177" s="41">
         <v>176</v>
       </c>
       <c r="B177" s="18" t="s">
@@ -8596,7 +8605,7 @@
       <c r="M177" s="18"/>
     </row>
     <row r="178" spans="1:13">
-      <c r="A178" s="42">
+      <c r="A178" s="41">
         <v>177</v>
       </c>
       <c r="B178" s="18" t="s">
@@ -8628,7 +8637,7 @@
       <c r="M178" s="18"/>
     </row>
     <row r="179" spans="1:13">
-      <c r="A179" s="42">
+      <c r="A179" s="41">
         <v>178</v>
       </c>
       <c r="B179" s="18" t="s">
@@ -8660,7 +8669,7 @@
       <c r="M179" s="18"/>
     </row>
     <row r="180" spans="1:13">
-      <c r="A180" s="42">
+      <c r="A180" s="41">
         <v>179</v>
       </c>
       <c r="B180" s="18" t="s">
@@ -8692,7 +8701,7 @@
       <c r="M180" s="18"/>
     </row>
     <row r="181" spans="1:13">
-      <c r="A181" s="42">
+      <c r="A181" s="41">
         <v>180</v>
       </c>
       <c r="B181" s="18" t="s">
@@ -8724,7 +8733,7 @@
       <c r="M181" s="18"/>
     </row>
     <row r="182" spans="1:13">
-      <c r="A182" s="42">
+      <c r="A182" s="41">
         <v>181</v>
       </c>
       <c r="B182" s="18" t="s">
@@ -8756,7 +8765,7 @@
       <c r="M182" s="18"/>
     </row>
     <row r="183" spans="1:13">
-      <c r="A183" s="42">
+      <c r="A183" s="41">
         <v>182</v>
       </c>
       <c r="B183" s="18" t="s">
@@ -8788,7 +8797,7 @@
       <c r="M183" s="18"/>
     </row>
     <row r="184" spans="1:13">
-      <c r="A184" s="42">
+      <c r="A184" s="41">
         <v>183</v>
       </c>
       <c r="B184" s="18" t="s">
@@ -8820,7 +8829,7 @@
       <c r="M184" s="18"/>
     </row>
     <row r="185" spans="1:13">
-      <c r="A185" s="42">
+      <c r="A185" s="41">
         <v>184</v>
       </c>
       <c r="B185" s="18" t="s">
@@ -8852,7 +8861,7 @@
       <c r="M185" s="18"/>
     </row>
     <row r="186" spans="1:13">
-      <c r="A186" s="42">
+      <c r="A186" s="41">
         <v>185</v>
       </c>
       <c r="B186" s="18" t="s">
@@ -8884,7 +8893,7 @@
       <c r="M186" s="18"/>
     </row>
     <row r="187" spans="1:13">
-      <c r="A187" s="42">
+      <c r="A187" s="41">
         <v>186</v>
       </c>
       <c r="B187" s="18" t="s">
@@ -8916,7 +8925,7 @@
       <c r="M187" s="18"/>
     </row>
     <row r="188" spans="1:13">
-      <c r="A188" s="42">
+      <c r="A188" s="41">
         <v>187</v>
       </c>
       <c r="B188" s="18" t="s">
@@ -8948,7 +8957,7 @@
       <c r="M188" s="18"/>
     </row>
     <row r="189" spans="1:13">
-      <c r="A189" s="42">
+      <c r="A189" s="41">
         <v>188</v>
       </c>
       <c r="B189" s="18" t="s">
@@ -8980,7 +8989,7 @@
       <c r="M189" s="18"/>
     </row>
     <row r="190" spans="1:13">
-      <c r="A190" s="43">
+      <c r="A190" s="42">
         <v>189</v>
       </c>
       <c r="B190" s="18" t="s">
@@ -9012,7 +9021,7 @@
       <c r="M190" s="18"/>
     </row>
     <row r="191" spans="1:13">
-      <c r="A191" s="43">
+      <c r="A191" s="42">
         <v>190</v>
       </c>
       <c r="B191" s="18" t="s">
@@ -9048,7 +9057,7 @@
       </c>
     </row>
     <row r="192" spans="1:13">
-      <c r="A192" s="42">
+      <c r="A192" s="41">
         <v>191</v>
       </c>
       <c r="B192" s="18" t="s">
@@ -9080,7 +9089,7 @@
       <c r="M192" s="18"/>
     </row>
     <row r="193" spans="1:13">
-      <c r="A193" s="43">
+      <c r="A193" s="42">
         <v>192</v>
       </c>
       <c r="B193" s="18" t="s">
@@ -9110,7 +9119,7 @@
       <c r="M193" s="18"/>
     </row>
     <row r="194" spans="1:13">
-      <c r="A194" s="43">
+      <c r="A194" s="42">
         <v>193</v>
       </c>
       <c r="B194" s="18" t="s">
@@ -9138,7 +9147,7 @@
       <c r="M194" s="18"/>
     </row>
     <row r="195" spans="1:13">
-      <c r="A195" s="43">
+      <c r="A195" s="42">
         <v>194</v>
       </c>
       <c r="B195" s="18" t="s">
@@ -9168,7 +9177,7 @@
       <c r="M195" s="18"/>
     </row>
     <row r="196" spans="1:13">
-      <c r="A196" s="43">
+      <c r="A196" s="42">
         <v>195</v>
       </c>
       <c r="B196" s="18" t="s">
@@ -9196,7 +9205,7 @@
       <c r="M196" s="18"/>
     </row>
     <row r="197" spans="1:13">
-      <c r="A197" s="43">
+      <c r="A197" s="42">
         <v>196</v>
       </c>
       <c r="B197" s="18" t="s">
@@ -9226,7 +9235,7 @@
       <c r="M197" s="18"/>
     </row>
     <row r="198" spans="1:13">
-      <c r="A198" s="43">
+      <c r="A198" s="42">
         <v>197</v>
       </c>
       <c r="B198" s="18" t="s">
@@ -9254,7 +9263,7 @@
       <c r="M198" s="18"/>
     </row>
     <row r="199" spans="1:13">
-      <c r="A199" s="43">
+      <c r="A199" s="42">
         <v>198</v>
       </c>
       <c r="B199" s="18" t="s">
@@ -9286,7 +9295,7 @@
       <c r="M199" s="18"/>
     </row>
     <row r="200" spans="1:13">
-      <c r="A200" s="43">
+      <c r="A200" s="42">
         <v>199</v>
       </c>
       <c r="B200" s="18" t="s">
@@ -9316,7 +9325,7 @@
       <c r="M200" s="18"/>
     </row>
     <row r="201" spans="1:13">
-      <c r="A201" s="43">
+      <c r="A201" s="42">
         <v>200</v>
       </c>
       <c r="B201" s="18" t="s">
@@ -9346,7 +9355,7 @@
       <c r="M201" s="18"/>
     </row>
     <row r="202" spans="1:13">
-      <c r="A202" s="43">
+      <c r="A202" s="42">
         <v>201</v>
       </c>
       <c r="B202" s="18" t="s">
@@ -9378,7 +9387,7 @@
       <c r="M202" s="18"/>
     </row>
     <row r="203" spans="1:13">
-      <c r="A203" s="43">
+      <c r="A203" s="42">
         <v>202</v>
       </c>
       <c r="B203" s="18" t="s">
@@ -9406,7 +9415,7 @@
       <c r="M203" s="18"/>
     </row>
     <row r="204" spans="1:13">
-      <c r="A204" s="43">
+      <c r="A204" s="42">
         <v>203</v>
       </c>
       <c r="B204" s="18" t="s">
@@ -9436,7 +9445,7 @@
       <c r="M204" s="18"/>
     </row>
     <row r="205" spans="1:13">
-      <c r="A205" s="43">
+      <c r="A205" s="42">
         <v>204</v>
       </c>
       <c r="B205" s="18" t="s">
@@ -9458,7 +9467,7 @@
       <c r="M205" s="18"/>
     </row>
     <row r="206" spans="1:13">
-      <c r="A206" s="43">
+      <c r="A206" s="42">
         <v>205</v>
       </c>
       <c r="B206" s="18" t="s">
@@ -9488,7 +9497,7 @@
       <c r="M206" s="18"/>
     </row>
     <row r="207" spans="1:13">
-      <c r="A207" s="43">
+      <c r="A207" s="42">
         <v>206</v>
       </c>
       <c r="B207" s="18" t="s">
@@ -9518,7 +9527,7 @@
       <c r="M207" s="18"/>
     </row>
     <row r="208" spans="1:13">
-      <c r="A208" s="43">
+      <c r="A208" s="42">
         <v>207</v>
       </c>
       <c r="B208" s="18" t="s">
@@ -9548,7 +9557,7 @@
       <c r="M208" s="18"/>
     </row>
     <row r="209" spans="1:13" ht="17" customHeight="1">
-      <c r="A209" s="43">
+      <c r="A209" s="42">
         <v>208</v>
       </c>
       <c r="B209" s="18" t="s">
@@ -9578,7 +9587,7 @@
       <c r="M209" s="18"/>
     </row>
     <row r="210" spans="1:13">
-      <c r="A210" s="43">
+      <c r="A210" s="42">
         <v>209</v>
       </c>
       <c r="B210" s="18" t="s">
@@ -9606,7 +9615,7 @@
       <c r="M210" s="18"/>
     </row>
     <row r="211" spans="1:13">
-      <c r="A211" s="43">
+      <c r="A211" s="42">
         <v>210</v>
       </c>
       <c r="B211" s="18" t="s">
@@ -9634,7 +9643,7 @@
       <c r="M211" s="18"/>
     </row>
     <row r="212" spans="1:13">
-      <c r="A212" s="43">
+      <c r="A212" s="42">
         <v>211</v>
       </c>
       <c r="B212" s="18" t="s">
@@ -9656,7 +9665,7 @@
       <c r="M212" s="18"/>
     </row>
     <row r="213" spans="1:13">
-      <c r="A213" s="43">
+      <c r="A213" s="42">
         <v>212</v>
       </c>
       <c r="B213" s="18" t="s">
@@ -9686,7 +9695,7 @@
       <c r="M213" s="18"/>
     </row>
     <row r="214" spans="1:13">
-      <c r="A214" s="43">
+      <c r="A214" s="42">
         <v>213</v>
       </c>
       <c r="B214" s="18" t="s">
@@ -9708,7 +9717,7 @@
       <c r="M214" s="18"/>
     </row>
     <row r="215" spans="1:13">
-      <c r="A215" s="43">
+      <c r="A215" s="42">
         <v>214</v>
       </c>
       <c r="B215" s="18" t="s">
@@ -9736,7 +9745,7 @@
       <c r="M215" s="18"/>
     </row>
     <row r="216" spans="1:13">
-      <c r="A216" s="43">
+      <c r="A216" s="42">
         <v>215</v>
       </c>
       <c r="B216" s="18" t="s">
@@ -9766,7 +9775,7 @@
       <c r="M216" s="18"/>
     </row>
     <row r="217" spans="1:13">
-      <c r="A217" s="43">
+      <c r="A217" s="42">
         <v>216</v>
       </c>
       <c r="B217" s="18" t="s">
@@ -9788,7 +9797,7 @@
       <c r="M217" s="18"/>
     </row>
     <row r="218" spans="1:13" ht="17" customHeight="1">
-      <c r="A218" s="43">
+      <c r="A218" s="42">
         <v>217</v>
       </c>
       <c r="B218" s="17" t="s">
@@ -9810,7 +9819,7 @@
       <c r="M218" s="18"/>
     </row>
     <row r="219" spans="1:13">
-      <c r="A219" s="43">
+      <c r="A219" s="42">
         <v>218</v>
       </c>
       <c r="B219" s="17" t="s">
@@ -9840,7 +9849,7 @@
       <c r="M219" s="18"/>
     </row>
     <row r="220" spans="1:13">
-      <c r="A220" s="43">
+      <c r="A220" s="42">
         <v>219</v>
       </c>
       <c r="B220" s="17" t="s">
@@ -9870,7 +9879,7 @@
       <c r="M220" s="18"/>
     </row>
     <row r="221" spans="1:13">
-      <c r="A221" s="43">
+      <c r="A221" s="42">
         <v>220</v>
       </c>
       <c r="B221" s="17" t="s">
@@ -9900,7 +9909,7 @@
       <c r="M221" s="18"/>
     </row>
     <row r="222" spans="1:13">
-      <c r="A222" s="43">
+      <c r="A222" s="42">
         <v>221</v>
       </c>
       <c r="B222" s="17" t="s">
@@ -9922,7 +9931,7 @@
       <c r="M222" s="18"/>
     </row>
     <row r="223" spans="1:13">
-      <c r="A223" s="43">
+      <c r="A223" s="42">
         <v>222</v>
       </c>
       <c r="B223" s="17" t="s">
@@ -9944,7 +9953,7 @@
       <c r="M223" s="18"/>
     </row>
     <row r="224" spans="1:13">
-      <c r="A224" s="43">
+      <c r="A224" s="42">
         <v>223</v>
       </c>
       <c r="B224" s="17" t="s">
@@ -9974,7 +9983,7 @@
       <c r="M224" s="18"/>
     </row>
     <row r="225" spans="1:13">
-      <c r="A225" s="43">
+      <c r="A225" s="42">
         <v>224</v>
       </c>
       <c r="B225" s="17" t="s">
@@ -10004,7 +10013,7 @@
       <c r="M225" s="18"/>
     </row>
     <row r="226" spans="1:13">
-      <c r="A226" s="43">
+      <c r="A226" s="42">
         <v>225</v>
       </c>
       <c r="B226" s="17" t="s">
@@ -10034,7 +10043,7 @@
       <c r="M226" s="18"/>
     </row>
     <row r="227" spans="1:13">
-      <c r="A227" s="43">
+      <c r="A227" s="42">
         <v>226</v>
       </c>
       <c r="B227" s="17" t="s">
@@ -10066,7 +10075,7 @@
       </c>
     </row>
     <row r="228" spans="1:13">
-      <c r="A228" s="43">
+      <c r="A228" s="42">
         <v>227</v>
       </c>
       <c r="B228" s="17" t="s">
@@ -10096,7 +10105,7 @@
       <c r="M228" s="18"/>
     </row>
     <row r="229" spans="1:13">
-      <c r="A229" s="43">
+      <c r="A229" s="42">
         <v>228</v>
       </c>
       <c r="B229" s="17" t="s">
@@ -10126,7 +10135,7 @@
       <c r="M229" s="18"/>
     </row>
     <row r="230" spans="1:13">
-      <c r="A230" s="43">
+      <c r="A230" s="42">
         <v>229</v>
       </c>
       <c r="B230" s="17" t="s">
@@ -10156,7 +10165,7 @@
       <c r="M230" s="18"/>
     </row>
     <row r="231" spans="1:13">
-      <c r="A231" s="43">
+      <c r="A231" s="42">
         <v>230</v>
       </c>
       <c r="B231" s="17" t="s">
@@ -10188,7 +10197,7 @@
       </c>
     </row>
     <row r="232" spans="1:13">
-      <c r="A232" s="43">
+      <c r="A232" s="42">
         <v>231</v>
       </c>
       <c r="B232" s="17" t="s">
@@ -10218,7 +10227,7 @@
       <c r="M232" s="18"/>
     </row>
     <row r="233" spans="1:13">
-      <c r="A233" s="43">
+      <c r="A233" s="42">
         <v>232</v>
       </c>
       <c r="B233" s="17" t="s">
@@ -10249,7 +10258,7 @@
       <c r="M233" s="18"/>
     </row>
     <row r="234" spans="1:13">
-      <c r="A234" s="43">
+      <c r="A234" s="42">
         <v>233</v>
       </c>
       <c r="B234" s="17" t="s">
@@ -10279,7 +10288,7 @@
       <c r="M234" s="18"/>
     </row>
     <row r="235" spans="1:13">
-      <c r="A235" s="43">
+      <c r="A235" s="42">
         <v>234</v>
       </c>
       <c r="B235" s="17" t="s">
@@ -10309,7 +10318,7 @@
       <c r="M235" s="18"/>
     </row>
     <row r="236" spans="1:13">
-      <c r="A236" s="43">
+      <c r="A236" s="42">
         <v>235</v>
       </c>
       <c r="B236" s="17" t="s">
@@ -10339,7 +10348,7 @@
       <c r="M236" s="18"/>
     </row>
     <row r="237" spans="1:13" ht="17" customHeight="1">
-      <c r="A237" s="42">
+      <c r="A237" s="41">
         <v>236</v>
       </c>
       <c r="B237" s="17" t="s">
@@ -10367,7 +10376,7 @@
       <c r="M237" s="18"/>
     </row>
     <row r="238" spans="1:13" ht="17" customHeight="1">
-      <c r="A238" s="42">
+      <c r="A238" s="41">
         <v>237</v>
       </c>
       <c r="B238" s="17" t="s">
@@ -10395,7 +10404,7 @@
       <c r="M238" s="18"/>
     </row>
     <row r="239" spans="1:13">
-      <c r="A239" s="43">
+      <c r="A239" s="42">
         <v>238</v>
       </c>
       <c r="B239" s="17" t="s">
@@ -10423,7 +10432,7 @@
       <c r="M239" s="18"/>
     </row>
     <row r="240" spans="1:13">
-      <c r="A240" s="43">
+      <c r="A240" s="42">
         <v>239</v>
       </c>
       <c r="B240" s="17" t="s">
@@ -10457,7 +10466,7 @@
       </c>
     </row>
     <row r="241" spans="1:13">
-      <c r="A241" s="43">
+      <c r="A241" s="42">
         <v>240</v>
       </c>
       <c r="B241" s="17" t="s">
@@ -10487,7 +10496,7 @@
       <c r="M241" s="18"/>
     </row>
     <row r="242" spans="1:13">
-      <c r="A242" s="43">
+      <c r="A242" s="42">
         <v>241</v>
       </c>
       <c r="B242" s="17" t="s">
@@ -10515,7 +10524,7 @@
       <c r="M242" s="18"/>
     </row>
     <row r="243" spans="1:13">
-      <c r="A243" s="43">
+      <c r="A243" s="42">
         <v>242</v>
       </c>
       <c r="B243" s="17" t="s">
@@ -10547,7 +10556,7 @@
       </c>
     </row>
     <row r="244" spans="1:13">
-      <c r="A244" s="43">
+      <c r="A244" s="42">
         <v>243</v>
       </c>
       <c r="B244" s="17" t="s">
@@ -10569,7 +10578,7 @@
       <c r="M244" s="18"/>
     </row>
     <row r="245" spans="1:13">
-      <c r="A245" s="43">
+      <c r="A245" s="42">
         <v>244</v>
       </c>
       <c r="B245" s="17" t="s">
@@ -10599,7 +10608,7 @@
       <c r="M245" s="18"/>
     </row>
     <row r="246" spans="1:13">
-      <c r="A246" s="43">
+      <c r="A246" s="42">
         <v>245</v>
       </c>
       <c r="B246" s="17" t="s">
@@ -10621,7 +10630,7 @@
       <c r="M246" s="18"/>
     </row>
     <row r="247" spans="1:13">
-      <c r="A247" s="43">
+      <c r="A247" s="42">
         <v>246</v>
       </c>
       <c r="B247" s="17" t="s">
@@ -10651,7 +10660,7 @@
       <c r="M247" s="18"/>
     </row>
     <row r="248" spans="1:13">
-      <c r="A248" s="43">
+      <c r="A248" s="42">
         <v>247</v>
       </c>
       <c r="B248" s="17" t="s">
@@ -10683,7 +10692,7 @@
       </c>
     </row>
     <row r="249" spans="1:13">
-      <c r="A249" s="43">
+      <c r="A249" s="42">
         <v>248</v>
       </c>
       <c r="B249" s="17" t="s">
@@ -10715,7 +10724,7 @@
       </c>
     </row>
     <row r="250" spans="1:13">
-      <c r="A250" s="43">
+      <c r="A250" s="42">
         <v>249</v>
       </c>
       <c r="B250" s="17" t="s">
@@ -10745,7 +10754,7 @@
       <c r="M250" s="18"/>
     </row>
     <row r="251" spans="1:13">
-      <c r="A251" s="43">
+      <c r="A251" s="42">
         <v>250</v>
       </c>
       <c r="B251" s="17" t="s">
@@ -10777,7 +10786,7 @@
       </c>
     </row>
     <row r="252" spans="1:13">
-      <c r="A252" s="43">
+      <c r="A252" s="42">
         <v>251</v>
       </c>
       <c r="B252" s="17" t="s">
@@ -10807,7 +10816,7 @@
       <c r="M252" s="18"/>
     </row>
     <row r="253" spans="1:13">
-      <c r="A253" s="43">
+      <c r="A253" s="42">
         <v>252</v>
       </c>
       <c r="B253" s="17" t="s">
@@ -10837,7 +10846,7 @@
       <c r="M253" s="18"/>
     </row>
     <row r="254" spans="1:13">
-      <c r="A254" s="43">
+      <c r="A254" s="42">
         <v>253</v>
       </c>
       <c r="B254" s="17" t="s">
@@ -10869,7 +10878,7 @@
       </c>
     </row>
     <row r="255" spans="1:13">
-      <c r="A255" s="43">
+      <c r="A255" s="42">
         <v>254</v>
       </c>
       <c r="B255" s="17" t="s">
@@ -10899,7 +10908,7 @@
       <c r="M255" s="18"/>
     </row>
     <row r="256" spans="1:13">
-      <c r="A256" s="43">
+      <c r="A256" s="42">
         <v>255</v>
       </c>
       <c r="B256" s="17" t="s">
@@ -10921,7 +10930,7 @@
       <c r="M256" s="18"/>
     </row>
     <row r="257" spans="1:13">
-      <c r="A257" s="43">
+      <c r="A257" s="42">
         <v>256</v>
       </c>
       <c r="B257" s="17" t="s">
@@ -10951,7 +10960,7 @@
       <c r="M257" s="18"/>
     </row>
     <row r="258" spans="1:13">
-      <c r="A258" s="43">
+      <c r="A258" s="42">
         <v>257</v>
       </c>
       <c r="B258" s="17" t="s">
@@ -10973,7 +10982,7 @@
       <c r="M258" s="18"/>
     </row>
     <row r="259" spans="1:13">
-      <c r="A259" s="43">
+      <c r="A259" s="42">
         <v>258</v>
       </c>
       <c r="B259" s="17" t="s">
@@ -11003,7 +11012,7 @@
       <c r="M259" s="18"/>
     </row>
     <row r="260" spans="1:13">
-      <c r="A260" s="43">
+      <c r="A260" s="42">
         <v>259</v>
       </c>
       <c r="B260" s="17" t="s">
@@ -11033,7 +11042,7 @@
       </c>
     </row>
     <row r="261" spans="1:13">
-      <c r="A261" s="43">
+      <c r="A261" s="42">
         <v>260</v>
       </c>
       <c r="B261" s="17" t="s">
@@ -11063,7 +11072,7 @@
       <c r="M261" s="18"/>
     </row>
     <row r="262" spans="1:13">
-      <c r="A262" s="43">
+      <c r="A262" s="42">
         <v>261</v>
       </c>
       <c r="B262" s="17" t="s">
@@ -11093,7 +11102,7 @@
       <c r="M262" s="18"/>
     </row>
     <row r="263" spans="1:13">
-      <c r="A263" s="43">
+      <c r="A263" s="42">
         <v>262</v>
       </c>
       <c r="B263" s="17" t="s">
@@ -11125,7 +11134,7 @@
       </c>
     </row>
     <row r="264" spans="1:13">
-      <c r="A264" s="43">
+      <c r="A264" s="42">
         <v>263</v>
       </c>
       <c r="B264" s="17" t="s">
@@ -11157,7 +11166,7 @@
       </c>
     </row>
     <row r="265" spans="1:13">
-      <c r="A265" s="43">
+      <c r="A265" s="42">
         <v>264</v>
       </c>
       <c r="B265" s="17" t="s">
@@ -11187,7 +11196,7 @@
       <c r="M265" s="18"/>
     </row>
     <row r="266" spans="1:13">
-      <c r="A266" s="43">
+      <c r="A266" s="42">
         <v>265</v>
       </c>
       <c r="B266" s="17" t="s">
@@ -11219,7 +11228,7 @@
       </c>
     </row>
     <row r="267" spans="1:13">
-      <c r="A267" s="43">
+      <c r="A267" s="42">
         <v>266</v>
       </c>
       <c r="B267" s="17" t="s">
@@ -11249,7 +11258,7 @@
       <c r="M267" s="18"/>
     </row>
     <row r="268" spans="1:13">
-      <c r="A268" s="43">
+      <c r="A268" s="42">
         <v>267</v>
       </c>
       <c r="B268" s="17" t="s">
@@ -11279,7 +11288,7 @@
       </c>
     </row>
     <row r="269" spans="1:13">
-      <c r="A269" s="43">
+      <c r="A269" s="42">
         <v>268</v>
       </c>
       <c r="B269" s="17" t="s">
@@ -11309,7 +11318,7 @@
       <c r="M269" s="18"/>
     </row>
     <row r="270" spans="1:13">
-      <c r="A270" s="43">
+      <c r="A270" s="42">
         <v>269</v>
       </c>
       <c r="B270" s="17" t="s">
@@ -11331,7 +11340,7 @@
       <c r="M270" s="18"/>
     </row>
     <row r="271" spans="1:13">
-      <c r="A271" s="43">
+      <c r="A271" s="42">
         <v>270</v>
       </c>
       <c r="B271" s="17" t="s">
@@ -11363,7 +11372,7 @@
       </c>
     </row>
     <row r="272" spans="1:13">
-      <c r="A272" s="42">
+      <c r="A272" s="41">
         <v>271</v>
       </c>
       <c r="B272" s="17" t="s">
@@ -11397,7 +11406,7 @@
       </c>
     </row>
     <row r="273" spans="1:13">
-      <c r="A273" s="43">
+      <c r="A273" s="42">
         <v>272</v>
       </c>
       <c r="B273" s="17" t="s">
@@ -11427,7 +11436,7 @@
       </c>
     </row>
     <row r="274" spans="1:13">
-      <c r="A274" s="43">
+      <c r="A274" s="42">
         <v>273</v>
       </c>
       <c r="B274" s="17" t="s">
@@ -11457,7 +11466,7 @@
       </c>
     </row>
     <row r="275" spans="1:13">
-      <c r="A275" s="43">
+      <c r="A275" s="42">
         <v>274</v>
       </c>
       <c r="B275" s="17" t="s">
@@ -11489,7 +11498,7 @@
       </c>
     </row>
     <row r="276" spans="1:13">
-      <c r="A276" s="43">
+      <c r="A276" s="42">
         <v>275</v>
       </c>
       <c r="B276" s="17" t="s">
@@ -11521,7 +11530,7 @@
       </c>
     </row>
     <row r="277" spans="1:13">
-      <c r="A277" s="43">
+      <c r="A277" s="42">
         <v>276</v>
       </c>
       <c r="B277" s="17" t="s">
@@ -11553,7 +11562,7 @@
       </c>
     </row>
     <row r="278" spans="1:13">
-      <c r="A278" s="43">
+      <c r="A278" s="42">
         <v>277</v>
       </c>
       <c r="B278" s="17" t="s">
@@ -11585,7 +11594,7 @@
       </c>
     </row>
     <row r="279" spans="1:13">
-      <c r="A279" s="43">
+      <c r="A279" s="42">
         <v>278</v>
       </c>
       <c r="B279" s="17" t="s">
@@ -11617,7 +11626,7 @@
       </c>
     </row>
     <row r="280" spans="1:13">
-      <c r="A280" s="43">
+      <c r="A280" s="42">
         <v>279</v>
       </c>
       <c r="B280" s="17" t="s">
@@ -11649,7 +11658,7 @@
       </c>
     </row>
     <row r="281" spans="1:13">
-      <c r="A281" s="43">
+      <c r="A281" s="42">
         <v>280</v>
       </c>
       <c r="B281" s="17" t="s">
@@ -11681,7 +11690,7 @@
       </c>
     </row>
     <row r="282" spans="1:13">
-      <c r="A282" s="43">
+      <c r="A282" s="42">
         <v>281</v>
       </c>
       <c r="B282" s="17" t="s">
@@ -11713,7 +11722,7 @@
       </c>
     </row>
     <row r="283" spans="1:13">
-      <c r="A283" s="43">
+      <c r="A283" s="42">
         <v>282</v>
       </c>
       <c r="B283" s="17" t="s">
@@ -11745,7 +11754,7 @@
       </c>
     </row>
     <row r="284" spans="1:13">
-      <c r="A284" s="43">
+      <c r="A284" s="42">
         <v>283</v>
       </c>
       <c r="B284" s="17" t="s">
@@ -11777,7 +11786,7 @@
       </c>
     </row>
     <row r="285" spans="1:13">
-      <c r="A285" s="43">
+      <c r="A285" s="42">
         <v>284</v>
       </c>
       <c r="B285" s="17" t="s">
@@ -11809,7 +11818,7 @@
       </c>
     </row>
     <row r="286" spans="1:13">
-      <c r="A286" s="43">
+      <c r="A286" s="42">
         <v>285</v>
       </c>
       <c r="B286" s="17" t="s">
@@ -11841,7 +11850,7 @@
       </c>
     </row>
     <row r="287" spans="1:13">
-      <c r="A287" s="43">
+      <c r="A287" s="42">
         <v>286</v>
       </c>
       <c r="B287" s="17" t="s">
@@ -11873,7 +11882,7 @@
       </c>
     </row>
     <row r="288" spans="1:13">
-      <c r="A288" s="43">
+      <c r="A288" s="42">
         <v>287</v>
       </c>
       <c r="B288" s="17" t="s">
@@ -11905,7 +11914,7 @@
       </c>
     </row>
     <row r="289" spans="1:13">
-      <c r="A289" s="43">
+      <c r="A289" s="42">
         <v>288</v>
       </c>
       <c r="B289" s="17" t="s">
@@ -11937,7 +11946,7 @@
       </c>
     </row>
     <row r="290" spans="1:13">
-      <c r="A290" s="43">
+      <c r="A290" s="42">
         <v>289</v>
       </c>
       <c r="B290" s="17" t="s">
@@ -11969,7 +11978,7 @@
       </c>
     </row>
     <row r="291" spans="1:13">
-      <c r="A291" s="43">
+      <c r="A291" s="42">
         <v>290</v>
       </c>
       <c r="B291" s="17" t="s">
@@ -12001,7 +12010,7 @@
       </c>
     </row>
     <row r="292" spans="1:13">
-      <c r="A292" s="43">
+      <c r="A292" s="42">
         <v>291</v>
       </c>
       <c r="B292" s="17" t="s">
@@ -12033,7 +12042,7 @@
       </c>
     </row>
     <row r="293" spans="1:13" ht="18" customHeight="1">
-      <c r="A293" s="43">
+      <c r="A293" s="42">
         <v>292</v>
       </c>
       <c r="B293" s="17" t="s">
@@ -12065,7 +12074,7 @@
       </c>
     </row>
     <row r="294" spans="1:13">
-      <c r="A294" s="43">
+      <c r="A294" s="42">
         <v>293</v>
       </c>
       <c r="B294" s="17" t="s">
@@ -12095,7 +12104,7 @@
       </c>
     </row>
     <row r="295" spans="1:13">
-      <c r="A295" s="43">
+      <c r="A295" s="42">
         <v>294</v>
       </c>
       <c r="B295" s="17" t="s">
@@ -12125,7 +12134,7 @@
       </c>
     </row>
     <row r="296" spans="1:13">
-      <c r="A296" s="43">
+      <c r="A296" s="42">
         <v>295</v>
       </c>
       <c r="B296" s="17" t="s">
@@ -12155,7 +12164,7 @@
       </c>
     </row>
     <row r="297" spans="1:13">
-      <c r="A297" s="43">
+      <c r="A297" s="42">
         <v>296</v>
       </c>
       <c r="B297" s="17" t="s">
@@ -12185,7 +12194,7 @@
       </c>
     </row>
     <row r="298" spans="1:13">
-      <c r="A298" s="43">
+      <c r="A298" s="42">
         <v>297</v>
       </c>
       <c r="B298" s="17" t="s">
@@ -12215,7 +12224,7 @@
       </c>
     </row>
     <row r="299" spans="1:13">
-      <c r="A299" s="43">
+      <c r="A299" s="42">
         <v>298</v>
       </c>
       <c r="B299" s="17" t="s">
@@ -12241,7 +12250,7 @@
       </c>
     </row>
     <row r="300" spans="1:13">
-      <c r="A300" s="43">
+      <c r="A300" s="42">
         <v>299</v>
       </c>
       <c r="B300" s="17" t="s">
@@ -12273,7 +12282,7 @@
       </c>
     </row>
     <row r="301" spans="1:13">
-      <c r="A301" s="43">
+      <c r="A301" s="42">
         <v>300</v>
       </c>
       <c r="B301" s="17" t="s">
@@ -12303,7 +12312,7 @@
       </c>
     </row>
     <row r="302" spans="1:13">
-      <c r="A302" s="43">
+      <c r="A302" s="42">
         <v>301</v>
       </c>
       <c r="B302" s="17" t="s">
@@ -12333,7 +12342,7 @@
       </c>
     </row>
     <row r="303" spans="1:13">
-      <c r="A303" s="43">
+      <c r="A303" s="42">
         <v>302</v>
       </c>
       <c r="B303" s="17" t="s">
@@ -12363,7 +12372,7 @@
       </c>
     </row>
     <row r="304" spans="1:13">
-      <c r="A304" s="43">
+      <c r="A304" s="42">
         <v>303</v>
       </c>
       <c r="B304" s="17" t="s">
@@ -12395,7 +12404,7 @@
       </c>
     </row>
     <row r="305" spans="1:14">
-      <c r="A305" s="43">
+      <c r="A305" s="42">
         <v>304</v>
       </c>
       <c r="B305" s="17" t="s">
@@ -12427,7 +12436,7 @@
       </c>
     </row>
     <row r="306" spans="1:14">
-      <c r="A306" s="43">
+      <c r="A306" s="42">
         <v>305</v>
       </c>
       <c r="B306" s="17" t="s">
@@ -12459,7 +12468,7 @@
       </c>
     </row>
     <row r="307" spans="1:14">
-      <c r="A307" s="43">
+      <c r="A307" s="42">
         <v>306</v>
       </c>
       <c r="B307" s="17" t="s">
@@ -12487,7 +12496,7 @@
       </c>
     </row>
     <row r="308" spans="1:14">
-      <c r="A308" s="45">
+      <c r="A308" s="44">
         <v>307</v>
       </c>
       <c r="B308" s="17" t="s">
@@ -12519,7 +12528,7 @@
       </c>
     </row>
     <row r="309" spans="1:14">
-      <c r="A309" s="45">
+      <c r="A309" s="44">
         <v>308</v>
       </c>
       <c r="B309" s="17" t="s">
@@ -12551,7 +12560,7 @@
       </c>
     </row>
     <row r="310" spans="1:14">
-      <c r="A310" s="45">
+      <c r="A310" s="44">
         <v>309</v>
       </c>
       <c r="B310" s="17" t="s">
@@ -12585,7 +12594,7 @@
       </c>
     </row>
     <row r="311" spans="1:14">
-      <c r="A311" s="46">
+      <c r="A311" s="45">
         <v>310</v>
       </c>
       <c r="B311" s="17" t="s">
@@ -12617,7 +12626,7 @@
       </c>
     </row>
     <row r="312" spans="1:14">
-      <c r="A312" s="45">
+      <c r="A312" s="44">
         <v>311</v>
       </c>
       <c r="B312" s="17" t="s">
@@ -12651,7 +12660,7 @@
       </c>
     </row>
     <row r="313" spans="1:14">
-      <c r="A313" s="45">
+      <c r="A313" s="44">
         <v>312</v>
       </c>
       <c r="B313" s="17" t="s">
@@ -12682,7 +12691,7 @@
       <c r="N313" s="4"/>
     </row>
     <row r="314" spans="1:14">
-      <c r="A314" s="43">
+      <c r="A314" s="42">
         <v>313</v>
       </c>
       <c r="B314" s="17" t="s">
@@ -12707,7 +12716,7 @@
       <c r="N314" s="4"/>
     </row>
     <row r="315" spans="1:14">
-      <c r="A315" s="44">
+      <c r="A315" s="43">
         <v>314</v>
       </c>
       <c r="B315" s="17" t="s">
@@ -12739,7 +12748,7 @@
       </c>
     </row>
     <row r="316" spans="1:14">
-      <c r="A316" s="43">
+      <c r="A316" s="42">
         <v>315</v>
       </c>
       <c r="B316" s="17" t="s">
@@ -12767,7 +12776,7 @@
       </c>
     </row>
     <row r="317" spans="1:14">
-      <c r="A317" s="43">
+      <c r="A317" s="42">
         <v>316</v>
       </c>
       <c r="B317" s="17" t="s">
@@ -12793,7 +12802,7 @@
       <c r="M317" s="28"/>
     </row>
     <row r="318" spans="1:14">
-      <c r="A318" s="47">
+      <c r="A318" s="46">
         <v>317</v>
       </c>
       <c r="B318" s="17" t="s">
@@ -12825,7 +12834,7 @@
       </c>
     </row>
     <row r="319" spans="1:14">
-      <c r="A319" s="47">
+      <c r="A319" s="46">
         <v>318</v>
       </c>
       <c r="B319" s="17" t="s">
@@ -12857,7 +12866,7 @@
       </c>
     </row>
     <row r="320" spans="1:14">
-      <c r="A320" s="47">
+      <c r="A320" s="46">
         <v>319</v>
       </c>
       <c r="B320" s="17" t="s">
@@ -12891,7 +12900,7 @@
       </c>
     </row>
     <row r="321" spans="1:13">
-      <c r="A321" s="47">
+      <c r="A321" s="46">
         <v>320</v>
       </c>
       <c r="B321" s="17" t="s">
@@ -12921,7 +12930,7 @@
       </c>
     </row>
     <row r="322" spans="1:13">
-      <c r="A322" s="47">
+      <c r="A322" s="46">
         <v>321</v>
       </c>
       <c r="B322" s="18" t="s">
@@ -12951,7 +12960,7 @@
       </c>
     </row>
     <row r="323" spans="1:13">
-      <c r="A323" s="47">
+      <c r="A323" s="46">
         <v>322</v>
       </c>
       <c r="B323" s="17" t="s">
@@ -12981,7 +12990,7 @@
       </c>
     </row>
     <row r="324" spans="1:13">
-      <c r="A324" s="47">
+      <c r="A324" s="46">
         <v>323</v>
       </c>
       <c r="B324" s="17" t="s">
@@ -13013,7 +13022,7 @@
       </c>
     </row>
     <row r="325" spans="1:13">
-      <c r="A325" s="47">
+      <c r="A325" s="46">
         <v>324</v>
       </c>
       <c r="B325" s="17" t="s">
@@ -13043,7 +13052,7 @@
       </c>
     </row>
     <row r="326" spans="1:13">
-      <c r="A326" s="47">
+      <c r="A326" s="46">
         <v>325</v>
       </c>
       <c r="B326" s="18" t="s">
@@ -13073,7 +13082,7 @@
       </c>
     </row>
     <row r="327" spans="1:13">
-      <c r="A327" s="47">
+      <c r="A327" s="46">
         <v>326</v>
       </c>
       <c r="B327" s="17" t="s">
@@ -13105,7 +13114,7 @@
       </c>
     </row>
     <row r="328" spans="1:13">
-      <c r="A328" s="47">
+      <c r="A328" s="46">
         <v>327</v>
       </c>
       <c r="B328" s="17" t="s">
@@ -13135,7 +13144,7 @@
       </c>
     </row>
     <row r="329" spans="1:13">
-      <c r="A329" s="47">
+      <c r="A329" s="46">
         <v>328</v>
       </c>
       <c r="B329" s="17" t="s">
@@ -13165,7 +13174,7 @@
       </c>
     </row>
     <row r="330" spans="1:13">
-      <c r="A330" s="47">
+      <c r="A330" s="46">
         <v>329</v>
       </c>
       <c r="B330" s="17" t="s">
@@ -13195,7 +13204,7 @@
       </c>
     </row>
     <row r="331" spans="1:13">
-      <c r="A331" s="47">
+      <c r="A331" s="46">
         <v>330</v>
       </c>
       <c r="B331" s="18" t="s">
@@ -13225,7 +13234,7 @@
       </c>
     </row>
     <row r="332" spans="1:13">
-      <c r="A332" s="47">
+      <c r="A332" s="46">
         <v>331</v>
       </c>
       <c r="B332" s="17" t="s">
@@ -13257,7 +13266,7 @@
       </c>
     </row>
     <row r="333" spans="1:13">
-      <c r="A333" s="47">
+      <c r="A333" s="46">
         <v>332</v>
       </c>
       <c r="B333" s="17" t="s">
@@ -13289,7 +13298,7 @@
       </c>
     </row>
     <row r="334" spans="1:13">
-      <c r="A334" s="47">
+      <c r="A334" s="46">
         <v>333</v>
       </c>
       <c r="B334" s="17" t="s">
@@ -13321,7 +13330,7 @@
       </c>
     </row>
     <row r="335" spans="1:13">
-      <c r="A335" s="47">
+      <c r="A335" s="46">
         <v>334</v>
       </c>
       <c r="B335" s="17" t="s">
@@ -13353,7 +13362,7 @@
       </c>
     </row>
     <row r="336" spans="1:13">
-      <c r="A336" s="47">
+      <c r="A336" s="46">
         <v>335</v>
       </c>
       <c r="B336" s="18" t="s">
@@ -13381,7 +13390,7 @@
       </c>
     </row>
     <row r="337" spans="1:13">
-      <c r="A337" s="47">
+      <c r="A337" s="46">
         <v>336</v>
       </c>
       <c r="B337" s="17" t="s">
@@ -13407,7 +13416,7 @@
       </c>
     </row>
     <row r="338" spans="1:13">
-      <c r="A338" s="47">
+      <c r="A338" s="46">
         <v>337</v>
       </c>
       <c r="B338" s="17" t="s">
@@ -13433,7 +13442,7 @@
       </c>
     </row>
     <row r="339" spans="1:13">
-      <c r="A339" s="47">
+      <c r="A339" s="46">
         <v>338</v>
       </c>
       <c r="B339" s="17" t="s">
@@ -13463,7 +13472,7 @@
       </c>
     </row>
     <row r="340" spans="1:13">
-      <c r="A340" s="47">
+      <c r="A340" s="46">
         <v>339</v>
       </c>
       <c r="B340" s="17" t="s">
@@ -13487,7 +13496,7 @@
       </c>
     </row>
     <row r="341" spans="1:13">
-      <c r="A341" s="47">
+      <c r="A341" s="46">
         <v>340</v>
       </c>
       <c r="B341" s="17" t="s">
@@ -13511,7 +13520,7 @@
       </c>
     </row>
     <row r="342" spans="1:13">
-      <c r="A342" s="47">
+      <c r="A342" s="46">
         <v>341</v>
       </c>
       <c r="B342" s="36" t="s">
@@ -13543,7 +13552,7 @@
       </c>
     </row>
     <row r="343" spans="1:13">
-      <c r="A343" s="47">
+      <c r="A343" s="46">
         <v>342</v>
       </c>
       <c r="B343" s="36" t="s">
@@ -13577,7 +13586,7 @@
       </c>
     </row>
     <row r="344" spans="1:13">
-      <c r="A344" s="47">
+      <c r="A344" s="46">
         <v>343</v>
       </c>
       <c r="B344" s="36" t="s">
@@ -13611,7 +13620,7 @@
       </c>
     </row>
     <row r="345" spans="1:13">
-      <c r="A345" s="47">
+      <c r="A345" s="46">
         <v>344</v>
       </c>
       <c r="B345" s="36" t="s">
@@ -13637,7 +13646,7 @@
       <c r="M345" s="18"/>
     </row>
     <row r="346" spans="1:13">
-      <c r="A346" s="47">
+      <c r="A346" s="46">
         <v>345</v>
       </c>
       <c r="B346" s="36" t="s">
@@ -13661,7 +13670,7 @@
       <c r="M346" s="18"/>
     </row>
     <row r="347" spans="1:13">
-      <c r="A347" s="47">
+      <c r="A347" s="46">
         <v>346</v>
       </c>
       <c r="B347" s="36" t="s">
@@ -13685,7 +13694,7 @@
       <c r="M347" s="18"/>
     </row>
     <row r="348" spans="1:13">
-      <c r="A348" s="47">
+      <c r="A348" s="46">
         <v>347</v>
       </c>
       <c r="B348" s="36" t="s">
@@ -13709,7 +13718,7 @@
       <c r="M348" s="18"/>
     </row>
     <row r="349" spans="1:13">
-      <c r="A349" s="47">
+      <c r="A349" s="46">
         <v>348</v>
       </c>
       <c r="B349" s="36" t="s">
@@ -13735,7 +13744,7 @@
       <c r="M349" s="18"/>
     </row>
     <row r="350" spans="1:13">
-      <c r="A350" s="47">
+      <c r="A350" s="46">
         <v>349</v>
       </c>
       <c r="B350" s="36" t="s">
@@ -13759,7 +13768,7 @@
       <c r="M350" s="18"/>
     </row>
     <row r="351" spans="1:13">
-      <c r="A351" s="47">
+      <c r="A351" s="46">
         <v>350</v>
       </c>
       <c r="B351" s="36" t="s">
@@ -13785,7 +13794,7 @@
       <c r="M351" s="18"/>
     </row>
     <row r="352" spans="1:13">
-      <c r="A352" s="47">
+      <c r="A352" s="46">
         <v>351</v>
       </c>
       <c r="B352" s="36" t="s">
@@ -13809,7 +13818,7 @@
       <c r="M352" s="18"/>
     </row>
     <row r="353" spans="1:13">
-      <c r="A353" s="47">
+      <c r="A353" s="46">
         <v>352</v>
       </c>
       <c r="B353" s="36" t="s">
@@ -13835,7 +13844,7 @@
       <c r="M353" s="18"/>
     </row>
     <row r="354" spans="1:13">
-      <c r="A354" s="47">
+      <c r="A354" s="46">
         <v>353</v>
       </c>
       <c r="B354" s="36" t="s">
@@ -13861,7 +13870,7 @@
       <c r="M354" s="18"/>
     </row>
     <row r="355" spans="1:13">
-      <c r="A355" s="47">
+      <c r="A355" s="46">
         <v>354</v>
       </c>
       <c r="B355" s="36" t="s">
@@ -13887,7 +13896,7 @@
       <c r="M355" s="18"/>
     </row>
     <row r="356" spans="1:13">
-      <c r="A356" s="47">
+      <c r="A356" s="46">
         <v>355</v>
       </c>
       <c r="B356" s="36" t="s">
@@ -13911,7 +13920,7 @@
       <c r="M356" s="18"/>
     </row>
     <row r="357" spans="1:13">
-      <c r="A357" s="47">
+      <c r="A357" s="46">
         <v>356</v>
       </c>
       <c r="B357" s="36" t="s">
@@ -13935,7 +13944,7 @@
       <c r="M357" s="18"/>
     </row>
     <row r="358" spans="1:13">
-      <c r="A358" s="47">
+      <c r="A358" s="46">
         <v>357</v>
       </c>
       <c r="B358" s="36" t="s">
@@ -13959,7 +13968,7 @@
       <c r="M358" s="18"/>
     </row>
     <row r="359" spans="1:13">
-      <c r="A359" s="47">
+      <c r="A359" s="46">
         <v>358</v>
       </c>
       <c r="B359" s="36" t="s">
@@ -13983,7 +13992,7 @@
       <c r="M359" s="18"/>
     </row>
     <row r="360" spans="1:13">
-      <c r="A360" s="47">
+      <c r="A360" s="46">
         <v>359</v>
       </c>
       <c r="B360" s="36" t="s">
@@ -14009,7 +14018,7 @@
       <c r="M360" s="18"/>
     </row>
     <row r="361" spans="1:13">
-      <c r="A361" s="47">
+      <c r="A361" s="46">
         <v>360</v>
       </c>
       <c r="B361" s="36" t="s">
@@ -14033,7 +14042,7 @@
       <c r="M361" s="18"/>
     </row>
     <row r="362" spans="1:13">
-      <c r="A362" s="47">
+      <c r="A362" s="46">
         <v>361</v>
       </c>
       <c r="B362" s="36" t="s">
@@ -14057,7 +14066,7 @@
       <c r="M362" s="18"/>
     </row>
     <row r="363" spans="1:13">
-      <c r="A363" s="47">
+      <c r="A363" s="46">
         <v>362</v>
       </c>
       <c r="B363" s="36" t="s">
@@ -14081,7 +14090,7 @@
       <c r="M363" s="18"/>
     </row>
     <row r="364" spans="1:13">
-      <c r="A364" s="47">
+      <c r="A364" s="46">
         <v>363</v>
       </c>
       <c r="B364" s="36" t="s">
@@ -14105,7 +14114,7 @@
       <c r="M364" s="18"/>
     </row>
     <row r="365" spans="1:13">
-      <c r="A365" s="47">
+      <c r="A365" s="46">
         <v>364</v>
       </c>
       <c r="B365" s="36" t="s">
@@ -14131,7 +14140,7 @@
       <c r="M365" s="18"/>
     </row>
     <row r="366" spans="1:13">
-      <c r="A366" s="47">
+      <c r="A366" s="46">
         <v>365</v>
       </c>
       <c r="B366" s="36" t="s">
@@ -14155,7 +14164,7 @@
       <c r="M366" s="18"/>
     </row>
     <row r="367" spans="1:13">
-      <c r="A367" s="47">
+      <c r="A367" s="46">
         <v>366</v>
       </c>
       <c r="B367" s="36" t="s">
@@ -14179,7 +14188,7 @@
       <c r="M367" s="18"/>
     </row>
     <row r="368" spans="1:13">
-      <c r="A368" s="47">
+      <c r="A368" s="46">
         <v>367</v>
       </c>
       <c r="B368" s="36" t="s">
@@ -14203,7 +14212,7 @@
       <c r="M368" s="18"/>
     </row>
     <row r="369" spans="1:13">
-      <c r="A369" s="47">
+      <c r="A369" s="46">
         <v>368</v>
       </c>
       <c r="B369" s="36" t="s">
@@ -14227,7 +14236,7 @@
       <c r="M369" s="18"/>
     </row>
     <row r="370" spans="1:13">
-      <c r="A370" s="47">
+      <c r="A370" s="46">
         <v>369</v>
       </c>
       <c r="B370" s="36" t="s">
@@ -14253,7 +14262,7 @@
       <c r="M370" s="18"/>
     </row>
     <row r="371" spans="1:13">
-      <c r="A371" s="47">
+      <c r="A371" s="46">
         <v>370</v>
       </c>
       <c r="B371" s="36" t="s">
@@ -14279,7 +14288,7 @@
       <c r="M371" s="18"/>
     </row>
     <row r="372" spans="1:13">
-      <c r="A372" s="47">
+      <c r="A372" s="46">
         <v>371</v>
       </c>
       <c r="B372" s="36" t="s">
@@ -14303,7 +14312,7 @@
       <c r="M372" s="18"/>
     </row>
     <row r="373" spans="1:13">
-      <c r="A373" s="47">
+      <c r="A373" s="46">
         <v>372</v>
       </c>
       <c r="B373" s="36" t="s">
@@ -14329,7 +14338,7 @@
       <c r="M373" s="18"/>
     </row>
     <row r="374" spans="1:13">
-      <c r="A374" s="47">
+      <c r="A374" s="46">
         <v>373</v>
       </c>
       <c r="B374" s="36" t="s">
@@ -14353,7 +14362,7 @@
       <c r="M374" s="18"/>
     </row>
     <row r="375" spans="1:13">
-      <c r="A375" s="47">
+      <c r="A375" s="46">
         <v>374</v>
       </c>
       <c r="B375" s="36" t="s">
@@ -14377,7 +14386,7 @@
       <c r="M375" s="18"/>
     </row>
     <row r="376" spans="1:13">
-      <c r="A376" s="47">
+      <c r="A376" s="46">
         <v>375</v>
       </c>
       <c r="B376" s="36" t="s">
@@ -14401,7 +14410,7 @@
       <c r="M376" s="18"/>
     </row>
     <row r="377" spans="1:13">
-      <c r="A377" s="47">
+      <c r="A377" s="46">
         <v>376</v>
       </c>
       <c r="B377" s="36" t="s">
@@ -14425,7 +14434,7 @@
       <c r="M377" s="18"/>
     </row>
     <row r="378" spans="1:13">
-      <c r="A378" s="47">
+      <c r="A378" s="46">
         <v>377</v>
       </c>
       <c r="B378" s="36" t="s">
@@ -14451,7 +14460,7 @@
       <c r="M378" s="18"/>
     </row>
     <row r="379" spans="1:13">
-      <c r="A379" s="47">
+      <c r="A379" s="46">
         <v>378</v>
       </c>
       <c r="B379" s="36" t="s">
@@ -14477,7 +14486,7 @@
       <c r="M379" s="18"/>
     </row>
     <row r="380" spans="1:13">
-      <c r="A380" s="47">
+      <c r="A380" s="46">
         <v>379</v>
       </c>
       <c r="B380" s="36" t="s">
@@ -14503,7 +14512,7 @@
       <c r="M380" s="18"/>
     </row>
     <row r="381" spans="1:13">
-      <c r="A381" s="47">
+      <c r="A381" s="46">
         <v>380</v>
       </c>
       <c r="B381" s="36" t="s">
@@ -14529,7 +14538,7 @@
       <c r="M381" s="18"/>
     </row>
     <row r="382" spans="1:13">
-      <c r="A382" s="47">
+      <c r="A382" s="46">
         <v>381</v>
       </c>
       <c r="B382" s="36" t="s">
@@ -14555,7 +14564,7 @@
       <c r="M382" s="18"/>
     </row>
     <row r="383" spans="1:13">
-      <c r="A383" s="47">
+      <c r="A383" s="46">
         <v>382</v>
       </c>
       <c r="B383" s="36" t="s">
@@ -14579,7 +14588,7 @@
       <c r="M383" s="18"/>
     </row>
     <row r="384" spans="1:13">
-      <c r="A384" s="47">
+      <c r="A384" s="46">
         <v>383</v>
       </c>
       <c r="B384" s="36" t="s">
@@ -14603,7 +14612,7 @@
       <c r="M384" s="18"/>
     </row>
     <row r="385" spans="1:13">
-      <c r="A385" s="47">
+      <c r="A385" s="46">
         <v>384</v>
       </c>
       <c r="B385" s="36" t="s">
@@ -14629,7 +14638,7 @@
       <c r="M385" s="18"/>
     </row>
     <row r="386" spans="1:13">
-      <c r="A386" s="47">
+      <c r="A386" s="46">
         <v>385</v>
       </c>
       <c r="B386" s="36" t="s">
@@ -14653,7 +14662,7 @@
       <c r="M386" s="18"/>
     </row>
     <row r="387" spans="1:13">
-      <c r="A387" s="47">
+      <c r="A387" s="46">
         <v>386</v>
       </c>
       <c r="B387" s="36" t="s">
@@ -14679,7 +14688,7 @@
       <c r="M387" s="18"/>
     </row>
     <row r="388" spans="1:13">
-      <c r="A388" s="47">
+      <c r="A388" s="46">
         <v>387</v>
       </c>
       <c r="B388" s="36" t="s">
@@ -14705,7 +14714,7 @@
       <c r="M388" s="18"/>
     </row>
     <row r="389" spans="1:13">
-      <c r="A389" s="47">
+      <c r="A389" s="46">
         <v>388</v>
       </c>
       <c r="B389" s="36" t="s">
@@ -14729,7 +14738,7 @@
       <c r="M389" s="18"/>
     </row>
     <row r="390" spans="1:13">
-      <c r="A390" s="47">
+      <c r="A390" s="46">
         <v>389</v>
       </c>
       <c r="B390" s="36" t="s">
@@ -14753,7 +14762,7 @@
       <c r="M390" s="18"/>
     </row>
     <row r="391" spans="1:13">
-      <c r="A391" s="47">
+      <c r="A391" s="46">
         <v>390</v>
       </c>
       <c r="B391" s="36" t="s">
@@ -14779,7 +14788,7 @@
       <c r="M391" s="18"/>
     </row>
     <row r="392" spans="1:13">
-      <c r="A392" s="47">
+      <c r="A392" s="46">
         <v>391</v>
       </c>
       <c r="B392" s="36" t="s">
@@ -14803,7 +14812,7 @@
       <c r="M392" s="18"/>
     </row>
     <row r="393" spans="1:13">
-      <c r="A393" s="47">
+      <c r="A393" s="46">
         <v>392</v>
       </c>
       <c r="B393" s="36" t="s">
@@ -14827,7 +14836,7 @@
       <c r="M393" s="18"/>
     </row>
     <row r="394" spans="1:13">
-      <c r="A394" s="47">
+      <c r="A394" s="46">
         <v>393</v>
       </c>
       <c r="B394" s="36" t="s">
@@ -14851,7 +14860,7 @@
       <c r="M394" s="18"/>
     </row>
     <row r="395" spans="1:13">
-      <c r="A395" s="47">
+      <c r="A395" s="46">
         <v>394</v>
       </c>
       <c r="B395" s="36" t="s">
@@ -14875,7 +14884,7 @@
       <c r="M395" s="18"/>
     </row>
     <row r="396" spans="1:13">
-      <c r="A396" s="47">
+      <c r="A396" s="46">
         <v>395</v>
       </c>
       <c r="B396" s="36" t="s">
@@ -14899,7 +14908,7 @@
       <c r="M396" s="18"/>
     </row>
     <row r="397" spans="1:13">
-      <c r="A397" s="47">
+      <c r="A397" s="46">
         <v>396</v>
       </c>
       <c r="B397" s="36" t="s">
@@ -14925,7 +14934,7 @@
       <c r="M397" s="18"/>
     </row>
     <row r="398" spans="1:13">
-      <c r="A398" s="47">
+      <c r="A398" s="46">
         <v>397</v>
       </c>
       <c r="B398" s="36" t="s">
@@ -14951,7 +14960,7 @@
       <c r="M398" s="18"/>
     </row>
     <row r="399" spans="1:13">
-      <c r="A399" s="47">
+      <c r="A399" s="46">
         <v>398</v>
       </c>
       <c r="B399" s="36" t="s">
@@ -14975,7 +14984,7 @@
       <c r="M399" s="18"/>
     </row>
     <row r="400" spans="1:13">
-      <c r="A400" s="47">
+      <c r="A400" s="46">
         <v>399</v>
       </c>
       <c r="B400" s="36" t="s">
@@ -14999,7 +15008,7 @@
       <c r="M400" s="18"/>
     </row>
     <row r="401" spans="1:13">
-      <c r="A401" s="47">
+      <c r="A401" s="46">
         <v>400</v>
       </c>
       <c r="B401" s="36" t="s">
@@ -15023,7 +15032,7 @@
       <c r="M401" s="18"/>
     </row>
     <row r="402" spans="1:13">
-      <c r="A402" s="47">
+      <c r="A402" s="46">
         <v>401</v>
       </c>
       <c r="B402" s="36" t="s">
@@ -15049,7 +15058,7 @@
       <c r="M402" s="18"/>
     </row>
     <row r="403" spans="1:13">
-      <c r="A403" s="47">
+      <c r="A403" s="46">
         <v>402</v>
       </c>
       <c r="B403" s="36" t="s">
@@ -15073,7 +15082,7 @@
       <c r="M403" s="18"/>
     </row>
     <row r="404" spans="1:13">
-      <c r="A404" s="47">
+      <c r="A404" s="46">
         <v>403</v>
       </c>
       <c r="B404" s="36" t="s">
@@ -15099,7 +15108,7 @@
       <c r="M404" s="18"/>
     </row>
     <row r="405" spans="1:13">
-      <c r="A405" s="47">
+      <c r="A405" s="46">
         <v>404</v>
       </c>
       <c r="B405" s="36" t="s">
@@ -15123,7 +15132,7 @@
       <c r="M405" s="18"/>
     </row>
     <row r="406" spans="1:13">
-      <c r="A406" s="47">
+      <c r="A406" s="46">
         <v>405</v>
       </c>
       <c r="B406" s="36" t="s">
@@ -15147,7 +15156,7 @@
       <c r="M406" s="18"/>
     </row>
     <row r="407" spans="1:13">
-      <c r="A407" s="47">
+      <c r="A407" s="46">
         <v>406</v>
       </c>
       <c r="B407" s="36" t="s">
@@ -15171,7 +15180,7 @@
       <c r="M407" s="18"/>
     </row>
     <row r="408" spans="1:13">
-      <c r="A408" s="47">
+      <c r="A408" s="46">
         <v>407</v>
       </c>
       <c r="B408" s="36" t="s">
@@ -15197,7 +15206,7 @@
       <c r="M408" s="18"/>
     </row>
     <row r="409" spans="1:13">
-      <c r="A409" s="47">
+      <c r="A409" s="46">
         <v>408</v>
       </c>
       <c r="B409" s="36" t="s">
@@ -15221,7 +15230,7 @@
       <c r="M409" s="18"/>
     </row>
     <row r="410" spans="1:13">
-      <c r="A410" s="47">
+      <c r="A410" s="46">
         <v>409</v>
       </c>
       <c r="B410" s="36" t="s">
@@ -15245,7 +15254,7 @@
       <c r="M410" s="18"/>
     </row>
     <row r="411" spans="1:13">
-      <c r="A411" s="47">
+      <c r="A411" s="46">
         <v>410</v>
       </c>
       <c r="B411" s="36" t="s">
@@ -15269,7 +15278,7 @@
       <c r="M411" s="18"/>
     </row>
     <row r="412" spans="1:13">
-      <c r="A412" s="47">
+      <c r="A412" s="46">
         <v>411</v>
       </c>
       <c r="B412" s="36" t="s">
@@ -15295,7 +15304,7 @@
       <c r="M412" s="18"/>
     </row>
     <row r="413" spans="1:13">
-      <c r="A413" s="47">
+      <c r="A413" s="46">
         <v>412</v>
       </c>
       <c r="B413" s="36" t="s">
@@ -15319,7 +15328,7 @@
       <c r="M413" s="18"/>
     </row>
     <row r="414" spans="1:13">
-      <c r="A414" s="47">
+      <c r="A414" s="46">
         <v>413</v>
       </c>
       <c r="B414" s="36" t="s">
@@ -15343,7 +15352,7 @@
       <c r="M414" s="18"/>
     </row>
     <row r="415" spans="1:13">
-      <c r="A415" s="47">
+      <c r="A415" s="46">
         <v>414</v>
       </c>
       <c r="B415" s="36" t="s">
@@ -15367,7 +15376,7 @@
       <c r="M415" s="18"/>
     </row>
     <row r="416" spans="1:13">
-      <c r="A416" s="52">
+      <c r="A416" s="51">
         <v>415</v>
       </c>
       <c r="B416" s="14" t="s">
@@ -15393,7 +15402,7 @@
       </c>
     </row>
     <row r="417" spans="1:13">
-      <c r="A417" s="52">
+      <c r="A417" s="51">
         <v>416</v>
       </c>
       <c r="B417" s="14" t="s">
@@ -15413,7 +15422,7 @@
       </c>
     </row>
     <row r="418" spans="1:13">
-      <c r="A418" s="52">
+      <c r="A418" s="51">
         <v>417</v>
       </c>
       <c r="B418" s="14" t="s">
@@ -15431,7 +15440,7 @@
       </c>
     </row>
     <row r="419" spans="1:13">
-      <c r="A419" s="52">
+      <c r="A419" s="51">
         <v>418</v>
       </c>
       <c r="B419" s="14" t="s">
@@ -15460,7 +15469,7 @@
       </c>
     </row>
     <row r="420" spans="1:13">
-      <c r="A420" s="52">
+      <c r="A420" s="51">
         <v>419</v>
       </c>
       <c r="B420" s="14" t="s">
@@ -15480,7 +15489,7 @@
       </c>
     </row>
     <row r="421" spans="1:13">
-      <c r="A421" s="52">
+      <c r="A421" s="51">
         <v>420</v>
       </c>
       <c r="B421" s="14" t="s">
@@ -15860,10 +15869,46 @@
       </c>
     </row>
     <row r="443" spans="1:13">
-      <c r="B443" s="14"/>
-      <c r="C443" s="14"/>
+      <c r="A443" s="3">
+        <v>441</v>
+      </c>
+      <c r="B443" s="14" t="s">
+        <v>385</v>
+      </c>
+      <c r="C443" s="14" t="s">
+        <v>385</v>
+      </c>
       <c r="D443" s="14"/>
       <c r="E443" s="18"/>
+      <c r="F443" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="G443" s="1" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="444" spans="1:13">
+      <c r="A444" s="3">
+        <v>442</v>
+      </c>
+      <c r="B444" s="14" t="s">
+        <v>385</v>
+      </c>
+      <c r="C444" s="14" t="s">
+        <v>385</v>
+      </c>
+      <c r="D444" s="3" t="s">
+        <v>796</v>
+      </c>
+      <c r="E444" s="1" t="s">
+        <v>797</v>
+      </c>
+      <c r="F444" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="G444" s="1" t="s">
+        <v>539</v>
+      </c>
     </row>
     <row r="445" spans="1:13" s="7" customFormat="1">
       <c r="A445" s="5"/>

--- a/metadata/Inventory inscribed pieces.xlsx
+++ b/metadata/Inventory inscribed pieces.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vincenttournier/Library/CloudStorage/Dropbox/Mac (2)/Documents/GitHub/tfb-satavahana-epigraphy/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57006237-C5FE-4F49-8CB3-46B99BE7F3BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F9E0861-191D-8D4B-A0AB-CA1C922D30A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1660" yWindow="500" windowWidth="41660" windowHeight="19800" xr2:uid="{D79794C4-FCC0-9B4A-B6F1-FEEF81BE6884}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$B$469</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$B$468</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2547" uniqueCount="798">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2544" uniqueCount="799">
   <si>
     <t>shed 1</t>
   </si>
@@ -2547,6 +2547,9 @@
   </si>
   <si>
     <t>1966–1967: B222</t>
+  </si>
+  <si>
+    <t>Memorial stone (inscribed?)</t>
   </si>
 </sst>
 </file>
@@ -2742,7 +2745,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2876,6 +2879,12 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3191,11 +3200,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AE06EC2-582E-7A46-AA00-435759BE671C}">
-  <dimension ref="A1:O523"/>
+  <dimension ref="A1:O522"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A419" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G442" sqref="G442"/>
+      <selection pane="bottomLeft" activeCell="C442" sqref="C442"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -15507,7 +15516,7 @@
       </c>
     </row>
     <row r="422" spans="1:13">
-      <c r="A422" s="3">
+      <c r="A422" s="51">
         <v>421</v>
       </c>
       <c r="B422" s="1" t="s">
@@ -15540,7 +15549,7 @@
       <c r="M423" s="38"/>
     </row>
     <row r="424" spans="1:13">
-      <c r="A424" s="3">
+      <c r="A424" s="51">
         <v>422</v>
       </c>
       <c r="B424" s="14" t="s">
@@ -15575,9 +15584,12 @@
       <c r="G425" s="1" t="s">
         <v>539</v>
       </c>
+      <c r="L425" t="s">
+        <v>798</v>
+      </c>
     </row>
     <row r="426" spans="1:13">
-      <c r="A426" s="3">
+      <c r="A426" s="54">
         <v>424</v>
       </c>
       <c r="B426" s="14" t="s">
@@ -15597,7 +15609,7 @@
       </c>
     </row>
     <row r="427" spans="1:13">
-      <c r="A427" s="3">
+      <c r="A427" s="54">
         <v>425</v>
       </c>
       <c r="B427" s="14" t="s">
@@ -15637,7 +15649,7 @@
       </c>
     </row>
     <row r="429" spans="1:13">
-      <c r="A429" s="3">
+      <c r="A429" s="54">
         <v>427</v>
       </c>
       <c r="B429" s="14" t="s">
@@ -15657,7 +15669,7 @@
       </c>
     </row>
     <row r="430" spans="1:13">
-      <c r="A430" s="3">
+      <c r="A430" s="54">
         <v>428</v>
       </c>
       <c r="B430" s="14" t="s">
@@ -15674,7 +15686,7 @@
       </c>
     </row>
     <row r="431" spans="1:13">
-      <c r="A431" s="3">
+      <c r="A431" s="54">
         <v>429</v>
       </c>
       <c r="B431" s="14" t="s">
@@ -15683,11 +15695,17 @@
       <c r="C431" s="14" t="s">
         <v>385</v>
       </c>
-      <c r="D431" s="14" t="s">
-        <v>760</v>
-      </c>
-      <c r="E431" s="18" t="s">
-        <v>717</v>
+      <c r="D431" s="3" t="s">
+        <v>796</v>
+      </c>
+      <c r="E431" s="1" t="s">
+        <v>797</v>
+      </c>
+      <c r="F431" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="G431" s="1" t="s">
+        <v>539</v>
       </c>
     </row>
     <row r="432" spans="1:13">
@@ -15708,7 +15726,7 @@
       </c>
     </row>
     <row r="433" spans="1:13">
-      <c r="A433" s="3">
+      <c r="A433" s="54">
         <v>431</v>
       </c>
       <c r="B433" s="14" t="s">
@@ -15742,7 +15760,7 @@
       </c>
     </row>
     <row r="435" spans="1:13">
-      <c r="A435" s="3">
+      <c r="A435" s="54">
         <v>433</v>
       </c>
       <c r="B435" s="14" t="s">
@@ -15779,7 +15797,7 @@
       </c>
     </row>
     <row r="437" spans="1:13">
-      <c r="A437" s="3">
+      <c r="A437" s="54">
         <v>435</v>
       </c>
       <c r="B437" s="14" t="s">
@@ -15841,7 +15859,7 @@
       </c>
     </row>
     <row r="441" spans="1:13">
-      <c r="A441" s="3">
+      <c r="A441" s="54">
         <v>439</v>
       </c>
       <c r="B441" s="14" t="s">
@@ -15854,7 +15872,7 @@
       <c r="E441" s="18"/>
     </row>
     <row r="442" spans="1:13">
-      <c r="A442" s="3">
+      <c r="A442" s="54">
         <v>440</v>
       </c>
       <c r="B442" s="14"/>
@@ -15869,7 +15887,7 @@
       </c>
     </row>
     <row r="443" spans="1:13">
-      <c r="A443" s="3">
+      <c r="A443" s="54">
         <v>441</v>
       </c>
       <c r="B443" s="14" t="s">
@@ -15887,153 +15905,156 @@
         <v>795</v>
       </c>
     </row>
-    <row r="444" spans="1:13">
-      <c r="A444" s="3">
-        <v>442</v>
-      </c>
-      <c r="B444" s="14" t="s">
-        <v>385</v>
-      </c>
-      <c r="C444" s="14" t="s">
-        <v>385</v>
-      </c>
-      <c r="D444" s="3" t="s">
-        <v>796</v>
-      </c>
-      <c r="E444" s="1" t="s">
-        <v>797</v>
-      </c>
-      <c r="F444" s="18" t="s">
-        <v>188</v>
-      </c>
-      <c r="G444" s="1" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="445" spans="1:13" s="7" customFormat="1">
-      <c r="A445" s="5"/>
-      <c r="B445" s="6"/>
-      <c r="C445" s="5"/>
-      <c r="D445" s="5"/>
-      <c r="E445" s="6"/>
-      <c r="F445" s="6"/>
-      <c r="G445" s="6"/>
-      <c r="H445" s="6"/>
-      <c r="I445" s="6"/>
-      <c r="M445" s="6"/>
-    </row>
-    <row r="446" spans="1:13">
-      <c r="A446" s="1" t="s">
+    <row r="444" spans="1:13" s="7" customFormat="1">
+      <c r="A444" s="5"/>
+      <c r="B444" s="6"/>
+      <c r="C444" s="5"/>
+      <c r="D444" s="5"/>
+      <c r="E444" s="6"/>
+      <c r="F444" s="6"/>
+      <c r="G444" s="6"/>
+      <c r="H444" s="6"/>
+      <c r="I444" s="6"/>
+      <c r="M444" s="6"/>
+    </row>
+    <row r="445" spans="1:13">
+      <c r="A445" s="55" t="s">
         <v>524</v>
       </c>
-      <c r="F446" s="1" t="s">
+      <c r="F445" s="1" t="s">
         <v>526</v>
       </c>
-      <c r="G446" s="1" t="s">
+      <c r="G445" s="1" t="s">
         <v>525</v>
       </c>
-      <c r="I446" s="1" t="s">
-        <v>2</v>
+      <c r="I445" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="451" spans="1:13">
+      <c r="G451" s="1" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="452" spans="1:13">
       <c r="G452" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="453" spans="1:13">
-      <c r="G453" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="454" spans="1:13" s="7" customFormat="1">
-      <c r="A454" s="5"/>
-      <c r="B454" s="6"/>
-      <c r="C454" s="5"/>
-      <c r="D454" s="5"/>
-      <c r="E454" s="6"/>
-      <c r="F454" s="6"/>
-      <c r="G454" s="6"/>
-      <c r="H454" s="6"/>
-      <c r="I454" s="6"/>
-      <c r="M454" s="6"/>
+    <row r="453" spans="1:13" s="7" customFormat="1">
+      <c r="A453" s="5"/>
+      <c r="B453" s="6"/>
+      <c r="C453" s="5"/>
+      <c r="D453" s="5"/>
+      <c r="E453" s="6"/>
+      <c r="F453" s="6"/>
+      <c r="G453" s="6"/>
+      <c r="H453" s="6"/>
+      <c r="I453" s="6"/>
+      <c r="M453" s="6"/>
+    </row>
+    <row r="454" spans="1:13">
+      <c r="C454" s="3">
+        <v>152</v>
+      </c>
     </row>
     <row r="455" spans="1:13">
-      <c r="C455" s="3">
-        <v>152</v>
+      <c r="C455" s="1">
+        <v>158</v>
       </c>
     </row>
     <row r="456" spans="1:13">
-      <c r="C456" s="1">
-        <v>158</v>
+      <c r="C456" s="3">
+        <v>159</v>
       </c>
     </row>
     <row r="457" spans="1:13">
       <c r="C457" s="3">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="458" spans="1:13">
       <c r="C458" s="3">
-        <v>160</v>
+        <v>170</v>
       </c>
     </row>
     <row r="459" spans="1:13">
       <c r="C459" s="3">
-        <v>170</v>
+        <v>178</v>
       </c>
     </row>
     <row r="460" spans="1:13">
       <c r="C460" s="3">
-        <v>178</v>
+        <v>184</v>
       </c>
     </row>
     <row r="461" spans="1:13">
       <c r="C461" s="3">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="462" spans="1:13">
       <c r="C462" s="3">
-        <v>186</v>
+        <v>194</v>
       </c>
     </row>
     <row r="463" spans="1:13">
       <c r="C463" s="3">
-        <v>194</v>
+        <v>211</v>
       </c>
     </row>
     <row r="464" spans="1:13">
       <c r="C464" s="3">
-        <v>211</v>
+        <v>253</v>
       </c>
     </row>
     <row r="465" spans="1:14">
       <c r="C465" s="3">
-        <v>253</v>
+        <v>258</v>
       </c>
     </row>
     <row r="466" spans="1:14">
       <c r="C466" s="3">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="467" spans="1:14">
-      <c r="C467" s="3">
         <v>261</v>
       </c>
     </row>
-    <row r="468" spans="1:14" s="7" customFormat="1">
-      <c r="A468" s="5"/>
-      <c r="B468" s="6"/>
-      <c r="C468" s="5"/>
-      <c r="D468" s="5"/>
-      <c r="E468" s="6"/>
-      <c r="F468" s="6"/>
-      <c r="G468" s="6"/>
-      <c r="H468" s="6"/>
-      <c r="I468" s="6"/>
-      <c r="M468" s="6"/>
+    <row r="467" spans="1:14" s="7" customFormat="1">
+      <c r="A467" s="5"/>
+      <c r="B467" s="6"/>
+      <c r="C467" s="5"/>
+      <c r="D467" s="5"/>
+      <c r="E467" s="6"/>
+      <c r="F467" s="6"/>
+      <c r="G467" s="6"/>
+      <c r="H467" s="6"/>
+      <c r="I467" s="6"/>
+      <c r="M467" s="6"/>
+    </row>
+    <row r="468" spans="1:14" s="12" customFormat="1">
+      <c r="A468" s="10"/>
+      <c r="B468" s="11" t="s">
+        <v>582</v>
+      </c>
+      <c r="C468" s="10"/>
+      <c r="D468" s="10"/>
+      <c r="E468" s="11"/>
+      <c r="F468" s="11" t="s">
+        <v>356</v>
+      </c>
+      <c r="G468" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="H468" s="11"/>
+      <c r="I468" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="J468" s="11">
+        <v>24</v>
+      </c>
+      <c r="M468" s="11"/>
+      <c r="N468" s="12" t="s">
+        <v>610</v>
+      </c>
     </row>
     <row r="469" spans="1:14" s="12" customFormat="1">
       <c r="A469" s="10"/>
@@ -16044,215 +16065,189 @@
       <c r="D469" s="10"/>
       <c r="E469" s="11"/>
       <c r="F469" s="11" t="s">
-        <v>356</v>
+        <v>1</v>
       </c>
       <c r="G469" s="11" t="s">
         <v>106</v>
       </c>
       <c r="H469" s="11"/>
       <c r="I469" s="11" t="s">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="J469" s="11">
-        <v>24</v>
+        <v>14</v>
+      </c>
+      <c r="L469" s="12" t="s">
+        <v>609</v>
       </c>
       <c r="M469" s="11"/>
-      <c r="N469" s="12" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="470" spans="1:14" s="12" customFormat="1">
-      <c r="A470" s="10"/>
-      <c r="B470" s="11" t="s">
+    </row>
+    <row r="470" spans="1:14">
+      <c r="B470" s="2" t="s">
         <v>582</v>
       </c>
-      <c r="C470" s="10"/>
-      <c r="D470" s="10"/>
-      <c r="E470" s="11"/>
-      <c r="F470" s="11" t="s">
+      <c r="C470" s="9"/>
+      <c r="D470" s="9"/>
+      <c r="F470" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G470" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="H470" s="11"/>
-      <c r="I470" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="J470" s="11">
-        <v>14</v>
-      </c>
-      <c r="L470" s="12" t="s">
-        <v>609</v>
-      </c>
-      <c r="M470" s="11"/>
-    </row>
-    <row r="471" spans="1:14">
-      <c r="B471" s="2" t="s">
-        <v>582</v>
-      </c>
-      <c r="C471" s="9"/>
-      <c r="D471" s="9"/>
-      <c r="F471" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G471" s="2" t="s">
+      <c r="G470" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="H471" s="2"/>
-      <c r="I471" s="2">
+      <c r="H470" s="2"/>
+      <c r="I470" s="2">
         <v>16</v>
       </c>
-      <c r="J471" s="2">
+      <c r="J470" s="2">
         <v>31</v>
       </c>
-      <c r="L471" s="13" t="s">
+      <c r="L470" s="13" t="s">
         <v>238</v>
       </c>
-      <c r="M471" s="2"/>
+      <c r="M470" s="2"/>
+    </row>
+    <row r="495" spans="1:1">
+      <c r="A495" s="8">
+        <v>194</v>
+      </c>
     </row>
     <row r="496" spans="1:1">
       <c r="A496" s="8">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="497" spans="1:1">
       <c r="A497" s="8">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="498" spans="1:1">
       <c r="A498" s="8">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="499" spans="1:1">
       <c r="A499" s="8">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="500" spans="1:1">
       <c r="A500" s="8">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="501" spans="1:1">
       <c r="A501" s="8">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="502" spans="1:1">
       <c r="A502" s="8">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="503" spans="1:1">
       <c r="A503" s="8">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="504" spans="1:1">
       <c r="A504" s="8">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="505" spans="1:1">
       <c r="A505" s="8">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="506" spans="1:1">
       <c r="A506" s="8">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="507" spans="1:1">
       <c r="A507" s="8">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="508" spans="1:1">
       <c r="A508" s="8">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="509" spans="1:1">
       <c r="A509" s="8">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="510" spans="1:1">
       <c r="A510" s="8">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="511" spans="1:1">
       <c r="A511" s="8">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="512" spans="1:1">
       <c r="A512" s="8">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="513" spans="1:1">
       <c r="A513" s="8">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="514" spans="1:1">
       <c r="A514" s="8">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="515" spans="1:1">
       <c r="A515" s="8">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="516" spans="1:1">
       <c r="A516" s="8">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="517" spans="1:1">
       <c r="A517" s="8">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="518" spans="1:1">
       <c r="A518" s="8">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="519" spans="1:1">
       <c r="A519" s="8">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="520" spans="1:1">
       <c r="A520" s="8">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="521" spans="1:1">
       <c r="A521" s="8">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="522" spans="1:1">
       <c r="A522" s="8">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="523" spans="1:1">
-      <c r="A523" s="8">
         <v>221</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B1:B469" xr:uid="{39BF6EB1-227D-4123-B057-897FB710CCBD}"/>
+  <autoFilter ref="B1:B468" xr:uid="{39BF6EB1-227D-4123-B057-897FB710CCBD}"/>
   <mergeCells count="1">
     <mergeCell ref="F147:F148"/>
   </mergeCells>
